--- a/Bitácora.xlsx
+++ b/Bitácora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agust\Documents\Universidad\8vo Semestre\Lab. Computación Gráfica\Proyecto_Final_Computacion_Grafica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{049B6DFD-F46E-4101-8B9B-3FE5455FAD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68094FB-DAE3-4170-8AE3-35657E7CC15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10653" yWindow="5540" windowWidth="19200" windowHeight="10073" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>

--- a/Bitácora.xlsx
+++ b/Bitácora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agust\Documents\Universidad\8vo Semestre\Lab. Computación Gráfica\Proyecto_Final_Computacion_Grafica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68094FB-DAE3-4170-8AE3-35657E7CC15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A07ED3E-0CAE-44F4-B262-B9004A82F111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-7013" yWindow="3820" windowWidth="19200" windowHeight="10073" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="90">
   <si>
     <t>Plan de Pruebas</t>
   </si>
@@ -253,6 +253,48 @@
   </si>
   <si>
     <t>Se texturizó el modelo de la Luna, posteriormente, es exportó como archivo OBJ.</t>
+  </si>
+  <si>
+    <t>Creación del Manual de Usuario</t>
+  </si>
+  <si>
+    <t>Animaciones básicas. Wall-E y Speeder Bike</t>
+  </si>
+  <si>
+    <t>Animaciones Complejas. EVA</t>
+  </si>
+  <si>
+    <t>Se comenzó con las animaciones de EVA</t>
+  </si>
+  <si>
+    <t>Se comenzó con el llenado de información en el Manual de Usuario con lo avanzado hasta el momento.</t>
+  </si>
+  <si>
+    <t>Se comenzó con la animación de Wall-E y Speeder Bike iniciadas por teclado.</t>
+  </si>
+  <si>
+    <t>Se concluyó con la animación de Wall-E y se continuó con la animación de Speeder Bike</t>
+  </si>
+  <si>
+    <t>Se concluyó con la animación de Speeder Bike.</t>
+  </si>
+  <si>
+    <t>Se continuó con las animaciones de EVA</t>
+  </si>
+  <si>
+    <t>Animaciones extra. Sol y Luna</t>
+  </si>
+  <si>
+    <t>Se crearon las animaciones mediante KeyFrames del Sol y la Luna</t>
+  </si>
+  <si>
+    <t>Se continuó con el desarrollo del Manual de Usuario</t>
+  </si>
+  <si>
+    <t>Proyección de Costos / Ganancias</t>
+  </si>
+  <si>
+    <t>Se comenzó con el desarrollo de la proyección de costos / ganancias</t>
   </si>
 </sst>
 </file>
@@ -334,8 +376,8 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>541867</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="10" name="Entrada de lápiz 9">
@@ -354,7 +396,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="10" name="Entrada de lápiz 9">
@@ -399,8 +441,8 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>711200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="11" name="Entrada de lápiz 10">
@@ -419,7 +461,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="11" name="Entrada de lápiz 10">
@@ -464,8 +506,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>863600</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="12" name="Entrada de lápiz 11">
@@ -484,7 +526,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="12" name="Entrada de lápiz 11">
@@ -524,8 +566,8 @@
       <xdr:rowOff>342153</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="532970" cy="496047"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="13" name="Entrada de lápiz 12">
@@ -544,7 +586,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="13" name="Entrada de lápiz 12">
@@ -584,8 +626,8 @@
       <xdr:rowOff>367549</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="532970" cy="496047"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="14" name="Entrada de lápiz 13">
@@ -604,7 +646,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="14" name="Entrada de lápiz 13">
@@ -644,8 +686,8 @@
       <xdr:rowOff>177048</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="532970" cy="496047"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="15" name="Entrada de lápiz 14">
@@ -664,7 +706,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="15" name="Entrada de lápiz 14">
@@ -704,8 +746,8 @@
       <xdr:rowOff>320984</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="532970" cy="496047"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="16" name="Entrada de lápiz 15">
@@ -724,7 +766,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="16" name="Entrada de lápiz 15">
@@ -764,8 +806,8 @@
       <xdr:rowOff>33117</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="532970" cy="496047"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="19" name="Entrada de lápiz 18">
@@ -784,7 +826,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="19" name="Entrada de lápiz 18">
@@ -824,8 +866,8 @@
       <xdr:rowOff>359832</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="532970" cy="496047"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="23" name="Entrada de lápiz 22">
@@ -844,7 +886,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="23" name="Entrada de lápiz 22">
@@ -884,8 +926,8 @@
       <xdr:rowOff>414866</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="532970" cy="496047"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="24" name="Entrada de lápiz 23">
@@ -904,7 +946,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="24" name="Entrada de lápiz 23">
@@ -944,8 +986,8 @@
       <xdr:rowOff>313266</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="532970" cy="496047"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="25" name="Entrada de lápiz 24">
@@ -964,7 +1006,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="25" name="Entrada de lápiz 24">
@@ -1004,8 +1046,8 @@
       <xdr:rowOff>46566</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="532970" cy="496047"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="26" name="Entrada de lápiz 25">
@@ -1024,7 +1066,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="26" name="Entrada de lápiz 25">
@@ -1064,8 +1106,8 @@
       <xdr:rowOff>342900</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="532970" cy="496047"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="28" name="Entrada de lápiz 27">
@@ -1084,7 +1126,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="28" name="Entrada de lápiz 27">
@@ -1124,8 +1166,8 @@
       <xdr:rowOff>342900</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="532970" cy="496047"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="29" name="Entrada de lápiz 28">
@@ -1144,7 +1186,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="29" name="Entrada de lápiz 28">
@@ -1184,8 +1226,8 @@
       <xdr:rowOff>342900</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="532970" cy="496047"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="30" name="Entrada de lápiz 29">
@@ -1204,7 +1246,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="30" name="Entrada de lápiz 29">
@@ -1244,8 +1286,8 @@
       <xdr:rowOff>33866</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="532970" cy="496047"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="31" name="Entrada de lápiz 30">
@@ -1264,7 +1306,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="31" name="Entrada de lápiz 30">
@@ -1304,8 +1346,8 @@
       <xdr:rowOff>237066</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="532970" cy="496047"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="32" name="Entrada de lápiz 31">
@@ -1324,7 +1366,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="32" name="Entrada de lápiz 31">
@@ -1364,8 +1406,8 @@
       <xdr:rowOff>228599</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="532970" cy="496047"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="33" name="Entrada de lápiz 32">
@@ -1384,7 +1426,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="33" name="Entrada de lápiz 32">
@@ -1424,8 +1466,8 @@
       <xdr:rowOff>33866</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="532970" cy="496047"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="34" name="Entrada de lápiz 33">
@@ -1444,7 +1486,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="34" name="Entrada de lápiz 33">
@@ -1484,8 +1526,8 @@
       <xdr:rowOff>228599</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="532970" cy="496047"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="35" name="Entrada de lápiz 34">
@@ -1504,7 +1546,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="35" name="Entrada de lápiz 34">
@@ -1544,8 +1586,8 @@
       <xdr:rowOff>33866</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="532970" cy="496047"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="36" name="Entrada de lápiz 35">
@@ -1564,7 +1606,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="36" name="Entrada de lápiz 35">
@@ -1604,8 +1646,8 @@
       <xdr:rowOff>228599</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="532970" cy="496047"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="37" name="Entrada de lápiz 36">
@@ -1624,7 +1666,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="37" name="Entrada de lápiz 36">
@@ -1664,8 +1706,8 @@
       <xdr:rowOff>29634</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="332037" cy="309034"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="38" name="Entrada de lápiz 37">
@@ -1684,7 +1726,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="38" name="Entrada de lápiz 37">
@@ -1724,8 +1766,8 @@
       <xdr:rowOff>325966</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="532970" cy="496047"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="39" name="Entrada de lápiz 38">
@@ -1744,7 +1786,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="39" name="Entrada de lápiz 38">
@@ -1784,8 +1826,8 @@
       <xdr:rowOff>29634</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="332037" cy="309034"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="40" name="Entrada de lápiz 39">
@@ -1804,7 +1846,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="40" name="Entrada de lápiz 39">
@@ -1844,8 +1886,8 @@
       <xdr:rowOff>325966</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="532970" cy="496047"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="41" name="Entrada de lápiz 40">
@@ -1864,7 +1906,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="41" name="Entrada de lápiz 40">
@@ -1904,8 +1946,8 @@
       <xdr:rowOff>29634</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="332037" cy="309034"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="42" name="Entrada de lápiz 41">
@@ -1924,7 +1966,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="42" name="Entrada de lápiz 41">
@@ -1964,8 +2006,8 @@
       <xdr:rowOff>325966</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="532970" cy="496047"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="43" name="Entrada de lápiz 42">
@@ -1984,7 +2026,367 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="43" name="Entrada de lápiz 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DB0FFF2-DFD3-4FED-B861-5526AA9A45B0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6565814" y="37532649"/>
+              <a:ext cx="541607" cy="504680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>482598</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>359833</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="532970" cy="496047"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="44" name="Entrada de lápiz 43">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F201CCF-0534-4B9F-828C-34FE1C14B8F4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6599765" y="43285833"/>
+            <a:ext cx="532970" cy="496047"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="43" name="Entrada de lápiz 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DB0FFF2-DFD3-4FED-B861-5526AA9A45B0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6565814" y="37532649"/>
+              <a:ext cx="541607" cy="504680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>499531</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>110066</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="532970" cy="496047"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="46" name="Entrada de lápiz 45">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79E0344F-AB4B-4ED2-826B-948A2BD3DD31}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6616698" y="44179066"/>
+            <a:ext cx="532970" cy="496047"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="43" name="Entrada de lápiz 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DB0FFF2-DFD3-4FED-B861-5526AA9A45B0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6565814" y="37532649"/>
+              <a:ext cx="541607" cy="504680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>474131</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>177799</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="532970" cy="496047"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="47" name="Entrada de lápiz 46">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F804C1D4-7A37-4C70-9E65-1184DFCFF8BD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6591298" y="45389799"/>
+            <a:ext cx="532970" cy="496047"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="43" name="Entrada de lápiz 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DB0FFF2-DFD3-4FED-B861-5526AA9A45B0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6565814" y="37532649"/>
+              <a:ext cx="541607" cy="504680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>478365</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>33866</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="532970" cy="496047"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="48" name="Entrada de lápiz 47">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00BE0C6B-2230-47B0-BFDE-F02A37675094}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6595532" y="46579366"/>
+            <a:ext cx="532970" cy="496047"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="43" name="Entrada de lápiz 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DB0FFF2-DFD3-4FED-B861-5526AA9A45B0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6565814" y="37532649"/>
+              <a:ext cx="541607" cy="504680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>537632</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>42332</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="532970" cy="496047"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="49" name="Entrada de lápiz 48">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36CE233F-6418-4549-9B85-30E5A1D39293}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6654799" y="48302332"/>
+            <a:ext cx="532970" cy="496047"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="43" name="Entrada de lápiz 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DB0FFF2-DFD3-4FED-B861-5526AA9A45B0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6565814" y="37532649"/>
+              <a:ext cx="541607" cy="504680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>503765</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>148165</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="532970" cy="496047"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="50" name="Entrada de lápiz 49">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E6B5093-120F-43B5-B8E9-8A09B9642586}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6620932" y="48979665"/>
+            <a:ext cx="532970" cy="496047"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="43" name="Entrada de lápiz 42">
@@ -2048,7 +2450,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">219 647 392 0 0,'0'-1'8'0'0,"-5"-5"1"0"0,4 5 2 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-3 0 0 0 0,0-1 86 0 0,0 1 0 0 0,0 1-1 0 0,-8 0 1 0 0,10-1-75 0 0,0 1 14 0 0,-1-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,-2 1-1 0 0,-1 2-25 0 0,3-3-11 0 0,0 1 0 0 0,0 0 0 0 0,-5 4 0 0 0,4-3-1 0 0,0 0 1 0 0,-6 4-1 0 0,2-2 14 0 0,-5 3 95 0 0,9-6-68 0 0,1 0-1 0 0,-1 0 0 0 0,-3 4 0 0 0,-27 27 380 0 0,29-29-329 0 0,3-2-21 0 0,0 1 1 0 0,-5 3-1 0 0,5-2-24 0 0,0-2-5 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 4-1 0 0,0-3 22 0 0,2-2-26 0 0,-1 1 0 0 0,0-1 0 0 0,0 3 1 0 0,1-4-30 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,4 4 95 0 0,-3-3-9 0 0,0 0 0 0 0,3 3 0 0 0,-3-4-80 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,2-1 0 0 0,-1 1 4 0 0,0 0-3 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,3-1 0 0 0,0 1 0 0 0,-1-1 22 0 0,5-3 0 0 0,1 0 32 0 0,-6 3-27 0 0,0 0 1 0 0,4-4-1 0 0,-1 2-6 0 0,-4 2-18 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,2-5-1 0 0,3-2 24 0 0,8-10 48 0 0,2-1 9 0 0,-14 16-86 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,2-4 0 0 0,2-2 21 0 0,-3 2 1 0 0,1 1 1 0 0,3-11-1 0 0,-3 9 10 0 0,-2 3-30 0 0,-1 5-9 0 0,-1-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1-1-1 0 0,1 0 12 0 0,-1 1-7 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,1-2 83 0 0,0 2 1 0 0,-1 2 175 0 0,0 2-233 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 3 0 0 0,-1 3-8 0 0,-4 23 108 0 0,1-5 6 0 0,0 1-27 0 0,4-21-86 0 0,1-4-12 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 2 0 0 0,2 4 54 0 0,-1-6-32 0 0,-1 0 0 0 0,1 0-1 0 0,1 3 1 0 0,-2-4-25 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,1 2 0 0 0,-1-2-5 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,2-1 9 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,5-3 0 0 0,2-3 16 0 0,-6 5-8 0 0,7-6-1 0 0,10-11 33 0 0,9-8 7 0 0,-19 17-32 0 0,-6 8-24 0 0,-1-1 0 0 0,-1-1-1 0 0,8-8 1 0 0,-7 6-3 0 0,17-27 36 0 0,-14 23-39 0 0,-5 8-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,3-6-1 0 0,-4 7 1 0 0,0 2-1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-5 3 0 0 0,-2 1-1 0 0,3-2 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-3 4 0 0 0,-5 5 0 0 0,-2 2-6 0 0,13-13 7 0 0,-2 3-1 0 0,-1 0 1 0 0,1 0-1 0 0,-5 9 0 0 0,-14 31-12 0 0,14-31 7 0 0,5-8 0 0 0,-4 8 0 0 0,7-12 5 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 3 1 0 0,-1-4 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,4-2 1 0 0,-5 2 1 0 0,1-1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,2-2 0 0 0,2-2 0 0 0,5-5 0 0 0,12-15 0 0 0,-13 16 0 0 0,-7 7 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,3-5 0 0 0,-1 1 0 0 0,3-11 0 0 0,-2 2 0 0 0,-1 9 0 0 0,-2 2 0 0 0,2-6 0 0 0,-4 9 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,1-2 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,2-3 0 0 0,-1 3 0 0 0,-1 1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0-2 0 0 0,0 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1-2 0 0 0,2 0 0 0 0,-3 1 0 0 0,-1 3 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 3 0 0 0,-1 1 0 0 0,1-1 0 0 0,-3 7 0 0 0,1-3 0 0 0,-5 21 0 0 0,-4 14 0 0 0,11-42 0 0 0,-1 5 0 0 0,-5 11 0 0 0,-7 21 0 0 0,11-35 0 0 0,1 0 0 0 0,-1 0 0 0 0,-2 4 0 0 0,2-4 0 0 0,0 1 0 0 0,-1 3 0 0 0,0 1 0 0 0,-3 5 0 0 0,3-6 0 0 0,-4 13 0 0 0,2-7 0 0 0,-6 13 0 0 0,-1 4 0 0 0,-8 22 0 0 0,19-47 0 0 0,-2 7 0 0 0,3-8 0 0 0,-1 0 0 0 0,-2 7 0 0 0,0-4 0 0 0,3-5 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-3 2 0 0 0,0 0 0 0 0,2-3 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-3 2 0 0 0,1-1 0 0 0,2-1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,0-5 0 0 0,1-7 2 0 0,2-13 0 0 0,-1 19-1 0 0,0-1 0 0 0,0 1 0 0 0,5-12-1 0 0,-4 14 2 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,7-8-1 0 0,-6 7 0 0 0,0 0 1 0 0,0-1-1 0 0,5-9 0 0 0,-1-1 0 0 0,1 1-1 0 0,20-31 6 0 0,-21 34-6 0 0,-4 7 2 0 0,4-7-1 0 0,31-45 9 0 0,-35 52-11 0 0,26-41 8 0 0,-12 24-3 0 0,-7 10-3 0 0,-6 8-2 0 0,-4 4 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-2 0 0 0,1-1 0 0 0,-2 3 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-3 6 33 0 0,-3 4-19 0 0,0-1-1 0 0,0 1 0 0 0,-5 10 1 0 0,9-13-4 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 9-1 0 0,2-13-5 0 0,-2 34 52 0 0,2-33-52 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,2 4 1 0 0,-2-6-10 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,1-1-12 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 1 0 0,3 0-1 0 0,-2 0 2 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,4-4 0 0 0,-2 0-29 0 0,7-15-1 0 0,3-8-37 0 0,-1 0 8 0 0,-11 24 57 0 0,7-12-20 0 0,-7 13 12 0 0,3-9 1 0 0,-2 5 4 0 0,4-11-21 0 0,-6 11 26 0 0,8-24-22 0 0,-9 29 38 0 0,-1 2 0 0 0,0 3 0 0 0,-1 21 0 0 0,1-10 0 0 0,0-1 0 0 0,0 35 0 0 0,0-33 1 0 0,5 38 6 0 0,2-24 1 0 0,-7-26-6 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,1 2 1 0 0,-1-2-1 0 0,-1 0-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,2-2 0 0 0,2-1-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,6-7 0 0 0,13-15 0 0 0,-19 21 0 0 0,6-11 0 0 0,-2 3 0 0 0,-2 4-1 0 0,15-23-6 0 0,6-13 0 0 0,-24 39 7 0 0,4-8-1 0 0,-5 8-2 0 0,6-8-1 0 0,6-11-12 0 0,-12 21 16 0 0,1 0-16 0 0,5-10 0 0 0,-5 8-2 0 0,-2 6 18 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1-1 0 0,0 22-11 0 0,-5 34 1 0 0,4-52 12 0 0,-5 32-7 0 0,5-32 7 0 0,-4 7-1 0 0,1 0-6 0 0,3-10 7 0 0,0 0-1 0 0,0 1 1 0 0,-2 2 0 0 0,-1 1 0 0 0,-2 6 0 0 0,-13 18 0 0 0,18-28 0 0 0,-5 5 0 0 0,2-4 0 0 0,4-3-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,-2-4-11 0 0,2 1-7 0 0,-2-6 0 0 0,2 8 13 0 0,1-1-16 0 0,0 2 22 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,14 6-2 0 0,12 4-7 0 0,-22-9 8 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,5-1 0 0 0,-4 0 1 0 0,1-1 0 0 0,-1 0 0 0 0,7-1 0 0 0,-8 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,3-2 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,8-9 0 0 0,-6 6 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,9-16 0 0 0,4-15 0 0 0,-18 35 0 0 0,3-7 0 0 0,-3 7 0 0 0,1 0 0 0 0,1-5 0 0 0,0 3 0 0 0,3-12 0 0 0,-1 4 0 0 0,-2 4 0 0 0,0-1 0 0 0,1-19 0 0 0,-2 16 0 0 0,7-46 0 0 0,-6 32 0 0 0,2-10 0 0 0,0 0 0 0 0,-4 28 0 0 0,-1 3 0 0 0,0 14 47 0 0,2 7 0 0 0,0 6 92 0 0,-2-4-19 0 0,0-10-92 0 0,-1 35 143 0 0,-1-1 133 0 0,1-17-128 0 0,0 6-64 0 0,0 31 121 0 0,1-43-73 0 0,5 27 0 0 0,-1-22-71 0 0,9 41 175 0 0,-12-58-208 0 0,1 0 0 0 0,3 8-1 0 0,-5-13-49 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,1-2 1 0 0,1 0 0 0 0,-1 0 0 0 0,4-4-1 0 0,-4 5 5 0 0,2-4 4 0 0,0 0-1 0 0,6-11 1 0 0,-6 10-4 0 0,-1-1-7 0 0,1 1 0 0 0,-1-1 0 0 0,3-9-1 0 0,-3 6 3 0 0,2-6 0 0 0,0 0 0 0 0,3-4 4 0 0,-7 16-5 0 0,2-5 0 0 0,-1 2-1 0 0,-2 3-2 0 0,-1 6 0 0 0,-2 1 0 0 0,1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 6 0 0 0,0 1 0 0 0,0 13 0 0 0,1-22 0 0 0,0 5 0 0 0,1 5 0 0 0,-1-9 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,2 3 0 0 0,-1-2 9 0 0,0-2-4 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1-4 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,1-1 5 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1-3-1 0 0,3-2 16 0 0,0 0 0 0 0,5-10 1 0 0,9-15 54 0 0,2-3-35 0 0,-11 19-14 0 0,-6 9 8 0 0,5-8 1 0 0,-1 2 21 0 0,-8 11-42 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,1-2 1 0 0,-2 2 24 0 0,0 5 18 0 0,-1 3-28 0 0,0 1-1 0 0,0-1 1 0 0,-5 16-1 0 0,4-15-7 0 0,-2 8 35 0 0,4-17-53 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-4 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,6-7 13 0 0,14-23 3 0 0,-15 22-9 0 0,7-14 0 0 0,-6 9-2 0 0,17-31 27 0 0,-18 35-23 0 0,-4 6 4 0 0,1 0 0 0 0,4-7 0 0 0,-5 9 5 0 0,1-1 11 0 0,-2 2-28 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 11 42 0 0,0-3-30 0 0,0 9 0 0 0,-4 25 30 0 0,2-23-30 0 0,-5 30 37 0 0,7-38-47 0 0,1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,3 17 1 0 0,-4-25-3 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,2 3 0 0 0,-3-5-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,2-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,4-4 0 0 0,-4 3 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,3-4 0 0 0,-2 2 0 0 0,4-6 0 0 0,-1 0 0 0 0,6-12 0 0 0,-5 7 0 0 0,5-24 0 0 0,-8 25 0 0 0,-1 0 0 0 0,1-25 0 0 0,-4 13 0 0 0,-1 14 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,-7-18 0 0 0,4 16 0 0 0,0 0 0 0 0,-16-23 0 0 0,13 23 0 0 0,-1 1 0 0 0,-13-13 0 0 0,16 20 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 1 0 0 0,1 1 0 0 0,-11-6 0 0 0,4 4 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 1 0 0 0,1 1 0 0 0,-26-4 0 0 0,18 5 6 0 0,0 1 0 0 0,0 1 1 0 0,-24 2-1 0 0,-81 16 18 0 0,93-9-12 0 0,-57 19 0 0 0,13 5 24 0 0,-92 51 0 0 0,89-34-9 0 0,1 5 9 0 0,-30 32 7 0 0,75-56-29 0 0,9-7 10 0 0,-38 41 0 0 0,-9 23 39 0 0,61-71-42 0 0,1 0 1 0 0,-13 26-1 0 0,20-33 1 0 0,0 2 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-3 21 0 0 0,6-28-14 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 1 0 0,3 4-1 0 0,-1-5 8 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,0 1 1 0 0,3 2-1 0 0,2 1 40 0 0,0 0 0 0 0,11 5 0 0 0,-13-8-33 0 0,1 0-1 0 0,-1-1 1 0 0,1 0 0 0 0,7 2-1 0 0,4-1 54 0 0,35 2-1 0 0,18-7 50 0 0,-62 1-109 0 0,87-10 110 0 0,117-36 66 0 0,16-7-34 0 0,-187 44-133 0 0,47-10 32 0 0,-42 12-30 0 0,106-17 54 0 0,-108 19-59 0 0,67-1 0 0 0,-103 7-20 0 0,11 0 12 0 0,23 3-1 0 0,-5 4-10 0 0,-35-6-3 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,5 3 0 0 0,11 9 3 0 0,-18-13-4 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 3 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-5 6 0 0 0,-4 2 0 0 0,-21 16 0 0 0,-37 23 0 0 0,-2-3 0 0 0,49-34 0 0 0,-73 41 0 0 0,-4-5 0 0 0,39-19 0 0 0,-80 34 0 0 0,88-41 0 0 0,-35 14 0 0 0,46-20 1 0 0,-102 40 6 0 0,-49 10 17 0 0,165-60-11 0 0,-1 0 0 0 0,-49 5 1 0 0,72-12-10 0 0,0-1 0 0 0,1 0 1 0 0,-13-2-1 0 0,16 2-3 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-4-3 0 0 0,4 3 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-3 1 0 0,1-1 2 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,3-6 0 0 0,3-5 0 0 0,0 1 1 0 0,2 1 0 0 0,-1 0 0 0 0,2 0 0 0 0,0 1 0 0 0,0 0-1 0 0,19-15 1 0 0,-15 15-3 0 0,26-23-2 0 0,28-27 0 0 0,12-2 0 0 0,70-49-24 0 0,-108 83 16 0 0,37-23-20 0 0,2 4 0 0 0,-25 15 12 0 0,166-97-136 0 0,-111 71 34 0 0,-18 9 28 0 0,3 4 2 0 0,-15 10-58 0 0,-46 17 68 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="328.63">881 448 8240 0 0,'0'0'0'0'0,"15"-11"0"0"0,0 1 0 0 0,1-1 88 0 0,1 3 8 0 0,2-2-8 0 0,1 3 16 0 0,-1-1-48 0 0,-2-1 0 0 0,0 0 8 0 0,1 0 0 0 0,0 1 80 0 0,0 1 8 0 0,0 0-8 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="654.96">1164 342 4416 0 0,'0'0'0'0'0,"8"-4"0"0"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="654.95">1164 342 4416 0 0,'0'0'0'0'0,"8"-4"0"0"0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1886.38">1378 490 1200 0 0,'0'0'0'0'0</inkml:trace>
 </inkml:ink>
 </file>
@@ -2733,6 +3135,40 @@
 </inkml:ink>
 </file>
 
+<file path=xl/ink/ink29.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-23T17:06:28.719"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">219 647 392 0 0,'0'-1'8'0'0,"-5"-5"1"0"0,4 5 2 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-3 0 0 0 0,0-1 86 0 0,0 1 0 0 0,0 1-1 0 0,-8 0 1 0 0,10-1-75 0 0,0 1 14 0 0,-1-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,-2 1-1 0 0,-1 2-25 0 0,3-3-11 0 0,0 1 0 0 0,0 0 0 0 0,-5 4 0 0 0,4-3-1 0 0,0 0 1 0 0,-6 4-1 0 0,2-2 14 0 0,-5 3 95 0 0,9-6-68 0 0,1 0-1 0 0,-1 0 0 0 0,-3 4 0 0 0,-27 27 380 0 0,29-29-329 0 0,3-2-21 0 0,0 1 1 0 0,-5 3-1 0 0,5-2-24 0 0,0-2-5 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 4-1 0 0,0-3 22 0 0,2-2-26 0 0,-1 1 0 0 0,0-1 0 0 0,0 3 1 0 0,1-4-30 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,4 4 95 0 0,-3-3-9 0 0,0 0 0 0 0,3 3 0 0 0,-3-4-80 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,2-1 0 0 0,-1 1 4 0 0,0 0-3 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,3-1 0 0 0,0 1 0 0 0,-1-1 22 0 0,5-3 0 0 0,1 0 32 0 0,-6 3-27 0 0,0 0 1 0 0,4-4-1 0 0,-1 2-6 0 0,-4 2-18 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,2-5-1 0 0,3-2 24 0 0,8-10 48 0 0,2-1 9 0 0,-14 16-86 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,2-4 0 0 0,2-2 21 0 0,-3 2 1 0 0,1 1 1 0 0,3-11-1 0 0,-3 9 10 0 0,-2 3-30 0 0,-1 5-9 0 0,-1-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1-1-1 0 0,1 0 12 0 0,-1 1-7 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,1-2 83 0 0,0 2 1 0 0,-1 2 175 0 0,0 2-233 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 3 0 0 0,-1 3-8 0 0,-4 23 108 0 0,1-5 6 0 0,0 1-27 0 0,4-21-86 0 0,1-4-12 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 2 0 0 0,2 4 54 0 0,-1-6-32 0 0,-1 0 0 0 0,1 0-1 0 0,1 3 1 0 0,-2-4-25 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,1 2 0 0 0,-1-2-5 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,2-1 9 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,5-3 0 0 0,2-3 16 0 0,-6 5-8 0 0,7-6-1 0 0,10-11 33 0 0,9-8 7 0 0,-19 17-32 0 0,-6 8-24 0 0,-1-1 0 0 0,-1-1-1 0 0,8-8 1 0 0,-7 6-3 0 0,17-27 36 0 0,-14 23-39 0 0,-5 8-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,3-6-1 0 0,-4 7 1 0 0,0 2-1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-5 3 0 0 0,-2 1-1 0 0,3-2 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-3 4 0 0 0,-5 5 0 0 0,-2 2-6 0 0,13-13 7 0 0,-2 3-1 0 0,-1 0 1 0 0,1 0-1 0 0,-5 9 0 0 0,-14 31-12 0 0,14-31 7 0 0,5-8 0 0 0,-4 8 0 0 0,7-12 5 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 3 1 0 0,-1-4 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,4-2 1 0 0,-5 2 1 0 0,1-1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,2-2 0 0 0,2-2 0 0 0,5-5 0 0 0,12-15 0 0 0,-13 16 0 0 0,-7 7 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,3-5 0 0 0,-1 1 0 0 0,3-11 0 0 0,-2 2 0 0 0,-1 9 0 0 0,-2 2 0 0 0,2-6 0 0 0,-4 9 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,1-2 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,2-3 0 0 0,-1 3 0 0 0,-1 1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0-2 0 0 0,0 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1-2 0 0 0,2 0 0 0 0,-3 1 0 0 0,-1 3 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 3 0 0 0,-1 1 0 0 0,1-1 0 0 0,-3 7 0 0 0,1-3 0 0 0,-5 21 0 0 0,-4 14 0 0 0,11-42 0 0 0,-1 5 0 0 0,-5 11 0 0 0,-7 21 0 0 0,11-35 0 0 0,1 0 0 0 0,-1 0 0 0 0,-2 4 0 0 0,2-4 0 0 0,0 1 0 0 0,-1 3 0 0 0,0 1 0 0 0,-3 5 0 0 0,3-6 0 0 0,-4 13 0 0 0,2-7 0 0 0,-6 13 0 0 0,-1 4 0 0 0,-8 22 0 0 0,19-47 0 0 0,-2 7 0 0 0,3-8 0 0 0,-1 0 0 0 0,-2 7 0 0 0,0-4 0 0 0,3-5 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-3 2 0 0 0,0 0 0 0 0,2-3 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-3 2 0 0 0,1-1 0 0 0,2-1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,0-5 0 0 0,1-7 2 0 0,2-13 0 0 0,-1 19-1 0 0,0-1 0 0 0,0 1 0 0 0,5-12-1 0 0,-4 14 2 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,7-8-1 0 0,-6 7 0 0 0,0 0 1 0 0,0-1-1 0 0,5-9 0 0 0,-1-1 0 0 0,1 1-1 0 0,20-31 6 0 0,-21 34-6 0 0,-4 7 2 0 0,4-7-1 0 0,31-45 9 0 0,-35 52-11 0 0,26-41 8 0 0,-12 24-3 0 0,-7 10-3 0 0,-6 8-2 0 0,-4 4 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-2 0 0 0,1-1 0 0 0,-2 3 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-3 6 33 0 0,-3 4-19 0 0,0-1-1 0 0,0 1 0 0 0,-5 10 1 0 0,9-13-4 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 9-1 0 0,2-13-5 0 0,-2 34 52 0 0,2-33-52 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,2 4 1 0 0,-2-6-10 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,1-1-12 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 1 0 0,3 0-1 0 0,-2 0 2 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,4-4 0 0 0,-2 0-29 0 0,7-15-1 0 0,3-8-37 0 0,-1 0 8 0 0,-11 24 57 0 0,7-12-20 0 0,-7 13 12 0 0,3-9 1 0 0,-2 5 4 0 0,4-11-21 0 0,-6 11 26 0 0,8-24-22 0 0,-9 29 38 0 0,-1 2 0 0 0,0 3 0 0 0,-1 21 0 0 0,1-10 0 0 0,0-1 0 0 0,0 35 0 0 0,0-33 1 0 0,5 38 6 0 0,2-24 1 0 0,-7-26-6 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,1 2 1 0 0,-1-2-1 0 0,-1 0-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,2-2 0 0 0,2-1-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,6-7 0 0 0,13-15 0 0 0,-19 21 0 0 0,6-11 0 0 0,-2 3 0 0 0,-2 4-1 0 0,15-23-6 0 0,6-13 0 0 0,-24 39 7 0 0,4-8-1 0 0,-5 8-2 0 0,6-8-1 0 0,6-11-12 0 0,-12 21 16 0 0,1 0-16 0 0,5-10 0 0 0,-5 8-2 0 0,-2 6 18 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1-1 0 0,0 22-11 0 0,-5 34 1 0 0,4-52 12 0 0,-5 32-7 0 0,5-32 7 0 0,-4 7-1 0 0,1 0-6 0 0,3-10 7 0 0,0 0-1 0 0,0 1 1 0 0,-2 2 0 0 0,-1 1 0 0 0,-2 6 0 0 0,-13 18 0 0 0,18-28 0 0 0,-5 5 0 0 0,2-4 0 0 0,4-3-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,-2-4-11 0 0,2 1-7 0 0,-2-6 0 0 0,2 8 13 0 0,1-1-16 0 0,0 2 22 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,14 6-2 0 0,12 4-7 0 0,-22-9 8 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,5-1 0 0 0,-4 0 1 0 0,1-1 0 0 0,-1 0 0 0 0,7-1 0 0 0,-8 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,3-2 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,8-9 0 0 0,-6 6 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,9-16 0 0 0,4-15 0 0 0,-18 35 0 0 0,3-7 0 0 0,-3 7 0 0 0,1 0 0 0 0,1-5 0 0 0,0 3 0 0 0,3-12 0 0 0,-1 4 0 0 0,-2 4 0 0 0,0-1 0 0 0,1-19 0 0 0,-2 16 0 0 0,7-46 0 0 0,-6 32 0 0 0,2-10 0 0 0,0 0 0 0 0,-4 28 0 0 0,-1 3 0 0 0,0 14 47 0 0,2 7 0 0 0,0 6 92 0 0,-2-4-19 0 0,0-10-92 0 0,-1 35 143 0 0,-1-1 133 0 0,1-17-128 0 0,0 6-64 0 0,0 31 121 0 0,1-43-73 0 0,5 27 0 0 0,-1-22-71 0 0,9 41 175 0 0,-12-58-208 0 0,1 0 0 0 0,3 8-1 0 0,-5-13-49 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,1-2 1 0 0,1 0 0 0 0,-1 0 0 0 0,4-4-1 0 0,-4 5 5 0 0,2-4 4 0 0,0 0-1 0 0,6-11 1 0 0,-6 10-4 0 0,-1-1-7 0 0,1 1 0 0 0,-1-1 0 0 0,3-9-1 0 0,-3 6 3 0 0,2-6 0 0 0,0 0 0 0 0,3-4 4 0 0,-7 16-5 0 0,2-5 0 0 0,-1 2-1 0 0,-2 3-2 0 0,-1 6 0 0 0,-2 1 0 0 0,1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 6 0 0 0,0 1 0 0 0,0 13 0 0 0,1-22 0 0 0,0 5 0 0 0,1 5 0 0 0,-1-9 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,2 3 0 0 0,-1-2 9 0 0,0-2-4 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1-4 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,1-1 5 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1-3-1 0 0,3-2 16 0 0,0 0 0 0 0,5-10 1 0 0,9-15 54 0 0,2-3-35 0 0,-11 19-14 0 0,-6 9 8 0 0,5-8 1 0 0,-1 2 21 0 0,-8 11-42 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,1-2 1 0 0,-2 2 24 0 0,0 5 18 0 0,-1 3-28 0 0,0 1-1 0 0,0-1 1 0 0,-5 16-1 0 0,4-15-7 0 0,-2 8 35 0 0,4-17-53 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-4 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,6-7 13 0 0,14-23 3 0 0,-15 22-9 0 0,7-14 0 0 0,-6 9-2 0 0,17-31 27 0 0,-18 35-23 0 0,-4 6 4 0 0,1 0 0 0 0,4-7 0 0 0,-5 9 5 0 0,1-1 11 0 0,-2 2-28 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 11 42 0 0,0-3-30 0 0,0 9 0 0 0,-4 25 30 0 0,2-23-30 0 0,-5 30 37 0 0,7-38-47 0 0,1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,3 17 1 0 0,-4-25-3 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,2 3 0 0 0,-3-5-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,2-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,4-4 0 0 0,-4 3 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,3-4 0 0 0,-2 2 0 0 0,4-6 0 0 0,-1 0 0 0 0,6-12 0 0 0,-5 7 0 0 0,5-24 0 0 0,-8 25 0 0 0,-1 0 0 0 0,1-25 0 0 0,-4 13 0 0 0,-1 14 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,-7-18 0 0 0,4 16 0 0 0,0 0 0 0 0,-16-23 0 0 0,13 23 0 0 0,-1 1 0 0 0,-13-13 0 0 0,16 20 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 1 0 0 0,1 1 0 0 0,-11-6 0 0 0,4 4 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 1 0 0 0,1 1 0 0 0,-26-4 0 0 0,18 5 6 0 0,0 1 0 0 0,0 1 1 0 0,-24 2-1 0 0,-81 16 18 0 0,93-9-12 0 0,-57 19 0 0 0,13 5 24 0 0,-92 51 0 0 0,89-34-9 0 0,1 5 9 0 0,-30 32 7 0 0,75-56-29 0 0,9-7 10 0 0,-38 41 0 0 0,-9 23 39 0 0,61-71-42 0 0,1 0 1 0 0,-13 26-1 0 0,20-33 1 0 0,0 2 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-3 21 0 0 0,6-28-14 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 1 0 0,3 4-1 0 0,-1-5 8 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,0 1 1 0 0,3 2-1 0 0,2 1 40 0 0,0 0 0 0 0,11 5 0 0 0,-13-8-33 0 0,1 0-1 0 0,-1-1 1 0 0,1 0 0 0 0,7 2-1 0 0,4-1 54 0 0,35 2-1 0 0,18-7 50 0 0,-62 1-109 0 0,87-10 110 0 0,117-36 66 0 0,16-7-34 0 0,-187 44-133 0 0,47-10 32 0 0,-42 12-30 0 0,106-17 54 0 0,-108 19-59 0 0,67-1 0 0 0,-103 7-20 0 0,11 0 12 0 0,23 3-1 0 0,-5 4-10 0 0,-35-6-3 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,5 3 0 0 0,11 9 3 0 0,-18-13-4 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 3 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-5 6 0 0 0,-4 2 0 0 0,-21 16 0 0 0,-37 23 0 0 0,-2-3 0 0 0,49-34 0 0 0,-73 41 0 0 0,-4-5 0 0 0,39-19 0 0 0,-80 34 0 0 0,88-41 0 0 0,-35 14 0 0 0,46-20 1 0 0,-102 40 6 0 0,-49 10 17 0 0,165-60-11 0 0,-1 0 0 0 0,-49 5 1 0 0,72-12-10 0 0,0-1 0 0 0,1 0 1 0 0,-13-2-1 0 0,16 2-3 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-4-3 0 0 0,4 3 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-3 1 0 0,1-1 2 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,3-6 0 0 0,3-5 0 0 0,0 1 1 0 0,2 1 0 0 0,-1 0 0 0 0,2 0 0 0 0,0 1 0 0 0,0 0-1 0 0,19-15 1 0 0,-15 15-3 0 0,26-23-2 0 0,28-27 0 0 0,12-2 0 0 0,70-49-24 0 0,-108 83 16 0 0,37-23-20 0 0,2 4 0 0 0,-25 15 12 0 0,166-97-136 0 0,-111 71 34 0 0,-18 9 28 0 0,3 4 2 0 0,-15 10-58 0 0,-46 17 68 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">881 448 8240 0 0,'0'0'0'0'0,"15"-11"0"0"0,0 1 0 0 0,1-1 88 0 0,1 3 8 0 0,2-2-8 0 0,1 3 16 0 0,-1-1-48 0 0,-2-1 0 0 0,0 0 8 0 0,1 0 0 0 0,0 1 80 0 0,0 1 8 0 0,0 0-8 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">1164 342 4416 0 0,'0'0'0'0'0,"8"-4"0"0"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">1378 490 1200 0 0,'0'0'0'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -2754,6 +3190,176 @@
         </inkml:channelProperties>
       </inkml:inkSource>
       <inkml:timestamp xml:id="ts0" timeString="2021-07-17T22:36:01.516"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">219 647 392 0 0,'0'-1'8'0'0,"-5"-5"1"0"0,4 5 2 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-3 0 0 0 0,0-1 86 0 0,0 1 0 0 0,0 1-1 0 0,-8 0 1 0 0,10-1-75 0 0,0 1 14 0 0,-1-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,-2 1-1 0 0,-1 2-25 0 0,3-3-11 0 0,0 1 0 0 0,0 0 0 0 0,-5 4 0 0 0,4-3-1 0 0,0 0 1 0 0,-6 4-1 0 0,2-2 14 0 0,-5 3 95 0 0,9-6-68 0 0,1 0-1 0 0,-1 0 0 0 0,-3 4 0 0 0,-27 27 380 0 0,29-29-329 0 0,3-2-21 0 0,0 1 1 0 0,-5 3-1 0 0,5-2-24 0 0,0-2-5 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 4-1 0 0,0-3 22 0 0,2-2-26 0 0,-1 1 0 0 0,0-1 0 0 0,0 3 1 0 0,1-4-30 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,4 4 95 0 0,-3-3-9 0 0,0 0 0 0 0,3 3 0 0 0,-3-4-80 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,2-1 0 0 0,-1 1 4 0 0,0 0-3 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,3-1 0 0 0,0 1 0 0 0,-1-1 22 0 0,5-3 0 0 0,1 0 32 0 0,-6 3-27 0 0,0 0 1 0 0,4-4-1 0 0,-1 2-6 0 0,-4 2-18 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,2-5-1 0 0,3-2 24 0 0,8-10 48 0 0,2-1 9 0 0,-14 16-86 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,2-4 0 0 0,2-2 21 0 0,-3 2 1 0 0,1 1 1 0 0,3-11-1 0 0,-3 9 10 0 0,-2 3-30 0 0,-1 5-9 0 0,-1-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1-1-1 0 0,1 0 12 0 0,-1 1-7 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,1-2 83 0 0,0 2 1 0 0,-1 2 175 0 0,0 2-233 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 3 0 0 0,-1 3-8 0 0,-4 23 108 0 0,1-5 6 0 0,0 1-27 0 0,4-21-86 0 0,1-4-12 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 2 0 0 0,2 4 54 0 0,-1-6-32 0 0,-1 0 0 0 0,1 0-1 0 0,1 3 1 0 0,-2-4-25 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,1 2 0 0 0,-1-2-5 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,2-1 9 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,5-3 0 0 0,2-3 16 0 0,-6 5-8 0 0,7-6-1 0 0,10-11 33 0 0,9-8 7 0 0,-19 17-32 0 0,-6 8-24 0 0,-1-1 0 0 0,-1-1-1 0 0,8-8 1 0 0,-7 6-3 0 0,17-27 36 0 0,-14 23-39 0 0,-5 8-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,3-6-1 0 0,-4 7 1 0 0,0 2-1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-5 3 0 0 0,-2 1-1 0 0,3-2 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-3 4 0 0 0,-5 5 0 0 0,-2 2-6 0 0,13-13 7 0 0,-2 3-1 0 0,-1 0 1 0 0,1 0-1 0 0,-5 9 0 0 0,-14 31-12 0 0,14-31 7 0 0,5-8 0 0 0,-4 8 0 0 0,7-12 5 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 3 1 0 0,-1-4 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,4-2 1 0 0,-5 2 1 0 0,1-1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,2-2 0 0 0,2-2 0 0 0,5-5 0 0 0,12-15 0 0 0,-13 16 0 0 0,-7 7 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,3-5 0 0 0,-1 1 0 0 0,3-11 0 0 0,-2 2 0 0 0,-1 9 0 0 0,-2 2 0 0 0,2-6 0 0 0,-4 9 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,1-2 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,2-3 0 0 0,-1 3 0 0 0,-1 1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0-2 0 0 0,0 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1-2 0 0 0,2 0 0 0 0,-3 1 0 0 0,-1 3 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 3 0 0 0,-1 1 0 0 0,1-1 0 0 0,-3 7 0 0 0,1-3 0 0 0,-5 21 0 0 0,-4 14 0 0 0,11-42 0 0 0,-1 5 0 0 0,-5 11 0 0 0,-7 21 0 0 0,11-35 0 0 0,1 0 0 0 0,-1 0 0 0 0,-2 4 0 0 0,2-4 0 0 0,0 1 0 0 0,-1 3 0 0 0,0 1 0 0 0,-3 5 0 0 0,3-6 0 0 0,-4 13 0 0 0,2-7 0 0 0,-6 13 0 0 0,-1 4 0 0 0,-8 22 0 0 0,19-47 0 0 0,-2 7 0 0 0,3-8 0 0 0,-1 0 0 0 0,-2 7 0 0 0,0-4 0 0 0,3-5 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-3 2 0 0 0,0 0 0 0 0,2-3 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-3 2 0 0 0,1-1 0 0 0,2-1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,0-5 0 0 0,1-7 2 0 0,2-13 0 0 0,-1 19-1 0 0,0-1 0 0 0,0 1 0 0 0,5-12-1 0 0,-4 14 2 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,7-8-1 0 0,-6 7 0 0 0,0 0 1 0 0,0-1-1 0 0,5-9 0 0 0,-1-1 0 0 0,1 1-1 0 0,20-31 6 0 0,-21 34-6 0 0,-4 7 2 0 0,4-7-1 0 0,31-45 9 0 0,-35 52-11 0 0,26-41 8 0 0,-12 24-3 0 0,-7 10-3 0 0,-6 8-2 0 0,-4 4 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-2 0 0 0,1-1 0 0 0,-2 3 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-3 6 33 0 0,-3 4-19 0 0,0-1-1 0 0,0 1 0 0 0,-5 10 1 0 0,9-13-4 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 9-1 0 0,2-13-5 0 0,-2 34 52 0 0,2-33-52 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,2 4 1 0 0,-2-6-10 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,1-1-12 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 1 0 0,3 0-1 0 0,-2 0 2 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,4-4 0 0 0,-2 0-29 0 0,7-15-1 0 0,3-8-37 0 0,-1 0 8 0 0,-11 24 57 0 0,7-12-20 0 0,-7 13 12 0 0,3-9 1 0 0,-2 5 4 0 0,4-11-21 0 0,-6 11 26 0 0,8-24-22 0 0,-9 29 38 0 0,-1 2 0 0 0,0 3 0 0 0,-1 21 0 0 0,1-10 0 0 0,0-1 0 0 0,0 35 0 0 0,0-33 1 0 0,5 38 6 0 0,2-24 1 0 0,-7-26-6 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,1 2 1 0 0,-1-2-1 0 0,-1 0-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,2-2 0 0 0,2-1-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,6-7 0 0 0,13-15 0 0 0,-19 21 0 0 0,6-11 0 0 0,-2 3 0 0 0,-2 4-1 0 0,15-23-6 0 0,6-13 0 0 0,-24 39 7 0 0,4-8-1 0 0,-5 8-2 0 0,6-8-1 0 0,6-11-12 0 0,-12 21 16 0 0,1 0-16 0 0,5-10 0 0 0,-5 8-2 0 0,-2 6 18 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1-1 0 0,0 22-11 0 0,-5 34 1 0 0,4-52 12 0 0,-5 32-7 0 0,5-32 7 0 0,-4 7-1 0 0,1 0-6 0 0,3-10 7 0 0,0 0-1 0 0,0 1 1 0 0,-2 2 0 0 0,-1 1 0 0 0,-2 6 0 0 0,-13 18 0 0 0,18-28 0 0 0,-5 5 0 0 0,2-4 0 0 0,4-3-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,-2-4-11 0 0,2 1-7 0 0,-2-6 0 0 0,2 8 13 0 0,1-1-16 0 0,0 2 22 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,14 6-2 0 0,12 4-7 0 0,-22-9 8 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,5-1 0 0 0,-4 0 1 0 0,1-1 0 0 0,-1 0 0 0 0,7-1 0 0 0,-8 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,3-2 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,8-9 0 0 0,-6 6 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,9-16 0 0 0,4-15 0 0 0,-18 35 0 0 0,3-7 0 0 0,-3 7 0 0 0,1 0 0 0 0,1-5 0 0 0,0 3 0 0 0,3-12 0 0 0,-1 4 0 0 0,-2 4 0 0 0,0-1 0 0 0,1-19 0 0 0,-2 16 0 0 0,7-46 0 0 0,-6 32 0 0 0,2-10 0 0 0,0 0 0 0 0,-4 28 0 0 0,-1 3 0 0 0,0 14 47 0 0,2 7 0 0 0,0 6 92 0 0,-2-4-19 0 0,0-10-92 0 0,-1 35 143 0 0,-1-1 133 0 0,1-17-128 0 0,0 6-64 0 0,0 31 121 0 0,1-43-73 0 0,5 27 0 0 0,-1-22-71 0 0,9 41 175 0 0,-12-58-208 0 0,1 0 0 0 0,3 8-1 0 0,-5-13-49 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,1-2 1 0 0,1 0 0 0 0,-1 0 0 0 0,4-4-1 0 0,-4 5 5 0 0,2-4 4 0 0,0 0-1 0 0,6-11 1 0 0,-6 10-4 0 0,-1-1-7 0 0,1 1 0 0 0,-1-1 0 0 0,3-9-1 0 0,-3 6 3 0 0,2-6 0 0 0,0 0 0 0 0,3-4 4 0 0,-7 16-5 0 0,2-5 0 0 0,-1 2-1 0 0,-2 3-2 0 0,-1 6 0 0 0,-2 1 0 0 0,1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 6 0 0 0,0 1 0 0 0,0 13 0 0 0,1-22 0 0 0,0 5 0 0 0,1 5 0 0 0,-1-9 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,2 3 0 0 0,-1-2 9 0 0,0-2-4 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1-4 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,1-1 5 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1-3-1 0 0,3-2 16 0 0,0 0 0 0 0,5-10 1 0 0,9-15 54 0 0,2-3-35 0 0,-11 19-14 0 0,-6 9 8 0 0,5-8 1 0 0,-1 2 21 0 0,-8 11-42 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,1-2 1 0 0,-2 2 24 0 0,0 5 18 0 0,-1 3-28 0 0,0 1-1 0 0,0-1 1 0 0,-5 16-1 0 0,4-15-7 0 0,-2 8 35 0 0,4-17-53 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-4 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,6-7 13 0 0,14-23 3 0 0,-15 22-9 0 0,7-14 0 0 0,-6 9-2 0 0,17-31 27 0 0,-18 35-23 0 0,-4 6 4 0 0,1 0 0 0 0,4-7 0 0 0,-5 9 5 0 0,1-1 11 0 0,-2 2-28 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 11 42 0 0,0-3-30 0 0,0 9 0 0 0,-4 25 30 0 0,2-23-30 0 0,-5 30 37 0 0,7-38-47 0 0,1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,3 17 1 0 0,-4-25-3 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,2 3 0 0 0,-3-5-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,2-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,4-4 0 0 0,-4 3 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,3-4 0 0 0,-2 2 0 0 0,4-6 0 0 0,-1 0 0 0 0,6-12 0 0 0,-5 7 0 0 0,5-24 0 0 0,-8 25 0 0 0,-1 0 0 0 0,1-25 0 0 0,-4 13 0 0 0,-1 14 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,-7-18 0 0 0,4 16 0 0 0,0 0 0 0 0,-16-23 0 0 0,13 23 0 0 0,-1 1 0 0 0,-13-13 0 0 0,16 20 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 1 0 0 0,1 1 0 0 0,-11-6 0 0 0,4 4 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 1 0 0 0,1 1 0 0 0,-26-4 0 0 0,18 5 6 0 0,0 1 0 0 0,0 1 1 0 0,-24 2-1 0 0,-81 16 18 0 0,93-9-12 0 0,-57 19 0 0 0,13 5 24 0 0,-92 51 0 0 0,89-34-9 0 0,1 5 9 0 0,-30 32 7 0 0,75-56-29 0 0,9-7 10 0 0,-38 41 0 0 0,-9 23 39 0 0,61-71-42 0 0,1 0 1 0 0,-13 26-1 0 0,20-33 1 0 0,0 2 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-3 21 0 0 0,6-28-14 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 1 0 0,3 4-1 0 0,-1-5 8 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,0 1 1 0 0,3 2-1 0 0,2 1 40 0 0,0 0 0 0 0,11 5 0 0 0,-13-8-33 0 0,1 0-1 0 0,-1-1 1 0 0,1 0 0 0 0,7 2-1 0 0,4-1 54 0 0,35 2-1 0 0,18-7 50 0 0,-62 1-109 0 0,87-10 110 0 0,117-36 66 0 0,16-7-34 0 0,-187 44-133 0 0,47-10 32 0 0,-42 12-30 0 0,106-17 54 0 0,-108 19-59 0 0,67-1 0 0 0,-103 7-20 0 0,11 0 12 0 0,23 3-1 0 0,-5 4-10 0 0,-35-6-3 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,5 3 0 0 0,11 9 3 0 0,-18-13-4 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 3 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-5 6 0 0 0,-4 2 0 0 0,-21 16 0 0 0,-37 23 0 0 0,-2-3 0 0 0,49-34 0 0 0,-73 41 0 0 0,-4-5 0 0 0,39-19 0 0 0,-80 34 0 0 0,88-41 0 0 0,-35 14 0 0 0,46-20 1 0 0,-102 40 6 0 0,-49 10 17 0 0,165-60-11 0 0,-1 0 0 0 0,-49 5 1 0 0,72-12-10 0 0,0-1 0 0 0,1 0 1 0 0,-13-2-1 0 0,16 2-3 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-4-3 0 0 0,4 3 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-3 1 0 0,1-1 2 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,3-6 0 0 0,3-5 0 0 0,0 1 1 0 0,2 1 0 0 0,-1 0 0 0 0,2 0 0 0 0,0 1 0 0 0,0 0-1 0 0,19-15 1 0 0,-15 15-3 0 0,26-23-2 0 0,28-27 0 0 0,12-2 0 0 0,70-49-24 0 0,-108 83 16 0 0,37-23-20 0 0,2 4 0 0 0,-25 15 12 0 0,166-97-136 0 0,-111 71 34 0 0,-18 9 28 0 0,3 4 2 0 0,-15 10-58 0 0,-46 17 68 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">881 448 8240 0 0,'0'0'0'0'0,"15"-11"0"0"0,0 1 0 0 0,1-1 88 0 0,1 3 8 0 0,2-2-8 0 0,1 3 16 0 0,-1-1-48 0 0,-2-1 0 0 0,0 0 8 0 0,1 0 0 0 0,0 1 80 0 0,0 1 8 0 0,0 0-8 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">1164 342 4416 0 0,'0'0'0'0'0,"8"-4"0"0"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">1378 490 1200 0 0,'0'0'0'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink30.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-23T17:15:43.248"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">219 647 392 0 0,'0'-1'8'0'0,"-5"-5"1"0"0,4 5 2 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-3 0 0 0 0,0-1 86 0 0,0 1 0 0 0,0 1-1 0 0,-8 0 1 0 0,10-1-75 0 0,0 1 14 0 0,-1-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,-2 1-1 0 0,-1 2-25 0 0,3-3-11 0 0,0 1 0 0 0,0 0 0 0 0,-5 4 0 0 0,4-3-1 0 0,0 0 1 0 0,-6 4-1 0 0,2-2 14 0 0,-5 3 95 0 0,9-6-68 0 0,1 0-1 0 0,-1 0 0 0 0,-3 4 0 0 0,-27 27 380 0 0,29-29-329 0 0,3-2-21 0 0,0 1 1 0 0,-5 3-1 0 0,5-2-24 0 0,0-2-5 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 4-1 0 0,0-3 22 0 0,2-2-26 0 0,-1 1 0 0 0,0-1 0 0 0,0 3 1 0 0,1-4-30 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,4 4 95 0 0,-3-3-9 0 0,0 0 0 0 0,3 3 0 0 0,-3-4-80 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,2-1 0 0 0,-1 1 4 0 0,0 0-3 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,3-1 0 0 0,0 1 0 0 0,-1-1 22 0 0,5-3 0 0 0,1 0 32 0 0,-6 3-27 0 0,0 0 1 0 0,4-4-1 0 0,-1 2-6 0 0,-4 2-18 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,2-5-1 0 0,3-2 24 0 0,8-10 48 0 0,2-1 9 0 0,-14 16-86 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,2-4 0 0 0,2-2 21 0 0,-3 2 1 0 0,1 1 1 0 0,3-11-1 0 0,-3 9 10 0 0,-2 3-30 0 0,-1 5-9 0 0,-1-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1-1-1 0 0,1 0 12 0 0,-1 1-7 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,1-2 83 0 0,0 2 1 0 0,-1 2 175 0 0,0 2-233 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 3 0 0 0,-1 3-8 0 0,-4 23 108 0 0,1-5 6 0 0,0 1-27 0 0,4-21-86 0 0,1-4-12 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 2 0 0 0,2 4 54 0 0,-1-6-32 0 0,-1 0 0 0 0,1 0-1 0 0,1 3 1 0 0,-2-4-25 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,1 2 0 0 0,-1-2-5 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,2-1 9 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,5-3 0 0 0,2-3 16 0 0,-6 5-8 0 0,7-6-1 0 0,10-11 33 0 0,9-8 7 0 0,-19 17-32 0 0,-6 8-24 0 0,-1-1 0 0 0,-1-1-1 0 0,8-8 1 0 0,-7 6-3 0 0,17-27 36 0 0,-14 23-39 0 0,-5 8-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,3-6-1 0 0,-4 7 1 0 0,0 2-1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-5 3 0 0 0,-2 1-1 0 0,3-2 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-3 4 0 0 0,-5 5 0 0 0,-2 2-6 0 0,13-13 7 0 0,-2 3-1 0 0,-1 0 1 0 0,1 0-1 0 0,-5 9 0 0 0,-14 31-12 0 0,14-31 7 0 0,5-8 0 0 0,-4 8 0 0 0,7-12 5 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 3 1 0 0,-1-4 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,4-2 1 0 0,-5 2 1 0 0,1-1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,2-2 0 0 0,2-2 0 0 0,5-5 0 0 0,12-15 0 0 0,-13 16 0 0 0,-7 7 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,3-5 0 0 0,-1 1 0 0 0,3-11 0 0 0,-2 2 0 0 0,-1 9 0 0 0,-2 2 0 0 0,2-6 0 0 0,-4 9 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,1-2 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,2-3 0 0 0,-1 3 0 0 0,-1 1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0-2 0 0 0,0 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1-2 0 0 0,2 0 0 0 0,-3 1 0 0 0,-1 3 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 3 0 0 0,-1 1 0 0 0,1-1 0 0 0,-3 7 0 0 0,1-3 0 0 0,-5 21 0 0 0,-4 14 0 0 0,11-42 0 0 0,-1 5 0 0 0,-5 11 0 0 0,-7 21 0 0 0,11-35 0 0 0,1 0 0 0 0,-1 0 0 0 0,-2 4 0 0 0,2-4 0 0 0,0 1 0 0 0,-1 3 0 0 0,0 1 0 0 0,-3 5 0 0 0,3-6 0 0 0,-4 13 0 0 0,2-7 0 0 0,-6 13 0 0 0,-1 4 0 0 0,-8 22 0 0 0,19-47 0 0 0,-2 7 0 0 0,3-8 0 0 0,-1 0 0 0 0,-2 7 0 0 0,0-4 0 0 0,3-5 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-3 2 0 0 0,0 0 0 0 0,2-3 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-3 2 0 0 0,1-1 0 0 0,2-1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,0-5 0 0 0,1-7 2 0 0,2-13 0 0 0,-1 19-1 0 0,0-1 0 0 0,0 1 0 0 0,5-12-1 0 0,-4 14 2 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,7-8-1 0 0,-6 7 0 0 0,0 0 1 0 0,0-1-1 0 0,5-9 0 0 0,-1-1 0 0 0,1 1-1 0 0,20-31 6 0 0,-21 34-6 0 0,-4 7 2 0 0,4-7-1 0 0,31-45 9 0 0,-35 52-11 0 0,26-41 8 0 0,-12 24-3 0 0,-7 10-3 0 0,-6 8-2 0 0,-4 4 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-2 0 0 0,1-1 0 0 0,-2 3 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-3 6 33 0 0,-3 4-19 0 0,0-1-1 0 0,0 1 0 0 0,-5 10 1 0 0,9-13-4 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 9-1 0 0,2-13-5 0 0,-2 34 52 0 0,2-33-52 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,2 4 1 0 0,-2-6-10 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,1-1-12 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 1 0 0,3 0-1 0 0,-2 0 2 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,4-4 0 0 0,-2 0-29 0 0,7-15-1 0 0,3-8-37 0 0,-1 0 8 0 0,-11 24 57 0 0,7-12-20 0 0,-7 13 12 0 0,3-9 1 0 0,-2 5 4 0 0,4-11-21 0 0,-6 11 26 0 0,8-24-22 0 0,-9 29 38 0 0,-1 2 0 0 0,0 3 0 0 0,-1 21 0 0 0,1-10 0 0 0,0-1 0 0 0,0 35 0 0 0,0-33 1 0 0,5 38 6 0 0,2-24 1 0 0,-7-26-6 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,1 2 1 0 0,-1-2-1 0 0,-1 0-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,2-2 0 0 0,2-1-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,6-7 0 0 0,13-15 0 0 0,-19 21 0 0 0,6-11 0 0 0,-2 3 0 0 0,-2 4-1 0 0,15-23-6 0 0,6-13 0 0 0,-24 39 7 0 0,4-8-1 0 0,-5 8-2 0 0,6-8-1 0 0,6-11-12 0 0,-12 21 16 0 0,1 0-16 0 0,5-10 0 0 0,-5 8-2 0 0,-2 6 18 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1-1 0 0,0 22-11 0 0,-5 34 1 0 0,4-52 12 0 0,-5 32-7 0 0,5-32 7 0 0,-4 7-1 0 0,1 0-6 0 0,3-10 7 0 0,0 0-1 0 0,0 1 1 0 0,-2 2 0 0 0,-1 1 0 0 0,-2 6 0 0 0,-13 18 0 0 0,18-28 0 0 0,-5 5 0 0 0,2-4 0 0 0,4-3-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,-2-4-11 0 0,2 1-7 0 0,-2-6 0 0 0,2 8 13 0 0,1-1-16 0 0,0 2 22 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,14 6-2 0 0,12 4-7 0 0,-22-9 8 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,5-1 0 0 0,-4 0 1 0 0,1-1 0 0 0,-1 0 0 0 0,7-1 0 0 0,-8 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,3-2 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,8-9 0 0 0,-6 6 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,9-16 0 0 0,4-15 0 0 0,-18 35 0 0 0,3-7 0 0 0,-3 7 0 0 0,1 0 0 0 0,1-5 0 0 0,0 3 0 0 0,3-12 0 0 0,-1 4 0 0 0,-2 4 0 0 0,0-1 0 0 0,1-19 0 0 0,-2 16 0 0 0,7-46 0 0 0,-6 32 0 0 0,2-10 0 0 0,0 0 0 0 0,-4 28 0 0 0,-1 3 0 0 0,0 14 47 0 0,2 7 0 0 0,0 6 92 0 0,-2-4-19 0 0,0-10-92 0 0,-1 35 143 0 0,-1-1 133 0 0,1-17-128 0 0,0 6-64 0 0,0 31 121 0 0,1-43-73 0 0,5 27 0 0 0,-1-22-71 0 0,9 41 175 0 0,-12-58-208 0 0,1 0 0 0 0,3 8-1 0 0,-5-13-49 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,1-2 1 0 0,1 0 0 0 0,-1 0 0 0 0,4-4-1 0 0,-4 5 5 0 0,2-4 4 0 0,0 0-1 0 0,6-11 1 0 0,-6 10-4 0 0,-1-1-7 0 0,1 1 0 0 0,-1-1 0 0 0,3-9-1 0 0,-3 6 3 0 0,2-6 0 0 0,0 0 0 0 0,3-4 4 0 0,-7 16-5 0 0,2-5 0 0 0,-1 2-1 0 0,-2 3-2 0 0,-1 6 0 0 0,-2 1 0 0 0,1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 6 0 0 0,0 1 0 0 0,0 13 0 0 0,1-22 0 0 0,0 5 0 0 0,1 5 0 0 0,-1-9 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,2 3 0 0 0,-1-2 9 0 0,0-2-4 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1-4 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,1-1 5 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1-3-1 0 0,3-2 16 0 0,0 0 0 0 0,5-10 1 0 0,9-15 54 0 0,2-3-35 0 0,-11 19-14 0 0,-6 9 8 0 0,5-8 1 0 0,-1 2 21 0 0,-8 11-42 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,1-2 1 0 0,-2 2 24 0 0,0 5 18 0 0,-1 3-28 0 0,0 1-1 0 0,0-1 1 0 0,-5 16-1 0 0,4-15-7 0 0,-2 8 35 0 0,4-17-53 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-4 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,6-7 13 0 0,14-23 3 0 0,-15 22-9 0 0,7-14 0 0 0,-6 9-2 0 0,17-31 27 0 0,-18 35-23 0 0,-4 6 4 0 0,1 0 0 0 0,4-7 0 0 0,-5 9 5 0 0,1-1 11 0 0,-2 2-28 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 11 42 0 0,0-3-30 0 0,0 9 0 0 0,-4 25 30 0 0,2-23-30 0 0,-5 30 37 0 0,7-38-47 0 0,1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,3 17 1 0 0,-4-25-3 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,2 3 0 0 0,-3-5-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,2-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,4-4 0 0 0,-4 3 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,3-4 0 0 0,-2 2 0 0 0,4-6 0 0 0,-1 0 0 0 0,6-12 0 0 0,-5 7 0 0 0,5-24 0 0 0,-8 25 0 0 0,-1 0 0 0 0,1-25 0 0 0,-4 13 0 0 0,-1 14 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,-7-18 0 0 0,4 16 0 0 0,0 0 0 0 0,-16-23 0 0 0,13 23 0 0 0,-1 1 0 0 0,-13-13 0 0 0,16 20 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 1 0 0 0,1 1 0 0 0,-11-6 0 0 0,4 4 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 1 0 0 0,1 1 0 0 0,-26-4 0 0 0,18 5 6 0 0,0 1 0 0 0,0 1 1 0 0,-24 2-1 0 0,-81 16 18 0 0,93-9-12 0 0,-57 19 0 0 0,13 5 24 0 0,-92 51 0 0 0,89-34-9 0 0,1 5 9 0 0,-30 32 7 0 0,75-56-29 0 0,9-7 10 0 0,-38 41 0 0 0,-9 23 39 0 0,61-71-42 0 0,1 0 1 0 0,-13 26-1 0 0,20-33 1 0 0,0 2 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-3 21 0 0 0,6-28-14 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 1 0 0,3 4-1 0 0,-1-5 8 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,0 1 1 0 0,3 2-1 0 0,2 1 40 0 0,0 0 0 0 0,11 5 0 0 0,-13-8-33 0 0,1 0-1 0 0,-1-1 1 0 0,1 0 0 0 0,7 2-1 0 0,4-1 54 0 0,35 2-1 0 0,18-7 50 0 0,-62 1-109 0 0,87-10 110 0 0,117-36 66 0 0,16-7-34 0 0,-187 44-133 0 0,47-10 32 0 0,-42 12-30 0 0,106-17 54 0 0,-108 19-59 0 0,67-1 0 0 0,-103 7-20 0 0,11 0 12 0 0,23 3-1 0 0,-5 4-10 0 0,-35-6-3 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,5 3 0 0 0,11 9 3 0 0,-18-13-4 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 3 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-5 6 0 0 0,-4 2 0 0 0,-21 16 0 0 0,-37 23 0 0 0,-2-3 0 0 0,49-34 0 0 0,-73 41 0 0 0,-4-5 0 0 0,39-19 0 0 0,-80 34 0 0 0,88-41 0 0 0,-35 14 0 0 0,46-20 1 0 0,-102 40 6 0 0,-49 10 17 0 0,165-60-11 0 0,-1 0 0 0 0,-49 5 1 0 0,72-12-10 0 0,0-1 0 0 0,1 0 1 0 0,-13-2-1 0 0,16 2-3 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-4-3 0 0 0,4 3 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-3 1 0 0,1-1 2 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,3-6 0 0 0,3-5 0 0 0,0 1 1 0 0,2 1 0 0 0,-1 0 0 0 0,2 0 0 0 0,0 1 0 0 0,0 0-1 0 0,19-15 1 0 0,-15 15-3 0 0,26-23-2 0 0,28-27 0 0 0,12-2 0 0 0,70-49-24 0 0,-108 83 16 0 0,37-23-20 0 0,2 4 0 0 0,-25 15 12 0 0,166-97-136 0 0,-111 71 34 0 0,-18 9 28 0 0,3 4 2 0 0,-15 10-58 0 0,-46 17 68 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">881 448 8240 0 0,'0'0'0'0'0,"15"-11"0"0"0,0 1 0 0 0,1-1 88 0 0,1 3 8 0 0,2-2-8 0 0,1 3 16 0 0,-1-1-48 0 0,-2-1 0 0 0,0 0 8 0 0,1 0 0 0 0,0 1 80 0 0,0 1 8 0 0,0 0-8 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">1164 342 4416 0 0,'0'0'0'0'0,"8"-4"0"0"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">1378 490 1200 0 0,'0'0'0'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink31.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-23T17:15:58.702"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">219 647 392 0 0,'0'-1'8'0'0,"-5"-5"1"0"0,4 5 2 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-3 0 0 0 0,0-1 86 0 0,0 1 0 0 0,0 1-1 0 0,-8 0 1 0 0,10-1-75 0 0,0 1 14 0 0,-1-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,-2 1-1 0 0,-1 2-25 0 0,3-3-11 0 0,0 1 0 0 0,0 0 0 0 0,-5 4 0 0 0,4-3-1 0 0,0 0 1 0 0,-6 4-1 0 0,2-2 14 0 0,-5 3 95 0 0,9-6-68 0 0,1 0-1 0 0,-1 0 0 0 0,-3 4 0 0 0,-27 27 380 0 0,29-29-329 0 0,3-2-21 0 0,0 1 1 0 0,-5 3-1 0 0,5-2-24 0 0,0-2-5 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 4-1 0 0,0-3 22 0 0,2-2-26 0 0,-1 1 0 0 0,0-1 0 0 0,0 3 1 0 0,1-4-30 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,4 4 95 0 0,-3-3-9 0 0,0 0 0 0 0,3 3 0 0 0,-3-4-80 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,2-1 0 0 0,-1 1 4 0 0,0 0-3 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,3-1 0 0 0,0 1 0 0 0,-1-1 22 0 0,5-3 0 0 0,1 0 32 0 0,-6 3-27 0 0,0 0 1 0 0,4-4-1 0 0,-1 2-6 0 0,-4 2-18 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,2-5-1 0 0,3-2 24 0 0,8-10 48 0 0,2-1 9 0 0,-14 16-86 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,2-4 0 0 0,2-2 21 0 0,-3 2 1 0 0,1 1 1 0 0,3-11-1 0 0,-3 9 10 0 0,-2 3-30 0 0,-1 5-9 0 0,-1-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1-1-1 0 0,1 0 12 0 0,-1 1-7 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,1-2 83 0 0,0 2 1 0 0,-1 2 175 0 0,0 2-233 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 3 0 0 0,-1 3-8 0 0,-4 23 108 0 0,1-5 6 0 0,0 1-27 0 0,4-21-86 0 0,1-4-12 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 2 0 0 0,2 4 54 0 0,-1-6-32 0 0,-1 0 0 0 0,1 0-1 0 0,1 3 1 0 0,-2-4-25 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,1 2 0 0 0,-1-2-5 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,2-1 9 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,5-3 0 0 0,2-3 16 0 0,-6 5-8 0 0,7-6-1 0 0,10-11 33 0 0,9-8 7 0 0,-19 17-32 0 0,-6 8-24 0 0,-1-1 0 0 0,-1-1-1 0 0,8-8 1 0 0,-7 6-3 0 0,17-27 36 0 0,-14 23-39 0 0,-5 8-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,3-6-1 0 0,-4 7 1 0 0,0 2-1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-5 3 0 0 0,-2 1-1 0 0,3-2 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-3 4 0 0 0,-5 5 0 0 0,-2 2-6 0 0,13-13 7 0 0,-2 3-1 0 0,-1 0 1 0 0,1 0-1 0 0,-5 9 0 0 0,-14 31-12 0 0,14-31 7 0 0,5-8 0 0 0,-4 8 0 0 0,7-12 5 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 3 1 0 0,-1-4 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,4-2 1 0 0,-5 2 1 0 0,1-1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,2-2 0 0 0,2-2 0 0 0,5-5 0 0 0,12-15 0 0 0,-13 16 0 0 0,-7 7 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,3-5 0 0 0,-1 1 0 0 0,3-11 0 0 0,-2 2 0 0 0,-1 9 0 0 0,-2 2 0 0 0,2-6 0 0 0,-4 9 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,1-2 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,2-3 0 0 0,-1 3 0 0 0,-1 1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0-2 0 0 0,0 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1-2 0 0 0,2 0 0 0 0,-3 1 0 0 0,-1 3 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 3 0 0 0,-1 1 0 0 0,1-1 0 0 0,-3 7 0 0 0,1-3 0 0 0,-5 21 0 0 0,-4 14 0 0 0,11-42 0 0 0,-1 5 0 0 0,-5 11 0 0 0,-7 21 0 0 0,11-35 0 0 0,1 0 0 0 0,-1 0 0 0 0,-2 4 0 0 0,2-4 0 0 0,0 1 0 0 0,-1 3 0 0 0,0 1 0 0 0,-3 5 0 0 0,3-6 0 0 0,-4 13 0 0 0,2-7 0 0 0,-6 13 0 0 0,-1 4 0 0 0,-8 22 0 0 0,19-47 0 0 0,-2 7 0 0 0,3-8 0 0 0,-1 0 0 0 0,-2 7 0 0 0,0-4 0 0 0,3-5 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-3 2 0 0 0,0 0 0 0 0,2-3 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-3 2 0 0 0,1-1 0 0 0,2-1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,0-5 0 0 0,1-7 2 0 0,2-13 0 0 0,-1 19-1 0 0,0-1 0 0 0,0 1 0 0 0,5-12-1 0 0,-4 14 2 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,7-8-1 0 0,-6 7 0 0 0,0 0 1 0 0,0-1-1 0 0,5-9 0 0 0,-1-1 0 0 0,1 1-1 0 0,20-31 6 0 0,-21 34-6 0 0,-4 7 2 0 0,4-7-1 0 0,31-45 9 0 0,-35 52-11 0 0,26-41 8 0 0,-12 24-3 0 0,-7 10-3 0 0,-6 8-2 0 0,-4 4 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-2 0 0 0,1-1 0 0 0,-2 3 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-3 6 33 0 0,-3 4-19 0 0,0-1-1 0 0,0 1 0 0 0,-5 10 1 0 0,9-13-4 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 9-1 0 0,2-13-5 0 0,-2 34 52 0 0,2-33-52 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,2 4 1 0 0,-2-6-10 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,1-1-12 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 1 0 0,3 0-1 0 0,-2 0 2 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,4-4 0 0 0,-2 0-29 0 0,7-15-1 0 0,3-8-37 0 0,-1 0 8 0 0,-11 24 57 0 0,7-12-20 0 0,-7 13 12 0 0,3-9 1 0 0,-2 5 4 0 0,4-11-21 0 0,-6 11 26 0 0,8-24-22 0 0,-9 29 38 0 0,-1 2 0 0 0,0 3 0 0 0,-1 21 0 0 0,1-10 0 0 0,0-1 0 0 0,0 35 0 0 0,0-33 1 0 0,5 38 6 0 0,2-24 1 0 0,-7-26-6 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,1 2 1 0 0,-1-2-1 0 0,-1 0-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,2-2 0 0 0,2-1-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,6-7 0 0 0,13-15 0 0 0,-19 21 0 0 0,6-11 0 0 0,-2 3 0 0 0,-2 4-1 0 0,15-23-6 0 0,6-13 0 0 0,-24 39 7 0 0,4-8-1 0 0,-5 8-2 0 0,6-8-1 0 0,6-11-12 0 0,-12 21 16 0 0,1 0-16 0 0,5-10 0 0 0,-5 8-2 0 0,-2 6 18 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1-1 0 0,0 22-11 0 0,-5 34 1 0 0,4-52 12 0 0,-5 32-7 0 0,5-32 7 0 0,-4 7-1 0 0,1 0-6 0 0,3-10 7 0 0,0 0-1 0 0,0 1 1 0 0,-2 2 0 0 0,-1 1 0 0 0,-2 6 0 0 0,-13 18 0 0 0,18-28 0 0 0,-5 5 0 0 0,2-4 0 0 0,4-3-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,-2-4-11 0 0,2 1-7 0 0,-2-6 0 0 0,2 8 13 0 0,1-1-16 0 0,0 2 22 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,14 6-2 0 0,12 4-7 0 0,-22-9 8 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,5-1 0 0 0,-4 0 1 0 0,1-1 0 0 0,-1 0 0 0 0,7-1 0 0 0,-8 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,3-2 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,8-9 0 0 0,-6 6 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,9-16 0 0 0,4-15 0 0 0,-18 35 0 0 0,3-7 0 0 0,-3 7 0 0 0,1 0 0 0 0,1-5 0 0 0,0 3 0 0 0,3-12 0 0 0,-1 4 0 0 0,-2 4 0 0 0,0-1 0 0 0,1-19 0 0 0,-2 16 0 0 0,7-46 0 0 0,-6 32 0 0 0,2-10 0 0 0,0 0 0 0 0,-4 28 0 0 0,-1 3 0 0 0,0 14 47 0 0,2 7 0 0 0,0 6 92 0 0,-2-4-19 0 0,0-10-92 0 0,-1 35 143 0 0,-1-1 133 0 0,1-17-128 0 0,0 6-64 0 0,0 31 121 0 0,1-43-73 0 0,5 27 0 0 0,-1-22-71 0 0,9 41 175 0 0,-12-58-208 0 0,1 0 0 0 0,3 8-1 0 0,-5-13-49 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,1-2 1 0 0,1 0 0 0 0,-1 0 0 0 0,4-4-1 0 0,-4 5 5 0 0,2-4 4 0 0,0 0-1 0 0,6-11 1 0 0,-6 10-4 0 0,-1-1-7 0 0,1 1 0 0 0,-1-1 0 0 0,3-9-1 0 0,-3 6 3 0 0,2-6 0 0 0,0 0 0 0 0,3-4 4 0 0,-7 16-5 0 0,2-5 0 0 0,-1 2-1 0 0,-2 3-2 0 0,-1 6 0 0 0,-2 1 0 0 0,1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 6 0 0 0,0 1 0 0 0,0 13 0 0 0,1-22 0 0 0,0 5 0 0 0,1 5 0 0 0,-1-9 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,2 3 0 0 0,-1-2 9 0 0,0-2-4 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1-4 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,1-1 5 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1-3-1 0 0,3-2 16 0 0,0 0 0 0 0,5-10 1 0 0,9-15 54 0 0,2-3-35 0 0,-11 19-14 0 0,-6 9 8 0 0,5-8 1 0 0,-1 2 21 0 0,-8 11-42 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,1-2 1 0 0,-2 2 24 0 0,0 5 18 0 0,-1 3-28 0 0,0 1-1 0 0,0-1 1 0 0,-5 16-1 0 0,4-15-7 0 0,-2 8 35 0 0,4-17-53 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-4 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,6-7 13 0 0,14-23 3 0 0,-15 22-9 0 0,7-14 0 0 0,-6 9-2 0 0,17-31 27 0 0,-18 35-23 0 0,-4 6 4 0 0,1 0 0 0 0,4-7 0 0 0,-5 9 5 0 0,1-1 11 0 0,-2 2-28 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 11 42 0 0,0-3-30 0 0,0 9 0 0 0,-4 25 30 0 0,2-23-30 0 0,-5 30 37 0 0,7-38-47 0 0,1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,3 17 1 0 0,-4-25-3 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,2 3 0 0 0,-3-5-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,2-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,4-4 0 0 0,-4 3 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,3-4 0 0 0,-2 2 0 0 0,4-6 0 0 0,-1 0 0 0 0,6-12 0 0 0,-5 7 0 0 0,5-24 0 0 0,-8 25 0 0 0,-1 0 0 0 0,1-25 0 0 0,-4 13 0 0 0,-1 14 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,-7-18 0 0 0,4 16 0 0 0,0 0 0 0 0,-16-23 0 0 0,13 23 0 0 0,-1 1 0 0 0,-13-13 0 0 0,16 20 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 1 0 0 0,1 1 0 0 0,-11-6 0 0 0,4 4 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 1 0 0 0,1 1 0 0 0,-26-4 0 0 0,18 5 6 0 0,0 1 0 0 0,0 1 1 0 0,-24 2-1 0 0,-81 16 18 0 0,93-9-12 0 0,-57 19 0 0 0,13 5 24 0 0,-92 51 0 0 0,89-34-9 0 0,1 5 9 0 0,-30 32 7 0 0,75-56-29 0 0,9-7 10 0 0,-38 41 0 0 0,-9 23 39 0 0,61-71-42 0 0,1 0 1 0 0,-13 26-1 0 0,20-33 1 0 0,0 2 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-3 21 0 0 0,6-28-14 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 1 0 0,3 4-1 0 0,-1-5 8 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,0 1 1 0 0,3 2-1 0 0,2 1 40 0 0,0 0 0 0 0,11 5 0 0 0,-13-8-33 0 0,1 0-1 0 0,-1-1 1 0 0,1 0 0 0 0,7 2-1 0 0,4-1 54 0 0,35 2-1 0 0,18-7 50 0 0,-62 1-109 0 0,87-10 110 0 0,117-36 66 0 0,16-7-34 0 0,-187 44-133 0 0,47-10 32 0 0,-42 12-30 0 0,106-17 54 0 0,-108 19-59 0 0,67-1 0 0 0,-103 7-20 0 0,11 0 12 0 0,23 3-1 0 0,-5 4-10 0 0,-35-6-3 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,5 3 0 0 0,11 9 3 0 0,-18-13-4 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 3 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-5 6 0 0 0,-4 2 0 0 0,-21 16 0 0 0,-37 23 0 0 0,-2-3 0 0 0,49-34 0 0 0,-73 41 0 0 0,-4-5 0 0 0,39-19 0 0 0,-80 34 0 0 0,88-41 0 0 0,-35 14 0 0 0,46-20 1 0 0,-102 40 6 0 0,-49 10 17 0 0,165-60-11 0 0,-1 0 0 0 0,-49 5 1 0 0,72-12-10 0 0,0-1 0 0 0,1 0 1 0 0,-13-2-1 0 0,16 2-3 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-4-3 0 0 0,4 3 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-3 1 0 0,1-1 2 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,3-6 0 0 0,3-5 0 0 0,0 1 1 0 0,2 1 0 0 0,-1 0 0 0 0,2 0 0 0 0,0 1 0 0 0,0 0-1 0 0,19-15 1 0 0,-15 15-3 0 0,26-23-2 0 0,28-27 0 0 0,12-2 0 0 0,70-49-24 0 0,-108 83 16 0 0,37-23-20 0 0,2 4 0 0 0,-25 15 12 0 0,166-97-136 0 0,-111 71 34 0 0,-18 9 28 0 0,3 4 2 0 0,-15 10-58 0 0,-46 17 68 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">881 448 8240 0 0,'0'0'0'0'0,"15"-11"0"0"0,0 1 0 0 0,1-1 88 0 0,1 3 8 0 0,2-2-8 0 0,1 3 16 0 0,-1-1-48 0 0,-2-1 0 0 0,0 0 8 0 0,1 0 0 0 0,0 1 80 0 0,0 1 8 0 0,0 0-8 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">1164 342 4416 0 0,'0'0'0'0'0,"8"-4"0"0"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">1378 490 1200 0 0,'0'0'0'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink32.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-23T17:16:46.086"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">219 647 392 0 0,'0'-1'8'0'0,"-5"-5"1"0"0,4 5 2 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-3 0 0 0 0,0-1 86 0 0,0 1 0 0 0,0 1-1 0 0,-8 0 1 0 0,10-1-75 0 0,0 1 14 0 0,-1-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,-2 1-1 0 0,-1 2-25 0 0,3-3-11 0 0,0 1 0 0 0,0 0 0 0 0,-5 4 0 0 0,4-3-1 0 0,0 0 1 0 0,-6 4-1 0 0,2-2 14 0 0,-5 3 95 0 0,9-6-68 0 0,1 0-1 0 0,-1 0 0 0 0,-3 4 0 0 0,-27 27 380 0 0,29-29-329 0 0,3-2-21 0 0,0 1 1 0 0,-5 3-1 0 0,5-2-24 0 0,0-2-5 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 4-1 0 0,0-3 22 0 0,2-2-26 0 0,-1 1 0 0 0,0-1 0 0 0,0 3 1 0 0,1-4-30 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,4 4 95 0 0,-3-3-9 0 0,0 0 0 0 0,3 3 0 0 0,-3-4-80 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,2-1 0 0 0,-1 1 4 0 0,0 0-3 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,3-1 0 0 0,0 1 0 0 0,-1-1 22 0 0,5-3 0 0 0,1 0 32 0 0,-6 3-27 0 0,0 0 1 0 0,4-4-1 0 0,-1 2-6 0 0,-4 2-18 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,2-5-1 0 0,3-2 24 0 0,8-10 48 0 0,2-1 9 0 0,-14 16-86 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,2-4 0 0 0,2-2 21 0 0,-3 2 1 0 0,1 1 1 0 0,3-11-1 0 0,-3 9 10 0 0,-2 3-30 0 0,-1 5-9 0 0,-1-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1-1-1 0 0,1 0 12 0 0,-1 1-7 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,1-2 83 0 0,0 2 1 0 0,-1 2 175 0 0,0 2-233 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 3 0 0 0,-1 3-8 0 0,-4 23 108 0 0,1-5 6 0 0,0 1-27 0 0,4-21-86 0 0,1-4-12 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 2 0 0 0,2 4 54 0 0,-1-6-32 0 0,-1 0 0 0 0,1 0-1 0 0,1 3 1 0 0,-2-4-25 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,1 2 0 0 0,-1-2-5 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,2-1 9 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,5-3 0 0 0,2-3 16 0 0,-6 5-8 0 0,7-6-1 0 0,10-11 33 0 0,9-8 7 0 0,-19 17-32 0 0,-6 8-24 0 0,-1-1 0 0 0,-1-1-1 0 0,8-8 1 0 0,-7 6-3 0 0,17-27 36 0 0,-14 23-39 0 0,-5 8-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,3-6-1 0 0,-4 7 1 0 0,0 2-1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-5 3 0 0 0,-2 1-1 0 0,3-2 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-3 4 0 0 0,-5 5 0 0 0,-2 2-6 0 0,13-13 7 0 0,-2 3-1 0 0,-1 0 1 0 0,1 0-1 0 0,-5 9 0 0 0,-14 31-12 0 0,14-31 7 0 0,5-8 0 0 0,-4 8 0 0 0,7-12 5 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 3 1 0 0,-1-4 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,4-2 1 0 0,-5 2 1 0 0,1-1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,2-2 0 0 0,2-2 0 0 0,5-5 0 0 0,12-15 0 0 0,-13 16 0 0 0,-7 7 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,3-5 0 0 0,-1 1 0 0 0,3-11 0 0 0,-2 2 0 0 0,-1 9 0 0 0,-2 2 0 0 0,2-6 0 0 0,-4 9 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,1-2 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,2-3 0 0 0,-1 3 0 0 0,-1 1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0-2 0 0 0,0 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1-2 0 0 0,2 0 0 0 0,-3 1 0 0 0,-1 3 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 3 0 0 0,-1 1 0 0 0,1-1 0 0 0,-3 7 0 0 0,1-3 0 0 0,-5 21 0 0 0,-4 14 0 0 0,11-42 0 0 0,-1 5 0 0 0,-5 11 0 0 0,-7 21 0 0 0,11-35 0 0 0,1 0 0 0 0,-1 0 0 0 0,-2 4 0 0 0,2-4 0 0 0,0 1 0 0 0,-1 3 0 0 0,0 1 0 0 0,-3 5 0 0 0,3-6 0 0 0,-4 13 0 0 0,2-7 0 0 0,-6 13 0 0 0,-1 4 0 0 0,-8 22 0 0 0,19-47 0 0 0,-2 7 0 0 0,3-8 0 0 0,-1 0 0 0 0,-2 7 0 0 0,0-4 0 0 0,3-5 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-3 2 0 0 0,0 0 0 0 0,2-3 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-3 2 0 0 0,1-1 0 0 0,2-1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,0-5 0 0 0,1-7 2 0 0,2-13 0 0 0,-1 19-1 0 0,0-1 0 0 0,0 1 0 0 0,5-12-1 0 0,-4 14 2 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,7-8-1 0 0,-6 7 0 0 0,0 0 1 0 0,0-1-1 0 0,5-9 0 0 0,-1-1 0 0 0,1 1-1 0 0,20-31 6 0 0,-21 34-6 0 0,-4 7 2 0 0,4-7-1 0 0,31-45 9 0 0,-35 52-11 0 0,26-41 8 0 0,-12 24-3 0 0,-7 10-3 0 0,-6 8-2 0 0,-4 4 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-2 0 0 0,1-1 0 0 0,-2 3 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-3 6 33 0 0,-3 4-19 0 0,0-1-1 0 0,0 1 0 0 0,-5 10 1 0 0,9-13-4 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 9-1 0 0,2-13-5 0 0,-2 34 52 0 0,2-33-52 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,2 4 1 0 0,-2-6-10 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,1-1-12 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 1 0 0,3 0-1 0 0,-2 0 2 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,4-4 0 0 0,-2 0-29 0 0,7-15-1 0 0,3-8-37 0 0,-1 0 8 0 0,-11 24 57 0 0,7-12-20 0 0,-7 13 12 0 0,3-9 1 0 0,-2 5 4 0 0,4-11-21 0 0,-6 11 26 0 0,8-24-22 0 0,-9 29 38 0 0,-1 2 0 0 0,0 3 0 0 0,-1 21 0 0 0,1-10 0 0 0,0-1 0 0 0,0 35 0 0 0,0-33 1 0 0,5 38 6 0 0,2-24 1 0 0,-7-26-6 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,1 2 1 0 0,-1-2-1 0 0,-1 0-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,2-2 0 0 0,2-1-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,6-7 0 0 0,13-15 0 0 0,-19 21 0 0 0,6-11 0 0 0,-2 3 0 0 0,-2 4-1 0 0,15-23-6 0 0,6-13 0 0 0,-24 39 7 0 0,4-8-1 0 0,-5 8-2 0 0,6-8-1 0 0,6-11-12 0 0,-12 21 16 0 0,1 0-16 0 0,5-10 0 0 0,-5 8-2 0 0,-2 6 18 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1-1 0 0,0 22-11 0 0,-5 34 1 0 0,4-52 12 0 0,-5 32-7 0 0,5-32 7 0 0,-4 7-1 0 0,1 0-6 0 0,3-10 7 0 0,0 0-1 0 0,0 1 1 0 0,-2 2 0 0 0,-1 1 0 0 0,-2 6 0 0 0,-13 18 0 0 0,18-28 0 0 0,-5 5 0 0 0,2-4 0 0 0,4-3-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,-2-4-11 0 0,2 1-7 0 0,-2-6 0 0 0,2 8 13 0 0,1-1-16 0 0,0 2 22 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,14 6-2 0 0,12 4-7 0 0,-22-9 8 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,5-1 0 0 0,-4 0 1 0 0,1-1 0 0 0,-1 0 0 0 0,7-1 0 0 0,-8 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,3-2 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,8-9 0 0 0,-6 6 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,9-16 0 0 0,4-15 0 0 0,-18 35 0 0 0,3-7 0 0 0,-3 7 0 0 0,1 0 0 0 0,1-5 0 0 0,0 3 0 0 0,3-12 0 0 0,-1 4 0 0 0,-2 4 0 0 0,0-1 0 0 0,1-19 0 0 0,-2 16 0 0 0,7-46 0 0 0,-6 32 0 0 0,2-10 0 0 0,0 0 0 0 0,-4 28 0 0 0,-1 3 0 0 0,0 14 47 0 0,2 7 0 0 0,0 6 92 0 0,-2-4-19 0 0,0-10-92 0 0,-1 35 143 0 0,-1-1 133 0 0,1-17-128 0 0,0 6-64 0 0,0 31 121 0 0,1-43-73 0 0,5 27 0 0 0,-1-22-71 0 0,9 41 175 0 0,-12-58-208 0 0,1 0 0 0 0,3 8-1 0 0,-5-13-49 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,1-2 1 0 0,1 0 0 0 0,-1 0 0 0 0,4-4-1 0 0,-4 5 5 0 0,2-4 4 0 0,0 0-1 0 0,6-11 1 0 0,-6 10-4 0 0,-1-1-7 0 0,1 1 0 0 0,-1-1 0 0 0,3-9-1 0 0,-3 6 3 0 0,2-6 0 0 0,0 0 0 0 0,3-4 4 0 0,-7 16-5 0 0,2-5 0 0 0,-1 2-1 0 0,-2 3-2 0 0,-1 6 0 0 0,-2 1 0 0 0,1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 6 0 0 0,0 1 0 0 0,0 13 0 0 0,1-22 0 0 0,0 5 0 0 0,1 5 0 0 0,-1-9 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,2 3 0 0 0,-1-2 9 0 0,0-2-4 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1-4 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,1-1 5 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1-3-1 0 0,3-2 16 0 0,0 0 0 0 0,5-10 1 0 0,9-15 54 0 0,2-3-35 0 0,-11 19-14 0 0,-6 9 8 0 0,5-8 1 0 0,-1 2 21 0 0,-8 11-42 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,1-2 1 0 0,-2 2 24 0 0,0 5 18 0 0,-1 3-28 0 0,0 1-1 0 0,0-1 1 0 0,-5 16-1 0 0,4-15-7 0 0,-2 8 35 0 0,4-17-53 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-4 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,6-7 13 0 0,14-23 3 0 0,-15 22-9 0 0,7-14 0 0 0,-6 9-2 0 0,17-31 27 0 0,-18 35-23 0 0,-4 6 4 0 0,1 0 0 0 0,4-7 0 0 0,-5 9 5 0 0,1-1 11 0 0,-2 2-28 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 11 42 0 0,0-3-30 0 0,0 9 0 0 0,-4 25 30 0 0,2-23-30 0 0,-5 30 37 0 0,7-38-47 0 0,1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,3 17 1 0 0,-4-25-3 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,2 3 0 0 0,-3-5-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,2-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,4-4 0 0 0,-4 3 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,3-4 0 0 0,-2 2 0 0 0,4-6 0 0 0,-1 0 0 0 0,6-12 0 0 0,-5 7 0 0 0,5-24 0 0 0,-8 25 0 0 0,-1 0 0 0 0,1-25 0 0 0,-4 13 0 0 0,-1 14 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,-7-18 0 0 0,4 16 0 0 0,0 0 0 0 0,-16-23 0 0 0,13 23 0 0 0,-1 1 0 0 0,-13-13 0 0 0,16 20 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 1 0 0 0,1 1 0 0 0,-11-6 0 0 0,4 4 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 1 0 0 0,1 1 0 0 0,-26-4 0 0 0,18 5 6 0 0,0 1 0 0 0,0 1 1 0 0,-24 2-1 0 0,-81 16 18 0 0,93-9-12 0 0,-57 19 0 0 0,13 5 24 0 0,-92 51 0 0 0,89-34-9 0 0,1 5 9 0 0,-30 32 7 0 0,75-56-29 0 0,9-7 10 0 0,-38 41 0 0 0,-9 23 39 0 0,61-71-42 0 0,1 0 1 0 0,-13 26-1 0 0,20-33 1 0 0,0 2 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-3 21 0 0 0,6-28-14 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 1 0 0,3 4-1 0 0,-1-5 8 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,0 1 1 0 0,3 2-1 0 0,2 1 40 0 0,0 0 0 0 0,11 5 0 0 0,-13-8-33 0 0,1 0-1 0 0,-1-1 1 0 0,1 0 0 0 0,7 2-1 0 0,4-1 54 0 0,35 2-1 0 0,18-7 50 0 0,-62 1-109 0 0,87-10 110 0 0,117-36 66 0 0,16-7-34 0 0,-187 44-133 0 0,47-10 32 0 0,-42 12-30 0 0,106-17 54 0 0,-108 19-59 0 0,67-1 0 0 0,-103 7-20 0 0,11 0 12 0 0,23 3-1 0 0,-5 4-10 0 0,-35-6-3 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,5 3 0 0 0,11 9 3 0 0,-18-13-4 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 3 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-5 6 0 0 0,-4 2 0 0 0,-21 16 0 0 0,-37 23 0 0 0,-2-3 0 0 0,49-34 0 0 0,-73 41 0 0 0,-4-5 0 0 0,39-19 0 0 0,-80 34 0 0 0,88-41 0 0 0,-35 14 0 0 0,46-20 1 0 0,-102 40 6 0 0,-49 10 17 0 0,165-60-11 0 0,-1 0 0 0 0,-49 5 1 0 0,72-12-10 0 0,0-1 0 0 0,1 0 1 0 0,-13-2-1 0 0,16 2-3 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-4-3 0 0 0,4 3 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-3 1 0 0,1-1 2 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,3-6 0 0 0,3-5 0 0 0,0 1 1 0 0,2 1 0 0 0,-1 0 0 0 0,2 0 0 0 0,0 1 0 0 0,0 0-1 0 0,19-15 1 0 0,-15 15-3 0 0,26-23-2 0 0,28-27 0 0 0,12-2 0 0 0,70-49-24 0 0,-108 83 16 0 0,37-23-20 0 0,2 4 0 0 0,-25 15 12 0 0,166-97-136 0 0,-111 71 34 0 0,-18 9 28 0 0,3 4 2 0 0,-15 10-58 0 0,-46 17 68 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">881 448 8240 0 0,'0'0'0'0'0,"15"-11"0"0"0,0 1 0 0 0,1-1 88 0 0,1 3 8 0 0,2-2-8 0 0,1 3 16 0 0,-1-1-48 0 0,-2-1 0 0 0,0 0 8 0 0,1 0 0 0 0,0 1 80 0 0,0 1 8 0 0,0 0-8 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">1164 342 4416 0 0,'0'0'0'0'0,"8"-4"0"0"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">1378 490 1200 0 0,'0'0'0'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink33.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-23T17:21:36.971"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">219 647 392 0 0,'0'-1'8'0'0,"-5"-5"1"0"0,4 5 2 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-3 0 0 0 0,0-1 86 0 0,0 1 0 0 0,0 1-1 0 0,-8 0 1 0 0,10-1-75 0 0,0 1 14 0 0,-1-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,-2 1-1 0 0,-1 2-25 0 0,3-3-11 0 0,0 1 0 0 0,0 0 0 0 0,-5 4 0 0 0,4-3-1 0 0,0 0 1 0 0,-6 4-1 0 0,2-2 14 0 0,-5 3 95 0 0,9-6-68 0 0,1 0-1 0 0,-1 0 0 0 0,-3 4 0 0 0,-27 27 380 0 0,29-29-329 0 0,3-2-21 0 0,0 1 1 0 0,-5 3-1 0 0,5-2-24 0 0,0-2-5 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 4-1 0 0,0-3 22 0 0,2-2-26 0 0,-1 1 0 0 0,0-1 0 0 0,0 3 1 0 0,1-4-30 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,4 4 95 0 0,-3-3-9 0 0,0 0 0 0 0,3 3 0 0 0,-3-4-80 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,2-1 0 0 0,-1 1 4 0 0,0 0-3 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,3-1 0 0 0,0 1 0 0 0,-1-1 22 0 0,5-3 0 0 0,1 0 32 0 0,-6 3-27 0 0,0 0 1 0 0,4-4-1 0 0,-1 2-6 0 0,-4 2-18 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,2-5-1 0 0,3-2 24 0 0,8-10 48 0 0,2-1 9 0 0,-14 16-86 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,2-4 0 0 0,2-2 21 0 0,-3 2 1 0 0,1 1 1 0 0,3-11-1 0 0,-3 9 10 0 0,-2 3-30 0 0,-1 5-9 0 0,-1-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1-1-1 0 0,1 0 12 0 0,-1 1-7 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,1-2 83 0 0,0 2 1 0 0,-1 2 175 0 0,0 2-233 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 3 0 0 0,-1 3-8 0 0,-4 23 108 0 0,1-5 6 0 0,0 1-27 0 0,4-21-86 0 0,1-4-12 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 2 0 0 0,2 4 54 0 0,-1-6-32 0 0,-1 0 0 0 0,1 0-1 0 0,1 3 1 0 0,-2-4-25 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,1 2 0 0 0,-1-2-5 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,2-1 9 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,5-3 0 0 0,2-3 16 0 0,-6 5-8 0 0,7-6-1 0 0,10-11 33 0 0,9-8 7 0 0,-19 17-32 0 0,-6 8-24 0 0,-1-1 0 0 0,-1-1-1 0 0,8-8 1 0 0,-7 6-3 0 0,17-27 36 0 0,-14 23-39 0 0,-5 8-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,3-6-1 0 0,-4 7 1 0 0,0 2-1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-5 3 0 0 0,-2 1-1 0 0,3-2 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-3 4 0 0 0,-5 5 0 0 0,-2 2-6 0 0,13-13 7 0 0,-2 3-1 0 0,-1 0 1 0 0,1 0-1 0 0,-5 9 0 0 0,-14 31-12 0 0,14-31 7 0 0,5-8 0 0 0,-4 8 0 0 0,7-12 5 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 3 1 0 0,-1-4 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,4-2 1 0 0,-5 2 1 0 0,1-1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,2-2 0 0 0,2-2 0 0 0,5-5 0 0 0,12-15 0 0 0,-13 16 0 0 0,-7 7 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,3-5 0 0 0,-1 1 0 0 0,3-11 0 0 0,-2 2 0 0 0,-1 9 0 0 0,-2 2 0 0 0,2-6 0 0 0,-4 9 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,1-2 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,2-3 0 0 0,-1 3 0 0 0,-1 1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0-2 0 0 0,0 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1-2 0 0 0,2 0 0 0 0,-3 1 0 0 0,-1 3 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 3 0 0 0,-1 1 0 0 0,1-1 0 0 0,-3 7 0 0 0,1-3 0 0 0,-5 21 0 0 0,-4 14 0 0 0,11-42 0 0 0,-1 5 0 0 0,-5 11 0 0 0,-7 21 0 0 0,11-35 0 0 0,1 0 0 0 0,-1 0 0 0 0,-2 4 0 0 0,2-4 0 0 0,0 1 0 0 0,-1 3 0 0 0,0 1 0 0 0,-3 5 0 0 0,3-6 0 0 0,-4 13 0 0 0,2-7 0 0 0,-6 13 0 0 0,-1 4 0 0 0,-8 22 0 0 0,19-47 0 0 0,-2 7 0 0 0,3-8 0 0 0,-1 0 0 0 0,-2 7 0 0 0,0-4 0 0 0,3-5 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-3 2 0 0 0,0 0 0 0 0,2-3 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-3 2 0 0 0,1-1 0 0 0,2-1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,0-5 0 0 0,1-7 2 0 0,2-13 0 0 0,-1 19-1 0 0,0-1 0 0 0,0 1 0 0 0,5-12-1 0 0,-4 14 2 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,7-8-1 0 0,-6 7 0 0 0,0 0 1 0 0,0-1-1 0 0,5-9 0 0 0,-1-1 0 0 0,1 1-1 0 0,20-31 6 0 0,-21 34-6 0 0,-4 7 2 0 0,4-7-1 0 0,31-45 9 0 0,-35 52-11 0 0,26-41 8 0 0,-12 24-3 0 0,-7 10-3 0 0,-6 8-2 0 0,-4 4 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-2 0 0 0,1-1 0 0 0,-2 3 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-3 6 33 0 0,-3 4-19 0 0,0-1-1 0 0,0 1 0 0 0,-5 10 1 0 0,9-13-4 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 9-1 0 0,2-13-5 0 0,-2 34 52 0 0,2-33-52 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,2 4 1 0 0,-2-6-10 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,1-1-12 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 1 0 0,3 0-1 0 0,-2 0 2 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,4-4 0 0 0,-2 0-29 0 0,7-15-1 0 0,3-8-37 0 0,-1 0 8 0 0,-11 24 57 0 0,7-12-20 0 0,-7 13 12 0 0,3-9 1 0 0,-2 5 4 0 0,4-11-21 0 0,-6 11 26 0 0,8-24-22 0 0,-9 29 38 0 0,-1 2 0 0 0,0 3 0 0 0,-1 21 0 0 0,1-10 0 0 0,0-1 0 0 0,0 35 0 0 0,0-33 1 0 0,5 38 6 0 0,2-24 1 0 0,-7-26-6 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,1 2 1 0 0,-1-2-1 0 0,-1 0-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,2-2 0 0 0,2-1-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,6-7 0 0 0,13-15 0 0 0,-19 21 0 0 0,6-11 0 0 0,-2 3 0 0 0,-2 4-1 0 0,15-23-6 0 0,6-13 0 0 0,-24 39 7 0 0,4-8-1 0 0,-5 8-2 0 0,6-8-1 0 0,6-11-12 0 0,-12 21 16 0 0,1 0-16 0 0,5-10 0 0 0,-5 8-2 0 0,-2 6 18 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1-1 0 0,0 22-11 0 0,-5 34 1 0 0,4-52 12 0 0,-5 32-7 0 0,5-32 7 0 0,-4 7-1 0 0,1 0-6 0 0,3-10 7 0 0,0 0-1 0 0,0 1 1 0 0,-2 2 0 0 0,-1 1 0 0 0,-2 6 0 0 0,-13 18 0 0 0,18-28 0 0 0,-5 5 0 0 0,2-4 0 0 0,4-3-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,-2-4-11 0 0,2 1-7 0 0,-2-6 0 0 0,2 8 13 0 0,1-1-16 0 0,0 2 22 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,14 6-2 0 0,12 4-7 0 0,-22-9 8 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,5-1 0 0 0,-4 0 1 0 0,1-1 0 0 0,-1 0 0 0 0,7-1 0 0 0,-8 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,3-2 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,8-9 0 0 0,-6 6 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,9-16 0 0 0,4-15 0 0 0,-18 35 0 0 0,3-7 0 0 0,-3 7 0 0 0,1 0 0 0 0,1-5 0 0 0,0 3 0 0 0,3-12 0 0 0,-1 4 0 0 0,-2 4 0 0 0,0-1 0 0 0,1-19 0 0 0,-2 16 0 0 0,7-46 0 0 0,-6 32 0 0 0,2-10 0 0 0,0 0 0 0 0,-4 28 0 0 0,-1 3 0 0 0,0 14 47 0 0,2 7 0 0 0,0 6 92 0 0,-2-4-19 0 0,0-10-92 0 0,-1 35 143 0 0,-1-1 133 0 0,1-17-128 0 0,0 6-64 0 0,0 31 121 0 0,1-43-73 0 0,5 27 0 0 0,-1-22-71 0 0,9 41 175 0 0,-12-58-208 0 0,1 0 0 0 0,3 8-1 0 0,-5-13-49 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,1-2 1 0 0,1 0 0 0 0,-1 0 0 0 0,4-4-1 0 0,-4 5 5 0 0,2-4 4 0 0,0 0-1 0 0,6-11 1 0 0,-6 10-4 0 0,-1-1-7 0 0,1 1 0 0 0,-1-1 0 0 0,3-9-1 0 0,-3 6 3 0 0,2-6 0 0 0,0 0 0 0 0,3-4 4 0 0,-7 16-5 0 0,2-5 0 0 0,-1 2-1 0 0,-2 3-2 0 0,-1 6 0 0 0,-2 1 0 0 0,1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 6 0 0 0,0 1 0 0 0,0 13 0 0 0,1-22 0 0 0,0 5 0 0 0,1 5 0 0 0,-1-9 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,2 3 0 0 0,-1-2 9 0 0,0-2-4 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1-4 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,1-1 5 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1-3-1 0 0,3-2 16 0 0,0 0 0 0 0,5-10 1 0 0,9-15 54 0 0,2-3-35 0 0,-11 19-14 0 0,-6 9 8 0 0,5-8 1 0 0,-1 2 21 0 0,-8 11-42 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,1-2 1 0 0,-2 2 24 0 0,0 5 18 0 0,-1 3-28 0 0,0 1-1 0 0,0-1 1 0 0,-5 16-1 0 0,4-15-7 0 0,-2 8 35 0 0,4-17-53 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-4 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,6-7 13 0 0,14-23 3 0 0,-15 22-9 0 0,7-14 0 0 0,-6 9-2 0 0,17-31 27 0 0,-18 35-23 0 0,-4 6 4 0 0,1 0 0 0 0,4-7 0 0 0,-5 9 5 0 0,1-1 11 0 0,-2 2-28 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 11 42 0 0,0-3-30 0 0,0 9 0 0 0,-4 25 30 0 0,2-23-30 0 0,-5 30 37 0 0,7-38-47 0 0,1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,3 17 1 0 0,-4-25-3 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,2 3 0 0 0,-3-5-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,2-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,4-4 0 0 0,-4 3 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,3-4 0 0 0,-2 2 0 0 0,4-6 0 0 0,-1 0 0 0 0,6-12 0 0 0,-5 7 0 0 0,5-24 0 0 0,-8 25 0 0 0,-1 0 0 0 0,1-25 0 0 0,-4 13 0 0 0,-1 14 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,-7-18 0 0 0,4 16 0 0 0,0 0 0 0 0,-16-23 0 0 0,13 23 0 0 0,-1 1 0 0 0,-13-13 0 0 0,16 20 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 1 0 0 0,1 1 0 0 0,-11-6 0 0 0,4 4 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 1 0 0 0,1 1 0 0 0,-26-4 0 0 0,18 5 6 0 0,0 1 0 0 0,0 1 1 0 0,-24 2-1 0 0,-81 16 18 0 0,93-9-12 0 0,-57 19 0 0 0,13 5 24 0 0,-92 51 0 0 0,89-34-9 0 0,1 5 9 0 0,-30 32 7 0 0,75-56-29 0 0,9-7 10 0 0,-38 41 0 0 0,-9 23 39 0 0,61-71-42 0 0,1 0 1 0 0,-13 26-1 0 0,20-33 1 0 0,0 2 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-3 21 0 0 0,6-28-14 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 1 0 0,3 4-1 0 0,-1-5 8 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,0 1 1 0 0,3 2-1 0 0,2 1 40 0 0,0 0 0 0 0,11 5 0 0 0,-13-8-33 0 0,1 0-1 0 0,-1-1 1 0 0,1 0 0 0 0,7 2-1 0 0,4-1 54 0 0,35 2-1 0 0,18-7 50 0 0,-62 1-109 0 0,87-10 110 0 0,117-36 66 0 0,16-7-34 0 0,-187 44-133 0 0,47-10 32 0 0,-42 12-30 0 0,106-17 54 0 0,-108 19-59 0 0,67-1 0 0 0,-103 7-20 0 0,11 0 12 0 0,23 3-1 0 0,-5 4-10 0 0,-35-6-3 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,5 3 0 0 0,11 9 3 0 0,-18-13-4 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 3 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-5 6 0 0 0,-4 2 0 0 0,-21 16 0 0 0,-37 23 0 0 0,-2-3 0 0 0,49-34 0 0 0,-73 41 0 0 0,-4-5 0 0 0,39-19 0 0 0,-80 34 0 0 0,88-41 0 0 0,-35 14 0 0 0,46-20 1 0 0,-102 40 6 0 0,-49 10 17 0 0,165-60-11 0 0,-1 0 0 0 0,-49 5 1 0 0,72-12-10 0 0,0-1 0 0 0,1 0 1 0 0,-13-2-1 0 0,16 2-3 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-4-3 0 0 0,4 3 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-3 1 0 0,1-1 2 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,3-6 0 0 0,3-5 0 0 0,0 1 1 0 0,2 1 0 0 0,-1 0 0 0 0,2 0 0 0 0,0 1 0 0 0,0 0-1 0 0,19-15 1 0 0,-15 15-3 0 0,26-23-2 0 0,28-27 0 0 0,12-2 0 0 0,70-49-24 0 0,-108 83 16 0 0,37-23-20 0 0,2 4 0 0 0,-25 15 12 0 0,166-97-136 0 0,-111 71 34 0 0,-18 9 28 0 0,3 4 2 0 0,-15 10-58 0 0,-46 17 68 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">881 448 8240 0 0,'0'0'0'0'0,"15"-11"0"0"0,0 1 0 0 0,1-1 88 0 0,1 3 8 0 0,2-2-8 0 0,1 3 16 0 0,-1-1-48 0 0,-2-1 0 0 0,0 0 8 0 0,1 0 0 0 0,0 1 80 0 0,0 1 8 0 0,0 0-8 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">1164 342 4416 0 0,'0'0'0'0'0,"8"-4"0"0"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">1378 490 1200 0 0,'0'0'0'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink34.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-23T17:22:46.857"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.025" units="cm"/>
@@ -3236,8 +3842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -3910,74 +4516,154 @@
       </c>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.5">
-      <c r="A45" s="1"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+    <row r="45" spans="1:5" ht="90" x14ac:dyDescent="0.5">
+      <c r="A45" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="2">
+        <v>44395</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.5">
-      <c r="A46" s="1"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+    <row r="46" spans="1:5" ht="60" x14ac:dyDescent="0.5">
+      <c r="A46" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="2">
+        <v>44396</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.5">
-      <c r="A47" s="1"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.5">
+      <c r="A47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="2">
+        <v>44396</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.5">
-      <c r="A48" s="1"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+    <row r="48" spans="1:5" ht="75" x14ac:dyDescent="0.5">
+      <c r="A48" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48" s="2">
+        <v>44397</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.5">
-      <c r="A49" s="1"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.5">
+      <c r="A49" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="2">
+        <v>44397</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.5">
-      <c r="A50" s="1"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.5">
+      <c r="A50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" s="2">
+        <v>44398</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.5">
-      <c r="A51" s="1"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.5">
+      <c r="A51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" s="2">
+        <v>44398</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.5">
-      <c r="A52" s="1"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+    <row r="52" spans="1:5" ht="60" x14ac:dyDescent="0.5">
+      <c r="A52" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" s="2">
+        <v>44399</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.5">
-      <c r="A53" s="1"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+    <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.5">
+      <c r="A53" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B53" s="2">
+        <v>44400</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.5">
-      <c r="A54" s="1"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+    <row r="54" spans="1:5" ht="60" x14ac:dyDescent="0.5">
+      <c r="A54" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" s="2">
+        <v>44400</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.5">

--- a/Bitácora.xlsx
+++ b/Bitácora.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agust\Documents\Universidad\8vo Semestre\Lab. Computación Gráfica\Proyecto_Final_Computacion_Grafica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A07ED3E-0CAE-44F4-B262-B9004A82F111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDC756B-DE17-4E55-BC5E-F31E9093F1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7013" yWindow="3820" windowWidth="19200" windowHeight="10073" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="91">
   <si>
     <t>Plan de Pruebas</t>
   </si>
@@ -261,27 +270,15 @@
     <t>Animaciones básicas. Wall-E y Speeder Bike</t>
   </si>
   <si>
-    <t>Animaciones Complejas. EVA</t>
-  </si>
-  <si>
-    <t>Se comenzó con las animaciones de EVA</t>
-  </si>
-  <si>
     <t>Se comenzó con el llenado de información en el Manual de Usuario con lo avanzado hasta el momento.</t>
   </si>
   <si>
     <t>Se comenzó con la animación de Wall-E y Speeder Bike iniciadas por teclado.</t>
   </si>
   <si>
-    <t>Se concluyó con la animación de Wall-E y se continuó con la animación de Speeder Bike</t>
-  </si>
-  <si>
     <t>Se concluyó con la animación de Speeder Bike.</t>
   </si>
   <si>
-    <t>Se continuó con las animaciones de EVA</t>
-  </si>
-  <si>
     <t>Animaciones extra. Sol y Luna</t>
   </si>
   <si>
@@ -295,6 +292,21 @@
   </si>
   <si>
     <t>Se comenzó con el desarrollo de la proyección de costos / ganancias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animaciones Complejas. EVA, Estrella de la Muerte y Star Fighter </t>
+  </si>
+  <si>
+    <t>Se continuó con las animaciones de EVA, Estrella de la Muerte y Star Fighter. Se logra que Star Fighter haga un movimiento sobre el Eje Y y haga una transición al Eje X.</t>
+  </si>
+  <si>
+    <t>Se concluyó con la animación de Wall-E y se continuó con la animación de Speeder Bike.</t>
+  </si>
+  <si>
+    <t>Se continuó con las animaciones de EVA, Estrella de la Muerte y Star Fighter. Se logra que Star Fighter colisione con la Estrella de la Muerte y esta Explote.</t>
+  </si>
+  <si>
+    <t>Se comenzó con las animaciones de EVA, Estrella de la Muerte y Star Fighter. Se logra que la Estrella de la Muerte haga un movimiento de rotación.</t>
   </si>
 </sst>
 </file>
@@ -3842,8 +3854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -4527,7 +4539,7 @@
         <v>5</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E45" s="1"/>
     </row>
@@ -4542,13 +4554,13 @@
         <v>5</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:5" ht="120" x14ac:dyDescent="0.5">
       <c r="A47" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B47" s="2">
         <v>44396</v>
@@ -4557,7 +4569,7 @@
         <v>12</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E47" s="1"/>
     </row>
@@ -4572,13 +4584,13 @@
         <v>5</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:5" ht="120" x14ac:dyDescent="0.5">
       <c r="A49" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B49" s="2">
         <v>44397</v>
@@ -4587,7 +4599,7 @@
         <v>12</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E49" s="1"/>
     </row>
@@ -4602,13 +4614,13 @@
         <v>5</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:5" ht="120" x14ac:dyDescent="0.5">
       <c r="A51" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B51" s="2">
         <v>44398</v>
@@ -4617,13 +4629,13 @@
         <v>12</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" ht="60" x14ac:dyDescent="0.5">
       <c r="A52" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B52" s="2">
         <v>44399</v>
@@ -4632,7 +4644,7 @@
         <v>10</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E52" s="1"/>
     </row>
@@ -4647,13 +4659,13 @@
         <v>5</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" ht="60" x14ac:dyDescent="0.5">
       <c r="A54" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B54" s="2">
         <v>44400</v>
@@ -4662,7 +4674,7 @@
         <v>5</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E54" s="1"/>
     </row>

--- a/Bitácora.xlsx
+++ b/Bitácora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agust\Documents\Universidad\8vo Semestre\Lab. Computación Gráfica\Proyecto_Final_Computacion_Grafica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDC756B-DE17-4E55-BC5E-F31E9093F1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6916626E-6F45-4F37-837C-04301F624666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3854,7 +3854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>

--- a/Bitácora.xlsx
+++ b/Bitácora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agust\Documents\Universidad\8vo Semestre\Lab. Computación Gráfica\Proyecto_Final_Computacion_Grafica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6916626E-6F45-4F37-837C-04301F624666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82427206-7621-4BA9-99AD-3CE51DA5A82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="93">
   <si>
     <t>Plan de Pruebas</t>
   </si>
@@ -282,18 +282,9 @@
     <t>Animaciones extra. Sol y Luna</t>
   </si>
   <si>
-    <t>Se crearon las animaciones mediante KeyFrames del Sol y la Luna</t>
-  </si>
-  <si>
-    <t>Se continuó con el desarrollo del Manual de Usuario</t>
-  </si>
-  <si>
     <t>Proyección de Costos / Ganancias</t>
   </si>
   <si>
-    <t>Se comenzó con el desarrollo de la proyección de costos / ganancias</t>
-  </si>
-  <si>
     <t xml:space="preserve">Animaciones Complejas. EVA, Estrella de la Muerte y Star Fighter </t>
   </si>
   <si>
@@ -307,6 +298,21 @@
   </si>
   <si>
     <t>Se comenzó con las animaciones de EVA, Estrella de la Muerte y Star Fighter. Se logra que la Estrella de la Muerte haga un movimiento de rotación.</t>
+  </si>
+  <si>
+    <t>Ángel Brito, Mario Huarte</t>
+  </si>
+  <si>
+    <t>Se concluyeron las animaciones de EVA, Estrella de la Muerte y Star Fighter. Se logra que EVA gire sobre Wall-E en su punto inicial y finalice en la posición de inicio.</t>
+  </si>
+  <si>
+    <t>Se comenzó con el desarrollo de la proyección de costos / ganancias.</t>
+  </si>
+  <si>
+    <t>Se continuó con el desarrollo del Manual de Usuario.</t>
+  </si>
+  <si>
+    <t>Se crearon las animaciones mediante KeyFrames del Sol y la Luna.</t>
   </si>
 </sst>
 </file>
@@ -1353,66 +1359,6 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>431799</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>237066</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="532970" cy="496047"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
-      <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="32" name="Entrada de lápiz 31">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F8869C9-BDBC-411E-BA77-624A8A03FE7D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="6548966" y="10206566"/>
-            <a:ext cx="532970" cy="496047"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="32" name="Entrada de lápiz 31">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F8869C9-BDBC-411E-BA77-624A8A03FE7D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="6544648" y="10202249"/>
-              <a:ext cx="541607" cy="504680"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
       <xdr:colOff>440265</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>228599</xdr:rowOff>
@@ -1420,7 +1366,7 @@
     <xdr:ext cx="532970" cy="496047"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="33" name="Entrada de lápiz 32">
               <a:extLst>
@@ -1480,7 +1426,7 @@
     <xdr:ext cx="532970" cy="496047"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="34" name="Entrada de lápiz 33">
               <a:extLst>
@@ -1540,7 +1486,7 @@
     <xdr:ext cx="532970" cy="496047"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="35" name="Entrada de lápiz 34">
               <a:extLst>
@@ -1600,7 +1546,7 @@
     <xdr:ext cx="532970" cy="496047"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="36" name="Entrada de lápiz 35">
               <a:extLst>
@@ -1660,7 +1606,7 @@
     <xdr:ext cx="532970" cy="496047"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="37" name="Entrada de lápiz 36">
               <a:extLst>
@@ -1720,7 +1666,7 @@
     <xdr:ext cx="332037" cy="309034"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="38" name="Entrada de lápiz 37">
               <a:extLst>
@@ -1780,7 +1726,7 @@
     <xdr:ext cx="532970" cy="496047"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="39" name="Entrada de lápiz 38">
               <a:extLst>
@@ -1840,7 +1786,7 @@
     <xdr:ext cx="332037" cy="309034"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="40" name="Entrada de lápiz 39">
               <a:extLst>
@@ -1900,7 +1846,7 @@
     <xdr:ext cx="532970" cy="496047"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="41" name="Entrada de lápiz 40">
               <a:extLst>
@@ -1960,7 +1906,7 @@
     <xdr:ext cx="332037" cy="309034"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="42" name="Entrada de lápiz 41">
               <a:extLst>
@@ -2020,7 +1966,7 @@
     <xdr:ext cx="532970" cy="496047"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="43" name="Entrada de lápiz 42">
               <a:extLst>
@@ -2080,7 +2026,7 @@
     <xdr:ext cx="532970" cy="496047"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="44" name="Entrada de lápiz 43">
               <a:extLst>
@@ -2140,7 +2086,7 @@
     <xdr:ext cx="532970" cy="496047"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="46" name="Entrada de lápiz 45">
               <a:extLst>
@@ -2200,7 +2146,7 @@
     <xdr:ext cx="532970" cy="496047"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="47" name="Entrada de lápiz 46">
               <a:extLst>
@@ -2260,7 +2206,7 @@
     <xdr:ext cx="532970" cy="496047"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="48" name="Entrada de lápiz 47">
               <a:extLst>
@@ -2320,7 +2266,7 @@
     <xdr:ext cx="532970" cy="496047"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="49" name="Entrada de lápiz 48">
               <a:extLst>
@@ -2380,7 +2326,7 @@
     <xdr:ext cx="532970" cy="496047"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
       <mc:Choice Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="50" name="Entrada de lápiz 49">
               <a:extLst>
@@ -2430,6 +2376,1436 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>267480</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>472800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1087966</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>993211</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="105" name="Entrada de lápiz 104">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04594815-F445-4082-9E2B-E7E82E4EDA0F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6384647" y="53495300"/>
+            <a:ext cx="820486" cy="520411"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="105" name="Entrada de lápiz 104">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04594815-F445-4082-9E2B-E7E82E4EDA0F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6380327" y="53490978"/>
+              <a:ext cx="829126" cy="529055"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>359833</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>131233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1180319</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>651644</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="106" name="Entrada de lápiz 105">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67D621F3-A517-4365-B7C5-9A658AD81451}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6477000" y="51058233"/>
+            <a:ext cx="820486" cy="520411"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="106" name="Entrada de lápiz 105">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67D621F3-A517-4365-B7C5-9A658AD81451}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6472680" y="51053911"/>
+              <a:ext cx="829126" cy="529055"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>309032</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>249767</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1129518</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>770178</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId38">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="107" name="Entrada de lápiz 106">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2DA6061-B8CE-41C1-BE17-1935F50F146B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6426199" y="34412767"/>
+            <a:ext cx="820486" cy="520411"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="107" name="Entrada de lápiz 106">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2DA6061-B8CE-41C1-BE17-1935F50F146B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6421879" y="34408445"/>
+              <a:ext cx="829126" cy="529055"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>397932</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>148167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1218418</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>668578</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="108" name="Entrada de lápiz 107">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE49B932-B59A-4CC3-9A59-37123C96661B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6515099" y="31834667"/>
+            <a:ext cx="820486" cy="520411"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="108" name="Entrada de lápiz 107">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE49B932-B59A-4CC3-9A59-37123C96661B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6510779" y="31830345"/>
+              <a:ext cx="829126" cy="529055"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>309032</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>673100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1129518</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1193511</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId40">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="109" name="Entrada de lápiz 108">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEE96C0E-D9C1-436B-BF75-F9027B2BECE1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6426199" y="28549600"/>
+            <a:ext cx="820486" cy="520411"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="109" name="Entrada de lápiz 108">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEE96C0E-D9C1-436B-BF75-F9027B2BECE1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6421879" y="28545278"/>
+              <a:ext cx="829126" cy="529055"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>364065</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>436033</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1184551</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>956444</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId41">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="110" name="Entrada de lápiz 109">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{360D3FF5-637C-4A77-8543-56167BE6A82B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6481232" y="25645533"/>
+            <a:ext cx="820486" cy="520411"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="110" name="Entrada de lápiz 109">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{360D3FF5-637C-4A77-8543-56167BE6A82B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6476912" y="25641211"/>
+              <a:ext cx="829126" cy="529055"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>351365</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>414866</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1171851</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>935277</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId42">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="111" name="Entrada de lápiz 110">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E18E092-F5CA-439E-A3B6-4BC878297F9E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6468532" y="23147866"/>
+            <a:ext cx="820486" cy="520411"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="111" name="Entrada de lápiz 110">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E18E092-F5CA-439E-A3B6-4BC878297F9E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6464212" y="23143544"/>
+              <a:ext cx="829126" cy="529055"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>364065</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>376766</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1184551</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>897177</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="112" name="Entrada de lápiz 111">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03223CE3-061F-43A1-A4F3-0C5E66E4D4B3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6481232" y="20633266"/>
+            <a:ext cx="820486" cy="520411"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="112" name="Entrada de lápiz 111">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03223CE3-061F-43A1-A4F3-0C5E66E4D4B3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6476912" y="20628944"/>
+              <a:ext cx="829126" cy="529055"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>309031</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>309033</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1129517</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>829444</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId44">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="113" name="Entrada de lápiz 112">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAAB7EC3-B56A-4481-8B98-E4A427FED813}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6426198" y="18851033"/>
+            <a:ext cx="820486" cy="520411"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="113" name="Entrada de lápiz 112">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAAB7EC3-B56A-4481-8B98-E4A427FED813}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6421878" y="18846711"/>
+              <a:ext cx="829126" cy="529055"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>410631</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>444500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1231117</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>964911</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId45">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="114" name="Entrada de lápiz 113">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B2BADBC-7C49-409A-818D-C32B3D9F8D80}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6527798" y="16510000"/>
+            <a:ext cx="820486" cy="520411"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="114" name="Entrada de lápiz 113">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B2BADBC-7C49-409A-818D-C32B3D9F8D80}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6523478" y="16505678"/>
+              <a:ext cx="829126" cy="529055"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>334431</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>211667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1154917</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>732078</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId46">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="115" name="Entrada de lápiz 114">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77F3178F-232E-45A9-BA66-7E710D490065}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6451598" y="14181667"/>
+            <a:ext cx="820486" cy="520411"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="115" name="Entrada de lápiz 114">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77F3178F-232E-45A9-BA66-7E710D490065}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6447278" y="14177345"/>
+              <a:ext cx="829126" cy="529055"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>347131</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>287867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1167617</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>808278</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId47">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="116" name="Entrada de lápiz 115">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDAC8BB0-CEE2-4C98-B715-588F7588B7D7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6464298" y="11971867"/>
+            <a:ext cx="820486" cy="520411"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="116" name="Entrada de lápiz 115">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDAC8BB0-CEE2-4C98-B715-588F7588B7D7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6459978" y="11967545"/>
+              <a:ext cx="829126" cy="529055"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>440265</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1260751</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>698211</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId48">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="117" name="Entrada de lápiz 116">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE62AB28-EB2D-4B3F-B0E5-514A3CDFECAB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6557432" y="1955800"/>
+            <a:ext cx="820486" cy="520411"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="117" name="Entrada de lápiz 116">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE62AB28-EB2D-4B3F-B0E5-514A3CDFECAB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6553112" y="1951478"/>
+              <a:ext cx="829126" cy="529055"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>121980</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>106420</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1332978</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1016001</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId49">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="125" name="Entrada de lápiz 124">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03F58F09-BCE2-4777-8E29-890017661F8D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6239147" y="3979920"/>
+            <a:ext cx="1210998" cy="909581"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="125" name="Entrada de lápiz 124">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03F58F09-BCE2-4777-8E29-890017661F8D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6234828" y="3975601"/>
+              <a:ext cx="1219635" cy="918220"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333647</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>93721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1189567</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>736603</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId51">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="126" name="Entrada de lápiz 125">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBE28C6E-108F-404F-8A1C-57D85FBA8D05}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6450814" y="6253221"/>
+            <a:ext cx="855920" cy="642882"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="126" name="Entrada de lápiz 125">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBE28C6E-108F-404F-8A1C-57D85FBA8D05}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6446495" y="6248904"/>
+              <a:ext cx="864558" cy="651516"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>316714</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1172634</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>719670</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId53">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="127" name="Entrada de lápiz 126">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A68605B0-5817-4F5D-ABF7-11FE14DC0FCF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6433881" y="9284288"/>
+            <a:ext cx="855920" cy="642882"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="127" name="Entrada de lápiz 126">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A68605B0-5817-4F5D-ABF7-11FE14DC0FCF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6429562" y="9279971"/>
+              <a:ext cx="864558" cy="651516"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>338667</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1194587</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>795282</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId54">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="128" name="Entrada de lápiz 127">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A26792B7-5DCE-4D9C-BC2A-A6B71C6D8D10}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6455834" y="41173400"/>
+            <a:ext cx="855920" cy="642882"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="128" name="Entrada de lápiz 127">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A26792B7-5DCE-4D9C-BC2A-A6B71C6D8D10}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6451515" y="41169083"/>
+              <a:ext cx="864558" cy="651516"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>283634</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1139554</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>782582</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId55">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="129" name="Entrada de lápiz 128">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3127492-D254-4F8C-9EEC-02DAFF436A2C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6400801" y="42113200"/>
+            <a:ext cx="855920" cy="642882"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="129" name="Entrada de lápiz 128">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3127492-D254-4F8C-9EEC-02DAFF436A2C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6396482" y="42108883"/>
+              <a:ext cx="864558" cy="651516"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>351366</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1207286</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>685215</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId56">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="130" name="Entrada de lápiz 129">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34CC31C6-9459-4F5F-9D5B-C69095E85AD6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6468533" y="44873333"/>
+            <a:ext cx="855920" cy="642882"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="130" name="Entrada de lápiz 129">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34CC31C6-9459-4F5F-9D5B-C69095E85AD6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6464214" y="44869016"/>
+              <a:ext cx="864558" cy="651516"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>364066</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>804333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1184552</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>1324744</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId57">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="131" name="Entrada de lápiz 130">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0131612-AF1C-4515-B408-1560C25BAFA8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6481233" y="45635333"/>
+            <a:ext cx="820486" cy="520411"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="131" name="Entrada de lápiz 130">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0131612-AF1C-4515-B408-1560C25BAFA8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6476913" y="45631011"/>
+              <a:ext cx="829126" cy="529055"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>334433</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>389466</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1190353</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>1032348</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId58">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="132" name="Entrada de lápiz 131">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6374126-8F51-429F-9C1E-5E52CEA2203C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6451600" y="47696966"/>
+            <a:ext cx="855920" cy="642882"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="132" name="Entrada de lápiz 131">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6374126-8F51-429F-9C1E-5E52CEA2203C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6447281" y="47692649"/>
+              <a:ext cx="864558" cy="651516"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>321733</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>317499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1177653</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>960381</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId59">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="133" name="Entrada de lápiz 132">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4B9B008-AF4B-45BF-9319-A5717DC9E037}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6438900" y="49720499"/>
+            <a:ext cx="855920" cy="642882"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="133" name="Entrada de lápiz 132">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4B9B008-AF4B-45BF-9319-A5717DC9E037}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6434581" y="49716182"/>
+              <a:ext cx="864558" cy="651516"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2462,7 +3838,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">219 647 392 0 0,'0'-1'8'0'0,"-5"-5"1"0"0,4 5 2 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-3 0 0 0 0,0-1 86 0 0,0 1 0 0 0,0 1-1 0 0,-8 0 1 0 0,10-1-75 0 0,0 1 14 0 0,-1-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,-2 1-1 0 0,-1 2-25 0 0,3-3-11 0 0,0 1 0 0 0,0 0 0 0 0,-5 4 0 0 0,4-3-1 0 0,0 0 1 0 0,-6 4-1 0 0,2-2 14 0 0,-5 3 95 0 0,9-6-68 0 0,1 0-1 0 0,-1 0 0 0 0,-3 4 0 0 0,-27 27 380 0 0,29-29-329 0 0,3-2-21 0 0,0 1 1 0 0,-5 3-1 0 0,5-2-24 0 0,0-2-5 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 4-1 0 0,0-3 22 0 0,2-2-26 0 0,-1 1 0 0 0,0-1 0 0 0,0 3 1 0 0,1-4-30 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,4 4 95 0 0,-3-3-9 0 0,0 0 0 0 0,3 3 0 0 0,-3-4-80 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,2-1 0 0 0,-1 1 4 0 0,0 0-3 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,3-1 0 0 0,0 1 0 0 0,-1-1 22 0 0,5-3 0 0 0,1 0 32 0 0,-6 3-27 0 0,0 0 1 0 0,4-4-1 0 0,-1 2-6 0 0,-4 2-18 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,2-5-1 0 0,3-2 24 0 0,8-10 48 0 0,2-1 9 0 0,-14 16-86 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,2-4 0 0 0,2-2 21 0 0,-3 2 1 0 0,1 1 1 0 0,3-11-1 0 0,-3 9 10 0 0,-2 3-30 0 0,-1 5-9 0 0,-1-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1-1-1 0 0,1 0 12 0 0,-1 1-7 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,1-2 83 0 0,0 2 1 0 0,-1 2 175 0 0,0 2-233 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 3 0 0 0,-1 3-8 0 0,-4 23 108 0 0,1-5 6 0 0,0 1-27 0 0,4-21-86 0 0,1-4-12 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 2 0 0 0,2 4 54 0 0,-1-6-32 0 0,-1 0 0 0 0,1 0-1 0 0,1 3 1 0 0,-2-4-25 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,1 2 0 0 0,-1-2-5 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,2-1 9 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,5-3 0 0 0,2-3 16 0 0,-6 5-8 0 0,7-6-1 0 0,10-11 33 0 0,9-8 7 0 0,-19 17-32 0 0,-6 8-24 0 0,-1-1 0 0 0,-1-1-1 0 0,8-8 1 0 0,-7 6-3 0 0,17-27 36 0 0,-14 23-39 0 0,-5 8-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,3-6-1 0 0,-4 7 1 0 0,0 2-1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-5 3 0 0 0,-2 1-1 0 0,3-2 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-3 4 0 0 0,-5 5 0 0 0,-2 2-6 0 0,13-13 7 0 0,-2 3-1 0 0,-1 0 1 0 0,1 0-1 0 0,-5 9 0 0 0,-14 31-12 0 0,14-31 7 0 0,5-8 0 0 0,-4 8 0 0 0,7-12 5 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 3 1 0 0,-1-4 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,4-2 1 0 0,-5 2 1 0 0,1-1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,2-2 0 0 0,2-2 0 0 0,5-5 0 0 0,12-15 0 0 0,-13 16 0 0 0,-7 7 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,3-5 0 0 0,-1 1 0 0 0,3-11 0 0 0,-2 2 0 0 0,-1 9 0 0 0,-2 2 0 0 0,2-6 0 0 0,-4 9 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,1-2 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,2-3 0 0 0,-1 3 0 0 0,-1 1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0-2 0 0 0,0 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1-2 0 0 0,2 0 0 0 0,-3 1 0 0 0,-1 3 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 3 0 0 0,-1 1 0 0 0,1-1 0 0 0,-3 7 0 0 0,1-3 0 0 0,-5 21 0 0 0,-4 14 0 0 0,11-42 0 0 0,-1 5 0 0 0,-5 11 0 0 0,-7 21 0 0 0,11-35 0 0 0,1 0 0 0 0,-1 0 0 0 0,-2 4 0 0 0,2-4 0 0 0,0 1 0 0 0,-1 3 0 0 0,0 1 0 0 0,-3 5 0 0 0,3-6 0 0 0,-4 13 0 0 0,2-7 0 0 0,-6 13 0 0 0,-1 4 0 0 0,-8 22 0 0 0,19-47 0 0 0,-2 7 0 0 0,3-8 0 0 0,-1 0 0 0 0,-2 7 0 0 0,0-4 0 0 0,3-5 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-3 2 0 0 0,0 0 0 0 0,2-3 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-3 2 0 0 0,1-1 0 0 0,2-1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,0-5 0 0 0,1-7 2 0 0,2-13 0 0 0,-1 19-1 0 0,0-1 0 0 0,0 1 0 0 0,5-12-1 0 0,-4 14 2 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,7-8-1 0 0,-6 7 0 0 0,0 0 1 0 0,0-1-1 0 0,5-9 0 0 0,-1-1 0 0 0,1 1-1 0 0,20-31 6 0 0,-21 34-6 0 0,-4 7 2 0 0,4-7-1 0 0,31-45 9 0 0,-35 52-11 0 0,26-41 8 0 0,-12 24-3 0 0,-7 10-3 0 0,-6 8-2 0 0,-4 4 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-2 0 0 0,1-1 0 0 0,-2 3 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-3 6 33 0 0,-3 4-19 0 0,0-1-1 0 0,0 1 0 0 0,-5 10 1 0 0,9-13-4 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 9-1 0 0,2-13-5 0 0,-2 34 52 0 0,2-33-52 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,2 4 1 0 0,-2-6-10 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,1-1-12 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 1 0 0,3 0-1 0 0,-2 0 2 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,4-4 0 0 0,-2 0-29 0 0,7-15-1 0 0,3-8-37 0 0,-1 0 8 0 0,-11 24 57 0 0,7-12-20 0 0,-7 13 12 0 0,3-9 1 0 0,-2 5 4 0 0,4-11-21 0 0,-6 11 26 0 0,8-24-22 0 0,-9 29 38 0 0,-1 2 0 0 0,0 3 0 0 0,-1 21 0 0 0,1-10 0 0 0,0-1 0 0 0,0 35 0 0 0,0-33 1 0 0,5 38 6 0 0,2-24 1 0 0,-7-26-6 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,1 2 1 0 0,-1-2-1 0 0,-1 0-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,2-2 0 0 0,2-1-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,6-7 0 0 0,13-15 0 0 0,-19 21 0 0 0,6-11 0 0 0,-2 3 0 0 0,-2 4-1 0 0,15-23-6 0 0,6-13 0 0 0,-24 39 7 0 0,4-8-1 0 0,-5 8-2 0 0,6-8-1 0 0,6-11-12 0 0,-12 21 16 0 0,1 0-16 0 0,5-10 0 0 0,-5 8-2 0 0,-2 6 18 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1-1 0 0,0 22-11 0 0,-5 34 1 0 0,4-52 12 0 0,-5 32-7 0 0,5-32 7 0 0,-4 7-1 0 0,1 0-6 0 0,3-10 7 0 0,0 0-1 0 0,0 1 1 0 0,-2 2 0 0 0,-1 1 0 0 0,-2 6 0 0 0,-13 18 0 0 0,18-28 0 0 0,-5 5 0 0 0,2-4 0 0 0,4-3-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,-2-4-11 0 0,2 1-7 0 0,-2-6 0 0 0,2 8 13 0 0,1-1-16 0 0,0 2 22 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,14 6-2 0 0,12 4-7 0 0,-22-9 8 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,5-1 0 0 0,-4 0 1 0 0,1-1 0 0 0,-1 0 0 0 0,7-1 0 0 0,-8 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,3-2 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,8-9 0 0 0,-6 6 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,9-16 0 0 0,4-15 0 0 0,-18 35 0 0 0,3-7 0 0 0,-3 7 0 0 0,1 0 0 0 0,1-5 0 0 0,0 3 0 0 0,3-12 0 0 0,-1 4 0 0 0,-2 4 0 0 0,0-1 0 0 0,1-19 0 0 0,-2 16 0 0 0,7-46 0 0 0,-6 32 0 0 0,2-10 0 0 0,0 0 0 0 0,-4 28 0 0 0,-1 3 0 0 0,0 14 47 0 0,2 7 0 0 0,0 6 92 0 0,-2-4-19 0 0,0-10-92 0 0,-1 35 143 0 0,-1-1 133 0 0,1-17-128 0 0,0 6-64 0 0,0 31 121 0 0,1-43-73 0 0,5 27 0 0 0,-1-22-71 0 0,9 41 175 0 0,-12-58-208 0 0,1 0 0 0 0,3 8-1 0 0,-5-13-49 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,1-2 1 0 0,1 0 0 0 0,-1 0 0 0 0,4-4-1 0 0,-4 5 5 0 0,2-4 4 0 0,0 0-1 0 0,6-11 1 0 0,-6 10-4 0 0,-1-1-7 0 0,1 1 0 0 0,-1-1 0 0 0,3-9-1 0 0,-3 6 3 0 0,2-6 0 0 0,0 0 0 0 0,3-4 4 0 0,-7 16-5 0 0,2-5 0 0 0,-1 2-1 0 0,-2 3-2 0 0,-1 6 0 0 0,-2 1 0 0 0,1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 6 0 0 0,0 1 0 0 0,0 13 0 0 0,1-22 0 0 0,0 5 0 0 0,1 5 0 0 0,-1-9 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,2 3 0 0 0,-1-2 9 0 0,0-2-4 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1-4 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,1-1 5 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1-3-1 0 0,3-2 16 0 0,0 0 0 0 0,5-10 1 0 0,9-15 54 0 0,2-3-35 0 0,-11 19-14 0 0,-6 9 8 0 0,5-8 1 0 0,-1 2 21 0 0,-8 11-42 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,1-2 1 0 0,-2 2 24 0 0,0 5 18 0 0,-1 3-28 0 0,0 1-1 0 0,0-1 1 0 0,-5 16-1 0 0,4-15-7 0 0,-2 8 35 0 0,4-17-53 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-4 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,6-7 13 0 0,14-23 3 0 0,-15 22-9 0 0,7-14 0 0 0,-6 9-2 0 0,17-31 27 0 0,-18 35-23 0 0,-4 6 4 0 0,1 0 0 0 0,4-7 0 0 0,-5 9 5 0 0,1-1 11 0 0,-2 2-28 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 11 42 0 0,0-3-30 0 0,0 9 0 0 0,-4 25 30 0 0,2-23-30 0 0,-5 30 37 0 0,7-38-47 0 0,1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,3 17 1 0 0,-4-25-3 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,2 3 0 0 0,-3-5-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,2-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,4-4 0 0 0,-4 3 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,3-4 0 0 0,-2 2 0 0 0,4-6 0 0 0,-1 0 0 0 0,6-12 0 0 0,-5 7 0 0 0,5-24 0 0 0,-8 25 0 0 0,-1 0 0 0 0,1-25 0 0 0,-4 13 0 0 0,-1 14 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,-7-18 0 0 0,4 16 0 0 0,0 0 0 0 0,-16-23 0 0 0,13 23 0 0 0,-1 1 0 0 0,-13-13 0 0 0,16 20 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 1 0 0 0,1 1 0 0 0,-11-6 0 0 0,4 4 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 1 0 0 0,1 1 0 0 0,-26-4 0 0 0,18 5 6 0 0,0 1 0 0 0,0 1 1 0 0,-24 2-1 0 0,-81 16 18 0 0,93-9-12 0 0,-57 19 0 0 0,13 5 24 0 0,-92 51 0 0 0,89-34-9 0 0,1 5 9 0 0,-30 32 7 0 0,75-56-29 0 0,9-7 10 0 0,-38 41 0 0 0,-9 23 39 0 0,61-71-42 0 0,1 0 1 0 0,-13 26-1 0 0,20-33 1 0 0,0 2 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-3 21 0 0 0,6-28-14 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 1 0 0,3 4-1 0 0,-1-5 8 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,0 1 1 0 0,3 2-1 0 0,2 1 40 0 0,0 0 0 0 0,11 5 0 0 0,-13-8-33 0 0,1 0-1 0 0,-1-1 1 0 0,1 0 0 0 0,7 2-1 0 0,4-1 54 0 0,35 2-1 0 0,18-7 50 0 0,-62 1-109 0 0,87-10 110 0 0,117-36 66 0 0,16-7-34 0 0,-187 44-133 0 0,47-10 32 0 0,-42 12-30 0 0,106-17 54 0 0,-108 19-59 0 0,67-1 0 0 0,-103 7-20 0 0,11 0 12 0 0,23 3-1 0 0,-5 4-10 0 0,-35-6-3 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,5 3 0 0 0,11 9 3 0 0,-18-13-4 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 3 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-5 6 0 0 0,-4 2 0 0 0,-21 16 0 0 0,-37 23 0 0 0,-2-3 0 0 0,49-34 0 0 0,-73 41 0 0 0,-4-5 0 0 0,39-19 0 0 0,-80 34 0 0 0,88-41 0 0 0,-35 14 0 0 0,46-20 1 0 0,-102 40 6 0 0,-49 10 17 0 0,165-60-11 0 0,-1 0 0 0 0,-49 5 1 0 0,72-12-10 0 0,0-1 0 0 0,1 0 1 0 0,-13-2-1 0 0,16 2-3 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-4-3 0 0 0,4 3 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-3 1 0 0,1-1 2 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,3-6 0 0 0,3-5 0 0 0,0 1 1 0 0,2 1 0 0 0,-1 0 0 0 0,2 0 0 0 0,0 1 0 0 0,0 0-1 0 0,19-15 1 0 0,-15 15-3 0 0,26-23-2 0 0,28-27 0 0 0,12-2 0 0 0,70-49-24 0 0,-108 83 16 0 0,37-23-20 0 0,2 4 0 0 0,-25 15 12 0 0,166-97-136 0 0,-111 71 34 0 0,-18 9 28 0 0,3 4 2 0 0,-15 10-58 0 0,-46 17 68 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="328.63">881 448 8240 0 0,'0'0'0'0'0,"15"-11"0"0"0,0 1 0 0 0,1-1 88 0 0,1 3 8 0 0,2-2-8 0 0,1 3 16 0 0,-1-1-48 0 0,-2-1 0 0 0,0 0 8 0 0,1 0 0 0 0,0 1 80 0 0,0 1 8 0 0,0 0-8 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="654.95">1164 342 4416 0 0,'0'0'0'0'0,"8"-4"0"0"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="654.94">1164 342 4416 0 0,'0'0'0'0'0,"8"-4"0"0"0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1886.38">1378 490 1200 0 0,'0'0'0'0'0</inkml:trace>
 </inkml:ink>
 </file>
@@ -2725,7 +4101,7 @@
           <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-07-18T00:30:12.101"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-18T00:30:23.519"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.025" units="cm"/>
@@ -2759,7 +4135,7 @@
           <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-07-18T00:30:23.519"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-18T00:34:55.892"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.025" units="cm"/>
@@ -2793,7 +4169,7 @@
           <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-07-18T00:34:55.892"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-18T00:34:55.896"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.025" units="cm"/>
@@ -2861,7 +4237,7 @@
           <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-07-18T00:34:55.896"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-18T00:37:28.068"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.025" units="cm"/>
@@ -2895,7 +4271,7 @@
           <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-07-18T00:37:28.068"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-18T00:37:28.072"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.025" units="cm"/>
@@ -2929,40 +4305,6 @@
           <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-07-18T00:37:28.072"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.025" units="cm"/>
-      <inkml:brushProperty name="height" value="0.025" units="cm"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">219 647 392 0 0,'0'-1'8'0'0,"-5"-5"1"0"0,4 5 2 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-3 0 0 0 0,0-1 86 0 0,0 1 0 0 0,0 1-1 0 0,-8 0 1 0 0,10-1-75 0 0,0 1 14 0 0,-1-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,-2 1-1 0 0,-1 2-25 0 0,3-3-11 0 0,0 1 0 0 0,0 0 0 0 0,-5 4 0 0 0,4-3-1 0 0,0 0 1 0 0,-6 4-1 0 0,2-2 14 0 0,-5 3 95 0 0,9-6-68 0 0,1 0-1 0 0,-1 0 0 0 0,-3 4 0 0 0,-27 27 380 0 0,29-29-329 0 0,3-2-21 0 0,0 1 1 0 0,-5 3-1 0 0,5-2-24 0 0,0-2-5 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 4-1 0 0,0-3 22 0 0,2-2-26 0 0,-1 1 0 0 0,0-1 0 0 0,0 3 1 0 0,1-4-30 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,4 4 95 0 0,-3-3-9 0 0,0 0 0 0 0,3 3 0 0 0,-3-4-80 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,2-1 0 0 0,-1 1 4 0 0,0 0-3 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,3-1 0 0 0,0 1 0 0 0,-1-1 22 0 0,5-3 0 0 0,1 0 32 0 0,-6 3-27 0 0,0 0 1 0 0,4-4-1 0 0,-1 2-6 0 0,-4 2-18 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,2-5-1 0 0,3-2 24 0 0,8-10 48 0 0,2-1 9 0 0,-14 16-86 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,2-4 0 0 0,2-2 21 0 0,-3 2 1 0 0,1 1 1 0 0,3-11-1 0 0,-3 9 10 0 0,-2 3-30 0 0,-1 5-9 0 0,-1-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1-1-1 0 0,1 0 12 0 0,-1 1-7 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,1-2 83 0 0,0 2 1 0 0,-1 2 175 0 0,0 2-233 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 3 0 0 0,-1 3-8 0 0,-4 23 108 0 0,1-5 6 0 0,0 1-27 0 0,4-21-86 0 0,1-4-12 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 2 0 0 0,2 4 54 0 0,-1-6-32 0 0,-1 0 0 0 0,1 0-1 0 0,1 3 1 0 0,-2-4-25 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,1 2 0 0 0,-1-2-5 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,2-1 9 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,5-3 0 0 0,2-3 16 0 0,-6 5-8 0 0,7-6-1 0 0,10-11 33 0 0,9-8 7 0 0,-19 17-32 0 0,-6 8-24 0 0,-1-1 0 0 0,-1-1-1 0 0,8-8 1 0 0,-7 6-3 0 0,17-27 36 0 0,-14 23-39 0 0,-5 8-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,3-6-1 0 0,-4 7 1 0 0,0 2-1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-5 3 0 0 0,-2 1-1 0 0,3-2 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-3 4 0 0 0,-5 5 0 0 0,-2 2-6 0 0,13-13 7 0 0,-2 3-1 0 0,-1 0 1 0 0,1 0-1 0 0,-5 9 0 0 0,-14 31-12 0 0,14-31 7 0 0,5-8 0 0 0,-4 8 0 0 0,7-12 5 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 3 1 0 0,-1-4 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,4-2 1 0 0,-5 2 1 0 0,1-1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,2-2 0 0 0,2-2 0 0 0,5-5 0 0 0,12-15 0 0 0,-13 16 0 0 0,-7 7 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,3-5 0 0 0,-1 1 0 0 0,3-11 0 0 0,-2 2 0 0 0,-1 9 0 0 0,-2 2 0 0 0,2-6 0 0 0,-4 9 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,1-2 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,2-3 0 0 0,-1 3 0 0 0,-1 1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0-2 0 0 0,0 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1-2 0 0 0,2 0 0 0 0,-3 1 0 0 0,-1 3 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 3 0 0 0,-1 1 0 0 0,1-1 0 0 0,-3 7 0 0 0,1-3 0 0 0,-5 21 0 0 0,-4 14 0 0 0,11-42 0 0 0,-1 5 0 0 0,-5 11 0 0 0,-7 21 0 0 0,11-35 0 0 0,1 0 0 0 0,-1 0 0 0 0,-2 4 0 0 0,2-4 0 0 0,0 1 0 0 0,-1 3 0 0 0,0 1 0 0 0,-3 5 0 0 0,3-6 0 0 0,-4 13 0 0 0,2-7 0 0 0,-6 13 0 0 0,-1 4 0 0 0,-8 22 0 0 0,19-47 0 0 0,-2 7 0 0 0,3-8 0 0 0,-1 0 0 0 0,-2 7 0 0 0,0-4 0 0 0,3-5 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-3 2 0 0 0,0 0 0 0 0,2-3 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-3 2 0 0 0,1-1 0 0 0,2-1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,0-5 0 0 0,1-7 2 0 0,2-13 0 0 0,-1 19-1 0 0,0-1 0 0 0,0 1 0 0 0,5-12-1 0 0,-4 14 2 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,7-8-1 0 0,-6 7 0 0 0,0 0 1 0 0,0-1-1 0 0,5-9 0 0 0,-1-1 0 0 0,1 1-1 0 0,20-31 6 0 0,-21 34-6 0 0,-4 7 2 0 0,4-7-1 0 0,31-45 9 0 0,-35 52-11 0 0,26-41 8 0 0,-12 24-3 0 0,-7 10-3 0 0,-6 8-2 0 0,-4 4 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-2 0 0 0,1-1 0 0 0,-2 3 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-3 6 33 0 0,-3 4-19 0 0,0-1-1 0 0,0 1 0 0 0,-5 10 1 0 0,9-13-4 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 9-1 0 0,2-13-5 0 0,-2 34 52 0 0,2-33-52 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,2 4 1 0 0,-2-6-10 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,1-1-12 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 1 0 0,3 0-1 0 0,-2 0 2 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,4-4 0 0 0,-2 0-29 0 0,7-15-1 0 0,3-8-37 0 0,-1 0 8 0 0,-11 24 57 0 0,7-12-20 0 0,-7 13 12 0 0,3-9 1 0 0,-2 5 4 0 0,4-11-21 0 0,-6 11 26 0 0,8-24-22 0 0,-9 29 38 0 0,-1 2 0 0 0,0 3 0 0 0,-1 21 0 0 0,1-10 0 0 0,0-1 0 0 0,0 35 0 0 0,0-33 1 0 0,5 38 6 0 0,2-24 1 0 0,-7-26-6 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,1 2 1 0 0,-1-2-1 0 0,-1 0-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,2-2 0 0 0,2-1-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,6-7 0 0 0,13-15 0 0 0,-19 21 0 0 0,6-11 0 0 0,-2 3 0 0 0,-2 4-1 0 0,15-23-6 0 0,6-13 0 0 0,-24 39 7 0 0,4-8-1 0 0,-5 8-2 0 0,6-8-1 0 0,6-11-12 0 0,-12 21 16 0 0,1 0-16 0 0,5-10 0 0 0,-5 8-2 0 0,-2 6 18 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1-1 0 0,0 22-11 0 0,-5 34 1 0 0,4-52 12 0 0,-5 32-7 0 0,5-32 7 0 0,-4 7-1 0 0,1 0-6 0 0,3-10 7 0 0,0 0-1 0 0,0 1 1 0 0,-2 2 0 0 0,-1 1 0 0 0,-2 6 0 0 0,-13 18 0 0 0,18-28 0 0 0,-5 5 0 0 0,2-4 0 0 0,4-3-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,-2-4-11 0 0,2 1-7 0 0,-2-6 0 0 0,2 8 13 0 0,1-1-16 0 0,0 2 22 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,14 6-2 0 0,12 4-7 0 0,-22-9 8 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,5-1 0 0 0,-4 0 1 0 0,1-1 0 0 0,-1 0 0 0 0,7-1 0 0 0,-8 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,3-2 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,8-9 0 0 0,-6 6 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,9-16 0 0 0,4-15 0 0 0,-18 35 0 0 0,3-7 0 0 0,-3 7 0 0 0,1 0 0 0 0,1-5 0 0 0,0 3 0 0 0,3-12 0 0 0,-1 4 0 0 0,-2 4 0 0 0,0-1 0 0 0,1-19 0 0 0,-2 16 0 0 0,7-46 0 0 0,-6 32 0 0 0,2-10 0 0 0,0 0 0 0 0,-4 28 0 0 0,-1 3 0 0 0,0 14 47 0 0,2 7 0 0 0,0 6 92 0 0,-2-4-19 0 0,0-10-92 0 0,-1 35 143 0 0,-1-1 133 0 0,1-17-128 0 0,0 6-64 0 0,0 31 121 0 0,1-43-73 0 0,5 27 0 0 0,-1-22-71 0 0,9 41 175 0 0,-12-58-208 0 0,1 0 0 0 0,3 8-1 0 0,-5-13-49 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,1-2 1 0 0,1 0 0 0 0,-1 0 0 0 0,4-4-1 0 0,-4 5 5 0 0,2-4 4 0 0,0 0-1 0 0,6-11 1 0 0,-6 10-4 0 0,-1-1-7 0 0,1 1 0 0 0,-1-1 0 0 0,3-9-1 0 0,-3 6 3 0 0,2-6 0 0 0,0 0 0 0 0,3-4 4 0 0,-7 16-5 0 0,2-5 0 0 0,-1 2-1 0 0,-2 3-2 0 0,-1 6 0 0 0,-2 1 0 0 0,1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 6 0 0 0,0 1 0 0 0,0 13 0 0 0,1-22 0 0 0,0 5 0 0 0,1 5 0 0 0,-1-9 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,2 3 0 0 0,-1-2 9 0 0,0-2-4 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1-4 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,1-1 5 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1-3-1 0 0,3-2 16 0 0,0 0 0 0 0,5-10 1 0 0,9-15 54 0 0,2-3-35 0 0,-11 19-14 0 0,-6 9 8 0 0,5-8 1 0 0,-1 2 21 0 0,-8 11-42 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,1-2 1 0 0,-2 2 24 0 0,0 5 18 0 0,-1 3-28 0 0,0 1-1 0 0,0-1 1 0 0,-5 16-1 0 0,4-15-7 0 0,-2 8 35 0 0,4-17-53 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-4 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,6-7 13 0 0,14-23 3 0 0,-15 22-9 0 0,7-14 0 0 0,-6 9-2 0 0,17-31 27 0 0,-18 35-23 0 0,-4 6 4 0 0,1 0 0 0 0,4-7 0 0 0,-5 9 5 0 0,1-1 11 0 0,-2 2-28 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 11 42 0 0,0-3-30 0 0,0 9 0 0 0,-4 25 30 0 0,2-23-30 0 0,-5 30 37 0 0,7-38-47 0 0,1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,3 17 1 0 0,-4-25-3 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,2 3 0 0 0,-3-5-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,2-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,4-4 0 0 0,-4 3 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,3-4 0 0 0,-2 2 0 0 0,4-6 0 0 0,-1 0 0 0 0,6-12 0 0 0,-5 7 0 0 0,5-24 0 0 0,-8 25 0 0 0,-1 0 0 0 0,1-25 0 0 0,-4 13 0 0 0,-1 14 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,-7-18 0 0 0,4 16 0 0 0,0 0 0 0 0,-16-23 0 0 0,13 23 0 0 0,-1 1 0 0 0,-13-13 0 0 0,16 20 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 1 0 0 0,1 1 0 0 0,-11-6 0 0 0,4 4 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 1 0 0 0,1 1 0 0 0,-26-4 0 0 0,18 5 6 0 0,0 1 0 0 0,0 1 1 0 0,-24 2-1 0 0,-81 16 18 0 0,93-9-12 0 0,-57 19 0 0 0,13 5 24 0 0,-92 51 0 0 0,89-34-9 0 0,1 5 9 0 0,-30 32 7 0 0,75-56-29 0 0,9-7 10 0 0,-38 41 0 0 0,-9 23 39 0 0,61-71-42 0 0,1 0 1 0 0,-13 26-1 0 0,20-33 1 0 0,0 2 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-3 21 0 0 0,6-28-14 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 1 0 0,3 4-1 0 0,-1-5 8 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,0 1 1 0 0,3 2-1 0 0,2 1 40 0 0,0 0 0 0 0,11 5 0 0 0,-13-8-33 0 0,1 0-1 0 0,-1-1 1 0 0,1 0 0 0 0,7 2-1 0 0,4-1 54 0 0,35 2-1 0 0,18-7 50 0 0,-62 1-109 0 0,87-10 110 0 0,117-36 66 0 0,16-7-34 0 0,-187 44-133 0 0,47-10 32 0 0,-42 12-30 0 0,106-17 54 0 0,-108 19-59 0 0,67-1 0 0 0,-103 7-20 0 0,11 0 12 0 0,23 3-1 0 0,-5 4-10 0 0,-35-6-3 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,5 3 0 0 0,11 9 3 0 0,-18-13-4 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 3 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-5 6 0 0 0,-4 2 0 0 0,-21 16 0 0 0,-37 23 0 0 0,-2-3 0 0 0,49-34 0 0 0,-73 41 0 0 0,-4-5 0 0 0,39-19 0 0 0,-80 34 0 0 0,88-41 0 0 0,-35 14 0 0 0,46-20 1 0 0,-102 40 6 0 0,-49 10 17 0 0,165-60-11 0 0,-1 0 0 0 0,-49 5 1 0 0,72-12-10 0 0,0-1 0 0 0,1 0 1 0 0,-13-2-1 0 0,16 2-3 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-4-3 0 0 0,4 3 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-3 1 0 0,1-1 2 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,3-6 0 0 0,3-5 0 0 0,0 1 1 0 0,2 1 0 0 0,-1 0 0 0 0,2 0 0 0 0,0 1 0 0 0,0 0-1 0 0,19-15 1 0 0,-15 15-3 0 0,26-23-2 0 0,28-27 0 0 0,12-2 0 0 0,70-49-24 0 0,-108 83 16 0 0,37-23-20 0 0,2 4 0 0 0,-25 15 12 0 0,166-97-136 0 0,-111 71 34 0 0,-18 9 28 0 0,3 4 2 0 0,-15 10-58 0 0,-46 17 68 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">881 448 8240 0 0,'0'0'0'0'0,"15"-11"0"0"0,0 1 0 0 0,1-1 88 0 0,1 3 8 0 0,2-2-8 0 0,1 3 16 0 0,-1-1-48 0 0,-2-1 0 0 0,0 0 8 0 0,1 0 0 0 0,0 1 80 0 0,0 1 8 0 0,0 0-8 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">1164 342 4416 0 0,'0'0'0'0'0,"8"-4"0"0"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">1378 490 1200 0 0,'0'0'0'0'0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink23.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
-          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
-          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
       <inkml:timestamp xml:id="ts0" timeString="2021-07-18T00:39:10.325"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
@@ -2977,7 +4319,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink23.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -3011,7 +4353,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink24.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -3045,7 +4387,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink25.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -3079,7 +4421,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink26.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -3113,7 +4455,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink27.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -3147,6 +4489,40 @@
 </inkml:ink>
 </file>
 
+<file path=xl/ink/ink28.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-23T17:06:28.719"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">219 647 392 0 0,'0'-1'8'0'0,"-5"-5"1"0"0,4 5 2 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-3 0 0 0 0,0-1 86 0 0,0 1 0 0 0,0 1-1 0 0,-8 0 1 0 0,10-1-75 0 0,0 1 14 0 0,-1-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,-2 1-1 0 0,-1 2-25 0 0,3-3-11 0 0,0 1 0 0 0,0 0 0 0 0,-5 4 0 0 0,4-3-1 0 0,0 0 1 0 0,-6 4-1 0 0,2-2 14 0 0,-5 3 95 0 0,9-6-68 0 0,1 0-1 0 0,-1 0 0 0 0,-3 4 0 0 0,-27 27 380 0 0,29-29-329 0 0,3-2-21 0 0,0 1 1 0 0,-5 3-1 0 0,5-2-24 0 0,0-2-5 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 4-1 0 0,0-3 22 0 0,2-2-26 0 0,-1 1 0 0 0,0-1 0 0 0,0 3 1 0 0,1-4-30 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,4 4 95 0 0,-3-3-9 0 0,0 0 0 0 0,3 3 0 0 0,-3-4-80 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,2-1 0 0 0,-1 1 4 0 0,0 0-3 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,3-1 0 0 0,0 1 0 0 0,-1-1 22 0 0,5-3 0 0 0,1 0 32 0 0,-6 3-27 0 0,0 0 1 0 0,4-4-1 0 0,-1 2-6 0 0,-4 2-18 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,2-5-1 0 0,3-2 24 0 0,8-10 48 0 0,2-1 9 0 0,-14 16-86 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,2-4 0 0 0,2-2 21 0 0,-3 2 1 0 0,1 1 1 0 0,3-11-1 0 0,-3 9 10 0 0,-2 3-30 0 0,-1 5-9 0 0,-1-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1-1-1 0 0,1 0 12 0 0,-1 1-7 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,1-2 83 0 0,0 2 1 0 0,-1 2 175 0 0,0 2-233 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 3 0 0 0,-1 3-8 0 0,-4 23 108 0 0,1-5 6 0 0,0 1-27 0 0,4-21-86 0 0,1-4-12 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 2 0 0 0,2 4 54 0 0,-1-6-32 0 0,-1 0 0 0 0,1 0-1 0 0,1 3 1 0 0,-2-4-25 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,1 2 0 0 0,-1-2-5 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,2-1 9 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,5-3 0 0 0,2-3 16 0 0,-6 5-8 0 0,7-6-1 0 0,10-11 33 0 0,9-8 7 0 0,-19 17-32 0 0,-6 8-24 0 0,-1-1 0 0 0,-1-1-1 0 0,8-8 1 0 0,-7 6-3 0 0,17-27 36 0 0,-14 23-39 0 0,-5 8-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,3-6-1 0 0,-4 7 1 0 0,0 2-1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-5 3 0 0 0,-2 1-1 0 0,3-2 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-3 4 0 0 0,-5 5 0 0 0,-2 2-6 0 0,13-13 7 0 0,-2 3-1 0 0,-1 0 1 0 0,1 0-1 0 0,-5 9 0 0 0,-14 31-12 0 0,14-31 7 0 0,5-8 0 0 0,-4 8 0 0 0,7-12 5 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 3 1 0 0,-1-4 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,4-2 1 0 0,-5 2 1 0 0,1-1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,2-2 0 0 0,2-2 0 0 0,5-5 0 0 0,12-15 0 0 0,-13 16 0 0 0,-7 7 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,3-5 0 0 0,-1 1 0 0 0,3-11 0 0 0,-2 2 0 0 0,-1 9 0 0 0,-2 2 0 0 0,2-6 0 0 0,-4 9 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,1-2 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,2-3 0 0 0,-1 3 0 0 0,-1 1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0-2 0 0 0,0 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1-2 0 0 0,2 0 0 0 0,-3 1 0 0 0,-1 3 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 3 0 0 0,-1 1 0 0 0,1-1 0 0 0,-3 7 0 0 0,1-3 0 0 0,-5 21 0 0 0,-4 14 0 0 0,11-42 0 0 0,-1 5 0 0 0,-5 11 0 0 0,-7 21 0 0 0,11-35 0 0 0,1 0 0 0 0,-1 0 0 0 0,-2 4 0 0 0,2-4 0 0 0,0 1 0 0 0,-1 3 0 0 0,0 1 0 0 0,-3 5 0 0 0,3-6 0 0 0,-4 13 0 0 0,2-7 0 0 0,-6 13 0 0 0,-1 4 0 0 0,-8 22 0 0 0,19-47 0 0 0,-2 7 0 0 0,3-8 0 0 0,-1 0 0 0 0,-2 7 0 0 0,0-4 0 0 0,3-5 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-3 2 0 0 0,0 0 0 0 0,2-3 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-3 2 0 0 0,1-1 0 0 0,2-1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,0-5 0 0 0,1-7 2 0 0,2-13 0 0 0,-1 19-1 0 0,0-1 0 0 0,0 1 0 0 0,5-12-1 0 0,-4 14 2 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,7-8-1 0 0,-6 7 0 0 0,0 0 1 0 0,0-1-1 0 0,5-9 0 0 0,-1-1 0 0 0,1 1-1 0 0,20-31 6 0 0,-21 34-6 0 0,-4 7 2 0 0,4-7-1 0 0,31-45 9 0 0,-35 52-11 0 0,26-41 8 0 0,-12 24-3 0 0,-7 10-3 0 0,-6 8-2 0 0,-4 4 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-2 0 0 0,1-1 0 0 0,-2 3 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-3 6 33 0 0,-3 4-19 0 0,0-1-1 0 0,0 1 0 0 0,-5 10 1 0 0,9-13-4 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 9-1 0 0,2-13-5 0 0,-2 34 52 0 0,2-33-52 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,2 4 1 0 0,-2-6-10 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,1-1-12 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 1 0 0,3 0-1 0 0,-2 0 2 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,4-4 0 0 0,-2 0-29 0 0,7-15-1 0 0,3-8-37 0 0,-1 0 8 0 0,-11 24 57 0 0,7-12-20 0 0,-7 13 12 0 0,3-9 1 0 0,-2 5 4 0 0,4-11-21 0 0,-6 11 26 0 0,8-24-22 0 0,-9 29 38 0 0,-1 2 0 0 0,0 3 0 0 0,-1 21 0 0 0,1-10 0 0 0,0-1 0 0 0,0 35 0 0 0,0-33 1 0 0,5 38 6 0 0,2-24 1 0 0,-7-26-6 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,1 2 1 0 0,-1-2-1 0 0,-1 0-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,2-2 0 0 0,2-1-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,6-7 0 0 0,13-15 0 0 0,-19 21 0 0 0,6-11 0 0 0,-2 3 0 0 0,-2 4-1 0 0,15-23-6 0 0,6-13 0 0 0,-24 39 7 0 0,4-8-1 0 0,-5 8-2 0 0,6-8-1 0 0,6-11-12 0 0,-12 21 16 0 0,1 0-16 0 0,5-10 0 0 0,-5 8-2 0 0,-2 6 18 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1-1 0 0,0 22-11 0 0,-5 34 1 0 0,4-52 12 0 0,-5 32-7 0 0,5-32 7 0 0,-4 7-1 0 0,1 0-6 0 0,3-10 7 0 0,0 0-1 0 0,0 1 1 0 0,-2 2 0 0 0,-1 1 0 0 0,-2 6 0 0 0,-13 18 0 0 0,18-28 0 0 0,-5 5 0 0 0,2-4 0 0 0,4-3-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,-2-4-11 0 0,2 1-7 0 0,-2-6 0 0 0,2 8 13 0 0,1-1-16 0 0,0 2 22 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,14 6-2 0 0,12 4-7 0 0,-22-9 8 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,5-1 0 0 0,-4 0 1 0 0,1-1 0 0 0,-1 0 0 0 0,7-1 0 0 0,-8 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,3-2 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,8-9 0 0 0,-6 6 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,9-16 0 0 0,4-15 0 0 0,-18 35 0 0 0,3-7 0 0 0,-3 7 0 0 0,1 0 0 0 0,1-5 0 0 0,0 3 0 0 0,3-12 0 0 0,-1 4 0 0 0,-2 4 0 0 0,0-1 0 0 0,1-19 0 0 0,-2 16 0 0 0,7-46 0 0 0,-6 32 0 0 0,2-10 0 0 0,0 0 0 0 0,-4 28 0 0 0,-1 3 0 0 0,0 14 47 0 0,2 7 0 0 0,0 6 92 0 0,-2-4-19 0 0,0-10-92 0 0,-1 35 143 0 0,-1-1 133 0 0,1-17-128 0 0,0 6-64 0 0,0 31 121 0 0,1-43-73 0 0,5 27 0 0 0,-1-22-71 0 0,9 41 175 0 0,-12-58-208 0 0,1 0 0 0 0,3 8-1 0 0,-5-13-49 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,1-2 1 0 0,1 0 0 0 0,-1 0 0 0 0,4-4-1 0 0,-4 5 5 0 0,2-4 4 0 0,0 0-1 0 0,6-11 1 0 0,-6 10-4 0 0,-1-1-7 0 0,1 1 0 0 0,-1-1 0 0 0,3-9-1 0 0,-3 6 3 0 0,2-6 0 0 0,0 0 0 0 0,3-4 4 0 0,-7 16-5 0 0,2-5 0 0 0,-1 2-1 0 0,-2 3-2 0 0,-1 6 0 0 0,-2 1 0 0 0,1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 6 0 0 0,0 1 0 0 0,0 13 0 0 0,1-22 0 0 0,0 5 0 0 0,1 5 0 0 0,-1-9 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,2 3 0 0 0,-1-2 9 0 0,0-2-4 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1-4 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,1-1 5 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1-3-1 0 0,3-2 16 0 0,0 0 0 0 0,5-10 1 0 0,9-15 54 0 0,2-3-35 0 0,-11 19-14 0 0,-6 9 8 0 0,5-8 1 0 0,-1 2 21 0 0,-8 11-42 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,1-2 1 0 0,-2 2 24 0 0,0 5 18 0 0,-1 3-28 0 0,0 1-1 0 0,0-1 1 0 0,-5 16-1 0 0,4-15-7 0 0,-2 8 35 0 0,4-17-53 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-4 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,6-7 13 0 0,14-23 3 0 0,-15 22-9 0 0,7-14 0 0 0,-6 9-2 0 0,17-31 27 0 0,-18 35-23 0 0,-4 6 4 0 0,1 0 0 0 0,4-7 0 0 0,-5 9 5 0 0,1-1 11 0 0,-2 2-28 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 11 42 0 0,0-3-30 0 0,0 9 0 0 0,-4 25 30 0 0,2-23-30 0 0,-5 30 37 0 0,7-38-47 0 0,1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,3 17 1 0 0,-4-25-3 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,2 3 0 0 0,-3-5-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,2-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,4-4 0 0 0,-4 3 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,3-4 0 0 0,-2 2 0 0 0,4-6 0 0 0,-1 0 0 0 0,6-12 0 0 0,-5 7 0 0 0,5-24 0 0 0,-8 25 0 0 0,-1 0 0 0 0,1-25 0 0 0,-4 13 0 0 0,-1 14 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,-7-18 0 0 0,4 16 0 0 0,0 0 0 0 0,-16-23 0 0 0,13 23 0 0 0,-1 1 0 0 0,-13-13 0 0 0,16 20 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 1 0 0 0,1 1 0 0 0,-11-6 0 0 0,4 4 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 1 0 0 0,1 1 0 0 0,-26-4 0 0 0,18 5 6 0 0,0 1 0 0 0,0 1 1 0 0,-24 2-1 0 0,-81 16 18 0 0,93-9-12 0 0,-57 19 0 0 0,13 5 24 0 0,-92 51 0 0 0,89-34-9 0 0,1 5 9 0 0,-30 32 7 0 0,75-56-29 0 0,9-7 10 0 0,-38 41 0 0 0,-9 23 39 0 0,61-71-42 0 0,1 0 1 0 0,-13 26-1 0 0,20-33 1 0 0,0 2 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-3 21 0 0 0,6-28-14 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 1 0 0,3 4-1 0 0,-1-5 8 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,0 1 1 0 0,3 2-1 0 0,2 1 40 0 0,0 0 0 0 0,11 5 0 0 0,-13-8-33 0 0,1 0-1 0 0,-1-1 1 0 0,1 0 0 0 0,7 2-1 0 0,4-1 54 0 0,35 2-1 0 0,18-7 50 0 0,-62 1-109 0 0,87-10 110 0 0,117-36 66 0 0,16-7-34 0 0,-187 44-133 0 0,47-10 32 0 0,-42 12-30 0 0,106-17 54 0 0,-108 19-59 0 0,67-1 0 0 0,-103 7-20 0 0,11 0 12 0 0,23 3-1 0 0,-5 4-10 0 0,-35-6-3 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,5 3 0 0 0,11 9 3 0 0,-18-13-4 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 3 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-5 6 0 0 0,-4 2 0 0 0,-21 16 0 0 0,-37 23 0 0 0,-2-3 0 0 0,49-34 0 0 0,-73 41 0 0 0,-4-5 0 0 0,39-19 0 0 0,-80 34 0 0 0,88-41 0 0 0,-35 14 0 0 0,46-20 1 0 0,-102 40 6 0 0,-49 10 17 0 0,165-60-11 0 0,-1 0 0 0 0,-49 5 1 0 0,72-12-10 0 0,0-1 0 0 0,1 0 1 0 0,-13-2-1 0 0,16 2-3 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-4-3 0 0 0,4 3 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-3 1 0 0,1-1 2 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,3-6 0 0 0,3-5 0 0 0,0 1 1 0 0,2 1 0 0 0,-1 0 0 0 0,2 0 0 0 0,0 1 0 0 0,0 0-1 0 0,19-15 1 0 0,-15 15-3 0 0,26-23-2 0 0,28-27 0 0 0,12-2 0 0 0,70-49-24 0 0,-108 83 16 0 0,37-23-20 0 0,2 4 0 0 0,-25 15 12 0 0,166-97-136 0 0,-111 71 34 0 0,-18 9 28 0 0,3 4 2 0 0,-15 10-58 0 0,-46 17 68 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">881 448 8240 0 0,'0'0'0'0'0,"15"-11"0"0"0,0 1 0 0 0,1-1 88 0 0,1 3 8 0 0,2-2-8 0 0,1 3 16 0 0,-1-1-48 0 0,-2-1 0 0 0,0 0 8 0 0,1 0 0 0 0,0 1 80 0 0,0 1 8 0 0,0 0-8 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">1164 342 4416 0 0,'0'0'0'0'0,"8"-4"0"0"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">1378 490 1200 0 0,'0'0'0'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/ink/ink29.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -3167,7 +4543,7 @@
           <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-07-23T17:06:28.719"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-23T17:15:43.248"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.025" units="cm"/>
@@ -3235,7 +4611,7 @@
           <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-07-23T17:15:43.248"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-23T17:15:58.702"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.025" units="cm"/>
@@ -3269,7 +4645,7 @@
           <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-07-23T17:15:58.702"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-23T17:16:46.086"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.025" units="cm"/>
@@ -3303,7 +4679,7 @@
           <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-07-23T17:16:46.086"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-23T17:21:36.971"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.025" units="cm"/>
@@ -3337,7 +4713,7 @@
           <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-07-23T17:21:36.971"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-23T17:22:46.857"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.025" units="cm"/>
@@ -3371,17 +4747,217 @@
           <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2021-07-23T17:22:46.857"/>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-24T18:58:35.183"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.025" units="cm"/>
       <inkml:brushProperty name="height" value="0.025" units="cm"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">219 647 392 0 0,'0'-1'8'0'0,"-5"-5"1"0"0,4 5 2 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-3 0 0 0 0,0-1 86 0 0,0 1 0 0 0,0 1-1 0 0,-8 0 1 0 0,10-1-75 0 0,0 1 14 0 0,-1-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,-2 1-1 0 0,-1 2-25 0 0,3-3-11 0 0,0 1 0 0 0,0 0 0 0 0,-5 4 0 0 0,4-3-1 0 0,0 0 1 0 0,-6 4-1 0 0,2-2 14 0 0,-5 3 95 0 0,9-6-68 0 0,1 0-1 0 0,-1 0 0 0 0,-3 4 0 0 0,-27 27 380 0 0,29-29-329 0 0,3-2-21 0 0,0 1 1 0 0,-5 3-1 0 0,5-2-24 0 0,0-2-5 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 4-1 0 0,0-3 22 0 0,2-2-26 0 0,-1 1 0 0 0,0-1 0 0 0,0 3 1 0 0,1-4-30 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,4 4 95 0 0,-3-3-9 0 0,0 0 0 0 0,3 3 0 0 0,-3-4-80 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,2-1 0 0 0,-1 1 4 0 0,0 0-3 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,3-1 0 0 0,0 1 0 0 0,-1-1 22 0 0,5-3 0 0 0,1 0 32 0 0,-6 3-27 0 0,0 0 1 0 0,4-4-1 0 0,-1 2-6 0 0,-4 2-18 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,2-5-1 0 0,3-2 24 0 0,8-10 48 0 0,2-1 9 0 0,-14 16-86 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,2-4 0 0 0,2-2 21 0 0,-3 2 1 0 0,1 1 1 0 0,3-11-1 0 0,-3 9 10 0 0,-2 3-30 0 0,-1 5-9 0 0,-1-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1-1-1 0 0,1 0 12 0 0,-1 1-7 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,1-2 83 0 0,0 2 1 0 0,-1 2 175 0 0,0 2-233 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 3 0 0 0,-1 3-8 0 0,-4 23 108 0 0,1-5 6 0 0,0 1-27 0 0,4-21-86 0 0,1-4-12 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 2 0 0 0,2 4 54 0 0,-1-6-32 0 0,-1 0 0 0 0,1 0-1 0 0,1 3 1 0 0,-2-4-25 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,1 2 0 0 0,-1-2-5 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,2-1 9 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,5-3 0 0 0,2-3 16 0 0,-6 5-8 0 0,7-6-1 0 0,10-11 33 0 0,9-8 7 0 0,-19 17-32 0 0,-6 8-24 0 0,-1-1 0 0 0,-1-1-1 0 0,8-8 1 0 0,-7 6-3 0 0,17-27 36 0 0,-14 23-39 0 0,-5 8-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,3-6-1 0 0,-4 7 1 0 0,0 2-1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-5 3 0 0 0,-2 1-1 0 0,3-2 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-3 4 0 0 0,-5 5 0 0 0,-2 2-6 0 0,13-13 7 0 0,-2 3-1 0 0,-1 0 1 0 0,1 0-1 0 0,-5 9 0 0 0,-14 31-12 0 0,14-31 7 0 0,5-8 0 0 0,-4 8 0 0 0,7-12 5 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 3 1 0 0,-1-4 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,4-2 1 0 0,-5 2 1 0 0,1-1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,2-2 0 0 0,2-2 0 0 0,5-5 0 0 0,12-15 0 0 0,-13 16 0 0 0,-7 7 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,3-5 0 0 0,-1 1 0 0 0,3-11 0 0 0,-2 2 0 0 0,-1 9 0 0 0,-2 2 0 0 0,2-6 0 0 0,-4 9 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,1-2 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,2-3 0 0 0,-1 3 0 0 0,-1 1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0-2 0 0 0,0 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1-2 0 0 0,2 0 0 0 0,-3 1 0 0 0,-1 3 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 3 0 0 0,-1 1 0 0 0,1-1 0 0 0,-3 7 0 0 0,1-3 0 0 0,-5 21 0 0 0,-4 14 0 0 0,11-42 0 0 0,-1 5 0 0 0,-5 11 0 0 0,-7 21 0 0 0,11-35 0 0 0,1 0 0 0 0,-1 0 0 0 0,-2 4 0 0 0,2-4 0 0 0,0 1 0 0 0,-1 3 0 0 0,0 1 0 0 0,-3 5 0 0 0,3-6 0 0 0,-4 13 0 0 0,2-7 0 0 0,-6 13 0 0 0,-1 4 0 0 0,-8 22 0 0 0,19-47 0 0 0,-2 7 0 0 0,3-8 0 0 0,-1 0 0 0 0,-2 7 0 0 0,0-4 0 0 0,3-5 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-3 2 0 0 0,0 0 0 0 0,2-3 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-3 2 0 0 0,1-1 0 0 0,2-1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,0-5 0 0 0,1-7 2 0 0,2-13 0 0 0,-1 19-1 0 0,0-1 0 0 0,0 1 0 0 0,5-12-1 0 0,-4 14 2 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,7-8-1 0 0,-6 7 0 0 0,0 0 1 0 0,0-1-1 0 0,5-9 0 0 0,-1-1 0 0 0,1 1-1 0 0,20-31 6 0 0,-21 34-6 0 0,-4 7 2 0 0,4-7-1 0 0,31-45 9 0 0,-35 52-11 0 0,26-41 8 0 0,-12 24-3 0 0,-7 10-3 0 0,-6 8-2 0 0,-4 4 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-2 0 0 0,1-1 0 0 0,-2 3 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-3 6 33 0 0,-3 4-19 0 0,0-1-1 0 0,0 1 0 0 0,-5 10 1 0 0,9-13-4 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 9-1 0 0,2-13-5 0 0,-2 34 52 0 0,2-33-52 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,2 4 1 0 0,-2-6-10 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,1-1-12 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 1 0 0,3 0-1 0 0,-2 0 2 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,4-4 0 0 0,-2 0-29 0 0,7-15-1 0 0,3-8-37 0 0,-1 0 8 0 0,-11 24 57 0 0,7-12-20 0 0,-7 13 12 0 0,3-9 1 0 0,-2 5 4 0 0,4-11-21 0 0,-6 11 26 0 0,8-24-22 0 0,-9 29 38 0 0,-1 2 0 0 0,0 3 0 0 0,-1 21 0 0 0,1-10 0 0 0,0-1 0 0 0,0 35 0 0 0,0-33 1 0 0,5 38 6 0 0,2-24 1 0 0,-7-26-6 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,1 2 1 0 0,-1-2-1 0 0,-1 0-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,2-2 0 0 0,2-1-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,6-7 0 0 0,13-15 0 0 0,-19 21 0 0 0,6-11 0 0 0,-2 3 0 0 0,-2 4-1 0 0,15-23-6 0 0,6-13 0 0 0,-24 39 7 0 0,4-8-1 0 0,-5 8-2 0 0,6-8-1 0 0,6-11-12 0 0,-12 21 16 0 0,1 0-16 0 0,5-10 0 0 0,-5 8-2 0 0,-2 6 18 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1-1 0 0,0 22-11 0 0,-5 34 1 0 0,4-52 12 0 0,-5 32-7 0 0,5-32 7 0 0,-4 7-1 0 0,1 0-6 0 0,3-10 7 0 0,0 0-1 0 0,0 1 1 0 0,-2 2 0 0 0,-1 1 0 0 0,-2 6 0 0 0,-13 18 0 0 0,18-28 0 0 0,-5 5 0 0 0,2-4 0 0 0,4-3-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,-2-4-11 0 0,2 1-7 0 0,-2-6 0 0 0,2 8 13 0 0,1-1-16 0 0,0 2 22 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,14 6-2 0 0,12 4-7 0 0,-22-9 8 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,5-1 0 0 0,-4 0 1 0 0,1-1 0 0 0,-1 0 0 0 0,7-1 0 0 0,-8 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,3-2 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,8-9 0 0 0,-6 6 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,9-16 0 0 0,4-15 0 0 0,-18 35 0 0 0,3-7 0 0 0,-3 7 0 0 0,1 0 0 0 0,1-5 0 0 0,0 3 0 0 0,3-12 0 0 0,-1 4 0 0 0,-2 4 0 0 0,0-1 0 0 0,1-19 0 0 0,-2 16 0 0 0,7-46 0 0 0,-6 32 0 0 0,2-10 0 0 0,0 0 0 0 0,-4 28 0 0 0,-1 3 0 0 0,0 14 47 0 0,2 7 0 0 0,0 6 92 0 0,-2-4-19 0 0,0-10-92 0 0,-1 35 143 0 0,-1-1 133 0 0,1-17-128 0 0,0 6-64 0 0,0 31 121 0 0,1-43-73 0 0,5 27 0 0 0,-1-22-71 0 0,9 41 175 0 0,-12-58-208 0 0,1 0 0 0 0,3 8-1 0 0,-5-13-49 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,1-2 1 0 0,1 0 0 0 0,-1 0 0 0 0,4-4-1 0 0,-4 5 5 0 0,2-4 4 0 0,0 0-1 0 0,6-11 1 0 0,-6 10-4 0 0,-1-1-7 0 0,1 1 0 0 0,-1-1 0 0 0,3-9-1 0 0,-3 6 3 0 0,2-6 0 0 0,0 0 0 0 0,3-4 4 0 0,-7 16-5 0 0,2-5 0 0 0,-1 2-1 0 0,-2 3-2 0 0,-1 6 0 0 0,-2 1 0 0 0,1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 6 0 0 0,0 1 0 0 0,0 13 0 0 0,1-22 0 0 0,0 5 0 0 0,1 5 0 0 0,-1-9 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,2 3 0 0 0,-1-2 9 0 0,0-2-4 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1-4 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,1-1 5 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1-3-1 0 0,3-2 16 0 0,0 0 0 0 0,5-10 1 0 0,9-15 54 0 0,2-3-35 0 0,-11 19-14 0 0,-6 9 8 0 0,5-8 1 0 0,-1 2 21 0 0,-8 11-42 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,1-2 1 0 0,-2 2 24 0 0,0 5 18 0 0,-1 3-28 0 0,0 1-1 0 0,0-1 1 0 0,-5 16-1 0 0,4-15-7 0 0,-2 8 35 0 0,4-17-53 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-4 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,6-7 13 0 0,14-23 3 0 0,-15 22-9 0 0,7-14 0 0 0,-6 9-2 0 0,17-31 27 0 0,-18 35-23 0 0,-4 6 4 0 0,1 0 0 0 0,4-7 0 0 0,-5 9 5 0 0,1-1 11 0 0,-2 2-28 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 11 42 0 0,0-3-30 0 0,0 9 0 0 0,-4 25 30 0 0,2-23-30 0 0,-5 30 37 0 0,7-38-47 0 0,1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,3 17 1 0 0,-4-25-3 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,2 3 0 0 0,-3-5-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,2-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,4-4 0 0 0,-4 3 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,3-4 0 0 0,-2 2 0 0 0,4-6 0 0 0,-1 0 0 0 0,6-12 0 0 0,-5 7 0 0 0,5-24 0 0 0,-8 25 0 0 0,-1 0 0 0 0,1-25 0 0 0,-4 13 0 0 0,-1 14 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,-7-18 0 0 0,4 16 0 0 0,0 0 0 0 0,-16-23 0 0 0,13 23 0 0 0,-1 1 0 0 0,-13-13 0 0 0,16 20 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 1 0 0 0,1 1 0 0 0,-11-6 0 0 0,4 4 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 1 0 0 0,1 1 0 0 0,-26-4 0 0 0,18 5 6 0 0,0 1 0 0 0,0 1 1 0 0,-24 2-1 0 0,-81 16 18 0 0,93-9-12 0 0,-57 19 0 0 0,13 5 24 0 0,-92 51 0 0 0,89-34-9 0 0,1 5 9 0 0,-30 32 7 0 0,75-56-29 0 0,9-7 10 0 0,-38 41 0 0 0,-9 23 39 0 0,61-71-42 0 0,1 0 1 0 0,-13 26-1 0 0,20-33 1 0 0,0 2 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-3 21 0 0 0,6-28-14 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 1 0 0,3 4-1 0 0,-1-5 8 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,0 1 1 0 0,3 2-1 0 0,2 1 40 0 0,0 0 0 0 0,11 5 0 0 0,-13-8-33 0 0,1 0-1 0 0,-1-1 1 0 0,1 0 0 0 0,7 2-1 0 0,4-1 54 0 0,35 2-1 0 0,18-7 50 0 0,-62 1-109 0 0,87-10 110 0 0,117-36 66 0 0,16-7-34 0 0,-187 44-133 0 0,47-10 32 0 0,-42 12-30 0 0,106-17 54 0 0,-108 19-59 0 0,67-1 0 0 0,-103 7-20 0 0,11 0 12 0 0,23 3-1 0 0,-5 4-10 0 0,-35-6-3 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,5 3 0 0 0,11 9 3 0 0,-18-13-4 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 3 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-5 6 0 0 0,-4 2 0 0 0,-21 16 0 0 0,-37 23 0 0 0,-2-3 0 0 0,49-34 0 0 0,-73 41 0 0 0,-4-5 0 0 0,39-19 0 0 0,-80 34 0 0 0,88-41 0 0 0,-35 14 0 0 0,46-20 1 0 0,-102 40 6 0 0,-49 10 17 0 0,165-60-11 0 0,-1 0 0 0 0,-49 5 1 0 0,72-12-10 0 0,0-1 0 0 0,1 0 1 0 0,-13-2-1 0 0,16 2-3 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-4-3 0 0 0,4 3 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-3 1 0 0,1-1 2 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,3-6 0 0 0,3-5 0 0 0,0 1 1 0 0,2 1 0 0 0,-1 0 0 0 0,2 0 0 0 0,0 1 0 0 0,0 0-1 0 0,19-15 1 0 0,-15 15-3 0 0,26-23-2 0 0,28-27 0 0 0,12-2 0 0 0,70-49-24 0 0,-108 83 16 0 0,37-23-20 0 0,2 4 0 0 0,-25 15 12 0 0,166-97-136 0 0,-111 71 34 0 0,-18 9 28 0 0,3 4 2 0 0,-15 10-58 0 0,-46 17 68 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">881 448 8240 0 0,'0'0'0'0'0,"15"-11"0"0"0,0 1 0 0 0,1-1 88 0 0,1 3 8 0 0,2-2-8 0 0,1 3 16 0 0,-1-1-48 0 0,-2-1 0 0 0,0 0 8 0 0,1 0 0 0 0,0 1 80 0 0,0 1 8 0 0,0 0-8 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">1164 342 4416 0 0,'0'0'0'0'0,"8"-4"0"0"0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">1378 490 1200 0 0,'0'0'0'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">244 1381 96 0 0,'4'0'0'0'0,"-2"0"0"0"0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,3 0 0 0 0,-3 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2-6 0 0 0,-1 1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1-11 0 0 0,-1 12 0 0 0,-1 0 0 0 0,-1 0 0 0 0,-1-10 0 0 0,-11-87 0 0 0,3-141 0 0 0,10 174 252 0 0,1 12 195 0 0,4-111 294 0 0,-4 144-540 0 0,1-15 211 0 0,1-22 74 0 0,1-21 22 0 0,-1 30 230 0 0,-3 20 21 0 0,0 32-384 0 0,0 2 306 0 0,3 2-72 0 0,-3-2-580 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,0 4 51 0 0,6 14 87 0 0,-1 0 0 0 0,4 27 0 0 0,3 43 526 0 0,-12-80-609 0 0,11 62 221 0 0,-5-40-178 0 0,-1 3 284 0 0,21 61 0 0 0,-21-82-287 0 0,14 25 0 0 0,-3-7 63 0 0,-7-11-38 0 0,21 41 221 0 0,-24-50-285 0 0,0 0 0 0 0,1 0 0 0 0,10 10 0 0 0,-15-17-24 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,9 6-1 0 0,-6-6-15 0 0,8 6 82 0 0,-12-9-109 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,3 0 0 0 0,-3-1-5 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-7 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-3 0 0 0,2-2 8 0 0,3-8 24 0 0,0-1 0 0 0,5-23 0 0 0,4-33 36 0 0,-5 20-29 0 0,18-111 37 0 0,-12 66-37 0 0,2-25-44 0 0,-8 41-6 0 0,-4 38-10 0 0,1-61 0 0 0,-7 71 6 0 0,1-49-16 0 0,-1 75 15 0 0,0 1 1 0 0,-1-11-1 0 0,0-3-24 0 0,1 18 16 0 0,1 2 2 0 0,2 5-1 0 0,-1-1 11 0 0,6 12-16 0 0,12 34 1 0 0,16 90-67 0 0,-10 0 20 0 0,-17-65 17 0 0,2 9 5 0 0,1 10 3 0 0,-3-26-5 0 0,-2-22 0 0 0,0-11 16 0 0,18 89-59 0 0,-3-50 25 0 0,-8-28 15 0 0,13 34-27 0 0,-19-61 32 0 0,21 36-1 0 0,-21-42 25 0 0,0-1 2 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3016.82">1063 633 3616 0 0,'0'0'321'0'0,"-2"2"-263"0"0,0 0-52 0 0,-7 6 74 0 0,-12 14 0 0 0,13-12 8 0 0,-13 11 0 0 0,-2 4 50 0 0,12-11-73 0 0,7-9-30 0 0,-5 7 1 0 0,5-8-11 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-4 10 0 0 0,7-14-17 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,0 3 34 0 0,-1-4 3 0 0,1-1-19 0 0,3-1 13 0 0,0 0-32 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,3-2 1 0 0,3-2 3 0 0,-2 0 0 0 0,8-8 1 0 0,-7 7 9 0 0,8-9 36 0 0,23-28 1 0 0,-33 37-43 0 0,-1-1 0 0 0,0 1 1 0 0,5-10-1 0 0,-5 7-4 0 0,0 2 7 0 0,-3 6-15 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,0-1 9 0 0,0 0-1 0 0,0 1 1 0 0,2-4 0 0 0,-1 3 9 0 0,-2 3-19 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 2 8 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-2 5 1 0 0,0 0-3 0 0,-17 35 46 0 0,13-31-24 0 0,6-9-28 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 2 0 0 0,-1 19 76 0 0,2-21-49 0 0,1-2 45 0 0,2 0-38 0 0,-2 0-34 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,1 0 0 0 0,7-8 12 0 0,0 1 0 0 0,-1-2-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,10-18 0 0 0,-14 22-12 0 0,0 0 6 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,9-8 0 0 0,-8 9-2 0 0,-1 3 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,6-4 0 0 0,-6 4 8 0 0,-2 1-12 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-2 1-2 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 2 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,0 3 0 0 0,-2 8 1 0 0,-9 37 13 0 0,8-31-7 0 0,2-13-6 0 0,1 0 1 0 0,-1 1-1 0 0,-2 5 1 0 0,2-6 8 0 0,-3 7 0 0 0,4-8 0 0 0,0 0 0 0 0,-1-1 0 0 0,-2 6 0 0 0,4-6 36 0 0,0-3-47 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 26 0 0,3-1 45 0 0,-2 1-70 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-2 11 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,1-3 1 0 0,3-8 42 0 0,8-32 39 0 0,-8 22-26 0 0,10-24-1 0 0,-14 45-63 0 0,22-51 122 0 0,-19 45-102 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,10-10-1 0 0,-6 6 7 0 0,-7 8-18 0 0,1 0 0 0 0,4-5 0 0 0,-6 6-5 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0-3 0 0 0,4-6 49 0 0,-5 9-43 0 0,0 1 1 0 0,-2 1 55 0 0,1 1-69 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 2-1 0 0,0 2 1 0 0,-3 8-1 0 0,1-4 0 0 0,-3 13 0 0 0,3-13 0 0 0,3-7 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 4 0 0 0,0 14-7 0 0,0-8 3 0 0,0 13 0 0 0,1-18 2 0 0,-1 4 4 0 0,0 2-26 0 0,1-1-122 0 0,-1-8 12 0 0,1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,2 7-1 0 0,-2-11 81 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 1 0 0 0,-2-2 47 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,8-6 3 0 0,-1-1 0 0 0,12-17 0 0 0,13-22 3 0 0,-31 45 2 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,3-3 0 0 0,6-4 8 0 0,3-3 118 0 0,-14 11-88 0 0,0 4 33 0 0,-1 6-65 0 0,-1 1-1 0 0,-4 17 0 0 0,4-24-9 0 0,2-3-3 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-2-5 0 0,5-3-378 0 0,0-3 318 0 0,0 0-1 0 0,-1 0 1 0 0,7-10-1 0 0,-6 8 24 0 0,-2 4-13 0 0,0-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,2-6 1 0 0,-4 9 50 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 0 2 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0-3 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,-1 1 1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-5 5 0 0 0,-2 4-18 0 0,6-8 14 0 0,1 1-1 0 0,-5 8 1 0 0,7-12 6 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,2 2-1 0 0,-2-3 2 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,1 0 0 0 0,2-1-3 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,6-7 0 0 0,-5 6 0 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,4-6 1 0 0,-7 9 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,-1-4 0 0 0,1 5 1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-3 1-1 0 0,-4 3 1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="45410.89">1137 857 2808 0 0,'0'0'40'0'0,"1"-1"-16"0"0,0 1-10 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,2 0 1 0 0,-1 0 90 0 0,0-1-60 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,2 1 0 0 0,-1-1 64 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,1 3 0 0 0,7 19 89 0 0,-6-14-47 0 0,0 0-132 0 0,-1 1 0 0 0,2 18 0 0 0,-3-20-6 0 0,2 29 26 0 0,-3-34 17 0 0,0 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 7 0 0 0,0-4 34 0 0,0 0 1 0 0,1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,4 10 0 0 0,1 10 846 0 0,-1-12-625 0 0,-4-11-195 0 0,0-1 0 0 0,0 1 0 0 0,1 4 0 0 0,-2-6 19 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="45854.87">1005 1172 6328 0 0,'0'0'1200'0'0,"0"-2"-1074"0"0,1 1-98 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,11-5 313 0 0,-10 5-290 0 0,23-13 306 0 0,-2 0-146 0 0,32-13 325 0 0,-45 22-451 0 0,0 1-1 0 0,13-3 1 0 0,-8 2-20 0 0,1 0 21 0 0,-9 4-14 0 0,11-6 0 0 0,-13 6-38 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="48686.4">41 1424 7528 0 0,'-2'2'8'0'0,"0"0"26"0"0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-4 1 0 0 0,6-1-25 0 0,-1-1 11 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1-1-4 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-2 0 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-1 404 0 0,2 1-412 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,3-2 30 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,3-3-1 0 0,-2 1 4 0 0,26-19 96 0 0,38-25 0 0 0,14 0-32 0 0,17-10-31 0 0,178-92 54 0 0,-251 138-120 0 0,123-59 39 0 0,-106 50-36 0 0,167-79 39 0 0,-148 75-34 0 0,49-21 3 0 0,-28 8 0 0 0,36-17 10 0 0,4 6-18 0 0,107-27 3 0 0,-95 25-5 0 0,-104 37-6 0 0,56-23 4 0 0,-26 15-4 0 0,12-4-1 0 0,59-15 12 0 0,-109 33 2 0 0,-24 8-15 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-2 1 1 0 0,-4 0 0 0 0,-62 16 100 0 0,-2 6 60 0 0,54-18-136 0 0,-28 8 33 0 0,-13 5 29 0 0,-25 16 263 0 0,22-9-123 0 0,-56 20 28 0 0,34-13-7 0 0,-75 33 312 0 0,120-47-473 0 0,-52 25 104 0 0,2 6 58 0 0,80-44-220 0 0,-46 26 148 0 0,38-25-119 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="49388.94">1431 1068 1896 0 0,'0'0'0'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="334209.56">1295 1049 992 0 0,'0'0'2352'0'0,"-1"1"-2215"0"0,-6 10 374 0 0,6-9-388 0 0,1-2-96 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 3 54 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 2 0 0 0,-1-3-26 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,2 0 1 0 0,1 1 36 0 0,-4-2-70 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,5 0 309 0 0,-5 0-239 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,1-2 0 0 0,-2 1 5 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,2-3 1 0 0,-1 2-13 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,5-2 0 0 0,-7 4-47 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-2 1 0 0,7-9 197 0 0,-4 4-21 0 0,-3 6-133 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0-5 0 0 0,0 3 80 0 0,0 0 0 0 0,-1-6 0 0 0,0 11-127 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0-18 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 1-4 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,2 5 82 0 0,7 18 139 0 0,-6-19-185 0 0,-2-4-33 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 2 0 0 0,2 8 92 0 0,1-4 37 0 0,-4-7-130 0 0,0 0-9 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,1 1 32 0 0,-1-1-12 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,2 1 0 0 0,-2-1-19 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,8-6 49 0 0,-8 6-44 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,2-2-1 0 0,1-3 25 0 0,-3 5-30 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,2-1 0 0 0,-1 1 2 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,2-2 0 0 0,3-7 23 0 0,5-8 24 0 0,-9 16-37 0 0,-2 2-14 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-2 1 0 0,0 2-3 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-2 1 1 0 0,1 0-3 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2 4 0 0 0,-2 0 0 0 0,4-3 0 0 0,0 0 0 0 0,0 0 0 0 0,-2 3 0 0 0,-3 3 0 0 0,6-7 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 4 0 0 0,0-6 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,27-9-8 0 0,-26 8 6 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,4-4 0 0 0,0-1-15 0 0,-5 5-11 0 0,1-1-1 0 0,4-5 1 0 0,-6 7 21 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,-2-1-28 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-3-1 0 0,2 4 21 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 2 0 0,0-1-29 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-1-1 0 0,5 2 35 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,6 7-20 0 0,-6-6 13 0 0,2 1 4 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,5 2-1 0 0,1 0-9 0 0,-6-2 10 0 0,9 3 0 0 0,-2-1-1 0 0,-4 0 2 0 0,-2-2-5 0 0,-3-1 8 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 4 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="334737.6">1668 930 7832 0 0,'0'0'1384'0'0,"1"1"-1334"0"0,1 1-38 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 3-1 0 0,-2-3 7 0 0,1-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,1 1-1 0 0,-1 0 13 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,0 1-1 0 0,0-1-1 0 0,-1-1-20 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 2 0 0 0,0-2-7 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-2-5-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-5-7 0 0 0,8 10 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,2-3 0 0 0,0-2 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,7-8 0 0 0,-3 4 0 0 0,-6 7 0 0 0,28-40 8 0 0,-26 37 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="335584.16">1747 704 7432 0 0,'0'0'193'0'0,"0"2"6"0"0,1 3 38 0 0,1 9 1 0 0,1 7-24 0 0,-2-12-81 0 0,0 1-1 0 0,5 15 0 0 0,5 22 294 0 0,-6-25-160 0 0,-4-20-239 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 5 1 0 0,0 7 89 0 0,3-8-51 0 0,-3-6-58 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1-1 63 0 0,-1 0-21 0 0,-1 3 6 0 0,1-3-55 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-4-2 41 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-9-1 0 0 0,9 2 40 0 0,1 1-10 0 0,0-1 1 0 0,1 1 0 0 0,-4 0 0 0 0,5 0-41 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 2 0 0 0,2-2 272 0 0,2 0-207 0 0,3 0-61 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,8-3 0 0 0,3 0-5 0 0,15-1 47 0 0,11-4 34 0 0,-24 6-61 0 0,1-1 30 0 0,-3-1-39 0 0,-12 4-29 0 0,-2 1-10 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1-2 0 0 0,1 2-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,2-6 77 0 0,-2 6-75 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,0-1 82 0 0,1 2-76 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-3 0 35 0 0,0 0 0 0 0,-5 2 0 0 0,3-1-20 0 0,1-1 16 0 0,0 1 0 0 0,-8 5-1 0 0,10-6-26 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1 2 0 0 0,2-4-8 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 2-1 0 0,-1-1 2 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,1 0 1 0 0,0 1 3 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,3 0 1 0 0,1 0 8 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,6-2-1 0 0,-8 1 3 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,7-5 0 0 0,-1 1 14 0 0,3-2 23 0 0,-9 5-43 0 0,1 0 0 0 0,4-2 1 0 0,-3 3-2 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink35.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-24T19:06:58.179"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">244 1381 96 0 0,'4'0'0'0'0,"-2"0"0"0"0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,3 0 0 0 0,-3 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2-6 0 0 0,-1 1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1-11 0 0 0,-1 12 0 0 0,-1 0 0 0 0,-1 0 0 0 0,-1-10 0 0 0,-11-87 0 0 0,3-141 0 0 0,10 174 252 0 0,1 12 195 0 0,4-111 294 0 0,-4 144-540 0 0,1-15 211 0 0,1-22 74 0 0,1-21 22 0 0,-1 30 230 0 0,-3 20 21 0 0,0 32-384 0 0,0 2 306 0 0,3 2-72 0 0,-3-2-580 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,0 4 51 0 0,6 14 87 0 0,-1 0 0 0 0,4 27 0 0 0,3 43 526 0 0,-12-80-609 0 0,11 62 221 0 0,-5-40-178 0 0,-1 3 284 0 0,21 61 0 0 0,-21-82-287 0 0,14 25 0 0 0,-3-7 63 0 0,-7-11-38 0 0,21 41 221 0 0,-24-50-285 0 0,0 0 0 0 0,1 0 0 0 0,10 10 0 0 0,-15-17-24 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,9 6-1 0 0,-6-6-15 0 0,8 6 82 0 0,-12-9-109 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,3 0 0 0 0,-3-1-5 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-7 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-3 0 0 0,2-2 8 0 0,3-8 24 0 0,0-1 0 0 0,5-23 0 0 0,4-33 36 0 0,-5 20-29 0 0,18-111 37 0 0,-12 66-37 0 0,2-25-44 0 0,-8 41-6 0 0,-4 38-10 0 0,1-61 0 0 0,-7 71 6 0 0,1-49-16 0 0,-1 75 15 0 0,0 1 1 0 0,-1-11-1 0 0,0-3-24 0 0,1 18 16 0 0,1 2 2 0 0,2 5-1 0 0,-1-1 11 0 0,6 12-16 0 0,12 34 1 0 0,16 90-67 0 0,-10 0 20 0 0,-17-65 17 0 0,2 9 5 0 0,1 10 3 0 0,-3-26-5 0 0,-2-22 0 0 0,0-11 16 0 0,18 89-59 0 0,-3-50 25 0 0,-8-28 15 0 0,13 34-27 0 0,-19-61 32 0 0,21 36-1 0 0,-21-42 25 0 0,0-1 2 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1063 633 3616 0 0,'0'0'321'0'0,"-2"2"-263"0"0,0 0-52 0 0,-7 6 74 0 0,-12 14 0 0 0,13-12 8 0 0,-13 11 0 0 0,-2 4 50 0 0,12-11-73 0 0,7-9-30 0 0,-5 7 1 0 0,5-8-11 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-4 10 0 0 0,7-14-17 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,0 3 34 0 0,-1-4 3 0 0,1-1-19 0 0,3-1 13 0 0,0 0-32 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,3-2 1 0 0,3-2 3 0 0,-2 0 0 0 0,8-8 1 0 0,-7 7 9 0 0,8-9 36 0 0,23-28 1 0 0,-33 37-43 0 0,-1-1 0 0 0,0 1 1 0 0,5-10-1 0 0,-5 7-4 0 0,0 2 7 0 0,-3 6-15 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,0-1 9 0 0,0 0-1 0 0,0 1 1 0 0,2-4 0 0 0,-1 3 9 0 0,-2 3-19 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 2 8 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-2 5 1 0 0,0 0-3 0 0,-17 35 46 0 0,13-31-24 0 0,6-9-28 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 2 0 0 0,-1 19 76 0 0,2-21-49 0 0,1-2 45 0 0,2 0-38 0 0,-2 0-34 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,1 0 0 0 0,7-8 12 0 0,0 1 0 0 0,-1-2-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,10-18 0 0 0,-14 22-12 0 0,0 0 6 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,9-8 0 0 0,-8 9-2 0 0,-1 3 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,6-4 0 0 0,-6 4 8 0 0,-2 1-12 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-2 1-2 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 2 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,0 3 0 0 0,-2 8 1 0 0,-9 37 13 0 0,8-31-7 0 0,2-13-6 0 0,1 0 1 0 0,-1 1-1 0 0,-2 5 1 0 0,2-6 8 0 0,-3 7 0 0 0,4-8 0 0 0,0 0 0 0 0,-1-1 0 0 0,-2 6 0 0 0,4-6 36 0 0,0-3-47 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 26 0 0,3-1 45 0 0,-2 1-70 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-2 11 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,1-3 1 0 0,3-8 42 0 0,8-32 39 0 0,-8 22-26 0 0,10-24-1 0 0,-14 45-63 0 0,22-51 122 0 0,-19 45-102 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,10-10-1 0 0,-6 6 7 0 0,-7 8-18 0 0,1 0 0 0 0,4-5 0 0 0,-6 6-5 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0-3 0 0 0,4-6 49 0 0,-5 9-43 0 0,0 1 1 0 0,-2 1 55 0 0,1 1-69 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 2-1 0 0,0 2 1 0 0,-3 8-1 0 0,1-4 0 0 0,-3 13 0 0 0,3-13 0 0 0,3-7 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 4 0 0 0,0 14-7 0 0,0-8 3 0 0,0 13 0 0 0,1-18 2 0 0,-1 4 4 0 0,0 2-26 0 0,1-1-122 0 0,-1-8 12 0 0,1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,2 7-1 0 0,-2-11 81 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 1 0 0 0,-2-2 47 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,8-6 3 0 0,-1-1 0 0 0,12-17 0 0 0,13-22 3 0 0,-31 45 2 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,3-3 0 0 0,6-4 8 0 0,3-3 118 0 0,-14 11-88 0 0,0 4 33 0 0,-1 6-65 0 0,-1 1-1 0 0,-4 17 0 0 0,4-24-9 0 0,2-3-3 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-2-5 0 0,5-3-378 0 0,0-3 318 0 0,0 0-1 0 0,-1 0 1 0 0,7-10-1 0 0,-6 8 24 0 0,-2 4-13 0 0,0-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,2-6 1 0 0,-4 9 50 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 0 2 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0-3 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,-1 1 1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-5 5 0 0 0,-2 4-18 0 0,6-8 14 0 0,1 1-1 0 0,-5 8 1 0 0,7-12 6 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,2 2-1 0 0,-2-3 2 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,1 0 0 0 0,2-1-3 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,6-7 0 0 0,-5 6 0 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,4-6 1 0 0,-7 9 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,-1-4 0 0 0,1 5 1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-3 1-1 0 0,-4 3 1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">1137 857 2808 0 0,'0'0'40'0'0,"1"-1"-16"0"0,0 1-10 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,2 0 1 0 0,-1 0 90 0 0,0-1-60 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,2 1 0 0 0,-1-1 64 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,1 3 0 0 0,7 19 89 0 0,-6-14-47 0 0,0 0-132 0 0,-1 1 0 0 0,2 18 0 0 0,-3-20-6 0 0,2 29 26 0 0,-3-34 17 0 0,0 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 7 0 0 0,0-4 34 0 0,0 0 1 0 0,1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,4 10 0 0 0,1 10 846 0 0,-1-12-625 0 0,-4-11-195 0 0,0-1 0 0 0,0 1 0 0 0,1 4 0 0 0,-2-6 19 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">1005 1172 6328 0 0,'0'0'1200'0'0,"0"-2"-1074"0"0,1 1-98 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,11-5 313 0 0,-10 5-290 0 0,23-13 306 0 0,-2 0-146 0 0,32-13 325 0 0,-45 22-451 0 0,0 1-1 0 0,13-3 1 0 0,-8 2-20 0 0,1 0 21 0 0,-9 4-14 0 0,11-6 0 0 0,-13 6-38 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4">41 1424 7528 0 0,'-2'2'8'0'0,"0"0"26"0"0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-4 1 0 0 0,6-1-25 0 0,-1-1 11 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1-1-4 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-2 0 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-1 404 0 0,2 1-412 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,3-2 30 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,3-3-1 0 0,-2 1 4 0 0,26-19 96 0 0,38-25 0 0 0,14 0-32 0 0,17-10-31 0 0,178-92 54 0 0,-251 138-120 0 0,123-59 39 0 0,-106 50-36 0 0,167-79 39 0 0,-148 75-34 0 0,49-21 3 0 0,-28 8 0 0 0,36-17 10 0 0,4 6-18 0 0,107-27 3 0 0,-95 25-5 0 0,-104 37-6 0 0,56-23 4 0 0,-26 15-4 0 0,12-4-1 0 0,59-15 12 0 0,-109 33 2 0 0,-24 8-15 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-2 1 1 0 0,-4 0 0 0 0,-62 16 100 0 0,-2 6 60 0 0,54-18-136 0 0,-28 8 33 0 0,-13 5 29 0 0,-25 16 263 0 0,22-9-123 0 0,-56 20 28 0 0,34-13-7 0 0,-75 33 312 0 0,120-47-473 0 0,-52 25 104 0 0,2 6 58 0 0,80-44-220 0 0,-46 26 148 0 0,38-25-119 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5">1431 1068 1896 0 0,'0'0'0'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6">1295 1049 992 0 0,'0'0'2352'0'0,"-1"1"-2215"0"0,-6 10 374 0 0,6-9-388 0 0,1-2-96 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 3 54 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 2 0 0 0,-1-3-26 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,2 0 1 0 0,1 1 36 0 0,-4-2-70 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,5 0 309 0 0,-5 0-239 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,1-2 0 0 0,-2 1 5 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,2-3 1 0 0,-1 2-13 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,5-2 0 0 0,-7 4-47 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-2 1 0 0,7-9 197 0 0,-4 4-21 0 0,-3 6-133 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0-5 0 0 0,0 3 80 0 0,0 0 0 0 0,-1-6 0 0 0,0 11-127 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0-18 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 1-4 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,2 5 82 0 0,7 18 139 0 0,-6-19-185 0 0,-2-4-33 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 2 0 0 0,2 8 92 0 0,1-4 37 0 0,-4-7-130 0 0,0 0-9 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,1 1 32 0 0,-1-1-12 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,2 1 0 0 0,-2-1-19 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,8-6 49 0 0,-8 6-44 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,2-2-1 0 0,1-3 25 0 0,-3 5-30 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,2-1 0 0 0,-1 1 2 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,2-2 0 0 0,3-7 23 0 0,5-8 24 0 0,-9 16-37 0 0,-2 2-14 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-2 1 0 0,0 2-3 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-2 1 1 0 0,1 0-3 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2 4 0 0 0,-2 0 0 0 0,4-3 0 0 0,0 0 0 0 0,0 0 0 0 0,-2 3 0 0 0,-3 3 0 0 0,6-7 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 4 0 0 0,0-6 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,27-9-8 0 0,-26 8 6 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,4-4 0 0 0,0-1-15 0 0,-5 5-11 0 0,1-1-1 0 0,4-5 1 0 0,-6 7 21 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,-2-1-28 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-3-1 0 0,2 4 21 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 2 0 0,0-1-29 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-1-1 0 0,5 2 35 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,6 7-20 0 0,-6-6 13 0 0,2 1 4 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,5 2-1 0 0,1 0-9 0 0,-6-2 10 0 0,9 3 0 0 0,-2-1-1 0 0,-4 0 2 0 0,-2-2-5 0 0,-3-1 8 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 4 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7">1668 930 7832 0 0,'0'0'1384'0'0,"1"1"-1334"0"0,1 1-38 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 3-1 0 0,-2-3 7 0 0,1-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,1 1-1 0 0,-1 0 13 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,0 1-1 0 0,0-1-1 0 0,-1-1-20 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 2 0 0 0,0-2-7 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-2-5-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-5-7 0 0 0,8 10 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,2-3 0 0 0,0-2 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,7-8 0 0 0,-3 4 0 0 0,-6 7 0 0 0,28-40 8 0 0,-26 37 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8">1747 704 7432 0 0,'0'0'193'0'0,"0"2"6"0"0,1 3 38 0 0,1 9 1 0 0,1 7-24 0 0,-2-12-81 0 0,0 1-1 0 0,5 15 0 0 0,5 22 294 0 0,-6-25-160 0 0,-4-20-239 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 5 1 0 0,0 7 89 0 0,3-8-51 0 0,-3-6-58 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1-1 63 0 0,-1 0-21 0 0,-1 3 6 0 0,1-3-55 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-4-2 41 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-9-1 0 0 0,9 2 40 0 0,1 1-10 0 0,0-1 1 0 0,1 1 0 0 0,-4 0 0 0 0,5 0-41 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 2 0 0 0,2-2 272 0 0,2 0-207 0 0,3 0-61 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,8-3 0 0 0,3 0-5 0 0,15-1 47 0 0,11-4 34 0 0,-24 6-61 0 0,1-1 30 0 0,-3-1-39 0 0,-12 4-29 0 0,-2 1-10 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1-2 0 0 0,1 2-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,2-6 77 0 0,-2 6-75 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,0-1 82 0 0,1 2-76 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-3 0 35 0 0,0 0 0 0 0,-5 2 0 0 0,3-1-20 0 0,1-1 16 0 0,0 1 0 0 0,-8 5-1 0 0,10-6-26 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1 2 0 0 0,2-4-8 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 2-1 0 0,-1-1 2 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,1 0 1 0 0,0 1 3 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,3 0 1 0 0,1 0 8 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,6-2-1 0 0,-8 1 3 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,7-5 0 0 0,-1 1 14 0 0,3-2 23 0 0,-9 5-43 0 0,1 0 0 0 0,4-2 1 0 0,-3 3-2 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink36.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-24T19:07:01.195"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">244 1381 96 0 0,'4'0'0'0'0,"-2"0"0"0"0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,3 0 0 0 0,-3 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2-6 0 0 0,-1 1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1-11 0 0 0,-1 12 0 0 0,-1 0 0 0 0,-1 0 0 0 0,-1-10 0 0 0,-11-87 0 0 0,3-141 0 0 0,10 174 252 0 0,1 12 195 0 0,4-111 294 0 0,-4 144-540 0 0,1-15 211 0 0,1-22 74 0 0,1-21 22 0 0,-1 30 230 0 0,-3 20 21 0 0,0 32-384 0 0,0 2 306 0 0,3 2-72 0 0,-3-2-580 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,0 4 51 0 0,6 14 87 0 0,-1 0 0 0 0,4 27 0 0 0,3 43 526 0 0,-12-80-609 0 0,11 62 221 0 0,-5-40-178 0 0,-1 3 284 0 0,21 61 0 0 0,-21-82-287 0 0,14 25 0 0 0,-3-7 63 0 0,-7-11-38 0 0,21 41 221 0 0,-24-50-285 0 0,0 0 0 0 0,1 0 0 0 0,10 10 0 0 0,-15-17-24 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,9 6-1 0 0,-6-6-15 0 0,8 6 82 0 0,-12-9-109 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,3 0 0 0 0,-3-1-5 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-7 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-3 0 0 0,2-2 8 0 0,3-8 24 0 0,0-1 0 0 0,5-23 0 0 0,4-33 36 0 0,-5 20-29 0 0,18-111 37 0 0,-12 66-37 0 0,2-25-44 0 0,-8 41-6 0 0,-4 38-10 0 0,1-61 0 0 0,-7 71 6 0 0,1-49-16 0 0,-1 75 15 0 0,0 1 1 0 0,-1-11-1 0 0,0-3-24 0 0,1 18 16 0 0,1 2 2 0 0,2 5-1 0 0,-1-1 11 0 0,6 12-16 0 0,12 34 1 0 0,16 90-67 0 0,-10 0 20 0 0,-17-65 17 0 0,2 9 5 0 0,1 10 3 0 0,-3-26-5 0 0,-2-22 0 0 0,0-11 16 0 0,18 89-59 0 0,-3-50 25 0 0,-8-28 15 0 0,13 34-27 0 0,-19-61 32 0 0,21 36-1 0 0,-21-42 25 0 0,0-1 2 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1063 633 3616 0 0,'0'0'321'0'0,"-2"2"-263"0"0,0 0-52 0 0,-7 6 74 0 0,-12 14 0 0 0,13-12 8 0 0,-13 11 0 0 0,-2 4 50 0 0,12-11-73 0 0,7-9-30 0 0,-5 7 1 0 0,5-8-11 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-4 10 0 0 0,7-14-17 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,0 3 34 0 0,-1-4 3 0 0,1-1-19 0 0,3-1 13 0 0,0 0-32 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,3-2 1 0 0,3-2 3 0 0,-2 0 0 0 0,8-8 1 0 0,-7 7 9 0 0,8-9 36 0 0,23-28 1 0 0,-33 37-43 0 0,-1-1 0 0 0,0 1 1 0 0,5-10-1 0 0,-5 7-4 0 0,0 2 7 0 0,-3 6-15 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,0-1 9 0 0,0 0-1 0 0,0 1 1 0 0,2-4 0 0 0,-1 3 9 0 0,-2 3-19 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 2 8 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-2 5 1 0 0,0 0-3 0 0,-17 35 46 0 0,13-31-24 0 0,6-9-28 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 2 0 0 0,-1 19 76 0 0,2-21-49 0 0,1-2 45 0 0,2 0-38 0 0,-2 0-34 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,1 0 0 0 0,7-8 12 0 0,0 1 0 0 0,-1-2-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,10-18 0 0 0,-14 22-12 0 0,0 0 6 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,9-8 0 0 0,-8 9-2 0 0,-1 3 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,6-4 0 0 0,-6 4 8 0 0,-2 1-12 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-2 1-2 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 2 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,0 3 0 0 0,-2 8 1 0 0,-9 37 13 0 0,8-31-7 0 0,2-13-6 0 0,1 0 1 0 0,-1 1-1 0 0,-2 5 1 0 0,2-6 8 0 0,-3 7 0 0 0,4-8 0 0 0,0 0 0 0 0,-1-1 0 0 0,-2 6 0 0 0,4-6 36 0 0,0-3-47 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 26 0 0,3-1 45 0 0,-2 1-70 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-2 11 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,1-3 1 0 0,3-8 42 0 0,8-32 39 0 0,-8 22-26 0 0,10-24-1 0 0,-14 45-63 0 0,22-51 122 0 0,-19 45-102 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,10-10-1 0 0,-6 6 7 0 0,-7 8-18 0 0,1 0 0 0 0,4-5 0 0 0,-6 6-5 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0-3 0 0 0,4-6 49 0 0,-5 9-43 0 0,0 1 1 0 0,-2 1 55 0 0,1 1-69 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 2-1 0 0,0 2 1 0 0,-3 8-1 0 0,1-4 0 0 0,-3 13 0 0 0,3-13 0 0 0,3-7 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 4 0 0 0,0 14-7 0 0,0-8 3 0 0,0 13 0 0 0,1-18 2 0 0,-1 4 4 0 0,0 2-26 0 0,1-1-122 0 0,-1-8 12 0 0,1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,2 7-1 0 0,-2-11 81 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 1 0 0 0,-2-2 47 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,8-6 3 0 0,-1-1 0 0 0,12-17 0 0 0,13-22 3 0 0,-31 45 2 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,3-3 0 0 0,6-4 8 0 0,3-3 118 0 0,-14 11-88 0 0,0 4 33 0 0,-1 6-65 0 0,-1 1-1 0 0,-4 17 0 0 0,4-24-9 0 0,2-3-3 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-2-5 0 0,5-3-378 0 0,0-3 318 0 0,0 0-1 0 0,-1 0 1 0 0,7-10-1 0 0,-6 8 24 0 0,-2 4-13 0 0,0-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,2-6 1 0 0,-4 9 50 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 0 2 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0-3 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,-1 1 1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-5 5 0 0 0,-2 4-18 0 0,6-8 14 0 0,1 1-1 0 0,-5 8 1 0 0,7-12 6 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,2 2-1 0 0,-2-3 2 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,1 0 0 0 0,2-1-3 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,6-7 0 0 0,-5 6 0 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,4-6 1 0 0,-7 9 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,-1-4 0 0 0,1 5 1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-3 1-1 0 0,-4 3 1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">1137 857 2808 0 0,'0'0'40'0'0,"1"-1"-16"0"0,0 1-10 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,2 0 1 0 0,-1 0 90 0 0,0-1-60 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,2 1 0 0 0,-1-1 64 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,1 3 0 0 0,7 19 89 0 0,-6-14-47 0 0,0 0-132 0 0,-1 1 0 0 0,2 18 0 0 0,-3-20-6 0 0,2 29 26 0 0,-3-34 17 0 0,0 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 7 0 0 0,0-4 34 0 0,0 0 1 0 0,1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,4 10 0 0 0,1 10 846 0 0,-1-12-625 0 0,-4-11-195 0 0,0-1 0 0 0,0 1 0 0 0,1 4 0 0 0,-2-6 19 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">1005 1172 6328 0 0,'0'0'1200'0'0,"0"-2"-1074"0"0,1 1-98 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,11-5 313 0 0,-10 5-290 0 0,23-13 306 0 0,-2 0-146 0 0,32-13 325 0 0,-45 22-451 0 0,0 1-1 0 0,13-3 1 0 0,-8 2-20 0 0,1 0 21 0 0,-9 4-14 0 0,11-6 0 0 0,-13 6-38 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4">41 1424 7528 0 0,'-2'2'8'0'0,"0"0"26"0"0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-4 1 0 0 0,6-1-25 0 0,-1-1 11 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1-1-4 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-2 0 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-1 404 0 0,2 1-412 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,3-2 30 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,3-3-1 0 0,-2 1 4 0 0,26-19 96 0 0,38-25 0 0 0,14 0-32 0 0,17-10-31 0 0,178-92 54 0 0,-251 138-120 0 0,123-59 39 0 0,-106 50-36 0 0,167-79 39 0 0,-148 75-34 0 0,49-21 3 0 0,-28 8 0 0 0,36-17 10 0 0,4 6-18 0 0,107-27 3 0 0,-95 25-5 0 0,-104 37-6 0 0,56-23 4 0 0,-26 15-4 0 0,12-4-1 0 0,59-15 12 0 0,-109 33 2 0 0,-24 8-15 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-2 1 1 0 0,-4 0 0 0 0,-62 16 100 0 0,-2 6 60 0 0,54-18-136 0 0,-28 8 33 0 0,-13 5 29 0 0,-25 16 263 0 0,22-9-123 0 0,-56 20 28 0 0,34-13-7 0 0,-75 33 312 0 0,120-47-473 0 0,-52 25 104 0 0,2 6 58 0 0,80-44-220 0 0,-46 26 148 0 0,38-25-119 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5">1431 1068 1896 0 0,'0'0'0'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6">1295 1049 992 0 0,'0'0'2352'0'0,"-1"1"-2215"0"0,-6 10 374 0 0,6-9-388 0 0,1-2-96 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 3 54 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 2 0 0 0,-1-3-26 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,2 0 1 0 0,1 1 36 0 0,-4-2-70 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,5 0 309 0 0,-5 0-239 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,1-2 0 0 0,-2 1 5 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,2-3 1 0 0,-1 2-13 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,5-2 0 0 0,-7 4-47 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-2 1 0 0,7-9 197 0 0,-4 4-21 0 0,-3 6-133 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0-5 0 0 0,0 3 80 0 0,0 0 0 0 0,-1-6 0 0 0,0 11-127 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0-18 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 1-4 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,2 5 82 0 0,7 18 139 0 0,-6-19-185 0 0,-2-4-33 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 2 0 0 0,2 8 92 0 0,1-4 37 0 0,-4-7-130 0 0,0 0-9 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,1 1 32 0 0,-1-1-12 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,2 1 0 0 0,-2-1-19 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,8-6 49 0 0,-8 6-44 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,2-2-1 0 0,1-3 25 0 0,-3 5-30 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,2-1 0 0 0,-1 1 2 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,2-2 0 0 0,3-7 23 0 0,5-8 24 0 0,-9 16-37 0 0,-2 2-14 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-2 1 0 0,0 2-3 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-2 1 1 0 0,1 0-3 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2 4 0 0 0,-2 0 0 0 0,4-3 0 0 0,0 0 0 0 0,0 0 0 0 0,-2 3 0 0 0,-3 3 0 0 0,6-7 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 4 0 0 0,0-6 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,27-9-8 0 0,-26 8 6 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,4-4 0 0 0,0-1-15 0 0,-5 5-11 0 0,1-1-1 0 0,4-5 1 0 0,-6 7 21 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,-2-1-28 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-3-1 0 0,2 4 21 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 2 0 0,0-1-29 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-1-1 0 0,5 2 35 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,6 7-20 0 0,-6-6 13 0 0,2 1 4 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,5 2-1 0 0,1 0-9 0 0,-6-2 10 0 0,9 3 0 0 0,-2-1-1 0 0,-4 0 2 0 0,-2-2-5 0 0,-3-1 8 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 4 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7">1668 930 7832 0 0,'0'0'1384'0'0,"1"1"-1334"0"0,1 1-38 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 3-1 0 0,-2-3 7 0 0,1-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,1 1-1 0 0,-1 0 13 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,0 1-1 0 0,0-1-1 0 0,-1-1-20 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 2 0 0 0,0-2-7 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-2-5-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-5-7 0 0 0,8 10 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,2-3 0 0 0,0-2 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,7-8 0 0 0,-3 4 0 0 0,-6 7 0 0 0,28-40 8 0 0,-26 37 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8">1747 704 7432 0 0,'0'0'193'0'0,"0"2"6"0"0,1 3 38 0 0,1 9 1 0 0,1 7-24 0 0,-2-12-81 0 0,0 1-1 0 0,5 15 0 0 0,5 22 294 0 0,-6-25-160 0 0,-4-20-239 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 5 1 0 0,0 7 89 0 0,3-8-51 0 0,-3-6-58 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1-1 63 0 0,-1 0-21 0 0,-1 3 6 0 0,1-3-55 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-4-2 41 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-9-1 0 0 0,9 2 40 0 0,1 1-10 0 0,0-1 1 0 0,1 1 0 0 0,-4 0 0 0 0,5 0-41 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 2 0 0 0,2-2 272 0 0,2 0-207 0 0,3 0-61 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,8-3 0 0 0,3 0-5 0 0,15-1 47 0 0,11-4 34 0 0,-24 6-61 0 0,1-1 30 0 0,-3-1-39 0 0,-12 4-29 0 0,-2 1-10 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1-2 0 0 0,1 2-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,2-6 77 0 0,-2 6-75 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,0-1 82 0 0,1 2-76 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-3 0 35 0 0,0 0 0 0 0,-5 2 0 0 0,3-1-20 0 0,1-1 16 0 0,0 1 0 0 0,-8 5-1 0 0,10-6-26 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1 2 0 0 0,2-4-8 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 2-1 0 0,-1-1 2 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,1 0 1 0 0,0 1 3 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,3 0 1 0 0,1 0 8 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,6-2-1 0 0,-8 1 3 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,7-5 0 0 0,-1 1 14 0 0,3-2 23 0 0,-9 5-43 0 0,1 0 0 0 0,4-2 1 0 0,-3 3-2 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink37.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-24T19:07:18.708"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">244 1381 96 0 0,'4'0'0'0'0,"-2"0"0"0"0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,3 0 0 0 0,-3 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2-6 0 0 0,-1 1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1-11 0 0 0,-1 12 0 0 0,-1 0 0 0 0,-1 0 0 0 0,-1-10 0 0 0,-11-87 0 0 0,3-141 0 0 0,10 174 252 0 0,1 12 195 0 0,4-111 294 0 0,-4 144-540 0 0,1-15 211 0 0,1-22 74 0 0,1-21 22 0 0,-1 30 230 0 0,-3 20 21 0 0,0 32-384 0 0,0 2 306 0 0,3 2-72 0 0,-3-2-580 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,0 4 51 0 0,6 14 87 0 0,-1 0 0 0 0,4 27 0 0 0,3 43 526 0 0,-12-80-609 0 0,11 62 221 0 0,-5-40-178 0 0,-1 3 284 0 0,21 61 0 0 0,-21-82-287 0 0,14 25 0 0 0,-3-7 63 0 0,-7-11-38 0 0,21 41 221 0 0,-24-50-285 0 0,0 0 0 0 0,1 0 0 0 0,10 10 0 0 0,-15-17-24 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,9 6-1 0 0,-6-6-15 0 0,8 6 82 0 0,-12-9-109 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,3 0 0 0 0,-3-1-5 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-7 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-3 0 0 0,2-2 8 0 0,3-8 24 0 0,0-1 0 0 0,5-23 0 0 0,4-33 36 0 0,-5 20-29 0 0,18-111 37 0 0,-12 66-37 0 0,2-25-44 0 0,-8 41-6 0 0,-4 38-10 0 0,1-61 0 0 0,-7 71 6 0 0,1-49-16 0 0,-1 75 15 0 0,0 1 1 0 0,-1-11-1 0 0,0-3-24 0 0,1 18 16 0 0,1 2 2 0 0,2 5-1 0 0,-1-1 11 0 0,6 12-16 0 0,12 34 1 0 0,16 90-67 0 0,-10 0 20 0 0,-17-65 17 0 0,2 9 5 0 0,1 10 3 0 0,-3-26-5 0 0,-2-22 0 0 0,0-11 16 0 0,18 89-59 0 0,-3-50 25 0 0,-8-28 15 0 0,13 34-27 0 0,-19-61 32 0 0,21 36-1 0 0,-21-42 25 0 0,0-1 2 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1063 633 3616 0 0,'0'0'321'0'0,"-2"2"-263"0"0,0 0-52 0 0,-7 6 74 0 0,-12 14 0 0 0,13-12 8 0 0,-13 11 0 0 0,-2 4 50 0 0,12-11-73 0 0,7-9-30 0 0,-5 7 1 0 0,5-8-11 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-4 10 0 0 0,7-14-17 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,0 3 34 0 0,-1-4 3 0 0,1-1-19 0 0,3-1 13 0 0,0 0-32 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,3-2 1 0 0,3-2 3 0 0,-2 0 0 0 0,8-8 1 0 0,-7 7 9 0 0,8-9 36 0 0,23-28 1 0 0,-33 37-43 0 0,-1-1 0 0 0,0 1 1 0 0,5-10-1 0 0,-5 7-4 0 0,0 2 7 0 0,-3 6-15 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,0-1 9 0 0,0 0-1 0 0,0 1 1 0 0,2-4 0 0 0,-1 3 9 0 0,-2 3-19 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 2 8 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-2 5 1 0 0,0 0-3 0 0,-17 35 46 0 0,13-31-24 0 0,6-9-28 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 2 0 0 0,-1 19 76 0 0,2-21-49 0 0,1-2 45 0 0,2 0-38 0 0,-2 0-34 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,1 0 0 0 0,7-8 12 0 0,0 1 0 0 0,-1-2-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,10-18 0 0 0,-14 22-12 0 0,0 0 6 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,9-8 0 0 0,-8 9-2 0 0,-1 3 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,6-4 0 0 0,-6 4 8 0 0,-2 1-12 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-2 1-2 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 2 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,0 3 0 0 0,-2 8 1 0 0,-9 37 13 0 0,8-31-7 0 0,2-13-6 0 0,1 0 1 0 0,-1 1-1 0 0,-2 5 1 0 0,2-6 8 0 0,-3 7 0 0 0,4-8 0 0 0,0 0 0 0 0,-1-1 0 0 0,-2 6 0 0 0,4-6 36 0 0,0-3-47 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 26 0 0,3-1 45 0 0,-2 1-70 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-2 11 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,1-3 1 0 0,3-8 42 0 0,8-32 39 0 0,-8 22-26 0 0,10-24-1 0 0,-14 45-63 0 0,22-51 122 0 0,-19 45-102 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,10-10-1 0 0,-6 6 7 0 0,-7 8-18 0 0,1 0 0 0 0,4-5 0 0 0,-6 6-5 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0-3 0 0 0,4-6 49 0 0,-5 9-43 0 0,0 1 1 0 0,-2 1 55 0 0,1 1-69 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 2-1 0 0,0 2 1 0 0,-3 8-1 0 0,1-4 0 0 0,-3 13 0 0 0,3-13 0 0 0,3-7 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 4 0 0 0,0 14-7 0 0,0-8 3 0 0,0 13 0 0 0,1-18 2 0 0,-1 4 4 0 0,0 2-26 0 0,1-1-122 0 0,-1-8 12 0 0,1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,2 7-1 0 0,-2-11 81 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 1 0 0 0,-2-2 47 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,8-6 3 0 0,-1-1 0 0 0,12-17 0 0 0,13-22 3 0 0,-31 45 2 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,3-3 0 0 0,6-4 8 0 0,3-3 118 0 0,-14 11-88 0 0,0 4 33 0 0,-1 6-65 0 0,-1 1-1 0 0,-4 17 0 0 0,4-24-9 0 0,2-3-3 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-2-5 0 0,5-3-378 0 0,0-3 318 0 0,0 0-1 0 0,-1 0 1 0 0,7-10-1 0 0,-6 8 24 0 0,-2 4-13 0 0,0-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,2-6 1 0 0,-4 9 50 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 0 2 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0-3 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,-1 1 1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-5 5 0 0 0,-2 4-18 0 0,6-8 14 0 0,1 1-1 0 0,-5 8 1 0 0,7-12 6 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,2 2-1 0 0,-2-3 2 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,1 0 0 0 0,2-1-3 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,6-7 0 0 0,-5 6 0 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,4-6 1 0 0,-7 9 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,-1-4 0 0 0,1 5 1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-3 1-1 0 0,-4 3 1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">1137 857 2808 0 0,'0'0'40'0'0,"1"-1"-16"0"0,0 1-10 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,2 0 1 0 0,-1 0 90 0 0,0-1-60 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,2 1 0 0 0,-1-1 64 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,1 3 0 0 0,7 19 89 0 0,-6-14-47 0 0,0 0-132 0 0,-1 1 0 0 0,2 18 0 0 0,-3-20-6 0 0,2 29 26 0 0,-3-34 17 0 0,0 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 7 0 0 0,0-4 34 0 0,0 0 1 0 0,1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,4 10 0 0 0,1 10 846 0 0,-1-12-625 0 0,-4-11-195 0 0,0-1 0 0 0,0 1 0 0 0,1 4 0 0 0,-2-6 19 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">1005 1172 6328 0 0,'0'0'1200'0'0,"0"-2"-1074"0"0,1 1-98 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,11-5 313 0 0,-10 5-290 0 0,23-13 306 0 0,-2 0-146 0 0,32-13 325 0 0,-45 22-451 0 0,0 1-1 0 0,13-3 1 0 0,-8 2-20 0 0,1 0 21 0 0,-9 4-14 0 0,11-6 0 0 0,-13 6-38 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4">41 1424 7528 0 0,'-2'2'8'0'0,"0"0"26"0"0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-4 1 0 0 0,6-1-25 0 0,-1-1 11 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1-1-4 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-2 0 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-1 404 0 0,2 1-412 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,3-2 30 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,3-3-1 0 0,-2 1 4 0 0,26-19 96 0 0,38-25 0 0 0,14 0-32 0 0,17-10-31 0 0,178-92 54 0 0,-251 138-120 0 0,123-59 39 0 0,-106 50-36 0 0,167-79 39 0 0,-148 75-34 0 0,49-21 3 0 0,-28 8 0 0 0,36-17 10 0 0,4 6-18 0 0,107-27 3 0 0,-95 25-5 0 0,-104 37-6 0 0,56-23 4 0 0,-26 15-4 0 0,12-4-1 0 0,59-15 12 0 0,-109 33 2 0 0,-24 8-15 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-2 1 1 0 0,-4 0 0 0 0,-62 16 100 0 0,-2 6 60 0 0,54-18-136 0 0,-28 8 33 0 0,-13 5 29 0 0,-25 16 263 0 0,22-9-123 0 0,-56 20 28 0 0,34-13-7 0 0,-75 33 312 0 0,120-47-473 0 0,-52 25 104 0 0,2 6 58 0 0,80-44-220 0 0,-46 26 148 0 0,38-25-119 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5">1431 1068 1896 0 0,'0'0'0'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6">1295 1049 992 0 0,'0'0'2352'0'0,"-1"1"-2215"0"0,-6 10 374 0 0,6-9-388 0 0,1-2-96 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 3 54 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 2 0 0 0,-1-3-26 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,2 0 1 0 0,1 1 36 0 0,-4-2-70 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,5 0 309 0 0,-5 0-239 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,1-2 0 0 0,-2 1 5 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,2-3 1 0 0,-1 2-13 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,5-2 0 0 0,-7 4-47 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-2 1 0 0,7-9 197 0 0,-4 4-21 0 0,-3 6-133 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0-5 0 0 0,0 3 80 0 0,0 0 0 0 0,-1-6 0 0 0,0 11-127 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0-18 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 1-4 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,2 5 82 0 0,7 18 139 0 0,-6-19-185 0 0,-2-4-33 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 2 0 0 0,2 8 92 0 0,1-4 37 0 0,-4-7-130 0 0,0 0-9 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,1 1 32 0 0,-1-1-12 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,2 1 0 0 0,-2-1-19 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,8-6 49 0 0,-8 6-44 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,2-2-1 0 0,1-3 25 0 0,-3 5-30 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,2-1 0 0 0,-1 1 2 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,2-2 0 0 0,3-7 23 0 0,5-8 24 0 0,-9 16-37 0 0,-2 2-14 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-2 1 0 0,0 2-3 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-2 1 1 0 0,1 0-3 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2 4 0 0 0,-2 0 0 0 0,4-3 0 0 0,0 0 0 0 0,0 0 0 0 0,-2 3 0 0 0,-3 3 0 0 0,6-7 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 4 0 0 0,0-6 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,27-9-8 0 0,-26 8 6 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,4-4 0 0 0,0-1-15 0 0,-5 5-11 0 0,1-1-1 0 0,4-5 1 0 0,-6 7 21 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,-2-1-28 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-3-1 0 0,2 4 21 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 2 0 0,0-1-29 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-1-1 0 0,5 2 35 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,6 7-20 0 0,-6-6 13 0 0,2 1 4 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,5 2-1 0 0,1 0-9 0 0,-6-2 10 0 0,9 3 0 0 0,-2-1-1 0 0,-4 0 2 0 0,-2-2-5 0 0,-3-1 8 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 4 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7">1668 930 7832 0 0,'0'0'1384'0'0,"1"1"-1334"0"0,1 1-38 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 3-1 0 0,-2-3 7 0 0,1-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,1 1-1 0 0,-1 0 13 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,0 1-1 0 0,0-1-1 0 0,-1-1-20 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 2 0 0 0,0-2-7 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-2-5-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-5-7 0 0 0,8 10 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,2-3 0 0 0,0-2 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,7-8 0 0 0,-3 4 0 0 0,-6 7 0 0 0,28-40 8 0 0,-26 37 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8">1747 704 7432 0 0,'0'0'193'0'0,"0"2"6"0"0,1 3 38 0 0,1 9 1 0 0,1 7-24 0 0,-2-12-81 0 0,0 1-1 0 0,5 15 0 0 0,5 22 294 0 0,-6-25-160 0 0,-4-20-239 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 5 1 0 0,0 7 89 0 0,3-8-51 0 0,-3-6-58 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1-1 63 0 0,-1 0-21 0 0,-1 3 6 0 0,1-3-55 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-4-2 41 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-9-1 0 0 0,9 2 40 0 0,1 1-10 0 0,0-1 1 0 0,1 1 0 0 0,-4 0 0 0 0,5 0-41 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 2 0 0 0,2-2 272 0 0,2 0-207 0 0,3 0-61 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,8-3 0 0 0,3 0-5 0 0,15-1 47 0 0,11-4 34 0 0,-24 6-61 0 0,1-1 30 0 0,-3-1-39 0 0,-12 4-29 0 0,-2 1-10 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1-2 0 0 0,1 2-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,2-6 77 0 0,-2 6-75 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,0-1 82 0 0,1 2-76 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-3 0 35 0 0,0 0 0 0 0,-5 2 0 0 0,3-1-20 0 0,1-1 16 0 0,0 1 0 0 0,-8 5-1 0 0,10-6-26 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1 2 0 0 0,2-4-8 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 2-1 0 0,-1-1 2 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,1 0 1 0 0,0 1 3 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,3 0 1 0 0,1 0 8 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,6-2-1 0 0,-8 1 3 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,7-5 0 0 0,-1 1 14 0 0,3-2 23 0 0,-9 5-43 0 0,1 0 0 0 0,4-2 1 0 0,-3 3-2 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink38.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-24T19:07:25.408"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">244 1381 96 0 0,'4'0'0'0'0,"-2"0"0"0"0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,3 0 0 0 0,-3 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2-6 0 0 0,-1 1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1-11 0 0 0,-1 12 0 0 0,-1 0 0 0 0,-1 0 0 0 0,-1-10 0 0 0,-11-87 0 0 0,3-141 0 0 0,10 174 252 0 0,1 12 195 0 0,4-111 294 0 0,-4 144-540 0 0,1-15 211 0 0,1-22 74 0 0,1-21 22 0 0,-1 30 230 0 0,-3 20 21 0 0,0 32-384 0 0,0 2 306 0 0,3 2-72 0 0,-3-2-580 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,0 4 51 0 0,6 14 87 0 0,-1 0 0 0 0,4 27 0 0 0,3 43 526 0 0,-12-80-609 0 0,11 62 221 0 0,-5-40-178 0 0,-1 3 284 0 0,21 61 0 0 0,-21-82-287 0 0,14 25 0 0 0,-3-7 63 0 0,-7-11-38 0 0,21 41 221 0 0,-24-50-285 0 0,0 0 0 0 0,1 0 0 0 0,10 10 0 0 0,-15-17-24 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,9 6-1 0 0,-6-6-15 0 0,8 6 82 0 0,-12-9-109 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,3 0 0 0 0,-3-1-5 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-7 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-3 0 0 0,2-2 8 0 0,3-8 24 0 0,0-1 0 0 0,5-23 0 0 0,4-33 36 0 0,-5 20-29 0 0,18-111 37 0 0,-12 66-37 0 0,2-25-44 0 0,-8 41-6 0 0,-4 38-10 0 0,1-61 0 0 0,-7 71 6 0 0,1-49-16 0 0,-1 75 15 0 0,0 1 1 0 0,-1-11-1 0 0,0-3-24 0 0,1 18 16 0 0,1 2 2 0 0,2 5-1 0 0,-1-1 11 0 0,6 12-16 0 0,12 34 1 0 0,16 90-67 0 0,-10 0 20 0 0,-17-65 17 0 0,2 9 5 0 0,1 10 3 0 0,-3-26-5 0 0,-2-22 0 0 0,0-11 16 0 0,18 89-59 0 0,-3-50 25 0 0,-8-28 15 0 0,13 34-27 0 0,-19-61 32 0 0,21 36-1 0 0,-21-42 25 0 0,0-1 2 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1063 633 3616 0 0,'0'0'321'0'0,"-2"2"-263"0"0,0 0-52 0 0,-7 6 74 0 0,-12 14 0 0 0,13-12 8 0 0,-13 11 0 0 0,-2 4 50 0 0,12-11-73 0 0,7-9-30 0 0,-5 7 1 0 0,5-8-11 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-4 10 0 0 0,7-14-17 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,0 3 34 0 0,-1-4 3 0 0,1-1-19 0 0,3-1 13 0 0,0 0-32 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,3-2 1 0 0,3-2 3 0 0,-2 0 0 0 0,8-8 1 0 0,-7 7 9 0 0,8-9 36 0 0,23-28 1 0 0,-33 37-43 0 0,-1-1 0 0 0,0 1 1 0 0,5-10-1 0 0,-5 7-4 0 0,0 2 7 0 0,-3 6-15 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,0-1 9 0 0,0 0-1 0 0,0 1 1 0 0,2-4 0 0 0,-1 3 9 0 0,-2 3-19 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 2 8 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-2 5 1 0 0,0 0-3 0 0,-17 35 46 0 0,13-31-24 0 0,6-9-28 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 2 0 0 0,-1 19 76 0 0,2-21-49 0 0,1-2 45 0 0,2 0-38 0 0,-2 0-34 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,1 0 0 0 0,7-8 12 0 0,0 1 0 0 0,-1-2-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,10-18 0 0 0,-14 22-12 0 0,0 0 6 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,9-8 0 0 0,-8 9-2 0 0,-1 3 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,6-4 0 0 0,-6 4 8 0 0,-2 1-12 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-2 1-2 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 2 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,0 3 0 0 0,-2 8 1 0 0,-9 37 13 0 0,8-31-7 0 0,2-13-6 0 0,1 0 1 0 0,-1 1-1 0 0,-2 5 1 0 0,2-6 8 0 0,-3 7 0 0 0,4-8 0 0 0,0 0 0 0 0,-1-1 0 0 0,-2 6 0 0 0,4-6 36 0 0,0-3-47 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 26 0 0,3-1 45 0 0,-2 1-70 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-2 11 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,1-3 1 0 0,3-8 42 0 0,8-32 39 0 0,-8 22-26 0 0,10-24-1 0 0,-14 45-63 0 0,22-51 122 0 0,-19 45-102 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,10-10-1 0 0,-6 6 7 0 0,-7 8-18 0 0,1 0 0 0 0,4-5 0 0 0,-6 6-5 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0-3 0 0 0,4-6 49 0 0,-5 9-43 0 0,0 1 1 0 0,-2 1 55 0 0,1 1-69 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 2-1 0 0,0 2 1 0 0,-3 8-1 0 0,1-4 0 0 0,-3 13 0 0 0,3-13 0 0 0,3-7 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 4 0 0 0,0 14-7 0 0,0-8 3 0 0,0 13 0 0 0,1-18 2 0 0,-1 4 4 0 0,0 2-26 0 0,1-1-122 0 0,-1-8 12 0 0,1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,2 7-1 0 0,-2-11 81 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 1 0 0 0,-2-2 47 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,8-6 3 0 0,-1-1 0 0 0,12-17 0 0 0,13-22 3 0 0,-31 45 2 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,3-3 0 0 0,6-4 8 0 0,3-3 118 0 0,-14 11-88 0 0,0 4 33 0 0,-1 6-65 0 0,-1 1-1 0 0,-4 17 0 0 0,4-24-9 0 0,2-3-3 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-2-5 0 0,5-3-378 0 0,0-3 318 0 0,0 0-1 0 0,-1 0 1 0 0,7-10-1 0 0,-6 8 24 0 0,-2 4-13 0 0,0-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,2-6 1 0 0,-4 9 50 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 0 2 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0-3 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,-1 1 1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-5 5 0 0 0,-2 4-18 0 0,6-8 14 0 0,1 1-1 0 0,-5 8 1 0 0,7-12 6 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,2 2-1 0 0,-2-3 2 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,1 0 0 0 0,2-1-3 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,6-7 0 0 0,-5 6 0 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,4-6 1 0 0,-7 9 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,-1-4 0 0 0,1 5 1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-3 1-1 0 0,-4 3 1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">1137 857 2808 0 0,'0'0'40'0'0,"1"-1"-16"0"0,0 1-10 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,2 0 1 0 0,-1 0 90 0 0,0-1-60 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,2 1 0 0 0,-1-1 64 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,1 3 0 0 0,7 19 89 0 0,-6-14-47 0 0,0 0-132 0 0,-1 1 0 0 0,2 18 0 0 0,-3-20-6 0 0,2 29 26 0 0,-3-34 17 0 0,0 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 7 0 0 0,0-4 34 0 0,0 0 1 0 0,1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,4 10 0 0 0,1 10 846 0 0,-1-12-625 0 0,-4-11-195 0 0,0-1 0 0 0,0 1 0 0 0,1 4 0 0 0,-2-6 19 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">1005 1172 6328 0 0,'0'0'1200'0'0,"0"-2"-1074"0"0,1 1-98 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,11-5 313 0 0,-10 5-290 0 0,23-13 306 0 0,-2 0-146 0 0,32-13 325 0 0,-45 22-451 0 0,0 1-1 0 0,13-3 1 0 0,-8 2-20 0 0,1 0 21 0 0,-9 4-14 0 0,11-6 0 0 0,-13 6-38 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4">41 1424 7528 0 0,'-2'2'8'0'0,"0"0"26"0"0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-4 1 0 0 0,6-1-25 0 0,-1-1 11 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1-1-4 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-2 0 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-1 404 0 0,2 1-412 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,3-2 30 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,3-3-1 0 0,-2 1 4 0 0,26-19 96 0 0,38-25 0 0 0,14 0-32 0 0,17-10-31 0 0,178-92 54 0 0,-251 138-120 0 0,123-59 39 0 0,-106 50-36 0 0,167-79 39 0 0,-148 75-34 0 0,49-21 3 0 0,-28 8 0 0 0,36-17 10 0 0,4 6-18 0 0,107-27 3 0 0,-95 25-5 0 0,-104 37-6 0 0,56-23 4 0 0,-26 15-4 0 0,12-4-1 0 0,59-15 12 0 0,-109 33 2 0 0,-24 8-15 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-2 1 1 0 0,-4 0 0 0 0,-62 16 100 0 0,-2 6 60 0 0,54-18-136 0 0,-28 8 33 0 0,-13 5 29 0 0,-25 16 263 0 0,22-9-123 0 0,-56 20 28 0 0,34-13-7 0 0,-75 33 312 0 0,120-47-473 0 0,-52 25 104 0 0,2 6 58 0 0,80-44-220 0 0,-46 26 148 0 0,38-25-119 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5">1431 1068 1896 0 0,'0'0'0'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6">1295 1049 992 0 0,'0'0'2352'0'0,"-1"1"-2215"0"0,-6 10 374 0 0,6-9-388 0 0,1-2-96 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 3 54 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 2 0 0 0,-1-3-26 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,2 0 1 0 0,1 1 36 0 0,-4-2-70 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,5 0 309 0 0,-5 0-239 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,1-2 0 0 0,-2 1 5 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,2-3 1 0 0,-1 2-13 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,5-2 0 0 0,-7 4-47 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-2 1 0 0,7-9 197 0 0,-4 4-21 0 0,-3 6-133 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0-5 0 0 0,0 3 80 0 0,0 0 0 0 0,-1-6 0 0 0,0 11-127 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0-18 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 1-4 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,2 5 82 0 0,7 18 139 0 0,-6-19-185 0 0,-2-4-33 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 2 0 0 0,2 8 92 0 0,1-4 37 0 0,-4-7-130 0 0,0 0-9 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,1 1 32 0 0,-1-1-12 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,2 1 0 0 0,-2-1-19 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,8-6 49 0 0,-8 6-44 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,2-2-1 0 0,1-3 25 0 0,-3 5-30 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,2-1 0 0 0,-1 1 2 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,2-2 0 0 0,3-7 23 0 0,5-8 24 0 0,-9 16-37 0 0,-2 2-14 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-2 1 0 0,0 2-3 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-2 1 1 0 0,1 0-3 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2 4 0 0 0,-2 0 0 0 0,4-3 0 0 0,0 0 0 0 0,0 0 0 0 0,-2 3 0 0 0,-3 3 0 0 0,6-7 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 4 0 0 0,0-6 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,27-9-8 0 0,-26 8 6 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,4-4 0 0 0,0-1-15 0 0,-5 5-11 0 0,1-1-1 0 0,4-5 1 0 0,-6 7 21 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,-2-1-28 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-3-1 0 0,2 4 21 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 2 0 0,0-1-29 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-1-1 0 0,5 2 35 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,6 7-20 0 0,-6-6 13 0 0,2 1 4 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,5 2-1 0 0,1 0-9 0 0,-6-2 10 0 0,9 3 0 0 0,-2-1-1 0 0,-4 0 2 0 0,-2-2-5 0 0,-3-1 8 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 4 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7">1668 930 7832 0 0,'0'0'1384'0'0,"1"1"-1334"0"0,1 1-38 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 3-1 0 0,-2-3 7 0 0,1-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,1 1-1 0 0,-1 0 13 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,0 1-1 0 0,0-1-1 0 0,-1-1-20 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 2 0 0 0,0-2-7 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-2-5-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-5-7 0 0 0,8 10 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,2-3 0 0 0,0-2 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,7-8 0 0 0,-3 4 0 0 0,-6 7 0 0 0,28-40 8 0 0,-26 37 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8">1747 704 7432 0 0,'0'0'193'0'0,"0"2"6"0"0,1 3 38 0 0,1 9 1 0 0,1 7-24 0 0,-2-12-81 0 0,0 1-1 0 0,5 15 0 0 0,5 22 294 0 0,-6-25-160 0 0,-4-20-239 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 5 1 0 0,0 7 89 0 0,3-8-51 0 0,-3-6-58 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1-1 63 0 0,-1 0-21 0 0,-1 3 6 0 0,1-3-55 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-4-2 41 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-9-1 0 0 0,9 2 40 0 0,1 1-10 0 0,0-1 1 0 0,1 1 0 0 0,-4 0 0 0 0,5 0-41 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 2 0 0 0,2-2 272 0 0,2 0-207 0 0,3 0-61 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,8-3 0 0 0,3 0-5 0 0,15-1 47 0 0,11-4 34 0 0,-24 6-61 0 0,1-1 30 0 0,-3-1-39 0 0,-12 4-29 0 0,-2 1-10 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1-2 0 0 0,1 2-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,2-6 77 0 0,-2 6-75 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,0-1 82 0 0,1 2-76 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-3 0 35 0 0,0 0 0 0 0,-5 2 0 0 0,3-1-20 0 0,1-1 16 0 0,0 1 0 0 0,-8 5-1 0 0,10-6-26 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1 2 0 0 0,2-4-8 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 2-1 0 0,-1-1 2 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,1 0 1 0 0,0 1 3 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,3 0 1 0 0,1 0 8 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,6-2-1 0 0,-8 1 3 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,7-5 0 0 0,-1 1 14 0 0,3-2 23 0 0,-9 5-43 0 0,1 0 0 0 0,4-2 1 0 0,-3 3-2 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink39.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-24T19:07:30.660"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">244 1381 96 0 0,'4'0'0'0'0,"-2"0"0"0"0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,3 0 0 0 0,-3 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2-6 0 0 0,-1 1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1-11 0 0 0,-1 12 0 0 0,-1 0 0 0 0,-1 0 0 0 0,-1-10 0 0 0,-11-87 0 0 0,3-141 0 0 0,10 174 252 0 0,1 12 195 0 0,4-111 294 0 0,-4 144-540 0 0,1-15 211 0 0,1-22 74 0 0,1-21 22 0 0,-1 30 230 0 0,-3 20 21 0 0,0 32-384 0 0,0 2 306 0 0,3 2-72 0 0,-3-2-580 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,0 4 51 0 0,6 14 87 0 0,-1 0 0 0 0,4 27 0 0 0,3 43 526 0 0,-12-80-609 0 0,11 62 221 0 0,-5-40-178 0 0,-1 3 284 0 0,21 61 0 0 0,-21-82-287 0 0,14 25 0 0 0,-3-7 63 0 0,-7-11-38 0 0,21 41 221 0 0,-24-50-285 0 0,0 0 0 0 0,1 0 0 0 0,10 10 0 0 0,-15-17-24 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,9 6-1 0 0,-6-6-15 0 0,8 6 82 0 0,-12-9-109 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,3 0 0 0 0,-3-1-5 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-7 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-3 0 0 0,2-2 8 0 0,3-8 24 0 0,0-1 0 0 0,5-23 0 0 0,4-33 36 0 0,-5 20-29 0 0,18-111 37 0 0,-12 66-37 0 0,2-25-44 0 0,-8 41-6 0 0,-4 38-10 0 0,1-61 0 0 0,-7 71 6 0 0,1-49-16 0 0,-1 75 15 0 0,0 1 1 0 0,-1-11-1 0 0,0-3-24 0 0,1 18 16 0 0,1 2 2 0 0,2 5-1 0 0,-1-1 11 0 0,6 12-16 0 0,12 34 1 0 0,16 90-67 0 0,-10 0 20 0 0,-17-65 17 0 0,2 9 5 0 0,1 10 3 0 0,-3-26-5 0 0,-2-22 0 0 0,0-11 16 0 0,18 89-59 0 0,-3-50 25 0 0,-8-28 15 0 0,13 34-27 0 0,-19-61 32 0 0,21 36-1 0 0,-21-42 25 0 0,0-1 2 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1063 633 3616 0 0,'0'0'321'0'0,"-2"2"-263"0"0,0 0-52 0 0,-7 6 74 0 0,-12 14 0 0 0,13-12 8 0 0,-13 11 0 0 0,-2 4 50 0 0,12-11-73 0 0,7-9-30 0 0,-5 7 1 0 0,5-8-11 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-4 10 0 0 0,7-14-17 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,0 3 34 0 0,-1-4 3 0 0,1-1-19 0 0,3-1 13 0 0,0 0-32 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,3-2 1 0 0,3-2 3 0 0,-2 0 0 0 0,8-8 1 0 0,-7 7 9 0 0,8-9 36 0 0,23-28 1 0 0,-33 37-43 0 0,-1-1 0 0 0,0 1 1 0 0,5-10-1 0 0,-5 7-4 0 0,0 2 7 0 0,-3 6-15 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,0-1 9 0 0,0 0-1 0 0,0 1 1 0 0,2-4 0 0 0,-1 3 9 0 0,-2 3-19 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 2 8 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-2 5 1 0 0,0 0-3 0 0,-17 35 46 0 0,13-31-24 0 0,6-9-28 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 2 0 0 0,-1 19 76 0 0,2-21-49 0 0,1-2 45 0 0,2 0-38 0 0,-2 0-34 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,1 0 0 0 0,7-8 12 0 0,0 1 0 0 0,-1-2-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,10-18 0 0 0,-14 22-12 0 0,0 0 6 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,9-8 0 0 0,-8 9-2 0 0,-1 3 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,6-4 0 0 0,-6 4 8 0 0,-2 1-12 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-2 1-2 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 2 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,0 3 0 0 0,-2 8 1 0 0,-9 37 13 0 0,8-31-7 0 0,2-13-6 0 0,1 0 1 0 0,-1 1-1 0 0,-2 5 1 0 0,2-6 8 0 0,-3 7 0 0 0,4-8 0 0 0,0 0 0 0 0,-1-1 0 0 0,-2 6 0 0 0,4-6 36 0 0,0-3-47 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 26 0 0,3-1 45 0 0,-2 1-70 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-2 11 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,1-3 1 0 0,3-8 42 0 0,8-32 39 0 0,-8 22-26 0 0,10-24-1 0 0,-14 45-63 0 0,22-51 122 0 0,-19 45-102 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,10-10-1 0 0,-6 6 7 0 0,-7 8-18 0 0,1 0 0 0 0,4-5 0 0 0,-6 6-5 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0-3 0 0 0,4-6 49 0 0,-5 9-43 0 0,0 1 1 0 0,-2 1 55 0 0,1 1-69 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 2-1 0 0,0 2 1 0 0,-3 8-1 0 0,1-4 0 0 0,-3 13 0 0 0,3-13 0 0 0,3-7 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 4 0 0 0,0 14-7 0 0,0-8 3 0 0,0 13 0 0 0,1-18 2 0 0,-1 4 4 0 0,0 2-26 0 0,1-1-122 0 0,-1-8 12 0 0,1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,2 7-1 0 0,-2-11 81 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 1 0 0 0,-2-2 47 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,8-6 3 0 0,-1-1 0 0 0,12-17 0 0 0,13-22 3 0 0,-31 45 2 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,3-3 0 0 0,6-4 8 0 0,3-3 118 0 0,-14 11-88 0 0,0 4 33 0 0,-1 6-65 0 0,-1 1-1 0 0,-4 17 0 0 0,4-24-9 0 0,2-3-3 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-2-5 0 0,5-3-378 0 0,0-3 318 0 0,0 0-1 0 0,-1 0 1 0 0,7-10-1 0 0,-6 8 24 0 0,-2 4-13 0 0,0-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,2-6 1 0 0,-4 9 50 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 0 2 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0-3 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,-1 1 1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-5 5 0 0 0,-2 4-18 0 0,6-8 14 0 0,1 1-1 0 0,-5 8 1 0 0,7-12 6 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,2 2-1 0 0,-2-3 2 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,1 0 0 0 0,2-1-3 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,6-7 0 0 0,-5 6 0 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,4-6 1 0 0,-7 9 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,-1-4 0 0 0,1 5 1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-3 1-1 0 0,-4 3 1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">1137 857 2808 0 0,'0'0'40'0'0,"1"-1"-16"0"0,0 1-10 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,2 0 1 0 0,-1 0 90 0 0,0-1-60 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,2 1 0 0 0,-1-1 64 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,1 3 0 0 0,7 19 89 0 0,-6-14-47 0 0,0 0-132 0 0,-1 1 0 0 0,2 18 0 0 0,-3-20-6 0 0,2 29 26 0 0,-3-34 17 0 0,0 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 7 0 0 0,0-4 34 0 0,0 0 1 0 0,1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,4 10 0 0 0,1 10 846 0 0,-1-12-625 0 0,-4-11-195 0 0,0-1 0 0 0,0 1 0 0 0,1 4 0 0 0,-2-6 19 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">1005 1172 6328 0 0,'0'0'1200'0'0,"0"-2"-1074"0"0,1 1-98 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,11-5 313 0 0,-10 5-290 0 0,23-13 306 0 0,-2 0-146 0 0,32-13 325 0 0,-45 22-451 0 0,0 1-1 0 0,13-3 1 0 0,-8 2-20 0 0,1 0 21 0 0,-9 4-14 0 0,11-6 0 0 0,-13 6-38 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4">41 1424 7528 0 0,'-2'2'8'0'0,"0"0"26"0"0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-4 1 0 0 0,6-1-25 0 0,-1-1 11 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1-1-4 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-2 0 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-1 404 0 0,2 1-412 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,3-2 30 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,3-3-1 0 0,-2 1 4 0 0,26-19 96 0 0,38-25 0 0 0,14 0-32 0 0,17-10-31 0 0,178-92 54 0 0,-251 138-120 0 0,123-59 39 0 0,-106 50-36 0 0,167-79 39 0 0,-148 75-34 0 0,49-21 3 0 0,-28 8 0 0 0,36-17 10 0 0,4 6-18 0 0,107-27 3 0 0,-95 25-5 0 0,-104 37-6 0 0,56-23 4 0 0,-26 15-4 0 0,12-4-1 0 0,59-15 12 0 0,-109 33 2 0 0,-24 8-15 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-2 1 1 0 0,-4 0 0 0 0,-62 16 100 0 0,-2 6 60 0 0,54-18-136 0 0,-28 8 33 0 0,-13 5 29 0 0,-25 16 263 0 0,22-9-123 0 0,-56 20 28 0 0,34-13-7 0 0,-75 33 312 0 0,120-47-473 0 0,-52 25 104 0 0,2 6 58 0 0,80-44-220 0 0,-46 26 148 0 0,38-25-119 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5">1431 1068 1896 0 0,'0'0'0'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6">1295 1049 992 0 0,'0'0'2352'0'0,"-1"1"-2215"0"0,-6 10 374 0 0,6-9-388 0 0,1-2-96 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 3 54 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 2 0 0 0,-1-3-26 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,2 0 1 0 0,1 1 36 0 0,-4-2-70 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,5 0 309 0 0,-5 0-239 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,1-2 0 0 0,-2 1 5 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,2-3 1 0 0,-1 2-13 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,5-2 0 0 0,-7 4-47 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-2 1 0 0,7-9 197 0 0,-4 4-21 0 0,-3 6-133 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0-5 0 0 0,0 3 80 0 0,0 0 0 0 0,-1-6 0 0 0,0 11-127 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0-18 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 1-4 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,2 5 82 0 0,7 18 139 0 0,-6-19-185 0 0,-2-4-33 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 2 0 0 0,2 8 92 0 0,1-4 37 0 0,-4-7-130 0 0,0 0-9 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,1 1 32 0 0,-1-1-12 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,2 1 0 0 0,-2-1-19 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,8-6 49 0 0,-8 6-44 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,2-2-1 0 0,1-3 25 0 0,-3 5-30 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,2-1 0 0 0,-1 1 2 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,2-2 0 0 0,3-7 23 0 0,5-8 24 0 0,-9 16-37 0 0,-2 2-14 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-2 1 0 0,0 2-3 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-2 1 1 0 0,1 0-3 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2 4 0 0 0,-2 0 0 0 0,4-3 0 0 0,0 0 0 0 0,0 0 0 0 0,-2 3 0 0 0,-3 3 0 0 0,6-7 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 4 0 0 0,0-6 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,27-9-8 0 0,-26 8 6 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,4-4 0 0 0,0-1-15 0 0,-5 5-11 0 0,1-1-1 0 0,4-5 1 0 0,-6 7 21 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,-2-1-28 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-3-1 0 0,2 4 21 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 2 0 0,0-1-29 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-1-1 0 0,5 2 35 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,6 7-20 0 0,-6-6 13 0 0,2 1 4 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,5 2-1 0 0,1 0-9 0 0,-6-2 10 0 0,9 3 0 0 0,-2-1-1 0 0,-4 0 2 0 0,-2-2-5 0 0,-3-1 8 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 4 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7">1668 930 7832 0 0,'0'0'1384'0'0,"1"1"-1334"0"0,1 1-38 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 3-1 0 0,-2-3 7 0 0,1-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,1 1-1 0 0,-1 0 13 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,0 1-1 0 0,0-1-1 0 0,-1-1-20 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 2 0 0 0,0-2-7 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-2-5-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-5-7 0 0 0,8 10 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,2-3 0 0 0,0-2 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,7-8 0 0 0,-3 4 0 0 0,-6 7 0 0 0,28-40 8 0 0,-26 37 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8">1747 704 7432 0 0,'0'0'193'0'0,"0"2"6"0"0,1 3 38 0 0,1 9 1 0 0,1 7-24 0 0,-2-12-81 0 0,0 1-1 0 0,5 15 0 0 0,5 22 294 0 0,-6-25-160 0 0,-4-20-239 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 5 1 0 0,0 7 89 0 0,3-8-51 0 0,-3-6-58 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1-1 63 0 0,-1 0-21 0 0,-1 3 6 0 0,1-3-55 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-4-2 41 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-9-1 0 0 0,9 2 40 0 0,1 1-10 0 0,0-1 1 0 0,1 1 0 0 0,-4 0 0 0 0,5 0-41 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 2 0 0 0,2-2 272 0 0,2 0-207 0 0,3 0-61 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,8-3 0 0 0,3 0-5 0 0,15-1 47 0 0,11-4 34 0 0,-24 6-61 0 0,1-1 30 0 0,-3-1-39 0 0,-12 4-29 0 0,-2 1-10 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1-2 0 0 0,1 2-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,2-6 77 0 0,-2 6-75 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,0-1 82 0 0,1 2-76 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-3 0 35 0 0,0 0 0 0 0,-5 2 0 0 0,3-1-20 0 0,1-1 16 0 0,0 1 0 0 0,-8 5-1 0 0,10-6-26 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1 2 0 0 0,2-4-8 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 2-1 0 0,-1-1 2 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,1 0 1 0 0,0 1 3 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,3 0 1 0 0,1 0 8 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,6-2-1 0 0,-8 1 3 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,7-5 0 0 0,-1 1 14 0 0,3-2 23 0 0,-9 5-43 0 0,1 0 0 0 0,4-2 1 0 0,-3 3-2 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -3419,6 +4995,378 @@
 </inkml:ink>
 </file>
 
+<file path=xl/ink/ink40.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-24T19:07:34.891"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">244 1381 96 0 0,'4'0'0'0'0,"-2"0"0"0"0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,3 0 0 0 0,-3 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2-6 0 0 0,-1 1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1-11 0 0 0,-1 12 0 0 0,-1 0 0 0 0,-1 0 0 0 0,-1-10 0 0 0,-11-87 0 0 0,3-141 0 0 0,10 174 252 0 0,1 12 195 0 0,4-111 294 0 0,-4 144-540 0 0,1-15 211 0 0,1-22 74 0 0,1-21 22 0 0,-1 30 230 0 0,-3 20 21 0 0,0 32-384 0 0,0 2 306 0 0,3 2-72 0 0,-3-2-580 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,0 4 51 0 0,6 14 87 0 0,-1 0 0 0 0,4 27 0 0 0,3 43 526 0 0,-12-80-609 0 0,11 62 221 0 0,-5-40-178 0 0,-1 3 284 0 0,21 61 0 0 0,-21-82-287 0 0,14 25 0 0 0,-3-7 63 0 0,-7-11-38 0 0,21 41 221 0 0,-24-50-285 0 0,0 0 0 0 0,1 0 0 0 0,10 10 0 0 0,-15-17-24 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,9 6-1 0 0,-6-6-15 0 0,8 6 82 0 0,-12-9-109 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,3 0 0 0 0,-3-1-5 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-7 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-3 0 0 0,2-2 8 0 0,3-8 24 0 0,0-1 0 0 0,5-23 0 0 0,4-33 36 0 0,-5 20-29 0 0,18-111 37 0 0,-12 66-37 0 0,2-25-44 0 0,-8 41-6 0 0,-4 38-10 0 0,1-61 0 0 0,-7 71 6 0 0,1-49-16 0 0,-1 75 15 0 0,0 1 1 0 0,-1-11-1 0 0,0-3-24 0 0,1 18 16 0 0,1 2 2 0 0,2 5-1 0 0,-1-1 11 0 0,6 12-16 0 0,12 34 1 0 0,16 90-67 0 0,-10 0 20 0 0,-17-65 17 0 0,2 9 5 0 0,1 10 3 0 0,-3-26-5 0 0,-2-22 0 0 0,0-11 16 0 0,18 89-59 0 0,-3-50 25 0 0,-8-28 15 0 0,13 34-27 0 0,-19-61 32 0 0,21 36-1 0 0,-21-42 25 0 0,0-1 2 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1063 633 3616 0 0,'0'0'321'0'0,"-2"2"-263"0"0,0 0-52 0 0,-7 6 74 0 0,-12 14 0 0 0,13-12 8 0 0,-13 11 0 0 0,-2 4 50 0 0,12-11-73 0 0,7-9-30 0 0,-5 7 1 0 0,5-8-11 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-4 10 0 0 0,7-14-17 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,0 3 34 0 0,-1-4 3 0 0,1-1-19 0 0,3-1 13 0 0,0 0-32 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,3-2 1 0 0,3-2 3 0 0,-2 0 0 0 0,8-8 1 0 0,-7 7 9 0 0,8-9 36 0 0,23-28 1 0 0,-33 37-43 0 0,-1-1 0 0 0,0 1 1 0 0,5-10-1 0 0,-5 7-4 0 0,0 2 7 0 0,-3 6-15 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,0-1 9 0 0,0 0-1 0 0,0 1 1 0 0,2-4 0 0 0,-1 3 9 0 0,-2 3-19 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 2 8 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-2 5 1 0 0,0 0-3 0 0,-17 35 46 0 0,13-31-24 0 0,6-9-28 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 2 0 0 0,-1 19 76 0 0,2-21-49 0 0,1-2 45 0 0,2 0-38 0 0,-2 0-34 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,1 0 0 0 0,7-8 12 0 0,0 1 0 0 0,-1-2-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,10-18 0 0 0,-14 22-12 0 0,0 0 6 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,9-8 0 0 0,-8 9-2 0 0,-1 3 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,6-4 0 0 0,-6 4 8 0 0,-2 1-12 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-2 1-2 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 2 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,0 3 0 0 0,-2 8 1 0 0,-9 37 13 0 0,8-31-7 0 0,2-13-6 0 0,1 0 1 0 0,-1 1-1 0 0,-2 5 1 0 0,2-6 8 0 0,-3 7 0 0 0,4-8 0 0 0,0 0 0 0 0,-1-1 0 0 0,-2 6 0 0 0,4-6 36 0 0,0-3-47 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 26 0 0,3-1 45 0 0,-2 1-70 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-2 11 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,1-3 1 0 0,3-8 42 0 0,8-32 39 0 0,-8 22-26 0 0,10-24-1 0 0,-14 45-63 0 0,22-51 122 0 0,-19 45-102 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,10-10-1 0 0,-6 6 7 0 0,-7 8-18 0 0,1 0 0 0 0,4-5 0 0 0,-6 6-5 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0-3 0 0 0,4-6 49 0 0,-5 9-43 0 0,0 1 1 0 0,-2 1 55 0 0,1 1-69 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 2-1 0 0,0 2 1 0 0,-3 8-1 0 0,1-4 0 0 0,-3 13 0 0 0,3-13 0 0 0,3-7 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 4 0 0 0,0 14-7 0 0,0-8 3 0 0,0 13 0 0 0,1-18 2 0 0,-1 4 4 0 0,0 2-26 0 0,1-1-122 0 0,-1-8 12 0 0,1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,2 7-1 0 0,-2-11 81 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 1 0 0 0,-2-2 47 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,8-6 3 0 0,-1-1 0 0 0,12-17 0 0 0,13-22 3 0 0,-31 45 2 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,3-3 0 0 0,6-4 8 0 0,3-3 118 0 0,-14 11-88 0 0,0 4 33 0 0,-1 6-65 0 0,-1 1-1 0 0,-4 17 0 0 0,4-24-9 0 0,2-3-3 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-2-5 0 0,5-3-378 0 0,0-3 318 0 0,0 0-1 0 0,-1 0 1 0 0,7-10-1 0 0,-6 8 24 0 0,-2 4-13 0 0,0-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,2-6 1 0 0,-4 9 50 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 0 2 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0-3 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,-1 1 1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-5 5 0 0 0,-2 4-18 0 0,6-8 14 0 0,1 1-1 0 0,-5 8 1 0 0,7-12 6 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,2 2-1 0 0,-2-3 2 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,1 0 0 0 0,2-1-3 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,6-7 0 0 0,-5 6 0 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,4-6 1 0 0,-7 9 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,-1-4 0 0 0,1 5 1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-3 1-1 0 0,-4 3 1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">1137 857 2808 0 0,'0'0'40'0'0,"1"-1"-16"0"0,0 1-10 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,2 0 1 0 0,-1 0 90 0 0,0-1-60 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,2 1 0 0 0,-1-1 64 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,1 3 0 0 0,7 19 89 0 0,-6-14-47 0 0,0 0-132 0 0,-1 1 0 0 0,2 18 0 0 0,-3-20-6 0 0,2 29 26 0 0,-3-34 17 0 0,0 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 7 0 0 0,0-4 34 0 0,0 0 1 0 0,1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,4 10 0 0 0,1 10 846 0 0,-1-12-625 0 0,-4-11-195 0 0,0-1 0 0 0,0 1 0 0 0,1 4 0 0 0,-2-6 19 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">1005 1172 6328 0 0,'0'0'1200'0'0,"0"-2"-1074"0"0,1 1-98 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,11-5 313 0 0,-10 5-290 0 0,23-13 306 0 0,-2 0-146 0 0,32-13 325 0 0,-45 22-451 0 0,0 1-1 0 0,13-3 1 0 0,-8 2-20 0 0,1 0 21 0 0,-9 4-14 0 0,11-6 0 0 0,-13 6-38 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4">41 1424 7528 0 0,'-2'2'8'0'0,"0"0"26"0"0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-4 1 0 0 0,6-1-25 0 0,-1-1 11 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1-1-4 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-2 0 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-1 404 0 0,2 1-412 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,3-2 30 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,3-3-1 0 0,-2 1 4 0 0,26-19 96 0 0,38-25 0 0 0,14 0-32 0 0,17-10-31 0 0,178-92 54 0 0,-251 138-120 0 0,123-59 39 0 0,-106 50-36 0 0,167-79 39 0 0,-148 75-34 0 0,49-21 3 0 0,-28 8 0 0 0,36-17 10 0 0,4 6-18 0 0,107-27 3 0 0,-95 25-5 0 0,-104 37-6 0 0,56-23 4 0 0,-26 15-4 0 0,12-4-1 0 0,59-15 12 0 0,-109 33 2 0 0,-24 8-15 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-2 1 1 0 0,-4 0 0 0 0,-62 16 100 0 0,-2 6 60 0 0,54-18-136 0 0,-28 8 33 0 0,-13 5 29 0 0,-25 16 263 0 0,22-9-123 0 0,-56 20 28 0 0,34-13-7 0 0,-75 33 312 0 0,120-47-473 0 0,-52 25 104 0 0,2 6 58 0 0,80-44-220 0 0,-46 26 148 0 0,38-25-119 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5">1431 1068 1896 0 0,'0'0'0'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6">1295 1049 992 0 0,'0'0'2352'0'0,"-1"1"-2215"0"0,-6 10 374 0 0,6-9-388 0 0,1-2-96 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 3 54 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 2 0 0 0,-1-3-26 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,2 0 1 0 0,1 1 36 0 0,-4-2-70 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,5 0 309 0 0,-5 0-239 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,1-2 0 0 0,-2 1 5 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,2-3 1 0 0,-1 2-13 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,5-2 0 0 0,-7 4-47 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-2 1 0 0,7-9 197 0 0,-4 4-21 0 0,-3 6-133 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0-5 0 0 0,0 3 80 0 0,0 0 0 0 0,-1-6 0 0 0,0 11-127 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0-18 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 1-4 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,2 5 82 0 0,7 18 139 0 0,-6-19-185 0 0,-2-4-33 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 2 0 0 0,2 8 92 0 0,1-4 37 0 0,-4-7-130 0 0,0 0-9 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,1 1 32 0 0,-1-1-12 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,2 1 0 0 0,-2-1-19 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,8-6 49 0 0,-8 6-44 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,2-2-1 0 0,1-3 25 0 0,-3 5-30 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,2-1 0 0 0,-1 1 2 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,2-2 0 0 0,3-7 23 0 0,5-8 24 0 0,-9 16-37 0 0,-2 2-14 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-2 1 0 0,0 2-3 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-2 1 1 0 0,1 0-3 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2 4 0 0 0,-2 0 0 0 0,4-3 0 0 0,0 0 0 0 0,0 0 0 0 0,-2 3 0 0 0,-3 3 0 0 0,6-7 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 4 0 0 0,0-6 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,27-9-8 0 0,-26 8 6 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,4-4 0 0 0,0-1-15 0 0,-5 5-11 0 0,1-1-1 0 0,4-5 1 0 0,-6 7 21 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,-2-1-28 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-3-1 0 0,2 4 21 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 2 0 0,0-1-29 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-1-1 0 0,5 2 35 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,6 7-20 0 0,-6-6 13 0 0,2 1 4 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,5 2-1 0 0,1 0-9 0 0,-6-2 10 0 0,9 3 0 0 0,-2-1-1 0 0,-4 0 2 0 0,-2-2-5 0 0,-3-1 8 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 4 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7">1668 930 7832 0 0,'0'0'1384'0'0,"1"1"-1334"0"0,1 1-38 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 3-1 0 0,-2-3 7 0 0,1-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,1 1-1 0 0,-1 0 13 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,0 1-1 0 0,0-1-1 0 0,-1-1-20 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 2 0 0 0,0-2-7 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-2-5-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-5-7 0 0 0,8 10 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,2-3 0 0 0,0-2 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,7-8 0 0 0,-3 4 0 0 0,-6 7 0 0 0,28-40 8 0 0,-26 37 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8">1747 704 7432 0 0,'0'0'193'0'0,"0"2"6"0"0,1 3 38 0 0,1 9 1 0 0,1 7-24 0 0,-2-12-81 0 0,0 1-1 0 0,5 15 0 0 0,5 22 294 0 0,-6-25-160 0 0,-4-20-239 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 5 1 0 0,0 7 89 0 0,3-8-51 0 0,-3-6-58 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1-1 63 0 0,-1 0-21 0 0,-1 3 6 0 0,1-3-55 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-4-2 41 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-9-1 0 0 0,9 2 40 0 0,1 1-10 0 0,0-1 1 0 0,1 1 0 0 0,-4 0 0 0 0,5 0-41 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 2 0 0 0,2-2 272 0 0,2 0-207 0 0,3 0-61 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,8-3 0 0 0,3 0-5 0 0,15-1 47 0 0,11-4 34 0 0,-24 6-61 0 0,1-1 30 0 0,-3-1-39 0 0,-12 4-29 0 0,-2 1-10 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1-2 0 0 0,1 2-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,2-6 77 0 0,-2 6-75 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,0-1 82 0 0,1 2-76 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-3 0 35 0 0,0 0 0 0 0,-5 2 0 0 0,3-1-20 0 0,1-1 16 0 0,0 1 0 0 0,-8 5-1 0 0,10-6-26 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1 2 0 0 0,2-4-8 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 2-1 0 0,-1-1 2 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,1 0 1 0 0,0 1 3 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,3 0 1 0 0,1 0 8 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,6-2-1 0 0,-8 1 3 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,7-5 0 0 0,-1 1 14 0 0,3-2 23 0 0,-9 5-43 0 0,1 0 0 0 0,4-2 1 0 0,-3 3-2 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink41.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-24T19:07:39.021"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">244 1381 96 0 0,'4'0'0'0'0,"-2"0"0"0"0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,3 0 0 0 0,-3 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2-6 0 0 0,-1 1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1-11 0 0 0,-1 12 0 0 0,-1 0 0 0 0,-1 0 0 0 0,-1-10 0 0 0,-11-87 0 0 0,3-141 0 0 0,10 174 252 0 0,1 12 195 0 0,4-111 294 0 0,-4 144-540 0 0,1-15 211 0 0,1-22 74 0 0,1-21 22 0 0,-1 30 230 0 0,-3 20 21 0 0,0 32-384 0 0,0 2 306 0 0,3 2-72 0 0,-3-2-580 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,0 4 51 0 0,6 14 87 0 0,-1 0 0 0 0,4 27 0 0 0,3 43 526 0 0,-12-80-609 0 0,11 62 221 0 0,-5-40-178 0 0,-1 3 284 0 0,21 61 0 0 0,-21-82-287 0 0,14 25 0 0 0,-3-7 63 0 0,-7-11-38 0 0,21 41 221 0 0,-24-50-285 0 0,0 0 0 0 0,1 0 0 0 0,10 10 0 0 0,-15-17-24 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,9 6-1 0 0,-6-6-15 0 0,8 6 82 0 0,-12-9-109 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,3 0 0 0 0,-3-1-5 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-7 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-3 0 0 0,2-2 8 0 0,3-8 24 0 0,0-1 0 0 0,5-23 0 0 0,4-33 36 0 0,-5 20-29 0 0,18-111 37 0 0,-12 66-37 0 0,2-25-44 0 0,-8 41-6 0 0,-4 38-10 0 0,1-61 0 0 0,-7 71 6 0 0,1-49-16 0 0,-1 75 15 0 0,0 1 1 0 0,-1-11-1 0 0,0-3-24 0 0,1 18 16 0 0,1 2 2 0 0,2 5-1 0 0,-1-1 11 0 0,6 12-16 0 0,12 34 1 0 0,16 90-67 0 0,-10 0 20 0 0,-17-65 17 0 0,2 9 5 0 0,1 10 3 0 0,-3-26-5 0 0,-2-22 0 0 0,0-11 16 0 0,18 89-59 0 0,-3-50 25 0 0,-8-28 15 0 0,13 34-27 0 0,-19-61 32 0 0,21 36-1 0 0,-21-42 25 0 0,0-1 2 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1063 633 3616 0 0,'0'0'321'0'0,"-2"2"-263"0"0,0 0-52 0 0,-7 6 74 0 0,-12 14 0 0 0,13-12 8 0 0,-13 11 0 0 0,-2 4 50 0 0,12-11-73 0 0,7-9-30 0 0,-5 7 1 0 0,5-8-11 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-4 10 0 0 0,7-14-17 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,0 3 34 0 0,-1-4 3 0 0,1-1-19 0 0,3-1 13 0 0,0 0-32 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,3-2 1 0 0,3-2 3 0 0,-2 0 0 0 0,8-8 1 0 0,-7 7 9 0 0,8-9 36 0 0,23-28 1 0 0,-33 37-43 0 0,-1-1 0 0 0,0 1 1 0 0,5-10-1 0 0,-5 7-4 0 0,0 2 7 0 0,-3 6-15 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,0-1 9 0 0,0 0-1 0 0,0 1 1 0 0,2-4 0 0 0,-1 3 9 0 0,-2 3-19 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 2 8 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-2 5 1 0 0,0 0-3 0 0,-17 35 46 0 0,13-31-24 0 0,6-9-28 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 2 0 0 0,-1 19 76 0 0,2-21-49 0 0,1-2 45 0 0,2 0-38 0 0,-2 0-34 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,1 0 0 0 0,7-8 12 0 0,0 1 0 0 0,-1-2-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,10-18 0 0 0,-14 22-12 0 0,0 0 6 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,9-8 0 0 0,-8 9-2 0 0,-1 3 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,6-4 0 0 0,-6 4 8 0 0,-2 1-12 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-2 1-2 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 2 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,0 3 0 0 0,-2 8 1 0 0,-9 37 13 0 0,8-31-7 0 0,2-13-6 0 0,1 0 1 0 0,-1 1-1 0 0,-2 5 1 0 0,2-6 8 0 0,-3 7 0 0 0,4-8 0 0 0,0 0 0 0 0,-1-1 0 0 0,-2 6 0 0 0,4-6 36 0 0,0-3-47 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 26 0 0,3-1 45 0 0,-2 1-70 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-2 11 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,1-3 1 0 0,3-8 42 0 0,8-32 39 0 0,-8 22-26 0 0,10-24-1 0 0,-14 45-63 0 0,22-51 122 0 0,-19 45-102 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,10-10-1 0 0,-6 6 7 0 0,-7 8-18 0 0,1 0 0 0 0,4-5 0 0 0,-6 6-5 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0-3 0 0 0,4-6 49 0 0,-5 9-43 0 0,0 1 1 0 0,-2 1 55 0 0,1 1-69 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 2-1 0 0,0 2 1 0 0,-3 8-1 0 0,1-4 0 0 0,-3 13 0 0 0,3-13 0 0 0,3-7 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 4 0 0 0,0 14-7 0 0,0-8 3 0 0,0 13 0 0 0,1-18 2 0 0,-1 4 4 0 0,0 2-26 0 0,1-1-122 0 0,-1-8 12 0 0,1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,2 7-1 0 0,-2-11 81 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 1 0 0 0,-2-2 47 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,8-6 3 0 0,-1-1 0 0 0,12-17 0 0 0,13-22 3 0 0,-31 45 2 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,3-3 0 0 0,6-4 8 0 0,3-3 118 0 0,-14 11-88 0 0,0 4 33 0 0,-1 6-65 0 0,-1 1-1 0 0,-4 17 0 0 0,4-24-9 0 0,2-3-3 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-2-5 0 0,5-3-378 0 0,0-3 318 0 0,0 0-1 0 0,-1 0 1 0 0,7-10-1 0 0,-6 8 24 0 0,-2 4-13 0 0,0-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,2-6 1 0 0,-4 9 50 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 0 2 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0-3 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,-1 1 1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-5 5 0 0 0,-2 4-18 0 0,6-8 14 0 0,1 1-1 0 0,-5 8 1 0 0,7-12 6 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,2 2-1 0 0,-2-3 2 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,1 0 0 0 0,2-1-3 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,6-7 0 0 0,-5 6 0 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,4-6 1 0 0,-7 9 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,-1-4 0 0 0,1 5 1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-3 1-1 0 0,-4 3 1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">1137 857 2808 0 0,'0'0'40'0'0,"1"-1"-16"0"0,0 1-10 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,2 0 1 0 0,-1 0 90 0 0,0-1-60 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,2 1 0 0 0,-1-1 64 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,1 3 0 0 0,7 19 89 0 0,-6-14-47 0 0,0 0-132 0 0,-1 1 0 0 0,2 18 0 0 0,-3-20-6 0 0,2 29 26 0 0,-3-34 17 0 0,0 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 7 0 0 0,0-4 34 0 0,0 0 1 0 0,1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,4 10 0 0 0,1 10 846 0 0,-1-12-625 0 0,-4-11-195 0 0,0-1 0 0 0,0 1 0 0 0,1 4 0 0 0,-2-6 19 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">1005 1172 6328 0 0,'0'0'1200'0'0,"0"-2"-1074"0"0,1 1-98 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,11-5 313 0 0,-10 5-290 0 0,23-13 306 0 0,-2 0-146 0 0,32-13 325 0 0,-45 22-451 0 0,0 1-1 0 0,13-3 1 0 0,-8 2-20 0 0,1 0 21 0 0,-9 4-14 0 0,11-6 0 0 0,-13 6-38 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4">41 1424 7528 0 0,'-2'2'8'0'0,"0"0"26"0"0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-4 1 0 0 0,6-1-25 0 0,-1-1 11 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1-1-4 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-2 0 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-1 404 0 0,2 1-412 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,3-2 30 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,3-3-1 0 0,-2 1 4 0 0,26-19 96 0 0,38-25 0 0 0,14 0-32 0 0,17-10-31 0 0,178-92 54 0 0,-251 138-120 0 0,123-59 39 0 0,-106 50-36 0 0,167-79 39 0 0,-148 75-34 0 0,49-21 3 0 0,-28 8 0 0 0,36-17 10 0 0,4 6-18 0 0,107-27 3 0 0,-95 25-5 0 0,-104 37-6 0 0,56-23 4 0 0,-26 15-4 0 0,12-4-1 0 0,59-15 12 0 0,-109 33 2 0 0,-24 8-15 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-2 1 1 0 0,-4 0 0 0 0,-62 16 100 0 0,-2 6 60 0 0,54-18-136 0 0,-28 8 33 0 0,-13 5 29 0 0,-25 16 263 0 0,22-9-123 0 0,-56 20 28 0 0,34-13-7 0 0,-75 33 312 0 0,120-47-473 0 0,-52 25 104 0 0,2 6 58 0 0,80-44-220 0 0,-46 26 148 0 0,38-25-119 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5">1431 1068 1896 0 0,'0'0'0'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6">1295 1049 992 0 0,'0'0'2352'0'0,"-1"1"-2215"0"0,-6 10 374 0 0,6-9-388 0 0,1-2-96 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 3 54 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 2 0 0 0,-1-3-26 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,2 0 1 0 0,1 1 36 0 0,-4-2-70 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,5 0 309 0 0,-5 0-239 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,1-2 0 0 0,-2 1 5 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,2-3 1 0 0,-1 2-13 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,5-2 0 0 0,-7 4-47 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-2 1 0 0,7-9 197 0 0,-4 4-21 0 0,-3 6-133 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0-5 0 0 0,0 3 80 0 0,0 0 0 0 0,-1-6 0 0 0,0 11-127 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0-18 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 1-4 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,2 5 82 0 0,7 18 139 0 0,-6-19-185 0 0,-2-4-33 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 2 0 0 0,2 8 92 0 0,1-4 37 0 0,-4-7-130 0 0,0 0-9 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,1 1 32 0 0,-1-1-12 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,2 1 0 0 0,-2-1-19 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,8-6 49 0 0,-8 6-44 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,2-2-1 0 0,1-3 25 0 0,-3 5-30 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,2-1 0 0 0,-1 1 2 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,2-2 0 0 0,3-7 23 0 0,5-8 24 0 0,-9 16-37 0 0,-2 2-14 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-2 1 0 0,0 2-3 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-2 1 1 0 0,1 0-3 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2 4 0 0 0,-2 0 0 0 0,4-3 0 0 0,0 0 0 0 0,0 0 0 0 0,-2 3 0 0 0,-3 3 0 0 0,6-7 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 4 0 0 0,0-6 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,27-9-8 0 0,-26 8 6 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,4-4 0 0 0,0-1-15 0 0,-5 5-11 0 0,1-1-1 0 0,4-5 1 0 0,-6 7 21 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,-2-1-28 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-3-1 0 0,2 4 21 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 2 0 0,0-1-29 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-1-1 0 0,5 2 35 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,6 7-20 0 0,-6-6 13 0 0,2 1 4 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,5 2-1 0 0,1 0-9 0 0,-6-2 10 0 0,9 3 0 0 0,-2-1-1 0 0,-4 0 2 0 0,-2-2-5 0 0,-3-1 8 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 4 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7">1668 930 7832 0 0,'0'0'1384'0'0,"1"1"-1334"0"0,1 1-38 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 3-1 0 0,-2-3 7 0 0,1-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,1 1-1 0 0,-1 0 13 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,0 1-1 0 0,0-1-1 0 0,-1-1-20 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 2 0 0 0,0-2-7 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-2-5-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-5-7 0 0 0,8 10 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,2-3 0 0 0,0-2 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,7-8 0 0 0,-3 4 0 0 0,-6 7 0 0 0,28-40 8 0 0,-26 37 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8">1747 704 7432 0 0,'0'0'193'0'0,"0"2"6"0"0,1 3 38 0 0,1 9 1 0 0,1 7-24 0 0,-2-12-81 0 0,0 1-1 0 0,5 15 0 0 0,5 22 294 0 0,-6-25-160 0 0,-4-20-239 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 5 1 0 0,0 7 89 0 0,3-8-51 0 0,-3-6-58 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1-1 63 0 0,-1 0-21 0 0,-1 3 6 0 0,1-3-55 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-4-2 41 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-9-1 0 0 0,9 2 40 0 0,1 1-10 0 0,0-1 1 0 0,1 1 0 0 0,-4 0 0 0 0,5 0-41 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 2 0 0 0,2-2 272 0 0,2 0-207 0 0,3 0-61 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,8-3 0 0 0,3 0-5 0 0,15-1 47 0 0,11-4 34 0 0,-24 6-61 0 0,1-1 30 0 0,-3-1-39 0 0,-12 4-29 0 0,-2 1-10 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1-2 0 0 0,1 2-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,2-6 77 0 0,-2 6-75 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,0-1 82 0 0,1 2-76 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-3 0 35 0 0,0 0 0 0 0,-5 2 0 0 0,3-1-20 0 0,1-1 16 0 0,0 1 0 0 0,-8 5-1 0 0,10-6-26 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1 2 0 0 0,2-4-8 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 2-1 0 0,-1-1 2 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,1 0 1 0 0,0 1 3 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,3 0 1 0 0,1 0 8 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,6-2-1 0 0,-8 1 3 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,7-5 0 0 0,-1 1 14 0 0,3-2 23 0 0,-9 5-43 0 0,1 0 0 0 0,4-2 1 0 0,-3 3-2 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink42.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-24T19:07:44.025"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">244 1381 96 0 0,'4'0'0'0'0,"-2"0"0"0"0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,3 0 0 0 0,-3 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2-6 0 0 0,-1 1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1-11 0 0 0,-1 12 0 0 0,-1 0 0 0 0,-1 0 0 0 0,-1-10 0 0 0,-11-87 0 0 0,3-141 0 0 0,10 174 252 0 0,1 12 195 0 0,4-111 294 0 0,-4 144-540 0 0,1-15 211 0 0,1-22 74 0 0,1-21 22 0 0,-1 30 230 0 0,-3 20 21 0 0,0 32-384 0 0,0 2 306 0 0,3 2-72 0 0,-3-2-580 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,0 4 51 0 0,6 14 87 0 0,-1 0 0 0 0,4 27 0 0 0,3 43 526 0 0,-12-80-609 0 0,11 62 221 0 0,-5-40-178 0 0,-1 3 284 0 0,21 61 0 0 0,-21-82-287 0 0,14 25 0 0 0,-3-7 63 0 0,-7-11-38 0 0,21 41 221 0 0,-24-50-285 0 0,0 0 0 0 0,1 0 0 0 0,10 10 0 0 0,-15-17-24 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,9 6-1 0 0,-6-6-15 0 0,8 6 82 0 0,-12-9-109 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,3 0 0 0 0,-3-1-5 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-7 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-3 0 0 0,2-2 8 0 0,3-8 24 0 0,0-1 0 0 0,5-23 0 0 0,4-33 36 0 0,-5 20-29 0 0,18-111 37 0 0,-12 66-37 0 0,2-25-44 0 0,-8 41-6 0 0,-4 38-10 0 0,1-61 0 0 0,-7 71 6 0 0,1-49-16 0 0,-1 75 15 0 0,0 1 1 0 0,-1-11-1 0 0,0-3-24 0 0,1 18 16 0 0,1 2 2 0 0,2 5-1 0 0,-1-1 11 0 0,6 12-16 0 0,12 34 1 0 0,16 90-67 0 0,-10 0 20 0 0,-17-65 17 0 0,2 9 5 0 0,1 10 3 0 0,-3-26-5 0 0,-2-22 0 0 0,0-11 16 0 0,18 89-59 0 0,-3-50 25 0 0,-8-28 15 0 0,13 34-27 0 0,-19-61 32 0 0,21 36-1 0 0,-21-42 25 0 0,0-1 2 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1063 633 3616 0 0,'0'0'321'0'0,"-2"2"-263"0"0,0 0-52 0 0,-7 6 74 0 0,-12 14 0 0 0,13-12 8 0 0,-13 11 0 0 0,-2 4 50 0 0,12-11-73 0 0,7-9-30 0 0,-5 7 1 0 0,5-8-11 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-4 10 0 0 0,7-14-17 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,0 3 34 0 0,-1-4 3 0 0,1-1-19 0 0,3-1 13 0 0,0 0-32 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,3-2 1 0 0,3-2 3 0 0,-2 0 0 0 0,8-8 1 0 0,-7 7 9 0 0,8-9 36 0 0,23-28 1 0 0,-33 37-43 0 0,-1-1 0 0 0,0 1 1 0 0,5-10-1 0 0,-5 7-4 0 0,0 2 7 0 0,-3 6-15 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,0-1 9 0 0,0 0-1 0 0,0 1 1 0 0,2-4 0 0 0,-1 3 9 0 0,-2 3-19 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 2 8 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-2 5 1 0 0,0 0-3 0 0,-17 35 46 0 0,13-31-24 0 0,6-9-28 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 2 0 0 0,-1 19 76 0 0,2-21-49 0 0,1-2 45 0 0,2 0-38 0 0,-2 0-34 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,1 0 0 0 0,7-8 12 0 0,0 1 0 0 0,-1-2-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,10-18 0 0 0,-14 22-12 0 0,0 0 6 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,9-8 0 0 0,-8 9-2 0 0,-1 3 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,6-4 0 0 0,-6 4 8 0 0,-2 1-12 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-2 1-2 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 2 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,0 3 0 0 0,-2 8 1 0 0,-9 37 13 0 0,8-31-7 0 0,2-13-6 0 0,1 0 1 0 0,-1 1-1 0 0,-2 5 1 0 0,2-6 8 0 0,-3 7 0 0 0,4-8 0 0 0,0 0 0 0 0,-1-1 0 0 0,-2 6 0 0 0,4-6 36 0 0,0-3-47 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 26 0 0,3-1 45 0 0,-2 1-70 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-2 11 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,1-3 1 0 0,3-8 42 0 0,8-32 39 0 0,-8 22-26 0 0,10-24-1 0 0,-14 45-63 0 0,22-51 122 0 0,-19 45-102 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,10-10-1 0 0,-6 6 7 0 0,-7 8-18 0 0,1 0 0 0 0,4-5 0 0 0,-6 6-5 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0-3 0 0 0,4-6 49 0 0,-5 9-43 0 0,0 1 1 0 0,-2 1 55 0 0,1 1-69 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 2-1 0 0,0 2 1 0 0,-3 8-1 0 0,1-4 0 0 0,-3 13 0 0 0,3-13 0 0 0,3-7 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 4 0 0 0,0 14-7 0 0,0-8 3 0 0,0 13 0 0 0,1-18 2 0 0,-1 4 4 0 0,0 2-26 0 0,1-1-122 0 0,-1-8 12 0 0,1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,2 7-1 0 0,-2-11 81 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 1 0 0 0,-2-2 47 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,8-6 3 0 0,-1-1 0 0 0,12-17 0 0 0,13-22 3 0 0,-31 45 2 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,3-3 0 0 0,6-4 8 0 0,3-3 118 0 0,-14 11-88 0 0,0 4 33 0 0,-1 6-65 0 0,-1 1-1 0 0,-4 17 0 0 0,4-24-9 0 0,2-3-3 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-2-5 0 0,5-3-378 0 0,0-3 318 0 0,0 0-1 0 0,-1 0 1 0 0,7-10-1 0 0,-6 8 24 0 0,-2 4-13 0 0,0-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,2-6 1 0 0,-4 9 50 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 0 2 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0-3 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,-1 1 1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-5 5 0 0 0,-2 4-18 0 0,6-8 14 0 0,1 1-1 0 0,-5 8 1 0 0,7-12 6 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,2 2-1 0 0,-2-3 2 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,1 0 0 0 0,2-1-3 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,6-7 0 0 0,-5 6 0 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,4-6 1 0 0,-7 9 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,-1-4 0 0 0,1 5 1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-3 1-1 0 0,-4 3 1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">1137 857 2808 0 0,'0'0'40'0'0,"1"-1"-16"0"0,0 1-10 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,2 0 1 0 0,-1 0 90 0 0,0-1-60 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,2 1 0 0 0,-1-1 64 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,1 3 0 0 0,7 19 89 0 0,-6-14-47 0 0,0 0-132 0 0,-1 1 0 0 0,2 18 0 0 0,-3-20-6 0 0,2 29 26 0 0,-3-34 17 0 0,0 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 7 0 0 0,0-4 34 0 0,0 0 1 0 0,1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,4 10 0 0 0,1 10 846 0 0,-1-12-625 0 0,-4-11-195 0 0,0-1 0 0 0,0 1 0 0 0,1 4 0 0 0,-2-6 19 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">1005 1172 6328 0 0,'0'0'1200'0'0,"0"-2"-1074"0"0,1 1-98 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,11-5 313 0 0,-10 5-290 0 0,23-13 306 0 0,-2 0-146 0 0,32-13 325 0 0,-45 22-451 0 0,0 1-1 0 0,13-3 1 0 0,-8 2-20 0 0,1 0 21 0 0,-9 4-14 0 0,11-6 0 0 0,-13 6-38 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4">41 1424 7528 0 0,'-2'2'8'0'0,"0"0"26"0"0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-4 1 0 0 0,6-1-25 0 0,-1-1 11 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1-1-4 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-2 0 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-1 404 0 0,2 1-412 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,3-2 30 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,3-3-1 0 0,-2 1 4 0 0,26-19 96 0 0,38-25 0 0 0,14 0-32 0 0,17-10-31 0 0,178-92 54 0 0,-251 138-120 0 0,123-59 39 0 0,-106 50-36 0 0,167-79 39 0 0,-148 75-34 0 0,49-21 3 0 0,-28 8 0 0 0,36-17 10 0 0,4 6-18 0 0,107-27 3 0 0,-95 25-5 0 0,-104 37-6 0 0,56-23 4 0 0,-26 15-4 0 0,12-4-1 0 0,59-15 12 0 0,-109 33 2 0 0,-24 8-15 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-2 1 1 0 0,-4 0 0 0 0,-62 16 100 0 0,-2 6 60 0 0,54-18-136 0 0,-28 8 33 0 0,-13 5 29 0 0,-25 16 263 0 0,22-9-123 0 0,-56 20 28 0 0,34-13-7 0 0,-75 33 312 0 0,120-47-473 0 0,-52 25 104 0 0,2 6 58 0 0,80-44-220 0 0,-46 26 148 0 0,38-25-119 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5">1431 1068 1896 0 0,'0'0'0'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6">1295 1049 992 0 0,'0'0'2352'0'0,"-1"1"-2215"0"0,-6 10 374 0 0,6-9-388 0 0,1-2-96 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 3 54 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 2 0 0 0,-1-3-26 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,2 0 1 0 0,1 1 36 0 0,-4-2-70 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,5 0 309 0 0,-5 0-239 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,1-2 0 0 0,-2 1 5 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,2-3 1 0 0,-1 2-13 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,5-2 0 0 0,-7 4-47 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-2 1 0 0,7-9 197 0 0,-4 4-21 0 0,-3 6-133 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0-5 0 0 0,0 3 80 0 0,0 0 0 0 0,-1-6 0 0 0,0 11-127 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0-18 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 1-4 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,2 5 82 0 0,7 18 139 0 0,-6-19-185 0 0,-2-4-33 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 2 0 0 0,2 8 92 0 0,1-4 37 0 0,-4-7-130 0 0,0 0-9 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,1 1 32 0 0,-1-1-12 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,2 1 0 0 0,-2-1-19 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,8-6 49 0 0,-8 6-44 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,2-2-1 0 0,1-3 25 0 0,-3 5-30 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,2-1 0 0 0,-1 1 2 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,2-2 0 0 0,3-7 23 0 0,5-8 24 0 0,-9 16-37 0 0,-2 2-14 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-2 1 0 0,0 2-3 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-2 1 1 0 0,1 0-3 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2 4 0 0 0,-2 0 0 0 0,4-3 0 0 0,0 0 0 0 0,0 0 0 0 0,-2 3 0 0 0,-3 3 0 0 0,6-7 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 4 0 0 0,0-6 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,27-9-8 0 0,-26 8 6 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,4-4 0 0 0,0-1-15 0 0,-5 5-11 0 0,1-1-1 0 0,4-5 1 0 0,-6 7 21 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,-2-1-28 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-3-1 0 0,2 4 21 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 2 0 0,0-1-29 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-1-1 0 0,5 2 35 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,6 7-20 0 0,-6-6 13 0 0,2 1 4 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,5 2-1 0 0,1 0-9 0 0,-6-2 10 0 0,9 3 0 0 0,-2-1-1 0 0,-4 0 2 0 0,-2-2-5 0 0,-3-1 8 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 4 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7">1668 930 7832 0 0,'0'0'1384'0'0,"1"1"-1334"0"0,1 1-38 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 3-1 0 0,-2-3 7 0 0,1-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,1 1-1 0 0,-1 0 13 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,0 1-1 0 0,0-1-1 0 0,-1-1-20 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 2 0 0 0,0-2-7 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-2-5-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-5-7 0 0 0,8 10 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,2-3 0 0 0,0-2 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,7-8 0 0 0,-3 4 0 0 0,-6 7 0 0 0,28-40 8 0 0,-26 37 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8">1747 704 7432 0 0,'0'0'193'0'0,"0"2"6"0"0,1 3 38 0 0,1 9 1 0 0,1 7-24 0 0,-2-12-81 0 0,0 1-1 0 0,5 15 0 0 0,5 22 294 0 0,-6-25-160 0 0,-4-20-239 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 5 1 0 0,0 7 89 0 0,3-8-51 0 0,-3-6-58 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1-1 63 0 0,-1 0-21 0 0,-1 3 6 0 0,1-3-55 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-4-2 41 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-9-1 0 0 0,9 2 40 0 0,1 1-10 0 0,0-1 1 0 0,1 1 0 0 0,-4 0 0 0 0,5 0-41 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 2 0 0 0,2-2 272 0 0,2 0-207 0 0,3 0-61 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,8-3 0 0 0,3 0-5 0 0,15-1 47 0 0,11-4 34 0 0,-24 6-61 0 0,1-1 30 0 0,-3-1-39 0 0,-12 4-29 0 0,-2 1-10 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1-2 0 0 0,1 2-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,2-6 77 0 0,-2 6-75 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,0-1 82 0 0,1 2-76 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-3 0 35 0 0,0 0 0 0 0,-5 2 0 0 0,3-1-20 0 0,1-1 16 0 0,0 1 0 0 0,-8 5-1 0 0,10-6-26 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1 2 0 0 0,2-4-8 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 2-1 0 0,-1-1 2 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,1 0 1 0 0,0 1 3 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,3 0 1 0 0,1 0 8 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,6-2-1 0 0,-8 1 3 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,7-5 0 0 0,-1 1 14 0 0,3-2 23 0 0,-9 5-43 0 0,1 0 0 0 0,4-2 1 0 0,-3 3-2 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink43.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-24T19:07:47.976"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">244 1381 96 0 0,'4'0'0'0'0,"-2"0"0"0"0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,3 0 0 0 0,-3 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2-6 0 0 0,-1 1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1-11 0 0 0,-1 12 0 0 0,-1 0 0 0 0,-1 0 0 0 0,-1-10 0 0 0,-11-87 0 0 0,3-141 0 0 0,10 174 252 0 0,1 12 195 0 0,4-111 294 0 0,-4 144-540 0 0,1-15 211 0 0,1-22 74 0 0,1-21 22 0 0,-1 30 230 0 0,-3 20 21 0 0,0 32-384 0 0,0 2 306 0 0,3 2-72 0 0,-3-2-580 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,0 4 51 0 0,6 14 87 0 0,-1 0 0 0 0,4 27 0 0 0,3 43 526 0 0,-12-80-609 0 0,11 62 221 0 0,-5-40-178 0 0,-1 3 284 0 0,21 61 0 0 0,-21-82-287 0 0,14 25 0 0 0,-3-7 63 0 0,-7-11-38 0 0,21 41 221 0 0,-24-50-285 0 0,0 0 0 0 0,1 0 0 0 0,10 10 0 0 0,-15-17-24 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,9 6-1 0 0,-6-6-15 0 0,8 6 82 0 0,-12-9-109 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,3 0 0 0 0,-3-1-5 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-7 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-3 0 0 0,2-2 8 0 0,3-8 24 0 0,0-1 0 0 0,5-23 0 0 0,4-33 36 0 0,-5 20-29 0 0,18-111 37 0 0,-12 66-37 0 0,2-25-44 0 0,-8 41-6 0 0,-4 38-10 0 0,1-61 0 0 0,-7 71 6 0 0,1-49-16 0 0,-1 75 15 0 0,0 1 1 0 0,-1-11-1 0 0,0-3-24 0 0,1 18 16 0 0,1 2 2 0 0,2 5-1 0 0,-1-1 11 0 0,6 12-16 0 0,12 34 1 0 0,16 90-67 0 0,-10 0 20 0 0,-17-65 17 0 0,2 9 5 0 0,1 10 3 0 0,-3-26-5 0 0,-2-22 0 0 0,0-11 16 0 0,18 89-59 0 0,-3-50 25 0 0,-8-28 15 0 0,13 34-27 0 0,-19-61 32 0 0,21 36-1 0 0,-21-42 25 0 0,0-1 2 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1063 633 3616 0 0,'0'0'321'0'0,"-2"2"-263"0"0,0 0-52 0 0,-7 6 74 0 0,-12 14 0 0 0,13-12 8 0 0,-13 11 0 0 0,-2 4 50 0 0,12-11-73 0 0,7-9-30 0 0,-5 7 1 0 0,5-8-11 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-4 10 0 0 0,7-14-17 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,0 3 34 0 0,-1-4 3 0 0,1-1-19 0 0,3-1 13 0 0,0 0-32 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,3-2 1 0 0,3-2 3 0 0,-2 0 0 0 0,8-8 1 0 0,-7 7 9 0 0,8-9 36 0 0,23-28 1 0 0,-33 37-43 0 0,-1-1 0 0 0,0 1 1 0 0,5-10-1 0 0,-5 7-4 0 0,0 2 7 0 0,-3 6-15 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,0-1 9 0 0,0 0-1 0 0,0 1 1 0 0,2-4 0 0 0,-1 3 9 0 0,-2 3-19 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 2 8 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-2 5 1 0 0,0 0-3 0 0,-17 35 46 0 0,13-31-24 0 0,6-9-28 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 2 0 0 0,-1 19 76 0 0,2-21-49 0 0,1-2 45 0 0,2 0-38 0 0,-2 0-34 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,1 0 0 0 0,7-8 12 0 0,0 1 0 0 0,-1-2-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,10-18 0 0 0,-14 22-12 0 0,0 0 6 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,9-8 0 0 0,-8 9-2 0 0,-1 3 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,6-4 0 0 0,-6 4 8 0 0,-2 1-12 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-2 1-2 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 2 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,0 3 0 0 0,-2 8 1 0 0,-9 37 13 0 0,8-31-7 0 0,2-13-6 0 0,1 0 1 0 0,-1 1-1 0 0,-2 5 1 0 0,2-6 8 0 0,-3 7 0 0 0,4-8 0 0 0,0 0 0 0 0,-1-1 0 0 0,-2 6 0 0 0,4-6 36 0 0,0-3-47 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 26 0 0,3-1 45 0 0,-2 1-70 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-2 11 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,1-3 1 0 0,3-8 42 0 0,8-32 39 0 0,-8 22-26 0 0,10-24-1 0 0,-14 45-63 0 0,22-51 122 0 0,-19 45-102 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,10-10-1 0 0,-6 6 7 0 0,-7 8-18 0 0,1 0 0 0 0,4-5 0 0 0,-6 6-5 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0-3 0 0 0,4-6 49 0 0,-5 9-43 0 0,0 1 1 0 0,-2 1 55 0 0,1 1-69 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 2-1 0 0,0 2 1 0 0,-3 8-1 0 0,1-4 0 0 0,-3 13 0 0 0,3-13 0 0 0,3-7 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 4 0 0 0,0 14-7 0 0,0-8 3 0 0,0 13 0 0 0,1-18 2 0 0,-1 4 4 0 0,0 2-26 0 0,1-1-122 0 0,-1-8 12 0 0,1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,2 7-1 0 0,-2-11 81 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 1 0 0 0,-2-2 47 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,8-6 3 0 0,-1-1 0 0 0,12-17 0 0 0,13-22 3 0 0,-31 45 2 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,3-3 0 0 0,6-4 8 0 0,3-3 118 0 0,-14 11-88 0 0,0 4 33 0 0,-1 6-65 0 0,-1 1-1 0 0,-4 17 0 0 0,4-24-9 0 0,2-3-3 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-2-5 0 0,5-3-378 0 0,0-3 318 0 0,0 0-1 0 0,-1 0 1 0 0,7-10-1 0 0,-6 8 24 0 0,-2 4-13 0 0,0-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,2-6 1 0 0,-4 9 50 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 0 2 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0-3 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,-1 1 1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-5 5 0 0 0,-2 4-18 0 0,6-8 14 0 0,1 1-1 0 0,-5 8 1 0 0,7-12 6 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,2 2-1 0 0,-2-3 2 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,1 0 0 0 0,2-1-3 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,6-7 0 0 0,-5 6 0 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,4-6 1 0 0,-7 9 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,-1-4 0 0 0,1 5 1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-3 1-1 0 0,-4 3 1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">1137 857 2808 0 0,'0'0'40'0'0,"1"-1"-16"0"0,0 1-10 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,2 0 1 0 0,-1 0 90 0 0,0-1-60 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,2 1 0 0 0,-1-1 64 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,1 3 0 0 0,7 19 89 0 0,-6-14-47 0 0,0 0-132 0 0,-1 1 0 0 0,2 18 0 0 0,-3-20-6 0 0,2 29 26 0 0,-3-34 17 0 0,0 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 7 0 0 0,0-4 34 0 0,0 0 1 0 0,1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,4 10 0 0 0,1 10 846 0 0,-1-12-625 0 0,-4-11-195 0 0,0-1 0 0 0,0 1 0 0 0,1 4 0 0 0,-2-6 19 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">1005 1172 6328 0 0,'0'0'1200'0'0,"0"-2"-1074"0"0,1 1-98 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,11-5 313 0 0,-10 5-290 0 0,23-13 306 0 0,-2 0-146 0 0,32-13 325 0 0,-45 22-451 0 0,0 1-1 0 0,13-3 1 0 0,-8 2-20 0 0,1 0 21 0 0,-9 4-14 0 0,11-6 0 0 0,-13 6-38 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4">41 1424 7528 0 0,'-2'2'8'0'0,"0"0"26"0"0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-4 1 0 0 0,6-1-25 0 0,-1-1 11 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1-1-4 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-2 0 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-1 404 0 0,2 1-412 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,3-2 30 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,3-3-1 0 0,-2 1 4 0 0,26-19 96 0 0,38-25 0 0 0,14 0-32 0 0,17-10-31 0 0,178-92 54 0 0,-251 138-120 0 0,123-59 39 0 0,-106 50-36 0 0,167-79 39 0 0,-148 75-34 0 0,49-21 3 0 0,-28 8 0 0 0,36-17 10 0 0,4 6-18 0 0,107-27 3 0 0,-95 25-5 0 0,-104 37-6 0 0,56-23 4 0 0,-26 15-4 0 0,12-4-1 0 0,59-15 12 0 0,-109 33 2 0 0,-24 8-15 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-2 1 1 0 0,-4 0 0 0 0,-62 16 100 0 0,-2 6 60 0 0,54-18-136 0 0,-28 8 33 0 0,-13 5 29 0 0,-25 16 263 0 0,22-9-123 0 0,-56 20 28 0 0,34-13-7 0 0,-75 33 312 0 0,120-47-473 0 0,-52 25 104 0 0,2 6 58 0 0,80-44-220 0 0,-46 26 148 0 0,38-25-119 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5">1431 1068 1896 0 0,'0'0'0'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6">1295 1049 992 0 0,'0'0'2352'0'0,"-1"1"-2215"0"0,-6 10 374 0 0,6-9-388 0 0,1-2-96 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 3 54 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 2 0 0 0,-1-3-26 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,2 0 1 0 0,1 1 36 0 0,-4-2-70 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,5 0 309 0 0,-5 0-239 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,1-2 0 0 0,-2 1 5 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,2-3 1 0 0,-1 2-13 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,5-2 0 0 0,-7 4-47 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-2 1 0 0,7-9 197 0 0,-4 4-21 0 0,-3 6-133 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0-5 0 0 0,0 3 80 0 0,0 0 0 0 0,-1-6 0 0 0,0 11-127 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0-18 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 1-4 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,2 5 82 0 0,7 18 139 0 0,-6-19-185 0 0,-2-4-33 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 2 0 0 0,2 8 92 0 0,1-4 37 0 0,-4-7-130 0 0,0 0-9 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,1 1 32 0 0,-1-1-12 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,2 1 0 0 0,-2-1-19 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,8-6 49 0 0,-8 6-44 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,2-2-1 0 0,1-3 25 0 0,-3 5-30 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,2-1 0 0 0,-1 1 2 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,2-2 0 0 0,3-7 23 0 0,5-8 24 0 0,-9 16-37 0 0,-2 2-14 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-2 1 0 0,0 2-3 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-2 1 1 0 0,1 0-3 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2 4 0 0 0,-2 0 0 0 0,4-3 0 0 0,0 0 0 0 0,0 0 0 0 0,-2 3 0 0 0,-3 3 0 0 0,6-7 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 4 0 0 0,0-6 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,27-9-8 0 0,-26 8 6 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,4-4 0 0 0,0-1-15 0 0,-5 5-11 0 0,1-1-1 0 0,4-5 1 0 0,-6 7 21 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,-2-1-28 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-3-1 0 0,2 4 21 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 2 0 0,0-1-29 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-1-1 0 0,5 2 35 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,6 7-20 0 0,-6-6 13 0 0,2 1 4 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,5 2-1 0 0,1 0-9 0 0,-6-2 10 0 0,9 3 0 0 0,-2-1-1 0 0,-4 0 2 0 0,-2-2-5 0 0,-3-1 8 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 4 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7">1668 930 7832 0 0,'0'0'1384'0'0,"1"1"-1334"0"0,1 1-38 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 3-1 0 0,-2-3 7 0 0,1-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,1 1-1 0 0,-1 0 13 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,0 1-1 0 0,0-1-1 0 0,-1-1-20 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 2 0 0 0,0-2-7 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-2-5-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-5-7 0 0 0,8 10 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,2-3 0 0 0,0-2 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,7-8 0 0 0,-3 4 0 0 0,-6 7 0 0 0,28-40 8 0 0,-26 37 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8">1747 704 7432 0 0,'0'0'193'0'0,"0"2"6"0"0,1 3 38 0 0,1 9 1 0 0,1 7-24 0 0,-2-12-81 0 0,0 1-1 0 0,5 15 0 0 0,5 22 294 0 0,-6-25-160 0 0,-4-20-239 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 5 1 0 0,0 7 89 0 0,3-8-51 0 0,-3-6-58 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1-1 63 0 0,-1 0-21 0 0,-1 3 6 0 0,1-3-55 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-4-2 41 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-9-1 0 0 0,9 2 40 0 0,1 1-10 0 0,0-1 1 0 0,1 1 0 0 0,-4 0 0 0 0,5 0-41 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 2 0 0 0,2-2 272 0 0,2 0-207 0 0,3 0-61 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,8-3 0 0 0,3 0-5 0 0,15-1 47 0 0,11-4 34 0 0,-24 6-61 0 0,1-1 30 0 0,-3-1-39 0 0,-12 4-29 0 0,-2 1-10 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1-2 0 0 0,1 2-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,2-6 77 0 0,-2 6-75 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,0-1 82 0 0,1 2-76 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-3 0 35 0 0,0 0 0 0 0,-5 2 0 0 0,3-1-20 0 0,1-1 16 0 0,0 1 0 0 0,-8 5-1 0 0,10-6-26 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1 2 0 0 0,2-4-8 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 2-1 0 0,-1-1 2 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,1 0 1 0 0,0 1 3 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,3 0 1 0 0,1 0 8 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,6-2-1 0 0,-8 1 3 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,7-5 0 0 0,-1 1 14 0 0,3-2 23 0 0,-9 5-43 0 0,1 0 0 0 0,4-2 1 0 0,-3 3-2 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink44.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-24T19:07:53.075"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">244 1381 96 0 0,'4'0'0'0'0,"-2"0"0"0"0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,3 0 0 0 0,-3 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2-6 0 0 0,-1 1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1-11 0 0 0,-1 12 0 0 0,-1 0 0 0 0,-1 0 0 0 0,-1-10 0 0 0,-11-87 0 0 0,3-141 0 0 0,10 174 252 0 0,1 12 195 0 0,4-111 294 0 0,-4 144-540 0 0,1-15 211 0 0,1-22 74 0 0,1-21 22 0 0,-1 30 230 0 0,-3 20 21 0 0,0 32-384 0 0,0 2 306 0 0,3 2-72 0 0,-3-2-580 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,0 4 51 0 0,6 14 87 0 0,-1 0 0 0 0,4 27 0 0 0,3 43 526 0 0,-12-80-609 0 0,11 62 221 0 0,-5-40-178 0 0,-1 3 284 0 0,21 61 0 0 0,-21-82-287 0 0,14 25 0 0 0,-3-7 63 0 0,-7-11-38 0 0,21 41 221 0 0,-24-50-285 0 0,0 0 0 0 0,1 0 0 0 0,10 10 0 0 0,-15-17-24 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,9 6-1 0 0,-6-6-15 0 0,8 6 82 0 0,-12-9-109 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,3 0 0 0 0,-3-1-5 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-7 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-3 0 0 0,2-2 8 0 0,3-8 24 0 0,0-1 0 0 0,5-23 0 0 0,4-33 36 0 0,-5 20-29 0 0,18-111 37 0 0,-12 66-37 0 0,2-25-44 0 0,-8 41-6 0 0,-4 38-10 0 0,1-61 0 0 0,-7 71 6 0 0,1-49-16 0 0,-1 75 15 0 0,0 1 1 0 0,-1-11-1 0 0,0-3-24 0 0,1 18 16 0 0,1 2 2 0 0,2 5-1 0 0,-1-1 11 0 0,6 12-16 0 0,12 34 1 0 0,16 90-67 0 0,-10 0 20 0 0,-17-65 17 0 0,2 9 5 0 0,1 10 3 0 0,-3-26-5 0 0,-2-22 0 0 0,0-11 16 0 0,18 89-59 0 0,-3-50 25 0 0,-8-28 15 0 0,13 34-27 0 0,-19-61 32 0 0,21 36-1 0 0,-21-42 25 0 0,0-1 2 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1063 633 3616 0 0,'0'0'321'0'0,"-2"2"-263"0"0,0 0-52 0 0,-7 6 74 0 0,-12 14 0 0 0,13-12 8 0 0,-13 11 0 0 0,-2 4 50 0 0,12-11-73 0 0,7-9-30 0 0,-5 7 1 0 0,5-8-11 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-4 10 0 0 0,7-14-17 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,0 3 34 0 0,-1-4 3 0 0,1-1-19 0 0,3-1 13 0 0,0 0-32 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,3-2 1 0 0,3-2 3 0 0,-2 0 0 0 0,8-8 1 0 0,-7 7 9 0 0,8-9 36 0 0,23-28 1 0 0,-33 37-43 0 0,-1-1 0 0 0,0 1 1 0 0,5-10-1 0 0,-5 7-4 0 0,0 2 7 0 0,-3 6-15 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,0-1 9 0 0,0 0-1 0 0,0 1 1 0 0,2-4 0 0 0,-1 3 9 0 0,-2 3-19 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 2 8 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-2 5 1 0 0,0 0-3 0 0,-17 35 46 0 0,13-31-24 0 0,6-9-28 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 2 0 0 0,-1 19 76 0 0,2-21-49 0 0,1-2 45 0 0,2 0-38 0 0,-2 0-34 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,1 0 0 0 0,7-8 12 0 0,0 1 0 0 0,-1-2-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,10-18 0 0 0,-14 22-12 0 0,0 0 6 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,9-8 0 0 0,-8 9-2 0 0,-1 3 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,6-4 0 0 0,-6 4 8 0 0,-2 1-12 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-2 1-2 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 2 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,0 3 0 0 0,-2 8 1 0 0,-9 37 13 0 0,8-31-7 0 0,2-13-6 0 0,1 0 1 0 0,-1 1-1 0 0,-2 5 1 0 0,2-6 8 0 0,-3 7 0 0 0,4-8 0 0 0,0 0 0 0 0,-1-1 0 0 0,-2 6 0 0 0,4-6 36 0 0,0-3-47 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 26 0 0,3-1 45 0 0,-2 1-70 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-2 11 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,1-3 1 0 0,3-8 42 0 0,8-32 39 0 0,-8 22-26 0 0,10-24-1 0 0,-14 45-63 0 0,22-51 122 0 0,-19 45-102 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,10-10-1 0 0,-6 6 7 0 0,-7 8-18 0 0,1 0 0 0 0,4-5 0 0 0,-6 6-5 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0-3 0 0 0,4-6 49 0 0,-5 9-43 0 0,0 1 1 0 0,-2 1 55 0 0,1 1-69 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 2-1 0 0,0 2 1 0 0,-3 8-1 0 0,1-4 0 0 0,-3 13 0 0 0,3-13 0 0 0,3-7 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 4 0 0 0,0 14-7 0 0,0-8 3 0 0,0 13 0 0 0,1-18 2 0 0,-1 4 4 0 0,0 2-26 0 0,1-1-122 0 0,-1-8 12 0 0,1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,2 7-1 0 0,-2-11 81 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 1 0 0 0,-2-2 47 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,8-6 3 0 0,-1-1 0 0 0,12-17 0 0 0,13-22 3 0 0,-31 45 2 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,3-3 0 0 0,6-4 8 0 0,3-3 118 0 0,-14 11-88 0 0,0 4 33 0 0,-1 6-65 0 0,-1 1-1 0 0,-4 17 0 0 0,4-24-9 0 0,2-3-3 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-2-5 0 0,5-3-378 0 0,0-3 318 0 0,0 0-1 0 0,-1 0 1 0 0,7-10-1 0 0,-6 8 24 0 0,-2 4-13 0 0,0-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,2-6 1 0 0,-4 9 50 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 0 2 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0-3 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,-1 1 1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-5 5 0 0 0,-2 4-18 0 0,6-8 14 0 0,1 1-1 0 0,-5 8 1 0 0,7-12 6 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,2 2-1 0 0,-2-3 2 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,1 0 0 0 0,2-1-3 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,6-7 0 0 0,-5 6 0 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,4-6 1 0 0,-7 9 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,-1-4 0 0 0,1 5 1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-3 1-1 0 0,-4 3 1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">1137 857 2808 0 0,'0'0'40'0'0,"1"-1"-16"0"0,0 1-10 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,2 0 1 0 0,-1 0 90 0 0,0-1-60 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,2 1 0 0 0,-1-1 64 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,1 3 0 0 0,7 19 89 0 0,-6-14-47 0 0,0 0-132 0 0,-1 1 0 0 0,2 18 0 0 0,-3-20-6 0 0,2 29 26 0 0,-3-34 17 0 0,0 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 7 0 0 0,0-4 34 0 0,0 0 1 0 0,1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,4 10 0 0 0,1 10 846 0 0,-1-12-625 0 0,-4-11-195 0 0,0-1 0 0 0,0 1 0 0 0,1 4 0 0 0,-2-6 19 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">1005 1172 6328 0 0,'0'0'1200'0'0,"0"-2"-1074"0"0,1 1-98 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,11-5 313 0 0,-10 5-290 0 0,23-13 306 0 0,-2 0-146 0 0,32-13 325 0 0,-45 22-451 0 0,0 1-1 0 0,13-3 1 0 0,-8 2-20 0 0,1 0 21 0 0,-9 4-14 0 0,11-6 0 0 0,-13 6-38 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4">41 1424 7528 0 0,'-2'2'8'0'0,"0"0"26"0"0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-4 1 0 0 0,6-1-25 0 0,-1-1 11 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1-1-4 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-2 0 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-1 404 0 0,2 1-412 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,3-2 30 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,3-3-1 0 0,-2 1 4 0 0,26-19 96 0 0,38-25 0 0 0,14 0-32 0 0,17-10-31 0 0,178-92 54 0 0,-251 138-120 0 0,123-59 39 0 0,-106 50-36 0 0,167-79 39 0 0,-148 75-34 0 0,49-21 3 0 0,-28 8 0 0 0,36-17 10 0 0,4 6-18 0 0,107-27 3 0 0,-95 25-5 0 0,-104 37-6 0 0,56-23 4 0 0,-26 15-4 0 0,12-4-1 0 0,59-15 12 0 0,-109 33 2 0 0,-24 8-15 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-2 1 1 0 0,-4 0 0 0 0,-62 16 100 0 0,-2 6 60 0 0,54-18-136 0 0,-28 8 33 0 0,-13 5 29 0 0,-25 16 263 0 0,22-9-123 0 0,-56 20 28 0 0,34-13-7 0 0,-75 33 312 0 0,120-47-473 0 0,-52 25 104 0 0,2 6 58 0 0,80-44-220 0 0,-46 26 148 0 0,38-25-119 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5">1431 1068 1896 0 0,'0'0'0'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6">1295 1049 992 0 0,'0'0'2352'0'0,"-1"1"-2215"0"0,-6 10 374 0 0,6-9-388 0 0,1-2-96 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 3 54 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 2 0 0 0,-1-3-26 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,2 0 1 0 0,1 1 36 0 0,-4-2-70 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,5 0 309 0 0,-5 0-239 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,1-2 0 0 0,-2 1 5 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,2-3 1 0 0,-1 2-13 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,5-2 0 0 0,-7 4-47 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-2 1 0 0,7-9 197 0 0,-4 4-21 0 0,-3 6-133 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0-5 0 0 0,0 3 80 0 0,0 0 0 0 0,-1-6 0 0 0,0 11-127 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0-18 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 1-4 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,2 5 82 0 0,7 18 139 0 0,-6-19-185 0 0,-2-4-33 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 2 0 0 0,2 8 92 0 0,1-4 37 0 0,-4-7-130 0 0,0 0-9 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,1 1 32 0 0,-1-1-12 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,2 1 0 0 0,-2-1-19 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,8-6 49 0 0,-8 6-44 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,2-2-1 0 0,1-3 25 0 0,-3 5-30 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,2-1 0 0 0,-1 1 2 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,2-2 0 0 0,3-7 23 0 0,5-8 24 0 0,-9 16-37 0 0,-2 2-14 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-2 1 0 0,0 2-3 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-2 1 1 0 0,1 0-3 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2 4 0 0 0,-2 0 0 0 0,4-3 0 0 0,0 0 0 0 0,0 0 0 0 0,-2 3 0 0 0,-3 3 0 0 0,6-7 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 4 0 0 0,0-6 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,27-9-8 0 0,-26 8 6 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,4-4 0 0 0,0-1-15 0 0,-5 5-11 0 0,1-1-1 0 0,4-5 1 0 0,-6 7 21 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,-2-1-28 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-3-1 0 0,2 4 21 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 2 0 0,0-1-29 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-1-1 0 0,5 2 35 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,6 7-20 0 0,-6-6 13 0 0,2 1 4 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,5 2-1 0 0,1 0-9 0 0,-6-2 10 0 0,9 3 0 0 0,-2-1-1 0 0,-4 0 2 0 0,-2-2-5 0 0,-3-1 8 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 4 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7">1668 930 7832 0 0,'0'0'1384'0'0,"1"1"-1334"0"0,1 1-38 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 3-1 0 0,-2-3 7 0 0,1-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,1 1-1 0 0,-1 0 13 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,0 1-1 0 0,0-1-1 0 0,-1-1-20 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 2 0 0 0,0-2-7 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-2-5-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-5-7 0 0 0,8 10 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,2-3 0 0 0,0-2 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,7-8 0 0 0,-3 4 0 0 0,-6 7 0 0 0,28-40 8 0 0,-26 37 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8">1747 704 7432 0 0,'0'0'193'0'0,"0"2"6"0"0,1 3 38 0 0,1 9 1 0 0,1 7-24 0 0,-2-12-81 0 0,0 1-1 0 0,5 15 0 0 0,5 22 294 0 0,-6-25-160 0 0,-4-20-239 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 5 1 0 0,0 7 89 0 0,3-8-51 0 0,-3-6-58 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1-1 63 0 0,-1 0-21 0 0,-1 3 6 0 0,1-3-55 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-4-2 41 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-9-1 0 0 0,9 2 40 0 0,1 1-10 0 0,0-1 1 0 0,1 1 0 0 0,-4 0 0 0 0,5 0-41 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 2 0 0 0,2-2 272 0 0,2 0-207 0 0,3 0-61 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,8-3 0 0 0,3 0-5 0 0,15-1 47 0 0,11-4 34 0 0,-24 6-61 0 0,1-1 30 0 0,-3-1-39 0 0,-12 4-29 0 0,-2 1-10 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1-2 0 0 0,1 2-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,2-6 77 0 0,-2 6-75 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,0-1 82 0 0,1 2-76 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-3 0 35 0 0,0 0 0 0 0,-5 2 0 0 0,3-1-20 0 0,1-1 16 0 0,0 1 0 0 0,-8 5-1 0 0,10-6-26 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1 2 0 0 0,2-4-8 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 2-1 0 0,-1-1 2 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,1 0 1 0 0,0 1 3 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,3 0 1 0 0,1 0 8 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,6-2-1 0 0,-8 1 3 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,7-5 0 0 0,-1 1 14 0 0,3-2 23 0 0,-9 5-43 0 0,1 0 0 0 0,4-2 1 0 0,-3 3-2 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink45.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-24T19:07:58.242"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">244 1381 96 0 0,'4'0'0'0'0,"-2"0"0"0"0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,3 0 0 0 0,-3 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2-6 0 0 0,-1 1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1-11 0 0 0,-1 12 0 0 0,-1 0 0 0 0,-1 0 0 0 0,-1-10 0 0 0,-11-87 0 0 0,3-141 0 0 0,10 174 252 0 0,1 12 195 0 0,4-111 294 0 0,-4 144-540 0 0,1-15 211 0 0,1-22 74 0 0,1-21 22 0 0,-1 30 230 0 0,-3 20 21 0 0,0 32-384 0 0,0 2 306 0 0,3 2-72 0 0,-3-2-580 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,0 4 51 0 0,6 14 87 0 0,-1 0 0 0 0,4 27 0 0 0,3 43 526 0 0,-12-80-609 0 0,11 62 221 0 0,-5-40-178 0 0,-1 3 284 0 0,21 61 0 0 0,-21-82-287 0 0,14 25 0 0 0,-3-7 63 0 0,-7-11-38 0 0,21 41 221 0 0,-24-50-285 0 0,0 0 0 0 0,1 0 0 0 0,10 10 0 0 0,-15-17-24 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,9 6-1 0 0,-6-6-15 0 0,8 6 82 0 0,-12-9-109 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,3 0 0 0 0,-3-1-5 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-7 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-3 0 0 0,2-2 8 0 0,3-8 24 0 0,0-1 0 0 0,5-23 0 0 0,4-33 36 0 0,-5 20-29 0 0,18-111 37 0 0,-12 66-37 0 0,2-25-44 0 0,-8 41-6 0 0,-4 38-10 0 0,1-61 0 0 0,-7 71 6 0 0,1-49-16 0 0,-1 75 15 0 0,0 1 1 0 0,-1-11-1 0 0,0-3-24 0 0,1 18 16 0 0,1 2 2 0 0,2 5-1 0 0,-1-1 11 0 0,6 12-16 0 0,12 34 1 0 0,16 90-67 0 0,-10 0 20 0 0,-17-65 17 0 0,2 9 5 0 0,1 10 3 0 0,-3-26-5 0 0,-2-22 0 0 0,0-11 16 0 0,18 89-59 0 0,-3-50 25 0 0,-8-28 15 0 0,13 34-27 0 0,-19-61 32 0 0,21 36-1 0 0,-21-42 25 0 0,0-1 2 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1063 633 3616 0 0,'0'0'321'0'0,"-2"2"-263"0"0,0 0-52 0 0,-7 6 74 0 0,-12 14 0 0 0,13-12 8 0 0,-13 11 0 0 0,-2 4 50 0 0,12-11-73 0 0,7-9-30 0 0,-5 7 1 0 0,5-8-11 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-4 10 0 0 0,7-14-17 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,0 3 34 0 0,-1-4 3 0 0,1-1-19 0 0,3-1 13 0 0,0 0-32 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,3-2 1 0 0,3-2 3 0 0,-2 0 0 0 0,8-8 1 0 0,-7 7 9 0 0,8-9 36 0 0,23-28 1 0 0,-33 37-43 0 0,-1-1 0 0 0,0 1 1 0 0,5-10-1 0 0,-5 7-4 0 0,0 2 7 0 0,-3 6-15 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,0-1 9 0 0,0 0-1 0 0,0 1 1 0 0,2-4 0 0 0,-1 3 9 0 0,-2 3-19 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 2 8 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-2 5 1 0 0,0 0-3 0 0,-17 35 46 0 0,13-31-24 0 0,6-9-28 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 2 0 0 0,-1 19 76 0 0,2-21-49 0 0,1-2 45 0 0,2 0-38 0 0,-2 0-34 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,1 0 0 0 0,7-8 12 0 0,0 1 0 0 0,-1-2-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,10-18 0 0 0,-14 22-12 0 0,0 0 6 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,9-8 0 0 0,-8 9-2 0 0,-1 3 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,6-4 0 0 0,-6 4 8 0 0,-2 1-12 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-2 1-2 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 2 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,0 3 0 0 0,-2 8 1 0 0,-9 37 13 0 0,8-31-7 0 0,2-13-6 0 0,1 0 1 0 0,-1 1-1 0 0,-2 5 1 0 0,2-6 8 0 0,-3 7 0 0 0,4-8 0 0 0,0 0 0 0 0,-1-1 0 0 0,-2 6 0 0 0,4-6 36 0 0,0-3-47 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 26 0 0,3-1 45 0 0,-2 1-70 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-2 11 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,1-3 1 0 0,3-8 42 0 0,8-32 39 0 0,-8 22-26 0 0,10-24-1 0 0,-14 45-63 0 0,22-51 122 0 0,-19 45-102 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,10-10-1 0 0,-6 6 7 0 0,-7 8-18 0 0,1 0 0 0 0,4-5 0 0 0,-6 6-5 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0-3 0 0 0,4-6 49 0 0,-5 9-43 0 0,0 1 1 0 0,-2 1 55 0 0,1 1-69 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 2-1 0 0,0 2 1 0 0,-3 8-1 0 0,1-4 0 0 0,-3 13 0 0 0,3-13 0 0 0,3-7 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 4 0 0 0,0 14-7 0 0,0-8 3 0 0,0 13 0 0 0,1-18 2 0 0,-1 4 4 0 0,0 2-26 0 0,1-1-122 0 0,-1-8 12 0 0,1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,2 7-1 0 0,-2-11 81 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 1 0 0 0,-2-2 47 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,8-6 3 0 0,-1-1 0 0 0,12-17 0 0 0,13-22 3 0 0,-31 45 2 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,3-3 0 0 0,6-4 8 0 0,3-3 118 0 0,-14 11-88 0 0,0 4 33 0 0,-1 6-65 0 0,-1 1-1 0 0,-4 17 0 0 0,4-24-9 0 0,2-3-3 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-2-5 0 0,5-3-378 0 0,0-3 318 0 0,0 0-1 0 0,-1 0 1 0 0,7-10-1 0 0,-6 8 24 0 0,-2 4-13 0 0,0-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,2-6 1 0 0,-4 9 50 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 0 2 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0-3 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,-1 1 1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-5 5 0 0 0,-2 4-18 0 0,6-8 14 0 0,1 1-1 0 0,-5 8 1 0 0,7-12 6 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,2 2-1 0 0,-2-3 2 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,1 0 0 0 0,2-1-3 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,6-7 0 0 0,-5 6 0 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,4-6 1 0 0,-7 9 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,-1-4 0 0 0,1 5 1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-3 1-1 0 0,-4 3 1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">1137 857 2808 0 0,'0'0'40'0'0,"1"-1"-16"0"0,0 1-10 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,2 0 1 0 0,-1 0 90 0 0,0-1-60 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,2 1 0 0 0,-1-1 64 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,1 3 0 0 0,7 19 89 0 0,-6-14-47 0 0,0 0-132 0 0,-1 1 0 0 0,2 18 0 0 0,-3-20-6 0 0,2 29 26 0 0,-3-34 17 0 0,0 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 7 0 0 0,0-4 34 0 0,0 0 1 0 0,1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,4 10 0 0 0,1 10 846 0 0,-1-12-625 0 0,-4-11-195 0 0,0-1 0 0 0,0 1 0 0 0,1 4 0 0 0,-2-6 19 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">1005 1172 6328 0 0,'0'0'1200'0'0,"0"-2"-1074"0"0,1 1-98 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,11-5 313 0 0,-10 5-290 0 0,23-13 306 0 0,-2 0-146 0 0,32-13 325 0 0,-45 22-451 0 0,0 1-1 0 0,13-3 1 0 0,-8 2-20 0 0,1 0 21 0 0,-9 4-14 0 0,11-6 0 0 0,-13 6-38 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4">41 1424 7528 0 0,'-2'2'8'0'0,"0"0"26"0"0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-4 1 0 0 0,6-1-25 0 0,-1-1 11 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1-1-4 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-2 0 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-1 404 0 0,2 1-412 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,3-2 30 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,3-3-1 0 0,-2 1 4 0 0,26-19 96 0 0,38-25 0 0 0,14 0-32 0 0,17-10-31 0 0,178-92 54 0 0,-251 138-120 0 0,123-59 39 0 0,-106 50-36 0 0,167-79 39 0 0,-148 75-34 0 0,49-21 3 0 0,-28 8 0 0 0,36-17 10 0 0,4 6-18 0 0,107-27 3 0 0,-95 25-5 0 0,-104 37-6 0 0,56-23 4 0 0,-26 15-4 0 0,12-4-1 0 0,59-15 12 0 0,-109 33 2 0 0,-24 8-15 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-2 1 1 0 0,-4 0 0 0 0,-62 16 100 0 0,-2 6 60 0 0,54-18-136 0 0,-28 8 33 0 0,-13 5 29 0 0,-25 16 263 0 0,22-9-123 0 0,-56 20 28 0 0,34-13-7 0 0,-75 33 312 0 0,120-47-473 0 0,-52 25 104 0 0,2 6 58 0 0,80-44-220 0 0,-46 26 148 0 0,38-25-119 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5">1431 1068 1896 0 0,'0'0'0'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6">1295 1049 992 0 0,'0'0'2352'0'0,"-1"1"-2215"0"0,-6 10 374 0 0,6-9-388 0 0,1-2-96 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 3 54 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 2 0 0 0,-1-3-26 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,2 0 1 0 0,1 1 36 0 0,-4-2-70 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,5 0 309 0 0,-5 0-239 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,1-2 0 0 0,-2 1 5 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,2-3 1 0 0,-1 2-13 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,5-2 0 0 0,-7 4-47 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-2 1 0 0,7-9 197 0 0,-4 4-21 0 0,-3 6-133 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0-5 0 0 0,0 3 80 0 0,0 0 0 0 0,-1-6 0 0 0,0 11-127 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0-18 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 1-4 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,2 5 82 0 0,7 18 139 0 0,-6-19-185 0 0,-2-4-33 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 2 0 0 0,2 8 92 0 0,1-4 37 0 0,-4-7-130 0 0,0 0-9 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,1 1 32 0 0,-1-1-12 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,2 1 0 0 0,-2-1-19 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,8-6 49 0 0,-8 6-44 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,2-2-1 0 0,1-3 25 0 0,-3 5-30 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,2-1 0 0 0,-1 1 2 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,2-2 0 0 0,3-7 23 0 0,5-8 24 0 0,-9 16-37 0 0,-2 2-14 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-2 1 0 0,0 2-3 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-2 1 1 0 0,1 0-3 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2 4 0 0 0,-2 0 0 0 0,4-3 0 0 0,0 0 0 0 0,0 0 0 0 0,-2 3 0 0 0,-3 3 0 0 0,6-7 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 4 0 0 0,0-6 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,27-9-8 0 0,-26 8 6 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,4-4 0 0 0,0-1-15 0 0,-5 5-11 0 0,1-1-1 0 0,4-5 1 0 0,-6 7 21 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,-2-1-28 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-3-1 0 0,2 4 21 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 2 0 0,0-1-29 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-1-1 0 0,5 2 35 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,6 7-20 0 0,-6-6 13 0 0,2 1 4 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,5 2-1 0 0,1 0-9 0 0,-6-2 10 0 0,9 3 0 0 0,-2-1-1 0 0,-4 0 2 0 0,-2-2-5 0 0,-3-1 8 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 4 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7">1668 930 7832 0 0,'0'0'1384'0'0,"1"1"-1334"0"0,1 1-38 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 3-1 0 0,-2-3 7 0 0,1-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,1 1-1 0 0,-1 0 13 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,0 1-1 0 0,0-1-1 0 0,-1-1-20 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 2 0 0 0,0-2-7 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-2-5-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-5-7 0 0 0,8 10 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,2-3 0 0 0,0-2 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,7-8 0 0 0,-3 4 0 0 0,-6 7 0 0 0,28-40 8 0 0,-26 37 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8">1747 704 7432 0 0,'0'0'193'0'0,"0"2"6"0"0,1 3 38 0 0,1 9 1 0 0,1 7-24 0 0,-2-12-81 0 0,0 1-1 0 0,5 15 0 0 0,5 22 294 0 0,-6-25-160 0 0,-4-20-239 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 5 1 0 0,0 7 89 0 0,3-8-51 0 0,-3-6-58 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1-1 63 0 0,-1 0-21 0 0,-1 3 6 0 0,1-3-55 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-4-2 41 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-9-1 0 0 0,9 2 40 0 0,1 1-10 0 0,0-1 1 0 0,1 1 0 0 0,-4 0 0 0 0,5 0-41 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 2 0 0 0,2-2 272 0 0,2 0-207 0 0,3 0-61 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,8-3 0 0 0,3 0-5 0 0,15-1 47 0 0,11-4 34 0 0,-24 6-61 0 0,1-1 30 0 0,-3-1-39 0 0,-12 4-29 0 0,-2 1-10 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1-2 0 0 0,1 2-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,2-6 77 0 0,-2 6-75 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,0-1 82 0 0,1 2-76 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-3 0 35 0 0,0 0 0 0 0,-5 2 0 0 0,3-1-20 0 0,1-1 16 0 0,0 1 0 0 0,-8 5-1 0 0,10-6-26 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1 2 0 0 0,2-4-8 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 2-1 0 0,-1-1 2 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,1 0 1 0 0,0 1 3 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,3 0 1 0 0,1 0 8 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,6-2-1 0 0,-8 1 3 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,7-5 0 0 0,-1 1 14 0 0,3-2 23 0 0,-9 5-43 0 0,1 0 0 0 0,4-2 1 0 0,-3 3-2 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink46.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-24T19:08:04.111"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">244 1381 96 0 0,'4'0'0'0'0,"-2"0"0"0"0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,3 0 0 0 0,-3 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2-6 0 0 0,-1 1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1-11 0 0 0,-1 12 0 0 0,-1 0 0 0 0,-1 0 0 0 0,-1-10 0 0 0,-11-87 0 0 0,3-141 0 0 0,10 174 252 0 0,1 12 195 0 0,4-111 294 0 0,-4 144-540 0 0,1-15 211 0 0,1-22 74 0 0,1-21 22 0 0,-1 30 230 0 0,-3 20 21 0 0,0 32-384 0 0,0 2 306 0 0,3 2-72 0 0,-3-2-580 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,0 4 51 0 0,6 14 87 0 0,-1 0 0 0 0,4 27 0 0 0,3 43 526 0 0,-12-80-609 0 0,11 62 221 0 0,-5-40-178 0 0,-1 3 284 0 0,21 61 0 0 0,-21-82-287 0 0,14 25 0 0 0,-3-7 63 0 0,-7-11-38 0 0,21 41 221 0 0,-24-50-285 0 0,0 0 0 0 0,1 0 0 0 0,10 10 0 0 0,-15-17-24 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,9 6-1 0 0,-6-6-15 0 0,8 6 82 0 0,-12-9-109 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,3 0 0 0 0,-3-1-5 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-7 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-3 0 0 0,2-2 8 0 0,3-8 24 0 0,0-1 0 0 0,5-23 0 0 0,4-33 36 0 0,-5 20-29 0 0,18-111 37 0 0,-12 66-37 0 0,2-25-44 0 0,-8 41-6 0 0,-4 38-10 0 0,1-61 0 0 0,-7 71 6 0 0,1-49-16 0 0,-1 75 15 0 0,0 1 1 0 0,-1-11-1 0 0,0-3-24 0 0,1 18 16 0 0,1 2 2 0 0,2 5-1 0 0,-1-1 11 0 0,6 12-16 0 0,12 34 1 0 0,16 90-67 0 0,-10 0 20 0 0,-17-65 17 0 0,2 9 5 0 0,1 10 3 0 0,-3-26-5 0 0,-2-22 0 0 0,0-11 16 0 0,18 89-59 0 0,-3-50 25 0 0,-8-28 15 0 0,13 34-27 0 0,-19-61 32 0 0,21 36-1 0 0,-21-42 25 0 0,0-1 2 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1063 633 3616 0 0,'0'0'321'0'0,"-2"2"-263"0"0,0 0-52 0 0,-7 6 74 0 0,-12 14 0 0 0,13-12 8 0 0,-13 11 0 0 0,-2 4 50 0 0,12-11-73 0 0,7-9-30 0 0,-5 7 1 0 0,5-8-11 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-4 10 0 0 0,7-14-17 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,0 3 34 0 0,-1-4 3 0 0,1-1-19 0 0,3-1 13 0 0,0 0-32 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,3-2 1 0 0,3-2 3 0 0,-2 0 0 0 0,8-8 1 0 0,-7 7 9 0 0,8-9 36 0 0,23-28 1 0 0,-33 37-43 0 0,-1-1 0 0 0,0 1 1 0 0,5-10-1 0 0,-5 7-4 0 0,0 2 7 0 0,-3 6-15 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,0-1 9 0 0,0 0-1 0 0,0 1 1 0 0,2-4 0 0 0,-1 3 9 0 0,-2 3-19 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 2 8 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-2 5 1 0 0,0 0-3 0 0,-17 35 46 0 0,13-31-24 0 0,6-9-28 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 2 0 0 0,-1 19 76 0 0,2-21-49 0 0,1-2 45 0 0,2 0-38 0 0,-2 0-34 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,1 0 0 0 0,7-8 12 0 0,0 1 0 0 0,-1-2-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,10-18 0 0 0,-14 22-12 0 0,0 0 6 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,9-8 0 0 0,-8 9-2 0 0,-1 3 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,6-4 0 0 0,-6 4 8 0 0,-2 1-12 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-2 1-2 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 2 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,0 3 0 0 0,-2 8 1 0 0,-9 37 13 0 0,8-31-7 0 0,2-13-6 0 0,1 0 1 0 0,-1 1-1 0 0,-2 5 1 0 0,2-6 8 0 0,-3 7 0 0 0,4-8 0 0 0,0 0 0 0 0,-1-1 0 0 0,-2 6 0 0 0,4-6 36 0 0,0-3-47 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 26 0 0,3-1 45 0 0,-2 1-70 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-2 11 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,1-3 1 0 0,3-8 42 0 0,8-32 39 0 0,-8 22-26 0 0,10-24-1 0 0,-14 45-63 0 0,22-51 122 0 0,-19 45-102 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,10-10-1 0 0,-6 6 7 0 0,-7 8-18 0 0,1 0 0 0 0,4-5 0 0 0,-6 6-5 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0-3 0 0 0,4-6 49 0 0,-5 9-43 0 0,0 1 1 0 0,-2 1 55 0 0,1 1-69 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 2-1 0 0,0 2 1 0 0,-3 8-1 0 0,1-4 0 0 0,-3 13 0 0 0,3-13 0 0 0,3-7 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 4 0 0 0,0 14-7 0 0,0-8 3 0 0,0 13 0 0 0,1-18 2 0 0,-1 4 4 0 0,0 2-26 0 0,1-1-122 0 0,-1-8 12 0 0,1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,2 7-1 0 0,-2-11 81 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 1 0 0 0,-2-2 47 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,8-6 3 0 0,-1-1 0 0 0,12-17 0 0 0,13-22 3 0 0,-31 45 2 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,3-3 0 0 0,6-4 8 0 0,3-3 118 0 0,-14 11-88 0 0,0 4 33 0 0,-1 6-65 0 0,-1 1-1 0 0,-4 17 0 0 0,4-24-9 0 0,2-3-3 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-2-5 0 0,5-3-378 0 0,0-3 318 0 0,0 0-1 0 0,-1 0 1 0 0,7-10-1 0 0,-6 8 24 0 0,-2 4-13 0 0,0-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,2-6 1 0 0,-4 9 50 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 0 2 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0-3 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,-1 1 1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-5 5 0 0 0,-2 4-18 0 0,6-8 14 0 0,1 1-1 0 0,-5 8 1 0 0,7-12 6 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,2 2-1 0 0,-2-3 2 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,1 0 0 0 0,2-1-3 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,6-7 0 0 0,-5 6 0 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,4-6 1 0 0,-7 9 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,-1-4 0 0 0,1 5 1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-3 1-1 0 0,-4 3 1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">1137 857 2808 0 0,'0'0'40'0'0,"1"-1"-16"0"0,0 1-10 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,2 0 1 0 0,-1 0 90 0 0,0-1-60 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,2 1 0 0 0,-1-1 64 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,1 3 0 0 0,7 19 89 0 0,-6-14-47 0 0,0 0-132 0 0,-1 1 0 0 0,2 18 0 0 0,-3-20-6 0 0,2 29 26 0 0,-3-34 17 0 0,0 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 7 0 0 0,0-4 34 0 0,0 0 1 0 0,1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,4 10 0 0 0,1 10 846 0 0,-1-12-625 0 0,-4-11-195 0 0,0-1 0 0 0,0 1 0 0 0,1 4 0 0 0,-2-6 19 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">1005 1172 6328 0 0,'0'0'1200'0'0,"0"-2"-1074"0"0,1 1-98 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,11-5 313 0 0,-10 5-290 0 0,23-13 306 0 0,-2 0-146 0 0,32-13 325 0 0,-45 22-451 0 0,0 1-1 0 0,13-3 1 0 0,-8 2-20 0 0,1 0 21 0 0,-9 4-14 0 0,11-6 0 0 0,-13 6-38 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4">41 1424 7528 0 0,'-2'2'8'0'0,"0"0"26"0"0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-4 1 0 0 0,6-1-25 0 0,-1-1 11 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1-1-4 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-2 0 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-1 404 0 0,2 1-412 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,3-2 30 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,3-3-1 0 0,-2 1 4 0 0,26-19 96 0 0,38-25 0 0 0,14 0-32 0 0,17-10-31 0 0,178-92 54 0 0,-251 138-120 0 0,123-59 39 0 0,-106 50-36 0 0,167-79 39 0 0,-148 75-34 0 0,49-21 3 0 0,-28 8 0 0 0,36-17 10 0 0,4 6-18 0 0,107-27 3 0 0,-95 25-5 0 0,-104 37-6 0 0,56-23 4 0 0,-26 15-4 0 0,12-4-1 0 0,59-15 12 0 0,-109 33 2 0 0,-24 8-15 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-2 1 1 0 0,-4 0 0 0 0,-62 16 100 0 0,-2 6 60 0 0,54-18-136 0 0,-28 8 33 0 0,-13 5 29 0 0,-25 16 263 0 0,22-9-123 0 0,-56 20 28 0 0,34-13-7 0 0,-75 33 312 0 0,120-47-473 0 0,-52 25 104 0 0,2 6 58 0 0,80-44-220 0 0,-46 26 148 0 0,38-25-119 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5">1431 1068 1896 0 0,'0'0'0'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6">1295 1049 992 0 0,'0'0'2352'0'0,"-1"1"-2215"0"0,-6 10 374 0 0,6-9-388 0 0,1-2-96 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 3 54 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 2 0 0 0,-1-3-26 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,2 0 1 0 0,1 1 36 0 0,-4-2-70 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,5 0 309 0 0,-5 0-239 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,1-2 0 0 0,-2 1 5 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,2-3 1 0 0,-1 2-13 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,5-2 0 0 0,-7 4-47 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-2 1 0 0,7-9 197 0 0,-4 4-21 0 0,-3 6-133 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0-5 0 0 0,0 3 80 0 0,0 0 0 0 0,-1-6 0 0 0,0 11-127 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0-18 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 1-4 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,2 5 82 0 0,7 18 139 0 0,-6-19-185 0 0,-2-4-33 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 2 0 0 0,2 8 92 0 0,1-4 37 0 0,-4-7-130 0 0,0 0-9 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,1 1 32 0 0,-1-1-12 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,2 1 0 0 0,-2-1-19 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,8-6 49 0 0,-8 6-44 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,2-2-1 0 0,1-3 25 0 0,-3 5-30 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,2-1 0 0 0,-1 1 2 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,2-2 0 0 0,3-7 23 0 0,5-8 24 0 0,-9 16-37 0 0,-2 2-14 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-2 1 0 0,0 2-3 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-2 1 1 0 0,1 0-3 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2 4 0 0 0,-2 0 0 0 0,4-3 0 0 0,0 0 0 0 0,0 0 0 0 0,-2 3 0 0 0,-3 3 0 0 0,6-7 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 4 0 0 0,0-6 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,27-9-8 0 0,-26 8 6 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,4-4 0 0 0,0-1-15 0 0,-5 5-11 0 0,1-1-1 0 0,4-5 1 0 0,-6 7 21 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,-2-1-28 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-3-1 0 0,2 4 21 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 2 0 0,0-1-29 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-1-1 0 0,5 2 35 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,6 7-20 0 0,-6-6 13 0 0,2 1 4 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,5 2-1 0 0,1 0-9 0 0,-6-2 10 0 0,9 3 0 0 0,-2-1-1 0 0,-4 0 2 0 0,-2-2-5 0 0,-3-1 8 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 4 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7">1668 930 7832 0 0,'0'0'1384'0'0,"1"1"-1334"0"0,1 1-38 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 3-1 0 0,-2-3 7 0 0,1-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,1 1-1 0 0,-1 0 13 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,0 1-1 0 0,0-1-1 0 0,-1-1-20 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 2 0 0 0,0-2-7 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-2-5-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-5-7 0 0 0,8 10 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,2-3 0 0 0,0-2 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,7-8 0 0 0,-3 4 0 0 0,-6 7 0 0 0,28-40 8 0 0,-26 37 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8">1747 704 7432 0 0,'0'0'193'0'0,"0"2"6"0"0,1 3 38 0 0,1 9 1 0 0,1 7-24 0 0,-2-12-81 0 0,0 1-1 0 0,5 15 0 0 0,5 22 294 0 0,-6-25-160 0 0,-4-20-239 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 5 1 0 0,0 7 89 0 0,3-8-51 0 0,-3-6-58 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1-1 63 0 0,-1 0-21 0 0,-1 3 6 0 0,1-3-55 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-4-2 41 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-9-1 0 0 0,9 2 40 0 0,1 1-10 0 0,0-1 1 0 0,1 1 0 0 0,-4 0 0 0 0,5 0-41 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 2 0 0 0,2-2 272 0 0,2 0-207 0 0,3 0-61 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,8-3 0 0 0,3 0-5 0 0,15-1 47 0 0,11-4 34 0 0,-24 6-61 0 0,1-1 30 0 0,-3-1-39 0 0,-12 4-29 0 0,-2 1-10 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1-2 0 0 0,1 2-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,2-6 77 0 0,-2 6-75 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,0-1 82 0 0,1 2-76 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-3 0 35 0 0,0 0 0 0 0,-5 2 0 0 0,3-1-20 0 0,1-1 16 0 0,0 1 0 0 0,-8 5-1 0 0,10-6-26 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1 2 0 0 0,2-4-8 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 2-1 0 0,-1-1 2 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,1 0 1 0 0,0 1 3 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,3 0 1 0 0,1 0 8 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,6-2-1 0 0,-8 1 3 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,7-5 0 0 0,-1 1 14 0 0,3-2 23 0 0,-9 5-43 0 0,1 0 0 0 0,4-2 1 0 0,-3 3-2 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink47.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-24T19:08:55.832"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2507 1607 2904 0 0,'1'1'8'0'0,"1"-1"3"0"0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-2 1 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,4 0 1 0 0,25-16 198 0 0,-10 5-5 0 0,-9 5-124 0 0,5-1 8 0 0,-8 3-66 0 0,10-5 0 0 0,-6 1-5 0 0,21-15 13 0 0,-23 15 3 0 0,16-10-1 0 0,-6 4 51 0 0,-11 8-30 0 0,15-8 1 0 0,-8 6 95 0 0,0-1 0 0 0,15-12 1 0 0,18-12 467 0 0,-37 28-477 0 0,-8 5-34 0 0,0-1-1 0 0,4-3 1 0 0,-7 4-63 0 0,4-2 64 0 0,-5 3-100 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,1 0 65 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-25989.47">148 1691 1496 0 0,'1'-1'8'0'0,"0"-5"16"0"0,0 0 1 0 0,0-11-1 0 0,0 11-2 0 0,1-11 376 0 0,0 7-239 0 0,0-5 135 0 0,5-18 0 0 0,-1 9 165 0 0,-3 10-214 0 0,5-37 116 0 0,-3 14-241 0 0,2 0-64 0 0,4-23 6 0 0,4-31 179 0 0,6-32 135 0 0,-15 87-257 0 0,3-28 194 0 0,6-48 75 0 0,-3 36-79 0 0,3-33 144 0 0,-14 90-220 0 0,0-22-1 0 0,-1 26-102 0 0,0 13-90 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 344 0 0,0 1-275 0 0,0 3-24 0 0,2 7-1 0 0,1 1-19 0 0,19 117 437 0 0,-18-111-461 0 0,6 21 33 0 0,13 44 66 0 0,-17-63-113 0 0,20 59 39 0 0,8 29-2 0 0,0-7-37 0 0,-8-27-23 0 0,-17-49-9 0 0,21 42-1 0 0,2 3-31 0 0,-21-43-72 0 0,16 30 1 0 0,-25-55 82 0 0,1 5-108 0 0,6 11-1 0 0,-8-17 114 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 2 0 0 0,0 0-67 0 0,0-3 41 0 0,0-1-248 0 0,-12-5 235 0 0,3 1-11 0 0,-18-6 0 0 0,7 4-87 0 0,10 3 60 0 0,-19-4 0 0 0,18 6 42 0 0,-34-6-314 0 0,-8 5 122 0 0,18 2 88 0 0,20 0 74 0 0,0 1-1 0 0,-27 3 0 0 0,-80 17-283 0 0,109-17 300 0 0,-22 8-1 0 0,19-6 23 0 0,2 1 10 0 0,-6 1-12 0 0,9-4 22 0 0,3-1-30 0 0,-12 2 0 0 0,18-4 51 0 0,-1 1-9 0 0,1-1 0 0 0,0 0 0 0 0,-3 2 1 0 0,4-2 10 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-2-1 0 0 0,2 1-3 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1-5 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 0 9 0 0,1 0-8 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,2-2-1 0 0,-1 2-6 0 0,6-6-39 0 0,0 1-1 0 0,16-10 0 0 0,25-13-99 0 0,-16 8 43 0 0,10-8 9 0 0,-9 6 29 0 0,-9 5 6 0 0,14-7-26 0 0,-38 25 97 0 0,51-27-92 0 0,-43 23 77 0 0,5-2-23 0 0,21-12-1 0 0,35-32-65 0 0,-57 41 72 0 0,29-16-1 0 0,10-4-17 0 0,16-8-3 0 0,-47 26 68 0 0,35-25 0 0 0,-37 21-9 0 0,-3 1 37 0 0,1 0 34 0 0,-10 8-31 0 0,0 1 0 0 0,0 0 0 0 0,12-7 0 0 0,-16 11 51 0 0,1-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,6-1 1 0 0,-2 0 910 0 0,-11 6-581 0 0,1-1-298 0 0,-6 8-3 0 0,1 1-1 0 0,-10 18 0 0 0,-2 6 196 0 0,11-24-181 0 0,0 1 0 0 0,-11 10-1 0 0,9-10-11 0 0,-14 21-1 0 0,-6 15 99 0 0,8-13-94 0 0,-3 3-1 0 0,17-23-72 0 0,1-1 1 0 0,-6 18-1 0 0,-18 36 106 0 0,15-35-55 0 0,14-28-90 0 0,0 0-1 0 0,-4 5 1 0 0,6-8-14 0 0,0-2-3 0 0,1-1-2 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,3-4 0 0 0,-3 3 0 0 0,12-9 0 0 0,-7 5-5 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,5-9 0 0 0,17-42-40 0 0,-22 48 42 0 0,17-33-39 0 0,-12 25 15 0 0,10-28 0 0 0,-12 22 8 0 0,6-16-18 0 0,13-18-96 0 0,-11 25-128 0 0,-11 24 171 0 0,6-18 1 0 0,1-2-144 0 0,9-10-145 0 0,-20 36 344 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,2-1-1 0 0,-2 3 22 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 4 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,3 9-21 0 0,-2-7 13 0 0,1 5-9 0 0,-1 1-1 0 0,0 0 0 0 0,0 12 1 0 0,-1-12 4 0 0,-1 0 1 0 0,-2 14-1 0 0,0-8-7 0 0,-4 21-19 0 0,1-1 6 0 0,2-15 14 0 0,-8 31 0 0 0,-8 33-30 0 0,14-43 51 0 0,4-23 3 0 0,-9 36 1 0 0,10-50 3 0 0,0-1 0 0 0,0 7-1 0 0,0-2 4 0 0,2-4 10 0 0,-1-4-13 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-4 16 0 0,3-1-10 0 0,-2 3-4 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,2-5 0 0 0,1-6 3 0 0,0 0 1 0 0,6-25-1 0 0,-7 22 5 0 0,7-18 0 0 0,-3 11 0 0 0,8-34 0 0 0,-9 29-4 0 0,2-15-4 0 0,6-15 14 0 0,0-1 1 0 0,-15 58-16 0 0,7-33 16 0 0,-5 27-11 0 0,1 0 0 0 0,4-12 0 0 0,10-13 6 0 0,14-28 12 0 0,-30 57-21 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,5-4 0 0 0,-1 2 4 0 0,12-8 0 0 0,-17 12-5 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,2 1 0 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 3 0 0 0,0 6 9 0 0,1 21-1 0 0,-3-31-9 0 0,0 52 22 0 0,0-32-19 0 0,-3 21 19 0 0,2-26-17 0 0,-7 44 6 0 0,2-18-5 0 0,-9 61 22 0 0,11-85-25 0 0,1 18 12 0 0,-1-1-9 0 0,2-23 1 0 0,1-1-1 0 0,-1 24 1 0 0,3-32-2 0 0,-1-1 0 0 0,1 0 1 0 0,1 5-1 0 0,-2-7-5 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,3-3 30 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,4-4 0 0 0,-8 7-31 0 0,6-6 34 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 1 0 0,4-7-1 0 0,26-55 271 0 0,-22 50-202 0 0,-2 0-1 0 0,13-34 1 0 0,-20 43-77 0 0,13-35 81 0 0,-11 34-53 0 0,11-21-1 0 0,-10 20-3 0 0,10-23-1 0 0,2-14 44 0 0,2-9 15 0 0,-1 6-26 0 0,-14 37-63 0 0,9-38 55 0 0,-9 29-20 0 0,-3 15-12 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,0-11-1 0 0,-1 15-26 0 0,-2-17 65 0 0,2 20-68 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-2 0 0 0,2 4-8 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,-1 1 10 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,-2 1 0 0 0,3-3-11 0 0,-2 3 6 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,2 0-1 0 0,-1 0 1 0 0,-3 5-1 0 0,-18 26 77 0 0,20-29-68 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-3 10 0 0 0,-1 0 10 0 0,-14 37 72 0 0,2-11 23 0 0,0 2-19 0 0,1 14 51 0 0,3-10 17 0 0,10-31-83 0 0,1 1 0 0 0,-4 35 0 0 0,6-23-2 0 0,1-2-19 0 0,1-22-39 0 0,0-1 1 0 0,1 11 0 0 0,1-4 9 0 0,-2-9-23 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1-1 0 0,2 3 1 0 0,-3-5-13 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,2-1-1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,0-2 0 0 0,2 0-6 0 0,-2 1 5 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,2-4-1 0 0,0-2-3 0 0,5-11 0 0 0,4-29-20 0 0,-6 22 5 0 0,11-32-20 0 0,-9 17 5 0 0,-6 27 27 0 0,2-12-9 0 0,6-23-12 0 0,-11 49 25 0 0,15-59-136 0 0,-9 21 67 0 0,5-22-41 0 0,-5 27 86 0 0,-1 1-1 0 0,-1-39 1 0 0,-5 49 12 0 0,0 12 8 0 0,0-4-18 0 0,1 14 22 0 0,0 1 4 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-3 4-15 0 0,0 6 14 0 0,1-4-1 0 0,-1 11-2 0 0,1 0 0 0 0,1 24 0 0 0,1-15 2 0 0,-1-14 1 0 0,2 89-14 0 0,1 14 15 0 0,-3-55 0 0 0,-4 143-12 0 0,1-116 1 0 0,-2 28-49 0 0,3-88 47 0 0,-9 115-58 0 0,1-54 26 0 0,-5-1 1 0 0,-12 31-9 0 0,-4-1-13 0 0,6-40 33 0 0,11-35 25 0 0,-12 30 8 0 0,-20 31 0 0 0,42-94 1 0 0,-1-1 0 0 0,1 0 1 0 0,-1-1-1 0 0,-1 1 0 0 0,-12 13 1 0 0,16-19-1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,-4 4 0 0 0,6-5-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-2 0 0 0,0-7 3 0 0,1 7-3 0 0,-1-30-3 0 0,5-17-6 0 0,3-1 4 0 0,-1 20-30 0 0,-2-4-11 0 0,8-39-44 0 0,-6 47 72 0 0,38-170-204 0 0,31-98-37 0 0,-65 254 231 0 0,10-35-22 0 0,10-41-24 0 0,-16 62 38 0 0,1-6 8 0 0,2-16-11 0 0,6-32-15 0 0,-6 27 24 0 0,3-12-11 0 0,-18 83 38 0 0,18-105-27 0 0,-19 107 30 0 0,20-119-17 0 0,-2 3 25 0 0,-19 119-8 0 0,8-32 7 0 0,0 1 3 0 0,-8 30-7 0 0,1 1 0 0 0,0-1 1 0 0,-1-7-1 0 0,0 7 45 0 0,0-5 0 0 0,0 10-39 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-2 228 0 0,-1 32 63 0 0,-6 38-122 0 0,-1-1-4 0 0,3 1-75 0 0,1-24-49 0 0,-3 33 27 0 0,3-32-43 0 0,-2 17 11 0 0,6-56-43 0 0,-4 74 47 0 0,-1 130 47 0 0,12-131-77 0 0,-3-44-1 0 0,-2-23-12 0 0,0-1-1 0 0,0 1 1 0 0,2-1-1 0 0,-1 0 1 0 0,10 20-1 0 0,-11-27-3 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,5 2-1 0 0,-6-3 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,5 1 0 0 0,-5-2-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0-1-6 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,2-2 1 0 0,11-12-21 0 0,-9 8 14 0 0,0 1-6 0 0,0-1 1 0 0,5-10 0 0 0,9-19-48 0 0,-20 36 62 0 0,6-11-21 0 0,0 0 0 0 0,5-19 0 0 0,15-69-95 0 0,-3-11 15 0 0,-18 81 79 0 0,13-116-95 0 0,-14 113 97 0 0,2-23-17 0 0,-7-53-25 0 0,1 101 59 0 0,-1 0 0 0 0,0-1 0 0 0,-4-15 0 0 0,5 22 4 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-2 1 0 0,2 4 0 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 2 0 0 0,0-1 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-2 4 1 0 0,-1 5 4 0 0,-4 3 4 0 0,4-7 2 0 0,-3 9-1 0 0,-21 70 66 0 0,5 19 67 0 0,16-2-20 0 0,6-86-94 0 0,1 46 55 0 0,0-34-49 0 0,1-13-9 0 0,0-1 1 0 0,0 0 0 0 0,2-1-1 0 0,5 22 1 0 0,-2-22 0 0 0,9 20-1 0 0,-12-29-13 0 0,0 0 0 0 0,1-1 0 0 0,7 10 0 0 0,-3-5 11 0 0,12 8 0 0 0,-16-14-17 0 0,0-1 0 0 0,0 0 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0-1 0 0 0,9 3 0 0 0,-7-3-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,13-2 1 0 0,-10 0 3 0 0,-1 0 0 0 0,14-5 0 0 0,-13 2-5 0 0,0 0-1 0 0,18-11 1 0 0,-22 11-3 0 0,3-1 2 0 0,-1 0-1 0 0,0-1 0 0 0,11-11 1 0 0,22-27 1 0 0,-28 29 0 0 0,0-1 0 0 0,20-36 0 0 0,-29 43-5 0 0,0-1 0 0 0,-1 0 0 0 0,5-19 0 0 0,-7 21 0 0 0,2-6 0 0 0,-2 0 0 0 0,1 0 0 0 0,-2 0 0 0 0,0-1 0 0 0,-1-18 0 0 0,-2 10 0 0 0,-1 0 0 0 0,-10-38 0 0 0,-16-30 0 0 0,1 9 0 0 0,5 14 0 0 0,-3-13 0 0 0,9 26 0 0 0,-51-178 17 0 0,58 191-12 0 0,1 4-3 0 0,-20-73 7 0 0,26 102-6 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,-7-11 1 0 0,7 13 1 0 0,-8-9 1 0 0,10 14-4 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-5-2 0 0 0,6 2 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-2 1 0 0 0,2 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,-1 1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-2 5-1 0 0,-2 16 7 0 0,5-23-8 0 0,-2 10 4 0 0,1 0 0 0 0,0 0 0 0 0,2 20 0 0 0,8 36 8 0 0,19 60 16 0 0,8-8-10 0 0,-18-64-8 0 0,44 122 29 0 0,-26-76-26 0 0,-1-2-2 0 0,16 27 5 0 0,-37-93-6 0 0,2 0 0 0 0,31 48 1 0 0,-43-76-11 0 0,28 39 0 0 0,-25-37 0 0 0,0 0 0 0 0,0-1 0 0 0,12 10 0 0 0,-10-10-9 0 0,11 6 0 0 0,-16-11 5 0 0,0 1 0 0 0,0-1 1 0 0,1-1-1 0 0,-1 1 0 0 0,8 1 1 0 0,-9-2 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,3-1 1 0 0,-2-1-19 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,7-6 0 0 0,-10 7 10 0 0,2-2-6 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,4-6-1 0 0,-4 3-12 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,0 0-1 0 0,4-10 0 0 0,19-106-344 0 0,-24 108 308 0 0,0-26 0 0 0,-2 15 18 0 0,1-8-39 0 0,-2 1 0 0 0,-1 0-1 0 0,-14-64 1 0 0,7 64 74 0 0,7 28 10 0 0,1 3 3 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-3-1 0 0 0,0-1 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-10402.19">1225 1734 696 0 0,'3'-1'0'0'0,"-1"1"0"0"0,1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,3-3 0 0 0,17-14 8 0 0,-8 8-8 0 0,12-13 0 0 0,7-6 0 0 0,-6 7 0 0 0,-18 13 0 0 0,1 1 0 0 0,13-8 0 0 0,-15 11 1 0 0,28-15 6 0 0,-25 14 26 0 0,25-8-1 0 0,-23 8 8 0 0,-7 4-25 0 0,-5 1-11 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,2 1 0 0 0,4 0 64 0 0,-6-1-61 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,-2 3 1 0 0,-8 14 51 0 0,-16 26 43 0 0,20-34-54 0 0,-18 20 0 0 0,11-15-10 0 0,-20 20 42 0 0,15-17-33 0 0,-2 3 19 0 0,-24 20 41 0 0,1-3 0 0 0,37-33-88 0 0,-22 17 56 0 0,24-20-54 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,-8 2 1 0 0,12-4-18 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,-2-1 1 0 0,3-2 25 0 0,2-6-8 0 0,0 0 1 0 0,6-13 0 0 0,-2 8-14 0 0,0 0 18 0 0,13-20-1 0 0,-16 28-17 0 0,1 0-1 0 0,0 0 1 0 0,5-5 0 0 0,0 2 0 0 0,-2 1 5 0 0,15-10 1 0 0,-20 16-11 0 0,12-9 37 0 0,26-21 0 0 0,-28 20-5 0 0,1 1 0 0 0,0 0 0 0 0,0 1-1 0 0,23-12 1 0 0,-10 7 12 0 0,-10 6 39 0 0,22-10-1 0 0,-17 10-13 0 0,-9 4-11 0 0,20-7 0 0 0,37-6 203 0 0,-58 15-221 0 0,-2 0 39 0 0,18-2 0 0 0,-18 4 33 0 0,14 0 1 0 0,44 6 246 0 0,-63-4-316 0 0,0 0 1 0 0,4 2 0 0 0,1 0 7 0 0,-7-2-32 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,3 3 0 0 0,-5-4-9 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 3-1 0 0,0-1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 5-1 0 0,0-3 8 0 0,0 0 0 0 0,-2 7 0 0 0,0 0-1 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,-12 15 0 0 0,-12 8 5 0 0,-1 1-3 0 0,9-9-18 0 0,-38 34-1 0 0,39-40-1 0 0,-21 18 1 0 0,-7 5-11 0 0,28-23-2 0 0,-33 23 1 0 0,22-22-8 0 0,-19 13-8 0 0,-7 11-31 0 0,48-37 18 0 0,-21 12 0 0 0,12-9 14 0 0,-72 42-152 0 0,-8 0-161 0 0,85-44 255 0 0,-20 13 0 0 0,-2 2-37 0 0,0-6 29 0 0,14-7 36 0 0,-36 18-93 0 0,51-25 130 0 0,3-1-2 0 0,0 0 0 0 0,-7 5 0 0 0,6-4-12 0 0,-1 1 0 0 0,-11 4 1 0 0,7-3-14 0 0,4 0-21 0 0,6-5 49 0 0,1-2-24 0 0,2-2 33 0 0,6-4 0 0 0,-3 3 2 0 0,61-50 18 0 0,-30 25-4 0 0,-7 4 8 0 0,-1 2 20 0 0,11-7 6 0 0,21-7 10 0 0,-29 18-18 0 0,5-8-7 0 0,0 1 7 0 0,-32 24-31 0 0,65-37 47 0 0,68-18 51 0 0,-104 47-86 0 0,20-8 21 0 0,-46 16-30 0 0,0-1 0 0 0,1 2 1 0 0,16-4-1 0 0,-16 3 2 0 0,16-4 0 0 0,-6 0-3 0 0,2 1 11 0 0,9-3 2 0 0,-21 7-4 0 0,11-5-1 0 0,-1 0 8 0 0,63-24 55 0 0,-71 26-64 0 0,12-9 0 0 0,-12 8 0 0 0,2-2 2 0 0,-1-1 0 0 0,14-12 1 0 0,-7 4-2 0 0,31-37 1 0 0,-39 40-13 0 0,-1 3 1 0 0,-1-1 1 0 0,9-15 0 0 0,20-47 7 0 0,-22 41-7 0 0,-12 26-1 0 0,7-15-1 0 0,-7 12-1 0 0,-2 5 15 0 0,0-1 0 0 0,3-7 0 0 0,-4 7 8 0 0,0 0 0 0 0,0 0-1 0 0,1-11 1 0 0,-2 13-15 0 0,0 3-6 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 9 0 0,-1-3 18 0 0,2 5-29 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-4 5 151 0 0,3-1-113 0 0,1 1 0 0 0,-3 5 0 0 0,1-2 9 0 0,-6 26 87 0 0,4-18-82 0 0,-7 28 81 0 0,4 1-44 0 0,0-7-31 0 0,-21 83 82 0 0,3-18-95 0 0,19-70-48 0 0,2-5 0 0 0,1-8-14 0 0,-1 3-11 0 0,4-18 8 0 0,-1 6 1 0 0,2-6-135 0 0,0-5 149 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1-5-11 0 0,-1 3 1 0 0,8-39-96 0 0,-2-3 29 0 0,-2 7 12 0 0,10-66-37 0 0,-13 86 97 0 0,1 1 1 0 0,1-1 0 0 0,1 1-1 0 0,5-17 1 0 0,-1 11 7 0 0,-6 13 1 0 0,1 0 1 0 0,7-14 0 0 0,-3 10 14 0 0,-4 7-10 0 0,0 1 0 0 0,6-10 1 0 0,-2 6 2 0 0,-4 5 7 0 0,0-1 1 0 0,7-5 0 0 0,-5 6 36 0 0,8-6 0 0 0,-1 2 8 0 0,-12 7-57 0 0,1 1-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 41 0 0,0 0 0 0 0,4 1 0 0 0,-5-1-34 0 0,-1 0 3 0 0,1 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,1 2 22 0 0,-1-1 0 0 0,0 0 0 0 0,1 4 1 0 0,0-3-15 0 0,-1 2 23 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 10 0 0 0,-1-10-29 0 0,-2 62 203 0 0,1-49-171 0 0,-5 35 65 0 0,1-13-45 0 0,0 27 41 0 0,3-33-57 0 0,2-15-38 0 0,0-11-5 0 0,0-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,3 9 0 0 0,-3-13-7 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,2 3-1 0 0,-2-5-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,3 0 0 0 0,-3 0-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,2-1-2 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,3-4 0 0 0,0 1-9 0 0,-2 1 10 0 0,0-1-1 0 0,-1 1 0 0 0,6-7 0 0 0,1-1-5 0 0,-3 4 4 0 0,-1-1 0 0 0,0-1 0 0 0,10-15 0 0 0,-7 4 1 0 0,-4 10 1 0 0,16-35-10 0 0,-9 17 4 0 0,15-33-10 0 0,-25 57 16 0 0,0-1 0 0 0,-1 1 0 0 0,3-10 0 0 0,-2 3 1 0 0,3-13 4 0 0,-4 19-3 0 0,-1 1-2 0 0,3-11 0 0 0,-3 12 1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,3-5 0 0 0,-3 6 1 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-5-1 0 0,2-3 3 0 0,-2 5 0 0 0,1-5-1 0 0,0-13 7 0 0,2-17 17 0 0,-4 36-21 0 0,0-15 47 0 0,0 20-30 0 0,-1 3-6 0 0,1-2-15 0 0,0 0 4 0 0,-1 5 1 0 0,1-2-7 0 0,-6 50 81 0 0,3-34-24 0 0,0 2-5 0 0,1-15-36 0 0,1-3 2 0 0,0 1 0 0 0,0 0 0 0 0,0 9 0 0 0,-3 32 80 0 0,1-26-70 0 0,-2 18 19 0 0,0 14 24 0 0,-3 43 65 0 0,7-58-90 0 0,1-12-17 0 0,-1-18-12 0 0,1 1 0 0 0,1 11 0 0 0,6 19 27 0 0,-6-32-34 0 0,0-4-7 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,3 2 1 0 0,1-1-3 0 0,-4-3 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,1-2 0 0 0,5-5 0 0 0,0-1 0 0 0,-1 0 0 0 0,8-15 0 0 0,-9 14 0 0 0,0 2 0 0 0,6-15 0 0 0,-12 23 0 0 0,19-47 0 0 0,13-53-15 0 0,-32 100 15 0 0,11-35-1 0 0,-9 28 0 0 0,12-46-5 0 0,-12 40 5 0 0,2-20 0 0 0,0-3 2 0 0,-1 21 0 0 0,2-18 4 0 0,1-30 6 0 0,-5 50-6 0 0,-1 8-2 0 0,1 0 0 0 0,2-8-1 0 0,-2 4 8 0 0,2-15-1 0 0,-1 10 3 0 0,-1-9-3 0 0,0 4 9 0 0,-1-18 38 0 0,0 19-18 0 0,-2 13-17 0 0,1 0 8 0 0,1 6-29 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 3 5 0 0,-1 0 0 0 0,1 0 0 0 0,-2 5 0 0 0,2-5-5 0 0,-4 12 4 0 0,2 0 1 0 0,-5 28-1 0 0,2 43 11 0 0,6-67-10 0 0,0 14 1 0 0,-1 1-1 0 0,0 0-9 0 0,-2 53-13 0 0,1-38 8 0 0,1-28 5 0 0,-4 63-34 0 0,1-44 21 0 0,0 8 5 0 0,-2 38-30 0 0,2-47 20 0 0,3-13 31 0 0,1 1 62 0 0,-1-24-59 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 4 1 0 0,-1-6 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,1 2 1 0 0,-2-2-4 0 0,5 4 95 0 0,-5-4-98 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 6 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1-1 0 0 0,0-1 16 0 0,1 0 0 0 0,1-3 0 0 0,-3 5-26 0 0,0 0 3 0 0,26-40 141 0 0,-23 34-89 0 0,4-14 0 0 0,-2 6-5 0 0,1-4 39 0 0,5-23 0 0 0,-6 21-39 0 0,8-33 80 0 0,-12 44-106 0 0,0 0 0 0 0,2-16 0 0 0,-1 3 5 0 0,0 9-15 0 0,0-4 12 0 0,7-53 73 0 0,-1 2-2 0 0,-1 19-4 0 0,-6 42-76 0 0,8-36 82 0 0,-9 40-72 0 0,-1 3 23 0 0,0 1 101 0 0,-9 24-102 0 0,3-8 0 0 0,-5 19-1 0 0,-4 39 68 0 0,9-41-96 0 0,-1 14 10 0 0,5 18 23 0 0,3-44-30 0 0,-1-13-8 0 0,0 0 0 0 0,4 15 0 0 0,-1-9 9 0 0,-2-6-13 0 0,1 0 0 0 0,2 9 0 0 0,-1-12-5 0 0,-1 1-1 0 0,1 0 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,6 6-1 0 0,-8-8-2 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,3 2-1 0 0,-3-2-4 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,5-1 0 0 0,-5 1-2 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-2 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,3-2 0 0 0,5-5 0 0 0,-1-1 0 0 0,11-12 0 0 0,4-9-1 0 0,-20 24 0 0 0,2-2-4 0 0,0-2-1 0 0,8-16 0 0 0,-12 20 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,3-13-1 0 0,5-33-16 0 0,-4 25 3 0 0,-4 18 7 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-3-15 0 0 0,2 19 3 0 0,0 1 0 0 0,-1-1 0 0 0,-4-11 0 0 0,4 13 5 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-3-4 0 0 0,3 6-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,-6-2 1 0 0,7 3 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-7 2 0 0 0,-6 3-3 0 0,0 0 0 0 0,-26 14-1 0 0,36-16 6 0 0,-19 10-8 0 0,22-11 6 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-2 4-1 0 0,-2 3-1 0 0,1 0 0 0 0,0 0 0 0 0,-8 16 0 0 0,13-22 4 0 0,-4 7-7 0 0,0 1 0 0 0,-5 15 0 0 0,9-23 6 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1-1-1 0 0,1 7 1 0 0,-1-8 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,2 3-1 0 0,-2-4 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,2 1-1 0 0,1 0 2 0 0,7 1-1 0 0,-11-3 0 0 0,5 2 0 0 0,0-1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0-1 0 0 0,8 0 0 0 0,45-7 7 0 0,-48 5-6 0 0,1 0 0 0 0,16-6 1 0 0,-6 2 0 0 0,-7 2 0 0 0,-6 3 1 0 0,16-7 0 0 0,23-12 4 0 0,82-40 13 0 0,-106 47-13 0 0,20-9 14 0 0,-33 18-19 0 0,5-2 6 0 0,31-18-1 0 0,-6 1-5 0 0,-40 23-2 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2-1 0 0 0,1-3 0 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink48.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-24T19:09:44.572"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1772 1136 2904 0 0,'1'0'8'0'0,"0"0"3"0"0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,3-1 1 0 0,16-11 198 0 0,-5 4-5 0 0,-7 3-124 0 0,3-1 8 0 0,-5 3-66 0 0,6-5 0 0 0,-3 2-5 0 0,14-11 13 0 0,-15 10 3 0 0,9-6-1 0 0,-2 3 51 0 0,-9 5-30 0 0,11-6 1 0 0,-6 5 95 0 0,1-1 0 0 0,10-9 1 0 0,12-8 467 0 0,-25 20-477 0 0,-7 3-34 0 0,1 0-1 0 0,3-3 1 0 0,-5 4-63 0 0,2-2 64 0 0,-3 1-100 0 0,0 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 1 65 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">105 1195 1496 0 0,'0'-1'8'0'0,"1"-3"16"0"0,0 0 1 0 0,0-8-1 0 0,-1 8-2 0 0,2-9 376 0 0,-1 6-239 0 0,0-3 135 0 0,5-14 0 0 0,-3 8 165 0 0,-1 6-214 0 0,4-26 116 0 0,-2 10-241 0 0,1-1-64 0 0,3-15 6 0 0,2-22 179 0 0,5-23 135 0 0,-11 61-257 0 0,2-19 194 0 0,5-34 75 0 0,-3 25-79 0 0,3-23 144 0 0,-10 64-220 0 0,0-16-1 0 0,-1 18-102 0 0,0 10-90 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-2 0 0 0,1 2 344 0 0,0 1-275 0 0,1 2-24 0 0,0 4-1 0 0,1 2-19 0 0,13 82 437 0 0,-12-78-461 0 0,4 15 33 0 0,9 30 66 0 0,-11-44-113 0 0,13 42 39 0 0,6 20-2 0 0,0-5-37 0 0,-6-18-23 0 0,-11-36-9 0 0,14 31-1 0 0,1 1-31 0 0,-14-29-72 0 0,12 20 1 0 0,-19-39 82 0 0,1 4-108 0 0,5 8-1 0 0,-7-12 114 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 2 0 0 0,0 0-67 0 0,0-2 41 0 0,0 0-248 0 0,-9-4 235 0 0,3 0-11 0 0,-13-4 0 0 0,5 3-87 0 0,7 2 60 0 0,-13-2 0 0 0,12 3 42 0 0,-24-3-314 0 0,-5 2 122 0 0,12 3 88 0 0,15-1 74 0 0,-1 1-1 0 0,-19 3 0 0 0,-56 10-283 0 0,77-11 300 0 0,-16 6-1 0 0,14-4 23 0 0,1 0 10 0 0,-4 1-12 0 0,6-3 22 0 0,2-1-30 0 0,-8 3 0 0 0,12-4 51 0 0,1 0-9 0 0,-1 0 0 0 0,1 0 0 0 0,-3 1 1 0 0,3-1 10 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0-3 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0-5 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 9 0 0,0-1-8 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,1-1-1 0 0,0 1-6 0 0,3-4-39 0 0,1 1-1 0 0,10-7 0 0 0,19-10-99 0 0,-11 6 43 0 0,6-5 9 0 0,-6 3 29 0 0,-6 5 6 0 0,9-6-26 0 0,-26 18 97 0 0,36-19-92 0 0,-31 16 77 0 0,4-1-23 0 0,15-8-1 0 0,24-24-65 0 0,-39 30 72 0 0,19-12-1 0 0,7-2-17 0 0,13-7-3 0 0,-34 19 68 0 0,24-17 0 0 0,-26 14-9 0 0,-1 2 37 0 0,0-1 34 0 0,-7 6-31 0 0,0 0 0 0 0,0 0 0 0 0,8-4 0 0 0,-11 7 51 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,4-1 1 0 0,-1 1 910 0 0,-8 4-581 0 0,1-1-298 0 0,-4 6-3 0 0,0 0-1 0 0,-6 14 0 0 0,-3 3 196 0 0,9-16-181 0 0,0-1 0 0 0,-8 9-1 0 0,6-8-11 0 0,-10 15-1 0 0,-3 11 99 0 0,4-10-94 0 0,-1 3-1 0 0,12-17-72 0 0,0 0 1 0 0,-4 12-1 0 0,-13 25 106 0 0,11-23-55 0 0,10-21-90 0 0,0 0-1 0 0,-3 4 1 0 0,4-6-14 0 0,1-1-3 0 0,0-1-2 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,2-3 0 0 0,-3 2 0 0 0,10-6 0 0 0,-6 4-5 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,3-6 0 0 0,13-30-40 0 0,-16 33 42 0 0,11-23-39 0 0,-7 19 15 0 0,6-21 0 0 0,-8 16 8 0 0,4-12-18 0 0,10-12-96 0 0,-8 17-128 0 0,-9 17 171 0 0,5-12 1 0 0,1-2-144 0 0,6-7-145 0 0,-13 26 344 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,1-2-1 0 0,-2 3 22 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 4 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,3 6-21 0 0,-3-5 13 0 0,1 4-9 0 0,0 1-1 0 0,0-1 0 0 0,0 9 1 0 0,-1-9 4 0 0,-1 0 1 0 0,-1 10-1 0 0,0-5-7 0 0,-3 15-19 0 0,0-2 6 0 0,3-10 14 0 0,-7 23 0 0 0,-5 22-30 0 0,10-30 51 0 0,2-16 3 0 0,-5 25 1 0 0,6-36 3 0 0,1 1 0 0 0,-1 4-1 0 0,0-1 4 0 0,1-3 10 0 0,0-3-13 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-3 16 0 0,2 0-10 0 0,-2 1-4 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,2-3 0 0 0,1-4 3 0 0,-1 0 1 0 0,5-18-1 0 0,-5 16 5 0 0,5-13 0 0 0,-3 8 0 0 0,7-25 0 0 0,-8 21-4 0 0,3-10-4 0 0,3-11 14 0 0,1 0 1 0 0,-11 40-16 0 0,5-23 16 0 0,-3 19-11 0 0,-1 0 0 0 0,5-9 0 0 0,6-8 6 0 0,9-21 12 0 0,-20 41-21 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,4-3 0 0 0,-1 1 4 0 0,9-5 0 0 0,-12 8-5 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 2 0 0 0,0 5 9 0 0,1 14-1 0 0,-2-22-9 0 0,1 38 22 0 0,-1-24-19 0 0,-2 15 19 0 0,0-17-17 0 0,-3 29 6 0 0,1-11-5 0 0,-7 43 22 0 0,9-61-25 0 0,-1 13 12 0 0,0 0-9 0 0,2-18 1 0 0,0 1-1 0 0,0 17 1 0 0,1-24-2 0 0,1 0 0 0 0,-1 1 1 0 0,1 3-1 0 0,0-6-5 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,2-2 30 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,4-2 0 0 0,-6 5-31 0 0,4-4 34 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,3-5-1 0 0,18-39 271 0 0,-16 36-202 0 0,-1-1-1 0 0,10-23 1 0 0,-15 30-77 0 0,9-25 81 0 0,-7 24-53 0 0,7-14-1 0 0,-6 14-3 0 0,6-17-1 0 0,1-10 44 0 0,3-6 15 0 0,-2 4-26 0 0,-10 27-63 0 0,7-28 55 0 0,-6 21-20 0 0,-2 11-12 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-9-1 0 0,-1 12-26 0 0,-2-13 65 0 0,2 14-68 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-2-1 0 0 0,2 3-8 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 10 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,-3 2 0 0 0,4-3-11 0 0,-2 2 6 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-2 2-1 0 0,-13 19 77 0 0,14-20-68 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-2 8 0 0 0,-1-1 10 0 0,-10 26 72 0 0,2-7 23 0 0,-1 1-19 0 0,2 10 51 0 0,1-7 17 0 0,7-22-83 0 0,2 1 0 0 0,-4 24 0 0 0,5-15-2 0 0,0-2-19 0 0,1-17-39 0 0,0 1 1 0 0,1 7 0 0 0,-1-2 9 0 0,1-7-23 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,2 2 1 0 0,-3-4-13 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,2-1 0 0 0,1 0-6 0 0,-1 1 5 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,2-3-1 0 0,0-2-3 0 0,3-7 0 0 0,4-21-20 0 0,-5 17 5 0 0,7-24-20 0 0,-5 12 5 0 0,-5 19 27 0 0,1-8-9 0 0,5-16-12 0 0,-8 34 25 0 0,10-41-136 0 0,-5 14 67 0 0,3-15-41 0 0,-4 19 86 0 0,-1 0-1 0 0,0-26 1 0 0,-3 33 12 0 0,-1 10 8 0 0,0-4-18 0 0,1 10 22 0 0,0 1 4 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 3-15 0 0,-1 4 14 0 0,2-3-1 0 0,-2 8-2 0 0,2 0 0 0 0,0 17 0 0 0,0-10 2 0 0,0-11 1 0 0,2 63-14 0 0,0 11 15 0 0,-2-40 0 0 0,-3 102-12 0 0,1-83 1 0 0,-2 20-49 0 0,3-62 47 0 0,-7 82-58 0 0,1-39 26 0 0,-4-1 1 0 0,-8 23-9 0 0,-3-2-13 0 0,4-27 33 0 0,8-26 25 0 0,-8 22 8 0 0,-14 23 0 0 0,29-69 1 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,-9 8 1 0 0,12-12-1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,-3 1 0 0 0,4-3-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-2-1 0 0 0,1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-2 0 0 0,-1-4 3 0 0,1 5-3 0 0,-1-22-3 0 0,4-11-6 0 0,2-2 4 0 0,-1 15-30 0 0,-1-3-11 0 0,6-28-44 0 0,-6 34 72 0 0,29-120-204 0 0,21-70-37 0 0,-46 180 231 0 0,7-26-22 0 0,7-27-24 0 0,-11 42 38 0 0,1-3 8 0 0,1-12-11 0 0,4-22-15 0 0,-4 19 24 0 0,2-9-11 0 0,-12 58 38 0 0,12-72-27 0 0,-14 74 30 0 0,15-84-17 0 0,-2 2 25 0 0,-12 85-8 0 0,4-23 7 0 0,1 0 3 0 0,-6 22-7 0 0,1 0 0 0 0,-1 0 1 0 0,0-5-1 0 0,0 5 45 0 0,1-4 0 0 0,-1 8-39 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1 228 0 0,1 22 63 0 0,-5 27-122 0 0,-1-1-4 0 0,3 1-75 0 0,0-17-49 0 0,-2 23 27 0 0,2-22-43 0 0,-1 12 11 0 0,4-39-43 0 0,-3 51 47 0 0,0 92 47 0 0,8-91-77 0 0,-2-33-1 0 0,-2-16-12 0 0,0 1-1 0 0,1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,6 14-1 0 0,-8-20-3 0 0,0 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,3 2-1 0 0,-3-3 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,2 0 0 0 0,-2-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,2 0 0 0 0,-2 1-6 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,2-2 1 0 0,8-9-21 0 0,-7 7 14 0 0,0-1-6 0 0,0 1 1 0 0,5-8 0 0 0,4-13-48 0 0,-12 25 62 0 0,3-7-21 0 0,0-1 0 0 0,4-12 0 0 0,10-50-95 0 0,-2-8 15 0 0,-12 58 79 0 0,9-82-95 0 0,-10 80 97 0 0,0-17-17 0 0,-3-37-25 0 0,0 71 59 0 0,-1 1 0 0 0,1-1 0 0 0,-4-11 0 0 0,4 15 4 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0-2 1 0 0,0 2 0 0 0,1 1 1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,-1-1 0 0 0,2 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 4 1 0 0,-3 4 4 0 0,-1 2 4 0 0,2-6 2 0 0,-2 8-1 0 0,-15 48 66 0 0,4 14 67 0 0,11-2-20 0 0,4-60-94 0 0,1 32 55 0 0,0-23-49 0 0,1-11-9 0 0,-1 0 1 0 0,2 1 0 0 0,-1-1-1 0 0,5 14 1 0 0,-2-13 0 0 0,7 12-1 0 0,-9-20-13 0 0,0 0 0 0 0,1 0 0 0 0,5 7 0 0 0,-2-5 11 0 0,7 8 0 0 0,-10-12-17 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,5 1 0 0 0,-3-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 0 0 0,9-1 1 0 0,-8 0 3 0 0,1-1 0 0 0,8-3 0 0 0,-8 2-5 0 0,0-1-1 0 0,13-7 1 0 0,-16 7-3 0 0,2 0 2 0 0,-1 0-1 0 0,1-1 0 0 0,7-8 1 0 0,15-18 1 0 0,-19 19 0 0 0,0 0 0 0 0,14-25 0 0 0,-20 29-5 0 0,-1 1 0 0 0,0-1 0 0 0,3-14 0 0 0,-4 16 0 0 0,0-4 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1-14 0 0 0,-2 9 0 0 0,0-1 0 0 0,-7-27 0 0 0,-12-22 0 0 0,2 8 0 0 0,2 9 0 0 0,-1-8 0 0 0,6 17 0 0 0,-36-126 17 0 0,41 136-12 0 0,0 2-3 0 0,-13-51 7 0 0,18 73-6 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,-5-7 1 0 0,5 9 1 0 0,-5-6 1 0 0,6 10-4 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,-2-2 0 0 0,3 3 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,-1 1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 5-1 0 0,-2 11 7 0 0,4-17-8 0 0,-2 7 4 0 0,2 1 0 0 0,-1 0 0 0 0,2 13 0 0 0,5 26 8 0 0,14 42 16 0 0,5-4-10 0 0,-12-47-8 0 0,31 87 29 0 0,-19-54-26 0 0,0-1-2 0 0,11 18 5 0 0,-26-65-6 0 0,2 0 0 0 0,21 34 1 0 0,-30-53-11 0 0,19 27 0 0 0,-17-27 0 0 0,0 1 0 0 0,0-1 0 0 0,8 7 0 0 0,-6-7-9 0 0,7 4 0 0 0,-12-7 5 0 0,1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,5 1 1 0 0,-6-1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,2-1 1 0 0,-2 0-19 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,6-5 0 0 0,-8 5 10 0 0,2-1-6 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,2-3-1 0 0,-2 2-12 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,3-7 0 0 0,13-75-344 0 0,-16 76 308 0 0,-1-18 0 0 0,-1 11 18 0 0,1-6-39 0 0,-2 0 0 0 0,-1 1-1 0 0,-8-46 1 0 0,3 46 74 0 0,6 19 10 0 0,0 3 3 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1-1 0 0 0,-1 0 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">866 1225 696 0 0,'2'0'0'0'0,"0"0"0"0"0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,13-11 8 0 0,-7 6-8 0 0,10-10 0 0 0,4-3 0 0 0,-4 4 0 0 0,-12 10 0 0 0,0 0 0 0 0,9-5 0 0 0,-10 7 1 0 0,19-10 6 0 0,-17 10 26 0 0,17-6-1 0 0,-15 6 8 0 0,-6 2-25 0 0,-4 2-11 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,3 1 64 0 0,-4-1-61 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,-1 1 1 0 0,-5 10 51 0 0,-13 19 43 0 0,15-24-54 0 0,-12 14 0 0 0,7-11-10 0 0,-14 15 42 0 0,10-13-33 0 0,0 2 19 0 0,-18 16 41 0 0,0-4 0 0 0,28-23-88 0 0,-17 13 56 0 0,18-15-54 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,-5 2 1 0 0,9-3-18 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1-1 25 0 0,2-4-8 0 0,1-1 1 0 0,3-8 0 0 0,-1 5-14 0 0,0 0 18 0 0,9-14-1 0 0,-11 20-17 0 0,0 0-1 0 0,1-1 1 0 0,3-3 0 0 0,0 2 0 0 0,-1 1 5 0 0,10-8 1 0 0,-14 11-11 0 0,9-5 37 0 0,17-16 0 0 0,-18 15-5 0 0,-1 0 0 0 0,1 0 0 0 0,1 1-1 0 0,15-9 1 0 0,-7 6 12 0 0,-7 3 39 0 0,15-6-1 0 0,-11 7-13 0 0,-7 2-11 0 0,14-4 0 0 0,27-5 203 0 0,-42 11-221 0 0,0 0 39 0 0,11-2 0 0 0,-12 3 33 0 0,10 1 1 0 0,31 3 246 0 0,-44-2-316 0 0,-1 0 1 0 0,4 1 0 0 0,0 0 7 0 0,-5-2-32 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,2 3 0 0 0,-4-4-9 0 0,1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 2-1 0 0,-1-2 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 4-1 0 0,0-2 8 0 0,0-1 0 0 0,-1 6 0 0 0,-1 0-1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-9 10 0 0 0,-8 6 5 0 0,-1 2-3 0 0,6-8-18 0 0,-26 25-1 0 0,27-28-1 0 0,-14 12 1 0 0,-6 3-11 0 0,20-15-2 0 0,-23 15 1 0 0,15-14-8 0 0,-13 8-8 0 0,-5 8-31 0 0,34-26 18 0 0,-15 8 0 0 0,9-5 14 0 0,-51 28-152 0 0,-7 1-161 0 0,61-32 255 0 0,-14 11 0 0 0,-1 0-37 0 0,-1-4 29 0 0,11-6 36 0 0,-26 15-93 0 0,36-19 130 0 0,2-1-2 0 0,0 1 0 0 0,-4 2 0 0 0,3-1-12 0 0,0-1 0 0 0,-8 4 1 0 0,5-2-14 0 0,2-1-21 0 0,5-3 49 0 0,1-2-24 0 0,1 0 33 0 0,5-4 0 0 0,-3 2 2 0 0,44-34 18 0 0,-23 16-4 0 0,-3 4 8 0 0,-2 1 20 0 0,9-5 6 0 0,13-5 10 0 0,-19 13-18 0 0,4-5-7 0 0,-2 0 7 0 0,-21 16-31 0 0,45-25 47 0 0,49-13 51 0 0,-74 33-86 0 0,14-5 21 0 0,-32 10-30 0 0,0 1 0 0 0,0 0 1 0 0,11-2-1 0 0,-10 2 2 0 0,10-3 0 0 0,-3 1-3 0 0,1-1 11 0 0,6-1 2 0 0,-15 4-4 0 0,8-3-1 0 0,0 0 8 0 0,44-17 55 0 0,-50 19-64 0 0,8-7 0 0 0,-8 6 0 0 0,1-2 2 0 0,-1 0 0 0 0,11-9 1 0 0,-6 3-2 0 0,22-26 1 0 0,-27 28-13 0 0,-1 2 1 0 0,0 0 1 0 0,6-12 0 0 0,14-32 7 0 0,-16 29-7 0 0,-9 18-1 0 0,6-11-1 0 0,-5 9-1 0 0,-1 4 15 0 0,-1-1 0 0 0,2-6 0 0 0,-2 6 8 0 0,0 0 0 0 0,0-1-1 0 0,0-6 1 0 0,-1 8-15 0 0,0 2-6 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,0 1 9 0 0,0-3 18 0 0,1 4-29 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-2 3 151 0 0,1 0-113 0 0,1 0 0 0 0,-1 4 0 0 0,0-1 9 0 0,-5 18 87 0 0,4-13-82 0 0,-6 21 81 0 0,3-1-44 0 0,1-4-31 0 0,-15 59 82 0 0,1-14-95 0 0,14-48-48 0 0,1-4 0 0 0,1-6-14 0 0,0 2-11 0 0,2-12 8 0 0,0 3 1 0 0,1-3-135 0 0,0-4 149 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-4-11 0 0,-1 3 1 0 0,6-28-96 0 0,-2-2 29 0 0,-1 5 12 0 0,6-47-37 0 0,-8 61 97 0 0,1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,5-11 1 0 0,-2 7 7 0 0,-3 10 1 0 0,0-1 1 0 0,5-9 0 0 0,-2 7 14 0 0,-3 5-10 0 0,0 0 0 0 0,5-6 1 0 0,-3 3 2 0 0,-1 4 7 0 0,-1 0 1 0 0,5-4 0 0 0,-4 4 36 0 0,6-4 0 0 0,0 1 8 0 0,-9 6-57 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,2 0 41 0 0,-1 0 0 0 0,4 1 0 0 0,-5-1-34 0 0,0 0 3 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,0 1 0 0 0,-1 1 22 0 0,1-1 0 0 0,0 1 0 0 0,1 2 1 0 0,-1-2-15 0 0,0 2 23 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 6 0 0 0,0-6-29 0 0,-1 43 203 0 0,0-34-171 0 0,-3 25 65 0 0,0-10-45 0 0,0 19 41 0 0,3-23-57 0 0,1-10-38 0 0,0-9-5 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,3 6 0 0 0,-2-9-7 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,1 2-1 0 0,-1-3-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,3 0 0 0 0,-3-1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,2 0-2 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,4-2 0 0 0,-1 0-9 0 0,-2 2 10 0 0,0-1-1 0 0,1-1 0 0 0,2-3 0 0 0,2-2-5 0 0,-2 3 4 0 0,-1 0 0 0 0,0-1 0 0 0,7-11 0 0 0,-5 4 1 0 0,-3 6 1 0 0,12-25-10 0 0,-7 13 4 0 0,11-24-10 0 0,-18 40 16 0 0,0 0 0 0 0,-1 0 0 0 0,3-6 0 0 0,-2 1 1 0 0,2-8 4 0 0,-3 13-3 0 0,1 0-2 0 0,0-7 0 0 0,-1 8 1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,3-5 0 0 0,-2 5 1 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,2-4-1 0 0,-1-2 3 0 0,0 4 0 0 0,0-4-1 0 0,1-9 7 0 0,1-12 17 0 0,-3 26-21 0 0,0-11 47 0 0,0 14-30 0 0,-1 2-6 0 0,1-2-15 0 0,0 1 4 0 0,0 3 1 0 0,-1-1-7 0 0,-3 35 81 0 0,2-23-24 0 0,0 0-5 0 0,1-10-36 0 0,0-2 2 0 0,0 1 0 0 0,1-1 0 0 0,-1 6 0 0 0,-2 24 80 0 0,1-19-70 0 0,-2 13 19 0 0,0 10 24 0 0,-1 30 65 0 0,4-40-90 0 0,1-10-17 0 0,0-12-12 0 0,0 1 0 0 0,1 7 0 0 0,3 14 27 0 0,-3-23-34 0 0,-1-2-7 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 2 1 0 0,2-1-3 0 0,-4-2 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1-2 0 0 0,4-4 0 0 0,-1 0 0 0 0,1 0 0 0 0,4-10 0 0 0,-5 9 0 0 0,-2 2 0 0 0,6-11 0 0 0,-9 16 0 0 0,13-34 0 0 0,10-36-15 0 0,-23 71 15 0 0,8-26-1 0 0,-7 20 0 0 0,9-31-5 0 0,-8 27 5 0 0,0-15 0 0 0,1-1 2 0 0,-1 15 0 0 0,2-13 4 0 0,0-21 6 0 0,-3 35-6 0 0,-1 6-2 0 0,1 0 0 0 0,0-6-1 0 0,1 2 8 0 0,0-9-1 0 0,-1 6 3 0 0,0-6-3 0 0,-1 3 9 0 0,0-13 38 0 0,0 14-18 0 0,-1 8-17 0 0,0 1 8 0 0,1 4-29 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 2 5 0 0,0 0 0 0 0,0 1 0 0 0,-1 2 0 0 0,1-3-5 0 0,-2 9 4 0 0,0-1 1 0 0,-2 21-1 0 0,1 29 11 0 0,4-46-10 0 0,0 9 1 0 0,-1 1-1 0 0,0 0-9 0 0,-1 37-13 0 0,1-25 8 0 0,0-22 5 0 0,-3 46-34 0 0,2-32 21 0 0,-1 6 5 0 0,-1 27-30 0 0,1-34 20 0 0,2-9 31 0 0,1 2 62 0 0,0-18-59 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,1 3 1 0 0,-1-4 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 2 1 0 0,0-3-4 0 0,2 4 95 0 0,-3-4-98 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 6 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,1-2 0 0 0,-1 0 16 0 0,1 0 0 0 0,1-2 0 0 0,-2 3-26 0 0,-1 0 3 0 0,20-28 141 0 0,-18 24-89 0 0,4-9 0 0 0,-2 3-5 0 0,1-2 39 0 0,4-17 0 0 0,-5 15-39 0 0,6-23 80 0 0,-9 31-106 0 0,1 0 0 0 0,0-11 0 0 0,0 1 5 0 0,0 8-15 0 0,1-4 12 0 0,4-38 73 0 0,-1 2-2 0 0,0 14-4 0 0,-5 29-76 0 0,6-24 82 0 0,-6 27-72 0 0,-1 2 23 0 0,0 1 101 0 0,-6 17-102 0 0,1-6 0 0 0,-2 14-1 0 0,-4 27 68 0 0,7-28-96 0 0,-1 9 10 0 0,4 13 23 0 0,1-31-30 0 0,0-10-8 0 0,0 1 0 0 0,3 10 0 0 0,-1-6 9 0 0,-1-4-13 0 0,0 0 0 0 0,2 5 0 0 0,-1-7-5 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,0-1 1 0 0,4 5-1 0 0,-5-6-2 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,2 1-1 0 0,-2-2-4 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,4-1 0 0 0,-4 1-2 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2-2 0 0 0,4-4 0 0 0,-1 1 0 0 0,8-10 0 0 0,3-6-1 0 0,-15 18 0 0 0,2-3-4 0 0,0-1-1 0 0,6-11 0 0 0,-9 14 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1-10-1 0 0,4-23-16 0 0,-3 17 3 0 0,-3 14 7 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2-10 0 0 0,1 13 3 0 0,0 1 0 0 0,0-1 0 0 0,-3-8 0 0 0,3 10 5 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-3 0 0 0,3 4-1 0 0,1 1 1 0 0,-2-1-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,-4-3 1 0 0,5 4 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,-3 1 0 0 0,-6 3-3 0 0,1 0 0 0 0,-19 9-1 0 0,26-11 6 0 0,-14 7-8 0 0,16-7 6 0 0,0-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 3-1 0 0,-2 3-1 0 0,0-1 0 0 0,1 1 0 0 0,-5 10 0 0 0,8-15 4 0 0,-3 6-7 0 0,1-1 0 0 0,-4 11 0 0 0,6-15 6 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,2 5 1 0 0,-1-5 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,3 3-1 0 0,-4-4 1 0 0,2 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,2 0-1 0 0,1 0 2 0 0,4 1-1 0 0,-7-1 0 0 0,3 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,6-1 0 0 0,31-5 7 0 0,-32 4-6 0 0,-1 0 0 0 0,11-4 1 0 0,-3 0 0 0 0,-5 3 0 0 0,-5 1 1 0 0,12-4 0 0 0,16-9 4 0 0,58-28 13 0 0,-75 34-13 0 0,14-8 14 0 0,-23 13-19 0 0,3-1 6 0 0,22-12-1 0 0,-4 0-5 0 0,-28 16-2 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,1-1 0 0 0,0-1 0 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink49.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-24T19:09:55.343"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1772 1136 2904 0 0,'1'0'8'0'0,"0"0"3"0"0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,3-1 1 0 0,16-11 198 0 0,-5 4-5 0 0,-7 3-124 0 0,3-1 8 0 0,-5 3-66 0 0,6-5 0 0 0,-3 2-5 0 0,14-11 13 0 0,-15 10 3 0 0,9-6-1 0 0,-2 3 51 0 0,-9 5-30 0 0,11-6 1 0 0,-6 5 95 0 0,1-1 0 0 0,10-9 1 0 0,12-8 467 0 0,-25 20-477 0 0,-7 3-34 0 0,1 0-1 0 0,3-3 1 0 0,-5 4-63 0 0,2-2 64 0 0,-3 1-100 0 0,0 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 1 65 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">105 1195 1496 0 0,'0'-1'8'0'0,"1"-3"16"0"0,0 0 1 0 0,0-8-1 0 0,-1 8-2 0 0,2-9 376 0 0,-1 6-239 0 0,0-3 135 0 0,5-14 0 0 0,-3 8 165 0 0,-1 6-214 0 0,4-26 116 0 0,-2 10-241 0 0,1-1-64 0 0,3-15 6 0 0,2-22 179 0 0,5-23 135 0 0,-11 61-257 0 0,2-19 194 0 0,5-34 75 0 0,-3 25-79 0 0,3-23 144 0 0,-10 64-220 0 0,0-16-1 0 0,-1 18-102 0 0,0 10-90 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-2 0 0 0,1 2 344 0 0,0 1-275 0 0,1 2-24 0 0,0 4-1 0 0,1 2-19 0 0,13 82 437 0 0,-12-78-461 0 0,4 15 33 0 0,9 30 66 0 0,-11-44-113 0 0,13 42 39 0 0,6 20-2 0 0,0-5-37 0 0,-6-18-23 0 0,-11-36-9 0 0,14 31-1 0 0,1 1-31 0 0,-14-29-72 0 0,12 20 1 0 0,-19-39 82 0 0,1 4-108 0 0,5 8-1 0 0,-7-12 114 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 2 0 0 0,0 0-67 0 0,0-2 41 0 0,0 0-248 0 0,-9-4 235 0 0,3 0-11 0 0,-13-4 0 0 0,5 3-87 0 0,7 2 60 0 0,-13-2 0 0 0,12 3 42 0 0,-24-3-314 0 0,-5 2 122 0 0,12 3 88 0 0,15-1 74 0 0,-1 1-1 0 0,-19 3 0 0 0,-56 10-283 0 0,77-11 300 0 0,-16 6-1 0 0,14-4 23 0 0,1 0 10 0 0,-4 1-12 0 0,6-3 22 0 0,2-1-30 0 0,-8 3 0 0 0,12-4 51 0 0,1 0-9 0 0,-1 0 0 0 0,1 0 0 0 0,-3 1 1 0 0,3-1 10 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0-3 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0-5 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 9 0 0,0-1-8 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,1-1-1 0 0,0 1-6 0 0,3-4-39 0 0,1 1-1 0 0,10-7 0 0 0,19-10-99 0 0,-11 6 43 0 0,6-5 9 0 0,-6 3 29 0 0,-6 5 6 0 0,9-6-26 0 0,-26 18 97 0 0,36-19-92 0 0,-31 16 77 0 0,4-1-23 0 0,15-8-1 0 0,24-24-65 0 0,-39 30 72 0 0,19-12-1 0 0,7-2-17 0 0,13-7-3 0 0,-34 19 68 0 0,24-17 0 0 0,-26 14-9 0 0,-1 2 37 0 0,0-1 34 0 0,-7 6-31 0 0,0 0 0 0 0,0 0 0 0 0,8-4 0 0 0,-11 7 51 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,4-1 1 0 0,-1 1 910 0 0,-8 4-581 0 0,1-1-298 0 0,-4 6-3 0 0,0 0-1 0 0,-6 14 0 0 0,-3 3 196 0 0,9-16-181 0 0,0-1 0 0 0,-8 9-1 0 0,6-8-11 0 0,-10 15-1 0 0,-3 11 99 0 0,4-10-94 0 0,-1 3-1 0 0,12-17-72 0 0,0 0 1 0 0,-4 12-1 0 0,-13 25 106 0 0,11-23-55 0 0,10-21-90 0 0,0 0-1 0 0,-3 4 1 0 0,4-6-14 0 0,1-1-3 0 0,0-1-2 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,2-3 0 0 0,-3 2 0 0 0,10-6 0 0 0,-6 4-5 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,3-6 0 0 0,13-30-40 0 0,-16 33 42 0 0,11-23-39 0 0,-7 19 15 0 0,6-21 0 0 0,-8 16 8 0 0,4-12-18 0 0,10-12-96 0 0,-8 17-128 0 0,-9 17 171 0 0,5-12 1 0 0,1-2-144 0 0,6-7-145 0 0,-13 26 344 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,1-2-1 0 0,-2 3 22 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 4 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,3 6-21 0 0,-3-5 13 0 0,1 4-9 0 0,0 1-1 0 0,0-1 0 0 0,0 9 1 0 0,-1-9 4 0 0,-1 0 1 0 0,-1 10-1 0 0,0-5-7 0 0,-3 15-19 0 0,0-2 6 0 0,3-10 14 0 0,-7 23 0 0 0,-5 22-30 0 0,10-30 51 0 0,2-16 3 0 0,-5 25 1 0 0,6-36 3 0 0,1 1 0 0 0,-1 4-1 0 0,0-1 4 0 0,1-3 10 0 0,0-3-13 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-3 16 0 0,2 0-10 0 0,-2 1-4 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,2-3 0 0 0,1-4 3 0 0,-1 0 1 0 0,5-18-1 0 0,-5 16 5 0 0,5-13 0 0 0,-3 8 0 0 0,7-25 0 0 0,-8 21-4 0 0,3-10-4 0 0,3-11 14 0 0,1 0 1 0 0,-11 40-16 0 0,5-23 16 0 0,-3 19-11 0 0,-1 0 0 0 0,5-9 0 0 0,6-8 6 0 0,9-21 12 0 0,-20 41-21 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,4-3 0 0 0,-1 1 4 0 0,9-5 0 0 0,-12 8-5 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 2 0 0 0,0 5 9 0 0,1 14-1 0 0,-2-22-9 0 0,1 38 22 0 0,-1-24-19 0 0,-2 15 19 0 0,0-17-17 0 0,-3 29 6 0 0,1-11-5 0 0,-7 43 22 0 0,9-61-25 0 0,-1 13 12 0 0,0 0-9 0 0,2-18 1 0 0,0 1-1 0 0,0 17 1 0 0,1-24-2 0 0,1 0 0 0 0,-1 1 1 0 0,1 3-1 0 0,0-6-5 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,2-2 30 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,4-2 0 0 0,-6 5-31 0 0,4-4 34 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,3-5-1 0 0,18-39 271 0 0,-16 36-202 0 0,-1-1-1 0 0,10-23 1 0 0,-15 30-77 0 0,9-25 81 0 0,-7 24-53 0 0,7-14-1 0 0,-6 14-3 0 0,6-17-1 0 0,1-10 44 0 0,3-6 15 0 0,-2 4-26 0 0,-10 27-63 0 0,7-28 55 0 0,-6 21-20 0 0,-2 11-12 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-9-1 0 0,-1 12-26 0 0,-2-13 65 0 0,2 14-68 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-2-1 0 0 0,2 3-8 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 10 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,-3 2 0 0 0,4-3-11 0 0,-2 2 6 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-2 2-1 0 0,-13 19 77 0 0,14-20-68 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-2 8 0 0 0,-1-1 10 0 0,-10 26 72 0 0,2-7 23 0 0,-1 1-19 0 0,2 10 51 0 0,1-7 17 0 0,7-22-83 0 0,2 1 0 0 0,-4 24 0 0 0,5-15-2 0 0,0-2-19 0 0,1-17-39 0 0,0 1 1 0 0,1 7 0 0 0,-1-2 9 0 0,1-7-23 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,2 2 1 0 0,-3-4-13 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,2-1 0 0 0,1 0-6 0 0,-1 1 5 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,2-3-1 0 0,0-2-3 0 0,3-7 0 0 0,4-21-20 0 0,-5 17 5 0 0,7-24-20 0 0,-5 12 5 0 0,-5 19 27 0 0,1-8-9 0 0,5-16-12 0 0,-8 34 25 0 0,10-41-136 0 0,-5 14 67 0 0,3-15-41 0 0,-4 19 86 0 0,-1 0-1 0 0,0-26 1 0 0,-3 33 12 0 0,-1 10 8 0 0,0-4-18 0 0,1 10 22 0 0,0 1 4 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 3-15 0 0,-1 4 14 0 0,2-3-1 0 0,-2 8-2 0 0,2 0 0 0 0,0 17 0 0 0,0-10 2 0 0,0-11 1 0 0,2 63-14 0 0,0 11 15 0 0,-2-40 0 0 0,-3 102-12 0 0,1-83 1 0 0,-2 20-49 0 0,3-62 47 0 0,-7 82-58 0 0,1-39 26 0 0,-4-1 1 0 0,-8 23-9 0 0,-3-2-13 0 0,4-27 33 0 0,8-26 25 0 0,-8 22 8 0 0,-14 23 0 0 0,29-69 1 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,-9 8 1 0 0,12-12-1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,-3 1 0 0 0,4-3-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-2-1 0 0 0,1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-2 0 0 0,-1-4 3 0 0,1 5-3 0 0,-1-22-3 0 0,4-11-6 0 0,2-2 4 0 0,-1 15-30 0 0,-1-3-11 0 0,6-28-44 0 0,-6 34 72 0 0,29-120-204 0 0,21-70-37 0 0,-46 180 231 0 0,7-26-22 0 0,7-27-24 0 0,-11 42 38 0 0,1-3 8 0 0,1-12-11 0 0,4-22-15 0 0,-4 19 24 0 0,2-9-11 0 0,-12 58 38 0 0,12-72-27 0 0,-14 74 30 0 0,15-84-17 0 0,-2 2 25 0 0,-12 85-8 0 0,4-23 7 0 0,1 0 3 0 0,-6 22-7 0 0,1 0 0 0 0,-1 0 1 0 0,0-5-1 0 0,0 5 45 0 0,1-4 0 0 0,-1 8-39 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1 228 0 0,1 22 63 0 0,-5 27-122 0 0,-1-1-4 0 0,3 1-75 0 0,0-17-49 0 0,-2 23 27 0 0,2-22-43 0 0,-1 12 11 0 0,4-39-43 0 0,-3 51 47 0 0,0 92 47 0 0,8-91-77 0 0,-2-33-1 0 0,-2-16-12 0 0,0 1-1 0 0,1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,6 14-1 0 0,-8-20-3 0 0,0 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,3 2-1 0 0,-3-3 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,2 0 0 0 0,-2-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,2 0 0 0 0,-2 1-6 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,2-2 1 0 0,8-9-21 0 0,-7 7 14 0 0,0-1-6 0 0,0 1 1 0 0,5-8 0 0 0,4-13-48 0 0,-12 25 62 0 0,3-7-21 0 0,0-1 0 0 0,4-12 0 0 0,10-50-95 0 0,-2-8 15 0 0,-12 58 79 0 0,9-82-95 0 0,-10 80 97 0 0,0-17-17 0 0,-3-37-25 0 0,0 71 59 0 0,-1 1 0 0 0,1-1 0 0 0,-4-11 0 0 0,4 15 4 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0-2 1 0 0,0 2 0 0 0,1 1 1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,-1-1 0 0 0,2 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 4 1 0 0,-3 4 4 0 0,-1 2 4 0 0,2-6 2 0 0,-2 8-1 0 0,-15 48 66 0 0,4 14 67 0 0,11-2-20 0 0,4-60-94 0 0,1 32 55 0 0,0-23-49 0 0,1-11-9 0 0,-1 0 1 0 0,2 1 0 0 0,-1-1-1 0 0,5 14 1 0 0,-2-13 0 0 0,7 12-1 0 0,-9-20-13 0 0,0 0 0 0 0,1 0 0 0 0,5 7 0 0 0,-2-5 11 0 0,7 8 0 0 0,-10-12-17 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,5 1 0 0 0,-3-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 0 0 0,9-1 1 0 0,-8 0 3 0 0,1-1 0 0 0,8-3 0 0 0,-8 2-5 0 0,0-1-1 0 0,13-7 1 0 0,-16 7-3 0 0,2 0 2 0 0,-1 0-1 0 0,1-1 0 0 0,7-8 1 0 0,15-18 1 0 0,-19 19 0 0 0,0 0 0 0 0,14-25 0 0 0,-20 29-5 0 0,-1 1 0 0 0,0-1 0 0 0,3-14 0 0 0,-4 16 0 0 0,0-4 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1-14 0 0 0,-2 9 0 0 0,0-1 0 0 0,-7-27 0 0 0,-12-22 0 0 0,2 8 0 0 0,2 9 0 0 0,-1-8 0 0 0,6 17 0 0 0,-36-126 17 0 0,41 136-12 0 0,0 2-3 0 0,-13-51 7 0 0,18 73-6 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,-5-7 1 0 0,5 9 1 0 0,-5-6 1 0 0,6 10-4 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,-2-2 0 0 0,3 3 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,-1 1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 5-1 0 0,-2 11 7 0 0,4-17-8 0 0,-2 7 4 0 0,2 1 0 0 0,-1 0 0 0 0,2 13 0 0 0,5 26 8 0 0,14 42 16 0 0,5-4-10 0 0,-12-47-8 0 0,31 87 29 0 0,-19-54-26 0 0,0-1-2 0 0,11 18 5 0 0,-26-65-6 0 0,2 0 0 0 0,21 34 1 0 0,-30-53-11 0 0,19 27 0 0 0,-17-27 0 0 0,0 1 0 0 0,0-1 0 0 0,8 7 0 0 0,-6-7-9 0 0,7 4 0 0 0,-12-7 5 0 0,1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,5 1 1 0 0,-6-1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,2-1 1 0 0,-2 0-19 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,6-5 0 0 0,-8 5 10 0 0,2-1-6 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,2-3-1 0 0,-2 2-12 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,3-7 0 0 0,13-75-344 0 0,-16 76 308 0 0,-1-18 0 0 0,-1 11 18 0 0,1-6-39 0 0,-2 0 0 0 0,-1 1-1 0 0,-8-46 1 0 0,3 46 74 0 0,6 19 10 0 0,0 3 3 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1-1 0 0 0,-1 0 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">866 1225 696 0 0,'2'0'0'0'0,"0"0"0"0"0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,13-11 8 0 0,-7 6-8 0 0,10-10 0 0 0,4-3 0 0 0,-4 4 0 0 0,-12 10 0 0 0,0 0 0 0 0,9-5 0 0 0,-10 7 1 0 0,19-10 6 0 0,-17 10 26 0 0,17-6-1 0 0,-15 6 8 0 0,-6 2-25 0 0,-4 2-11 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,3 1 64 0 0,-4-1-61 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,-1 1 1 0 0,-5 10 51 0 0,-13 19 43 0 0,15-24-54 0 0,-12 14 0 0 0,7-11-10 0 0,-14 15 42 0 0,10-13-33 0 0,0 2 19 0 0,-18 16 41 0 0,0-4 0 0 0,28-23-88 0 0,-17 13 56 0 0,18-15-54 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,-5 2 1 0 0,9-3-18 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1-1 25 0 0,2-4-8 0 0,1-1 1 0 0,3-8 0 0 0,-1 5-14 0 0,0 0 18 0 0,9-14-1 0 0,-11 20-17 0 0,0 0-1 0 0,1-1 1 0 0,3-3 0 0 0,0 2 0 0 0,-1 1 5 0 0,10-8 1 0 0,-14 11-11 0 0,9-5 37 0 0,17-16 0 0 0,-18 15-5 0 0,-1 0 0 0 0,1 0 0 0 0,1 1-1 0 0,15-9 1 0 0,-7 6 12 0 0,-7 3 39 0 0,15-6-1 0 0,-11 7-13 0 0,-7 2-11 0 0,14-4 0 0 0,27-5 203 0 0,-42 11-221 0 0,0 0 39 0 0,11-2 0 0 0,-12 3 33 0 0,10 1 1 0 0,31 3 246 0 0,-44-2-316 0 0,-1 0 1 0 0,4 1 0 0 0,0 0 7 0 0,-5-2-32 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,2 3 0 0 0,-4-4-9 0 0,1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 2-1 0 0,-1-2 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 4-1 0 0,0-2 8 0 0,0-1 0 0 0,-1 6 0 0 0,-1 0-1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-9 10 0 0 0,-8 6 5 0 0,-1 2-3 0 0,6-8-18 0 0,-26 25-1 0 0,27-28-1 0 0,-14 12 1 0 0,-6 3-11 0 0,20-15-2 0 0,-23 15 1 0 0,15-14-8 0 0,-13 8-8 0 0,-5 8-31 0 0,34-26 18 0 0,-15 8 0 0 0,9-5 14 0 0,-51 28-152 0 0,-7 1-161 0 0,61-32 255 0 0,-14 11 0 0 0,-1 0-37 0 0,-1-4 29 0 0,11-6 36 0 0,-26 15-93 0 0,36-19 130 0 0,2-1-2 0 0,0 1 0 0 0,-4 2 0 0 0,3-1-12 0 0,0-1 0 0 0,-8 4 1 0 0,5-2-14 0 0,2-1-21 0 0,5-3 49 0 0,1-2-24 0 0,1 0 33 0 0,5-4 0 0 0,-3 2 2 0 0,44-34 18 0 0,-23 16-4 0 0,-3 4 8 0 0,-2 1 20 0 0,9-5 6 0 0,13-5 10 0 0,-19 13-18 0 0,4-5-7 0 0,-2 0 7 0 0,-21 16-31 0 0,45-25 47 0 0,49-13 51 0 0,-74 33-86 0 0,14-5 21 0 0,-32 10-30 0 0,0 1 0 0 0,0 0 1 0 0,11-2-1 0 0,-10 2 2 0 0,10-3 0 0 0,-3 1-3 0 0,1-1 11 0 0,6-1 2 0 0,-15 4-4 0 0,8-3-1 0 0,0 0 8 0 0,44-17 55 0 0,-50 19-64 0 0,8-7 0 0 0,-8 6 0 0 0,1-2 2 0 0,-1 0 0 0 0,11-9 1 0 0,-6 3-2 0 0,22-26 1 0 0,-27 28-13 0 0,-1 2 1 0 0,0 0 1 0 0,6-12 0 0 0,14-32 7 0 0,-16 29-7 0 0,-9 18-1 0 0,6-11-1 0 0,-5 9-1 0 0,-1 4 15 0 0,-1-1 0 0 0,2-6 0 0 0,-2 6 8 0 0,0 0 0 0 0,0-1-1 0 0,0-6 1 0 0,-1 8-15 0 0,0 2-6 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,0 1 9 0 0,0-3 18 0 0,1 4-29 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-2 3 151 0 0,1 0-113 0 0,1 0 0 0 0,-1 4 0 0 0,0-1 9 0 0,-5 18 87 0 0,4-13-82 0 0,-6 21 81 0 0,3-1-44 0 0,1-4-31 0 0,-15 59 82 0 0,1-14-95 0 0,14-48-48 0 0,1-4 0 0 0,1-6-14 0 0,0 2-11 0 0,2-12 8 0 0,0 3 1 0 0,1-3-135 0 0,0-4 149 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-4-11 0 0,-1 3 1 0 0,6-28-96 0 0,-2-2 29 0 0,-1 5 12 0 0,6-47-37 0 0,-8 61 97 0 0,1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,5-11 1 0 0,-2 7 7 0 0,-3 10 1 0 0,0-1 1 0 0,5-9 0 0 0,-2 7 14 0 0,-3 5-10 0 0,0 0 0 0 0,5-6 1 0 0,-3 3 2 0 0,-1 4 7 0 0,-1 0 1 0 0,5-4 0 0 0,-4 4 36 0 0,6-4 0 0 0,0 1 8 0 0,-9 6-57 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,2 0 41 0 0,-1 0 0 0 0,4 1 0 0 0,-5-1-34 0 0,0 0 3 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,0 1 0 0 0,-1 1 22 0 0,1-1 0 0 0,0 1 0 0 0,1 2 1 0 0,-1-2-15 0 0,0 2 23 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 6 0 0 0,0-6-29 0 0,-1 43 203 0 0,0-34-171 0 0,-3 25 65 0 0,0-10-45 0 0,0 19 41 0 0,3-23-57 0 0,1-10-38 0 0,0-9-5 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,3 6 0 0 0,-2-9-7 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,1 2-1 0 0,-1-3-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,3 0 0 0 0,-3-1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,2 0-2 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,4-2 0 0 0,-1 0-9 0 0,-2 2 10 0 0,0-1-1 0 0,1-1 0 0 0,2-3 0 0 0,2-2-5 0 0,-2 3 4 0 0,-1 0 0 0 0,0-1 0 0 0,7-11 0 0 0,-5 4 1 0 0,-3 6 1 0 0,12-25-10 0 0,-7 13 4 0 0,11-24-10 0 0,-18 40 16 0 0,0 0 0 0 0,-1 0 0 0 0,3-6 0 0 0,-2 1 1 0 0,2-8 4 0 0,-3 13-3 0 0,1 0-2 0 0,0-7 0 0 0,-1 8 1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,3-5 0 0 0,-2 5 1 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,2-4-1 0 0,-1-2 3 0 0,0 4 0 0 0,0-4-1 0 0,1-9 7 0 0,1-12 17 0 0,-3 26-21 0 0,0-11 47 0 0,0 14-30 0 0,-1 2-6 0 0,1-2-15 0 0,0 1 4 0 0,0 3 1 0 0,-1-1-7 0 0,-3 35 81 0 0,2-23-24 0 0,0 0-5 0 0,1-10-36 0 0,0-2 2 0 0,0 1 0 0 0,1-1 0 0 0,-1 6 0 0 0,-2 24 80 0 0,1-19-70 0 0,-2 13 19 0 0,0 10 24 0 0,-1 30 65 0 0,4-40-90 0 0,1-10-17 0 0,0-12-12 0 0,0 1 0 0 0,1 7 0 0 0,3 14 27 0 0,-3-23-34 0 0,-1-2-7 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 2 1 0 0,2-1-3 0 0,-4-2 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1-2 0 0 0,4-4 0 0 0,-1 0 0 0 0,1 0 0 0 0,4-10 0 0 0,-5 9 0 0 0,-2 2 0 0 0,6-11 0 0 0,-9 16 0 0 0,13-34 0 0 0,10-36-15 0 0,-23 71 15 0 0,8-26-1 0 0,-7 20 0 0 0,9-31-5 0 0,-8 27 5 0 0,0-15 0 0 0,1-1 2 0 0,-1 15 0 0 0,2-13 4 0 0,0-21 6 0 0,-3 35-6 0 0,-1 6-2 0 0,1 0 0 0 0,0-6-1 0 0,1 2 8 0 0,0-9-1 0 0,-1 6 3 0 0,0-6-3 0 0,-1 3 9 0 0,0-13 38 0 0,0 14-18 0 0,-1 8-17 0 0,0 1 8 0 0,1 4-29 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 2 5 0 0,0 0 0 0 0,0 1 0 0 0,-1 2 0 0 0,1-3-5 0 0,-2 9 4 0 0,0-1 1 0 0,-2 21-1 0 0,1 29 11 0 0,4-46-10 0 0,0 9 1 0 0,-1 1-1 0 0,0 0-9 0 0,-1 37-13 0 0,1-25 8 0 0,0-22 5 0 0,-3 46-34 0 0,2-32 21 0 0,-1 6 5 0 0,-1 27-30 0 0,1-34 20 0 0,2-9 31 0 0,1 2 62 0 0,0-18-59 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,1 3 1 0 0,-1-4 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 2 1 0 0,0-3-4 0 0,2 4 95 0 0,-3-4-98 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 6 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,1-2 0 0 0,-1 0 16 0 0,1 0 0 0 0,1-2 0 0 0,-2 3-26 0 0,-1 0 3 0 0,20-28 141 0 0,-18 24-89 0 0,4-9 0 0 0,-2 3-5 0 0,1-2 39 0 0,4-17 0 0 0,-5 15-39 0 0,6-23 80 0 0,-9 31-106 0 0,1 0 0 0 0,0-11 0 0 0,0 1 5 0 0,0 8-15 0 0,1-4 12 0 0,4-38 73 0 0,-1 2-2 0 0,0 14-4 0 0,-5 29-76 0 0,6-24 82 0 0,-6 27-72 0 0,-1 2 23 0 0,0 1 101 0 0,-6 17-102 0 0,1-6 0 0 0,-2 14-1 0 0,-4 27 68 0 0,7-28-96 0 0,-1 9 10 0 0,4 13 23 0 0,1-31-30 0 0,0-10-8 0 0,0 1 0 0 0,3 10 0 0 0,-1-6 9 0 0,-1-4-13 0 0,0 0 0 0 0,2 5 0 0 0,-1-7-5 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,0-1 1 0 0,4 5-1 0 0,-5-6-2 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,2 1-1 0 0,-2-2-4 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,4-1 0 0 0,-4 1-2 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2-2 0 0 0,4-4 0 0 0,-1 1 0 0 0,8-10 0 0 0,3-6-1 0 0,-15 18 0 0 0,2-3-4 0 0,0-1-1 0 0,6-11 0 0 0,-9 14 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1-10-1 0 0,4-23-16 0 0,-3 17 3 0 0,-3 14 7 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2-10 0 0 0,1 13 3 0 0,0 1 0 0 0,0-1 0 0 0,-3-8 0 0 0,3 10 5 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-3 0 0 0,3 4-1 0 0,1 1 1 0 0,-2-1-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,-4-3 1 0 0,5 4 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,-3 1 0 0 0,-6 3-3 0 0,1 0 0 0 0,-19 9-1 0 0,26-11 6 0 0,-14 7-8 0 0,16-7 6 0 0,0-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 3-1 0 0,-2 3-1 0 0,0-1 0 0 0,1 1 0 0 0,-5 10 0 0 0,8-15 4 0 0,-3 6-7 0 0,1-1 0 0 0,-4 11 0 0 0,6-15 6 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,2 5 1 0 0,-1-5 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,3 3-1 0 0,-4-4 1 0 0,2 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,2 0-1 0 0,1 0 2 0 0,4 1-1 0 0,-7-1 0 0 0,3 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,6-1 0 0 0,31-5 7 0 0,-32 4-6 0 0,-1 0 0 0 0,11-4 1 0 0,-3 0 0 0 0,-5 3 0 0 0,-5 1 1 0 0,12-4 0 0 0,16-9 4 0 0,58-28 13 0 0,-75 34-13 0 0,14-8 14 0 0,-23 13-19 0 0,3-1 6 0 0,22-12-1 0 0,-4 0-5 0 0,-28 16-2 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,1-1 0 0 0,0-1 0 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -3450,6 +5398,210 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">881 448 8240 0 0,'0'0'0'0'0,"15"-11"0"0"0,0 1 0 0 0,1-1 88 0 0,1 3 8 0 0,2-2-8 0 0,1 3 16 0 0,-1-1-48 0 0,-2-1 0 0 0,0 0 8 0 0,1 0 0 0 0,0 1 80 0 0,0 1 8 0 0,0 0-8 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">1164 342 4416 0 0,'0'0'0'0'0,"8"-4"0"0"0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">1378 490 1200 0 0,'0'0'0'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink50.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-24T19:10:12.873"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1772 1136 2904 0 0,'1'0'8'0'0,"0"0"3"0"0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,3-1 1 0 0,16-11 198 0 0,-5 4-5 0 0,-7 3-124 0 0,3-1 8 0 0,-5 3-66 0 0,6-5 0 0 0,-3 2-5 0 0,14-11 13 0 0,-15 10 3 0 0,9-6-1 0 0,-2 3 51 0 0,-9 5-30 0 0,11-6 1 0 0,-6 5 95 0 0,1-1 0 0 0,10-9 1 0 0,12-8 467 0 0,-25 20-477 0 0,-7 3-34 0 0,1 0-1 0 0,3-3 1 0 0,-5 4-63 0 0,2-2 64 0 0,-3 1-100 0 0,0 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 1 65 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">105 1195 1496 0 0,'0'-1'8'0'0,"1"-3"16"0"0,0 0 1 0 0,0-8-1 0 0,-1 8-2 0 0,2-9 376 0 0,-1 6-239 0 0,0-3 135 0 0,5-14 0 0 0,-3 8 165 0 0,-1 6-214 0 0,4-26 116 0 0,-2 10-241 0 0,1-1-64 0 0,3-15 6 0 0,2-22 179 0 0,5-23 135 0 0,-11 61-257 0 0,2-19 194 0 0,5-34 75 0 0,-3 25-79 0 0,3-23 144 0 0,-10 64-220 0 0,0-16-1 0 0,-1 18-102 0 0,0 10-90 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-2 0 0 0,1 2 344 0 0,0 1-275 0 0,1 2-24 0 0,0 4-1 0 0,1 2-19 0 0,13 82 437 0 0,-12-78-461 0 0,4 15 33 0 0,9 30 66 0 0,-11-44-113 0 0,13 42 39 0 0,6 20-2 0 0,0-5-37 0 0,-6-18-23 0 0,-11-36-9 0 0,14 31-1 0 0,1 1-31 0 0,-14-29-72 0 0,12 20 1 0 0,-19-39 82 0 0,1 4-108 0 0,5 8-1 0 0,-7-12 114 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 2 0 0 0,0 0-67 0 0,0-2 41 0 0,0 0-248 0 0,-9-4 235 0 0,3 0-11 0 0,-13-4 0 0 0,5 3-87 0 0,7 2 60 0 0,-13-2 0 0 0,12 3 42 0 0,-24-3-314 0 0,-5 2 122 0 0,12 3 88 0 0,15-1 74 0 0,-1 1-1 0 0,-19 3 0 0 0,-56 10-283 0 0,77-11 300 0 0,-16 6-1 0 0,14-4 23 0 0,1 0 10 0 0,-4 1-12 0 0,6-3 22 0 0,2-1-30 0 0,-8 3 0 0 0,12-4 51 0 0,1 0-9 0 0,-1 0 0 0 0,1 0 0 0 0,-3 1 1 0 0,3-1 10 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0-3 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0-5 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 9 0 0,0-1-8 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,1-1-1 0 0,0 1-6 0 0,3-4-39 0 0,1 1-1 0 0,10-7 0 0 0,19-10-99 0 0,-11 6 43 0 0,6-5 9 0 0,-6 3 29 0 0,-6 5 6 0 0,9-6-26 0 0,-26 18 97 0 0,36-19-92 0 0,-31 16 77 0 0,4-1-23 0 0,15-8-1 0 0,24-24-65 0 0,-39 30 72 0 0,19-12-1 0 0,7-2-17 0 0,13-7-3 0 0,-34 19 68 0 0,24-17 0 0 0,-26 14-9 0 0,-1 2 37 0 0,0-1 34 0 0,-7 6-31 0 0,0 0 0 0 0,0 0 0 0 0,8-4 0 0 0,-11 7 51 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,4-1 1 0 0,-1 1 910 0 0,-8 4-581 0 0,1-1-298 0 0,-4 6-3 0 0,0 0-1 0 0,-6 14 0 0 0,-3 3 196 0 0,9-16-181 0 0,0-1 0 0 0,-8 9-1 0 0,6-8-11 0 0,-10 15-1 0 0,-3 11 99 0 0,4-10-94 0 0,-1 3-1 0 0,12-17-72 0 0,0 0 1 0 0,-4 12-1 0 0,-13 25 106 0 0,11-23-55 0 0,10-21-90 0 0,0 0-1 0 0,-3 4 1 0 0,4-6-14 0 0,1-1-3 0 0,0-1-2 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,2-3 0 0 0,-3 2 0 0 0,10-6 0 0 0,-6 4-5 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,3-6 0 0 0,13-30-40 0 0,-16 33 42 0 0,11-23-39 0 0,-7 19 15 0 0,6-21 0 0 0,-8 16 8 0 0,4-12-18 0 0,10-12-96 0 0,-8 17-128 0 0,-9 17 171 0 0,5-12 1 0 0,1-2-144 0 0,6-7-145 0 0,-13 26 344 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,1-2-1 0 0,-2 3 22 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 4 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,3 6-21 0 0,-3-5 13 0 0,1 4-9 0 0,0 1-1 0 0,0-1 0 0 0,0 9 1 0 0,-1-9 4 0 0,-1 0 1 0 0,-1 10-1 0 0,0-5-7 0 0,-3 15-19 0 0,0-2 6 0 0,3-10 14 0 0,-7 23 0 0 0,-5 22-30 0 0,10-30 51 0 0,2-16 3 0 0,-5 25 1 0 0,6-36 3 0 0,1 1 0 0 0,-1 4-1 0 0,0-1 4 0 0,1-3 10 0 0,0-3-13 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-3 16 0 0,2 0-10 0 0,-2 1-4 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,2-3 0 0 0,1-4 3 0 0,-1 0 1 0 0,5-18-1 0 0,-5 16 5 0 0,5-13 0 0 0,-3 8 0 0 0,7-25 0 0 0,-8 21-4 0 0,3-10-4 0 0,3-11 14 0 0,1 0 1 0 0,-11 40-16 0 0,5-23 16 0 0,-3 19-11 0 0,-1 0 0 0 0,5-9 0 0 0,6-8 6 0 0,9-21 12 0 0,-20 41-21 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,4-3 0 0 0,-1 1 4 0 0,9-5 0 0 0,-12 8-5 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 2 0 0 0,0 5 9 0 0,1 14-1 0 0,-2-22-9 0 0,1 38 22 0 0,-1-24-19 0 0,-2 15 19 0 0,0-17-17 0 0,-3 29 6 0 0,1-11-5 0 0,-7 43 22 0 0,9-61-25 0 0,-1 13 12 0 0,0 0-9 0 0,2-18 1 0 0,0 1-1 0 0,0 17 1 0 0,1-24-2 0 0,1 0 0 0 0,-1 1 1 0 0,1 3-1 0 0,0-6-5 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,2-2 30 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,4-2 0 0 0,-6 5-31 0 0,4-4 34 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,3-5-1 0 0,18-39 271 0 0,-16 36-202 0 0,-1-1-1 0 0,10-23 1 0 0,-15 30-77 0 0,9-25 81 0 0,-7 24-53 0 0,7-14-1 0 0,-6 14-3 0 0,6-17-1 0 0,1-10 44 0 0,3-6 15 0 0,-2 4-26 0 0,-10 27-63 0 0,7-28 55 0 0,-6 21-20 0 0,-2 11-12 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-9-1 0 0,-1 12-26 0 0,-2-13 65 0 0,2 14-68 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-2-1 0 0 0,2 3-8 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 10 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,-3 2 0 0 0,4-3-11 0 0,-2 2 6 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-2 2-1 0 0,-13 19 77 0 0,14-20-68 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-2 8 0 0 0,-1-1 10 0 0,-10 26 72 0 0,2-7 23 0 0,-1 1-19 0 0,2 10 51 0 0,1-7 17 0 0,7-22-83 0 0,2 1 0 0 0,-4 24 0 0 0,5-15-2 0 0,0-2-19 0 0,1-17-39 0 0,0 1 1 0 0,1 7 0 0 0,-1-2 9 0 0,1-7-23 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,2 2 1 0 0,-3-4-13 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,2-1 0 0 0,1 0-6 0 0,-1 1 5 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,2-3-1 0 0,0-2-3 0 0,3-7 0 0 0,4-21-20 0 0,-5 17 5 0 0,7-24-20 0 0,-5 12 5 0 0,-5 19 27 0 0,1-8-9 0 0,5-16-12 0 0,-8 34 25 0 0,10-41-136 0 0,-5 14 67 0 0,3-15-41 0 0,-4 19 86 0 0,-1 0-1 0 0,0-26 1 0 0,-3 33 12 0 0,-1 10 8 0 0,0-4-18 0 0,1 10 22 0 0,0 1 4 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 3-15 0 0,-1 4 14 0 0,2-3-1 0 0,-2 8-2 0 0,2 0 0 0 0,0 17 0 0 0,0-10 2 0 0,0-11 1 0 0,2 63-14 0 0,0 11 15 0 0,-2-40 0 0 0,-3 102-12 0 0,1-83 1 0 0,-2 20-49 0 0,3-62 47 0 0,-7 82-58 0 0,1-39 26 0 0,-4-1 1 0 0,-8 23-9 0 0,-3-2-13 0 0,4-27 33 0 0,8-26 25 0 0,-8 22 8 0 0,-14 23 0 0 0,29-69 1 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,-9 8 1 0 0,12-12-1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,-3 1 0 0 0,4-3-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-2-1 0 0 0,1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-2 0 0 0,-1-4 3 0 0,1 5-3 0 0,-1-22-3 0 0,4-11-6 0 0,2-2 4 0 0,-1 15-30 0 0,-1-3-11 0 0,6-28-44 0 0,-6 34 72 0 0,29-120-204 0 0,21-70-37 0 0,-46 180 231 0 0,7-26-22 0 0,7-27-24 0 0,-11 42 38 0 0,1-3 8 0 0,1-12-11 0 0,4-22-15 0 0,-4 19 24 0 0,2-9-11 0 0,-12 58 38 0 0,12-72-27 0 0,-14 74 30 0 0,15-84-17 0 0,-2 2 25 0 0,-12 85-8 0 0,4-23 7 0 0,1 0 3 0 0,-6 22-7 0 0,1 0 0 0 0,-1 0 1 0 0,0-5-1 0 0,0 5 45 0 0,1-4 0 0 0,-1 8-39 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1 228 0 0,1 22 63 0 0,-5 27-122 0 0,-1-1-4 0 0,3 1-75 0 0,0-17-49 0 0,-2 23 27 0 0,2-22-43 0 0,-1 12 11 0 0,4-39-43 0 0,-3 51 47 0 0,0 92 47 0 0,8-91-77 0 0,-2-33-1 0 0,-2-16-12 0 0,0 1-1 0 0,1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,6 14-1 0 0,-8-20-3 0 0,0 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,3 2-1 0 0,-3-3 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,2 0 0 0 0,-2-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,2 0 0 0 0,-2 1-6 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,2-2 1 0 0,8-9-21 0 0,-7 7 14 0 0,0-1-6 0 0,0 1 1 0 0,5-8 0 0 0,4-13-48 0 0,-12 25 62 0 0,3-7-21 0 0,0-1 0 0 0,4-12 0 0 0,10-50-95 0 0,-2-8 15 0 0,-12 58 79 0 0,9-82-95 0 0,-10 80 97 0 0,0-17-17 0 0,-3-37-25 0 0,0 71 59 0 0,-1 1 0 0 0,1-1 0 0 0,-4-11 0 0 0,4 15 4 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0-2 1 0 0,0 2 0 0 0,1 1 1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,-1-1 0 0 0,2 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 4 1 0 0,-3 4 4 0 0,-1 2 4 0 0,2-6 2 0 0,-2 8-1 0 0,-15 48 66 0 0,4 14 67 0 0,11-2-20 0 0,4-60-94 0 0,1 32 55 0 0,0-23-49 0 0,1-11-9 0 0,-1 0 1 0 0,2 1 0 0 0,-1-1-1 0 0,5 14 1 0 0,-2-13 0 0 0,7 12-1 0 0,-9-20-13 0 0,0 0 0 0 0,1 0 0 0 0,5 7 0 0 0,-2-5 11 0 0,7 8 0 0 0,-10-12-17 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,5 1 0 0 0,-3-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 0 0 0,9-1 1 0 0,-8 0 3 0 0,1-1 0 0 0,8-3 0 0 0,-8 2-5 0 0,0-1-1 0 0,13-7 1 0 0,-16 7-3 0 0,2 0 2 0 0,-1 0-1 0 0,1-1 0 0 0,7-8 1 0 0,15-18 1 0 0,-19 19 0 0 0,0 0 0 0 0,14-25 0 0 0,-20 29-5 0 0,-1 1 0 0 0,0-1 0 0 0,3-14 0 0 0,-4 16 0 0 0,0-4 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1-14 0 0 0,-2 9 0 0 0,0-1 0 0 0,-7-27 0 0 0,-12-22 0 0 0,2 8 0 0 0,2 9 0 0 0,-1-8 0 0 0,6 17 0 0 0,-36-126 17 0 0,41 136-12 0 0,0 2-3 0 0,-13-51 7 0 0,18 73-6 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,-5-7 1 0 0,5 9 1 0 0,-5-6 1 0 0,6 10-4 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,-2-2 0 0 0,3 3 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,-1 1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 5-1 0 0,-2 11 7 0 0,4-17-8 0 0,-2 7 4 0 0,2 1 0 0 0,-1 0 0 0 0,2 13 0 0 0,5 26 8 0 0,14 42 16 0 0,5-4-10 0 0,-12-47-8 0 0,31 87 29 0 0,-19-54-26 0 0,0-1-2 0 0,11 18 5 0 0,-26-65-6 0 0,2 0 0 0 0,21 34 1 0 0,-30-53-11 0 0,19 27 0 0 0,-17-27 0 0 0,0 1 0 0 0,0-1 0 0 0,8 7 0 0 0,-6-7-9 0 0,7 4 0 0 0,-12-7 5 0 0,1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,5 1 1 0 0,-6-1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,2-1 1 0 0,-2 0-19 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,6-5 0 0 0,-8 5 10 0 0,2-1-6 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,2-3-1 0 0,-2 2-12 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,3-7 0 0 0,13-75-344 0 0,-16 76 308 0 0,-1-18 0 0 0,-1 11 18 0 0,1-6-39 0 0,-2 0 0 0 0,-1 1-1 0 0,-8-46 1 0 0,3 46 74 0 0,6 19 10 0 0,0 3 3 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1-1 0 0 0,-1 0 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">866 1225 696 0 0,'2'0'0'0'0,"0"0"0"0"0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,13-11 8 0 0,-7 6-8 0 0,10-10 0 0 0,4-3 0 0 0,-4 4 0 0 0,-12 10 0 0 0,0 0 0 0 0,9-5 0 0 0,-10 7 1 0 0,19-10 6 0 0,-17 10 26 0 0,17-6-1 0 0,-15 6 8 0 0,-6 2-25 0 0,-4 2-11 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,3 1 64 0 0,-4-1-61 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,-1 1 1 0 0,-5 10 51 0 0,-13 19 43 0 0,15-24-54 0 0,-12 14 0 0 0,7-11-10 0 0,-14 15 42 0 0,10-13-33 0 0,0 2 19 0 0,-18 16 41 0 0,0-4 0 0 0,28-23-88 0 0,-17 13 56 0 0,18-15-54 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,-5 2 1 0 0,9-3-18 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1-1 25 0 0,2-4-8 0 0,1-1 1 0 0,3-8 0 0 0,-1 5-14 0 0,0 0 18 0 0,9-14-1 0 0,-11 20-17 0 0,0 0-1 0 0,1-1 1 0 0,3-3 0 0 0,0 2 0 0 0,-1 1 5 0 0,10-8 1 0 0,-14 11-11 0 0,9-5 37 0 0,17-16 0 0 0,-18 15-5 0 0,-1 0 0 0 0,1 0 0 0 0,1 1-1 0 0,15-9 1 0 0,-7 6 12 0 0,-7 3 39 0 0,15-6-1 0 0,-11 7-13 0 0,-7 2-11 0 0,14-4 0 0 0,27-5 203 0 0,-42 11-221 0 0,0 0 39 0 0,11-2 0 0 0,-12 3 33 0 0,10 1 1 0 0,31 3 246 0 0,-44-2-316 0 0,-1 0 1 0 0,4 1 0 0 0,0 0 7 0 0,-5-2-32 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,2 3 0 0 0,-4-4-9 0 0,1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 2-1 0 0,-1-2 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 4-1 0 0,0-2 8 0 0,0-1 0 0 0,-1 6 0 0 0,-1 0-1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-9 10 0 0 0,-8 6 5 0 0,-1 2-3 0 0,6-8-18 0 0,-26 25-1 0 0,27-28-1 0 0,-14 12 1 0 0,-6 3-11 0 0,20-15-2 0 0,-23 15 1 0 0,15-14-8 0 0,-13 8-8 0 0,-5 8-31 0 0,34-26 18 0 0,-15 8 0 0 0,9-5 14 0 0,-51 28-152 0 0,-7 1-161 0 0,61-32 255 0 0,-14 11 0 0 0,-1 0-37 0 0,-1-4 29 0 0,11-6 36 0 0,-26 15-93 0 0,36-19 130 0 0,2-1-2 0 0,0 1 0 0 0,-4 2 0 0 0,3-1-12 0 0,0-1 0 0 0,-8 4 1 0 0,5-2-14 0 0,2-1-21 0 0,5-3 49 0 0,1-2-24 0 0,1 0 33 0 0,5-4 0 0 0,-3 2 2 0 0,44-34 18 0 0,-23 16-4 0 0,-3 4 8 0 0,-2 1 20 0 0,9-5 6 0 0,13-5 10 0 0,-19 13-18 0 0,4-5-7 0 0,-2 0 7 0 0,-21 16-31 0 0,45-25 47 0 0,49-13 51 0 0,-74 33-86 0 0,14-5 21 0 0,-32 10-30 0 0,0 1 0 0 0,0 0 1 0 0,11-2-1 0 0,-10 2 2 0 0,10-3 0 0 0,-3 1-3 0 0,1-1 11 0 0,6-1 2 0 0,-15 4-4 0 0,8-3-1 0 0,0 0 8 0 0,44-17 55 0 0,-50 19-64 0 0,8-7 0 0 0,-8 6 0 0 0,1-2 2 0 0,-1 0 0 0 0,11-9 1 0 0,-6 3-2 0 0,22-26 1 0 0,-27 28-13 0 0,-1 2 1 0 0,0 0 1 0 0,6-12 0 0 0,14-32 7 0 0,-16 29-7 0 0,-9 18-1 0 0,6-11-1 0 0,-5 9-1 0 0,-1 4 15 0 0,-1-1 0 0 0,2-6 0 0 0,-2 6 8 0 0,0 0 0 0 0,0-1-1 0 0,0-6 1 0 0,-1 8-15 0 0,0 2-6 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,0 1 9 0 0,0-3 18 0 0,1 4-29 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-2 3 151 0 0,1 0-113 0 0,1 0 0 0 0,-1 4 0 0 0,0-1 9 0 0,-5 18 87 0 0,4-13-82 0 0,-6 21 81 0 0,3-1-44 0 0,1-4-31 0 0,-15 59 82 0 0,1-14-95 0 0,14-48-48 0 0,1-4 0 0 0,1-6-14 0 0,0 2-11 0 0,2-12 8 0 0,0 3 1 0 0,1-3-135 0 0,0-4 149 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-4-11 0 0,-1 3 1 0 0,6-28-96 0 0,-2-2 29 0 0,-1 5 12 0 0,6-47-37 0 0,-8 61 97 0 0,1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,5-11 1 0 0,-2 7 7 0 0,-3 10 1 0 0,0-1 1 0 0,5-9 0 0 0,-2 7 14 0 0,-3 5-10 0 0,0 0 0 0 0,5-6 1 0 0,-3 3 2 0 0,-1 4 7 0 0,-1 0 1 0 0,5-4 0 0 0,-4 4 36 0 0,6-4 0 0 0,0 1 8 0 0,-9 6-57 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,2 0 41 0 0,-1 0 0 0 0,4 1 0 0 0,-5-1-34 0 0,0 0 3 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,0 1 0 0 0,-1 1 22 0 0,1-1 0 0 0,0 1 0 0 0,1 2 1 0 0,-1-2-15 0 0,0 2 23 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 6 0 0 0,0-6-29 0 0,-1 43 203 0 0,0-34-171 0 0,-3 25 65 0 0,0-10-45 0 0,0 19 41 0 0,3-23-57 0 0,1-10-38 0 0,0-9-5 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,3 6 0 0 0,-2-9-7 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,1 2-1 0 0,-1-3-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,3 0 0 0 0,-3-1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,2 0-2 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,4-2 0 0 0,-1 0-9 0 0,-2 2 10 0 0,0-1-1 0 0,1-1 0 0 0,2-3 0 0 0,2-2-5 0 0,-2 3 4 0 0,-1 0 0 0 0,0-1 0 0 0,7-11 0 0 0,-5 4 1 0 0,-3 6 1 0 0,12-25-10 0 0,-7 13 4 0 0,11-24-10 0 0,-18 40 16 0 0,0 0 0 0 0,-1 0 0 0 0,3-6 0 0 0,-2 1 1 0 0,2-8 4 0 0,-3 13-3 0 0,1 0-2 0 0,0-7 0 0 0,-1 8 1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,3-5 0 0 0,-2 5 1 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,2-4-1 0 0,-1-2 3 0 0,0 4 0 0 0,0-4-1 0 0,1-9 7 0 0,1-12 17 0 0,-3 26-21 0 0,0-11 47 0 0,0 14-30 0 0,-1 2-6 0 0,1-2-15 0 0,0 1 4 0 0,0 3 1 0 0,-1-1-7 0 0,-3 35 81 0 0,2-23-24 0 0,0 0-5 0 0,1-10-36 0 0,0-2 2 0 0,0 1 0 0 0,1-1 0 0 0,-1 6 0 0 0,-2 24 80 0 0,1-19-70 0 0,-2 13 19 0 0,0 10 24 0 0,-1 30 65 0 0,4-40-90 0 0,1-10-17 0 0,0-12-12 0 0,0 1 0 0 0,1 7 0 0 0,3 14 27 0 0,-3-23-34 0 0,-1-2-7 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 2 1 0 0,2-1-3 0 0,-4-2 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1-2 0 0 0,4-4 0 0 0,-1 0 0 0 0,1 0 0 0 0,4-10 0 0 0,-5 9 0 0 0,-2 2 0 0 0,6-11 0 0 0,-9 16 0 0 0,13-34 0 0 0,10-36-15 0 0,-23 71 15 0 0,8-26-1 0 0,-7 20 0 0 0,9-31-5 0 0,-8 27 5 0 0,0-15 0 0 0,1-1 2 0 0,-1 15 0 0 0,2-13 4 0 0,0-21 6 0 0,-3 35-6 0 0,-1 6-2 0 0,1 0 0 0 0,0-6-1 0 0,1 2 8 0 0,0-9-1 0 0,-1 6 3 0 0,0-6-3 0 0,-1 3 9 0 0,0-13 38 0 0,0 14-18 0 0,-1 8-17 0 0,0 1 8 0 0,1 4-29 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 2 5 0 0,0 0 0 0 0,0 1 0 0 0,-1 2 0 0 0,1-3-5 0 0,-2 9 4 0 0,0-1 1 0 0,-2 21-1 0 0,1 29 11 0 0,4-46-10 0 0,0 9 1 0 0,-1 1-1 0 0,0 0-9 0 0,-1 37-13 0 0,1-25 8 0 0,0-22 5 0 0,-3 46-34 0 0,2-32 21 0 0,-1 6 5 0 0,-1 27-30 0 0,1-34 20 0 0,2-9 31 0 0,1 2 62 0 0,0-18-59 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,1 3 1 0 0,-1-4 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 2 1 0 0,0-3-4 0 0,2 4 95 0 0,-3-4-98 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 6 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,1-2 0 0 0,-1 0 16 0 0,1 0 0 0 0,1-2 0 0 0,-2 3-26 0 0,-1 0 3 0 0,20-28 141 0 0,-18 24-89 0 0,4-9 0 0 0,-2 3-5 0 0,1-2 39 0 0,4-17 0 0 0,-5 15-39 0 0,6-23 80 0 0,-9 31-106 0 0,1 0 0 0 0,0-11 0 0 0,0 1 5 0 0,0 8-15 0 0,1-4 12 0 0,4-38 73 0 0,-1 2-2 0 0,0 14-4 0 0,-5 29-76 0 0,6-24 82 0 0,-6 27-72 0 0,-1 2 23 0 0,0 1 101 0 0,-6 17-102 0 0,1-6 0 0 0,-2 14-1 0 0,-4 27 68 0 0,7-28-96 0 0,-1 9 10 0 0,4 13 23 0 0,1-31-30 0 0,0-10-8 0 0,0 1 0 0 0,3 10 0 0 0,-1-6 9 0 0,-1-4-13 0 0,0 0 0 0 0,2 5 0 0 0,-1-7-5 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,0-1 1 0 0,4 5-1 0 0,-5-6-2 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,2 1-1 0 0,-2-2-4 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,4-1 0 0 0,-4 1-2 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2-2 0 0 0,4-4 0 0 0,-1 1 0 0 0,8-10 0 0 0,3-6-1 0 0,-15 18 0 0 0,2-3-4 0 0,0-1-1 0 0,6-11 0 0 0,-9 14 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1-10-1 0 0,4-23-16 0 0,-3 17 3 0 0,-3 14 7 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2-10 0 0 0,1 13 3 0 0,0 1 0 0 0,0-1 0 0 0,-3-8 0 0 0,3 10 5 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-3 0 0 0,3 4-1 0 0,1 1 1 0 0,-2-1-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,-4-3 1 0 0,5 4 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,-3 1 0 0 0,-6 3-3 0 0,1 0 0 0 0,-19 9-1 0 0,26-11 6 0 0,-14 7-8 0 0,16-7 6 0 0,0-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 3-1 0 0,-2 3-1 0 0,0-1 0 0 0,1 1 0 0 0,-5 10 0 0 0,8-15 4 0 0,-3 6-7 0 0,1-1 0 0 0,-4 11 0 0 0,6-15 6 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,2 5 1 0 0,-1-5 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,3 3-1 0 0,-4-4 1 0 0,2 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,2 0-1 0 0,1 0 2 0 0,4 1-1 0 0,-7-1 0 0 0,3 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,6-1 0 0 0,31-5 7 0 0,-32 4-6 0 0,-1 0 0 0 0,11-4 1 0 0,-3 0 0 0 0,-5 3 0 0 0,-5 1 1 0 0,12-4 0 0 0,16-9 4 0 0,58-28 13 0 0,-75 34-13 0 0,14-8 14 0 0,-23 13-19 0 0,3-1 6 0 0,22-12-1 0 0,-4 0-5 0 0,-28 16-2 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,1-1 0 0 0,0-1 0 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink51.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-24T19:10:15.892"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1772 1136 2904 0 0,'1'0'8'0'0,"0"0"3"0"0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,3-1 1 0 0,16-11 198 0 0,-5 4-5 0 0,-7 3-124 0 0,3-1 8 0 0,-5 3-66 0 0,6-5 0 0 0,-3 2-5 0 0,14-11 13 0 0,-15 10 3 0 0,9-6-1 0 0,-2 3 51 0 0,-9 5-30 0 0,11-6 1 0 0,-6 5 95 0 0,1-1 0 0 0,10-9 1 0 0,12-8 467 0 0,-25 20-477 0 0,-7 3-34 0 0,1 0-1 0 0,3-3 1 0 0,-5 4-63 0 0,2-2 64 0 0,-3 1-100 0 0,0 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 1 65 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">105 1195 1496 0 0,'0'-1'8'0'0,"1"-3"16"0"0,0 0 1 0 0,0-8-1 0 0,-1 8-2 0 0,2-9 376 0 0,-1 6-239 0 0,0-3 135 0 0,5-14 0 0 0,-3 8 165 0 0,-1 6-214 0 0,4-26 116 0 0,-2 10-241 0 0,1-1-64 0 0,3-15 6 0 0,2-22 179 0 0,5-23 135 0 0,-11 61-257 0 0,2-19 194 0 0,5-34 75 0 0,-3 25-79 0 0,3-23 144 0 0,-10 64-220 0 0,0-16-1 0 0,-1 18-102 0 0,0 10-90 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-2 0 0 0,1 2 344 0 0,0 1-275 0 0,1 2-24 0 0,0 4-1 0 0,1 2-19 0 0,13 82 437 0 0,-12-78-461 0 0,4 15 33 0 0,9 30 66 0 0,-11-44-113 0 0,13 42 39 0 0,6 20-2 0 0,0-5-37 0 0,-6-18-23 0 0,-11-36-9 0 0,14 31-1 0 0,1 1-31 0 0,-14-29-72 0 0,12 20 1 0 0,-19-39 82 0 0,1 4-108 0 0,5 8-1 0 0,-7-12 114 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 2 0 0 0,0 0-67 0 0,0-2 41 0 0,0 0-248 0 0,-9-4 235 0 0,3 0-11 0 0,-13-4 0 0 0,5 3-87 0 0,7 2 60 0 0,-13-2 0 0 0,12 3 42 0 0,-24-3-314 0 0,-5 2 122 0 0,12 3 88 0 0,15-1 74 0 0,-1 1-1 0 0,-19 3 0 0 0,-56 10-283 0 0,77-11 300 0 0,-16 6-1 0 0,14-4 23 0 0,1 0 10 0 0,-4 1-12 0 0,6-3 22 0 0,2-1-30 0 0,-8 3 0 0 0,12-4 51 0 0,1 0-9 0 0,-1 0 0 0 0,1 0 0 0 0,-3 1 1 0 0,3-1 10 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0-3 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0-5 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 9 0 0,0-1-8 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,1-1-1 0 0,0 1-6 0 0,3-4-39 0 0,1 1-1 0 0,10-7 0 0 0,19-10-99 0 0,-11 6 43 0 0,6-5 9 0 0,-6 3 29 0 0,-6 5 6 0 0,9-6-26 0 0,-26 18 97 0 0,36-19-92 0 0,-31 16 77 0 0,4-1-23 0 0,15-8-1 0 0,24-24-65 0 0,-39 30 72 0 0,19-12-1 0 0,7-2-17 0 0,13-7-3 0 0,-34 19 68 0 0,24-17 0 0 0,-26 14-9 0 0,-1 2 37 0 0,0-1 34 0 0,-7 6-31 0 0,0 0 0 0 0,0 0 0 0 0,8-4 0 0 0,-11 7 51 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,4-1 1 0 0,-1 1 910 0 0,-8 4-581 0 0,1-1-298 0 0,-4 6-3 0 0,0 0-1 0 0,-6 14 0 0 0,-3 3 196 0 0,9-16-181 0 0,0-1 0 0 0,-8 9-1 0 0,6-8-11 0 0,-10 15-1 0 0,-3 11 99 0 0,4-10-94 0 0,-1 3-1 0 0,12-17-72 0 0,0 0 1 0 0,-4 12-1 0 0,-13 25 106 0 0,11-23-55 0 0,10-21-90 0 0,0 0-1 0 0,-3 4 1 0 0,4-6-14 0 0,1-1-3 0 0,0-1-2 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,2-3 0 0 0,-3 2 0 0 0,10-6 0 0 0,-6 4-5 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,3-6 0 0 0,13-30-40 0 0,-16 33 42 0 0,11-23-39 0 0,-7 19 15 0 0,6-21 0 0 0,-8 16 8 0 0,4-12-18 0 0,10-12-96 0 0,-8 17-128 0 0,-9 17 171 0 0,5-12 1 0 0,1-2-144 0 0,6-7-145 0 0,-13 26 344 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,1-2-1 0 0,-2 3 22 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 4 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,3 6-21 0 0,-3-5 13 0 0,1 4-9 0 0,0 1-1 0 0,0-1 0 0 0,0 9 1 0 0,-1-9 4 0 0,-1 0 1 0 0,-1 10-1 0 0,0-5-7 0 0,-3 15-19 0 0,0-2 6 0 0,3-10 14 0 0,-7 23 0 0 0,-5 22-30 0 0,10-30 51 0 0,2-16 3 0 0,-5 25 1 0 0,6-36 3 0 0,1 1 0 0 0,-1 4-1 0 0,0-1 4 0 0,1-3 10 0 0,0-3-13 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-3 16 0 0,2 0-10 0 0,-2 1-4 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,2-3 0 0 0,1-4 3 0 0,-1 0 1 0 0,5-18-1 0 0,-5 16 5 0 0,5-13 0 0 0,-3 8 0 0 0,7-25 0 0 0,-8 21-4 0 0,3-10-4 0 0,3-11 14 0 0,1 0 1 0 0,-11 40-16 0 0,5-23 16 0 0,-3 19-11 0 0,-1 0 0 0 0,5-9 0 0 0,6-8 6 0 0,9-21 12 0 0,-20 41-21 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,4-3 0 0 0,-1 1 4 0 0,9-5 0 0 0,-12 8-5 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 2 0 0 0,0 5 9 0 0,1 14-1 0 0,-2-22-9 0 0,1 38 22 0 0,-1-24-19 0 0,-2 15 19 0 0,0-17-17 0 0,-3 29 6 0 0,1-11-5 0 0,-7 43 22 0 0,9-61-25 0 0,-1 13 12 0 0,0 0-9 0 0,2-18 1 0 0,0 1-1 0 0,0 17 1 0 0,1-24-2 0 0,1 0 0 0 0,-1 1 1 0 0,1 3-1 0 0,0-6-5 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,2-2 30 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,4-2 0 0 0,-6 5-31 0 0,4-4 34 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,3-5-1 0 0,18-39 271 0 0,-16 36-202 0 0,-1-1-1 0 0,10-23 1 0 0,-15 30-77 0 0,9-25 81 0 0,-7 24-53 0 0,7-14-1 0 0,-6 14-3 0 0,6-17-1 0 0,1-10 44 0 0,3-6 15 0 0,-2 4-26 0 0,-10 27-63 0 0,7-28 55 0 0,-6 21-20 0 0,-2 11-12 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-9-1 0 0,-1 12-26 0 0,-2-13 65 0 0,2 14-68 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-2-1 0 0 0,2 3-8 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 10 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,-3 2 0 0 0,4-3-11 0 0,-2 2 6 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-2 2-1 0 0,-13 19 77 0 0,14-20-68 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-2 8 0 0 0,-1-1 10 0 0,-10 26 72 0 0,2-7 23 0 0,-1 1-19 0 0,2 10 51 0 0,1-7 17 0 0,7-22-83 0 0,2 1 0 0 0,-4 24 0 0 0,5-15-2 0 0,0-2-19 0 0,1-17-39 0 0,0 1 1 0 0,1 7 0 0 0,-1-2 9 0 0,1-7-23 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,2 2 1 0 0,-3-4-13 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,2-1 0 0 0,1 0-6 0 0,-1 1 5 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,2-3-1 0 0,0-2-3 0 0,3-7 0 0 0,4-21-20 0 0,-5 17 5 0 0,7-24-20 0 0,-5 12 5 0 0,-5 19 27 0 0,1-8-9 0 0,5-16-12 0 0,-8 34 25 0 0,10-41-136 0 0,-5 14 67 0 0,3-15-41 0 0,-4 19 86 0 0,-1 0-1 0 0,0-26 1 0 0,-3 33 12 0 0,-1 10 8 0 0,0-4-18 0 0,1 10 22 0 0,0 1 4 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 3-15 0 0,-1 4 14 0 0,2-3-1 0 0,-2 8-2 0 0,2 0 0 0 0,0 17 0 0 0,0-10 2 0 0,0-11 1 0 0,2 63-14 0 0,0 11 15 0 0,-2-40 0 0 0,-3 102-12 0 0,1-83 1 0 0,-2 20-49 0 0,3-62 47 0 0,-7 82-58 0 0,1-39 26 0 0,-4-1 1 0 0,-8 23-9 0 0,-3-2-13 0 0,4-27 33 0 0,8-26 25 0 0,-8 22 8 0 0,-14 23 0 0 0,29-69 1 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,-9 8 1 0 0,12-12-1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,-3 1 0 0 0,4-3-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-2-1 0 0 0,1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-2 0 0 0,-1-4 3 0 0,1 5-3 0 0,-1-22-3 0 0,4-11-6 0 0,2-2 4 0 0,-1 15-30 0 0,-1-3-11 0 0,6-28-44 0 0,-6 34 72 0 0,29-120-204 0 0,21-70-37 0 0,-46 180 231 0 0,7-26-22 0 0,7-27-24 0 0,-11 42 38 0 0,1-3 8 0 0,1-12-11 0 0,4-22-15 0 0,-4 19 24 0 0,2-9-11 0 0,-12 58 38 0 0,12-72-27 0 0,-14 74 30 0 0,15-84-17 0 0,-2 2 25 0 0,-12 85-8 0 0,4-23 7 0 0,1 0 3 0 0,-6 22-7 0 0,1 0 0 0 0,-1 0 1 0 0,0-5-1 0 0,0 5 45 0 0,1-4 0 0 0,-1 8-39 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1 228 0 0,1 22 63 0 0,-5 27-122 0 0,-1-1-4 0 0,3 1-75 0 0,0-17-49 0 0,-2 23 27 0 0,2-22-43 0 0,-1 12 11 0 0,4-39-43 0 0,-3 51 47 0 0,0 92 47 0 0,8-91-77 0 0,-2-33-1 0 0,-2-16-12 0 0,0 1-1 0 0,1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,6 14-1 0 0,-8-20-3 0 0,0 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,3 2-1 0 0,-3-3 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,2 0 0 0 0,-2-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,2 0 0 0 0,-2 1-6 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,2-2 1 0 0,8-9-21 0 0,-7 7 14 0 0,0-1-6 0 0,0 1 1 0 0,5-8 0 0 0,4-13-48 0 0,-12 25 62 0 0,3-7-21 0 0,0-1 0 0 0,4-12 0 0 0,10-50-95 0 0,-2-8 15 0 0,-12 58 79 0 0,9-82-95 0 0,-10 80 97 0 0,0-17-17 0 0,-3-37-25 0 0,0 71 59 0 0,-1 1 0 0 0,1-1 0 0 0,-4-11 0 0 0,4 15 4 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0-2 1 0 0,0 2 0 0 0,1 1 1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,-1-1 0 0 0,2 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 4 1 0 0,-3 4 4 0 0,-1 2 4 0 0,2-6 2 0 0,-2 8-1 0 0,-15 48 66 0 0,4 14 67 0 0,11-2-20 0 0,4-60-94 0 0,1 32 55 0 0,0-23-49 0 0,1-11-9 0 0,-1 0 1 0 0,2 1 0 0 0,-1-1-1 0 0,5 14 1 0 0,-2-13 0 0 0,7 12-1 0 0,-9-20-13 0 0,0 0 0 0 0,1 0 0 0 0,5 7 0 0 0,-2-5 11 0 0,7 8 0 0 0,-10-12-17 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,5 1 0 0 0,-3-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 0 0 0,9-1 1 0 0,-8 0 3 0 0,1-1 0 0 0,8-3 0 0 0,-8 2-5 0 0,0-1-1 0 0,13-7 1 0 0,-16 7-3 0 0,2 0 2 0 0,-1 0-1 0 0,1-1 0 0 0,7-8 1 0 0,15-18 1 0 0,-19 19 0 0 0,0 0 0 0 0,14-25 0 0 0,-20 29-5 0 0,-1 1 0 0 0,0-1 0 0 0,3-14 0 0 0,-4 16 0 0 0,0-4 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1-14 0 0 0,-2 9 0 0 0,0-1 0 0 0,-7-27 0 0 0,-12-22 0 0 0,2 8 0 0 0,2 9 0 0 0,-1-8 0 0 0,6 17 0 0 0,-36-126 17 0 0,41 136-12 0 0,0 2-3 0 0,-13-51 7 0 0,18 73-6 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,-5-7 1 0 0,5 9 1 0 0,-5-6 1 0 0,6 10-4 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,-2-2 0 0 0,3 3 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,-1 1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 5-1 0 0,-2 11 7 0 0,4-17-8 0 0,-2 7 4 0 0,2 1 0 0 0,-1 0 0 0 0,2 13 0 0 0,5 26 8 0 0,14 42 16 0 0,5-4-10 0 0,-12-47-8 0 0,31 87 29 0 0,-19-54-26 0 0,0-1-2 0 0,11 18 5 0 0,-26-65-6 0 0,2 0 0 0 0,21 34 1 0 0,-30-53-11 0 0,19 27 0 0 0,-17-27 0 0 0,0 1 0 0 0,0-1 0 0 0,8 7 0 0 0,-6-7-9 0 0,7 4 0 0 0,-12-7 5 0 0,1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,5 1 1 0 0,-6-1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,2-1 1 0 0,-2 0-19 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,6-5 0 0 0,-8 5 10 0 0,2-1-6 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,2-3-1 0 0,-2 2-12 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,3-7 0 0 0,13-75-344 0 0,-16 76 308 0 0,-1-18 0 0 0,-1 11 18 0 0,1-6-39 0 0,-2 0 0 0 0,-1 1-1 0 0,-8-46 1 0 0,3 46 74 0 0,6 19 10 0 0,0 3 3 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1-1 0 0 0,-1 0 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">866 1225 696 0 0,'2'0'0'0'0,"0"0"0"0"0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,13-11 8 0 0,-7 6-8 0 0,10-10 0 0 0,4-3 0 0 0,-4 4 0 0 0,-12 10 0 0 0,0 0 0 0 0,9-5 0 0 0,-10 7 1 0 0,19-10 6 0 0,-17 10 26 0 0,17-6-1 0 0,-15 6 8 0 0,-6 2-25 0 0,-4 2-11 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,3 1 64 0 0,-4-1-61 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,-1 1 1 0 0,-5 10 51 0 0,-13 19 43 0 0,15-24-54 0 0,-12 14 0 0 0,7-11-10 0 0,-14 15 42 0 0,10-13-33 0 0,0 2 19 0 0,-18 16 41 0 0,0-4 0 0 0,28-23-88 0 0,-17 13 56 0 0,18-15-54 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,-5 2 1 0 0,9-3-18 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1-1 25 0 0,2-4-8 0 0,1-1 1 0 0,3-8 0 0 0,-1 5-14 0 0,0 0 18 0 0,9-14-1 0 0,-11 20-17 0 0,0 0-1 0 0,1-1 1 0 0,3-3 0 0 0,0 2 0 0 0,-1 1 5 0 0,10-8 1 0 0,-14 11-11 0 0,9-5 37 0 0,17-16 0 0 0,-18 15-5 0 0,-1 0 0 0 0,1 0 0 0 0,1 1-1 0 0,15-9 1 0 0,-7 6 12 0 0,-7 3 39 0 0,15-6-1 0 0,-11 7-13 0 0,-7 2-11 0 0,14-4 0 0 0,27-5 203 0 0,-42 11-221 0 0,0 0 39 0 0,11-2 0 0 0,-12 3 33 0 0,10 1 1 0 0,31 3 246 0 0,-44-2-316 0 0,-1 0 1 0 0,4 1 0 0 0,0 0 7 0 0,-5-2-32 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,2 3 0 0 0,-4-4-9 0 0,1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 2-1 0 0,-1-2 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 4-1 0 0,0-2 8 0 0,0-1 0 0 0,-1 6 0 0 0,-1 0-1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-9 10 0 0 0,-8 6 5 0 0,-1 2-3 0 0,6-8-18 0 0,-26 25-1 0 0,27-28-1 0 0,-14 12 1 0 0,-6 3-11 0 0,20-15-2 0 0,-23 15 1 0 0,15-14-8 0 0,-13 8-8 0 0,-5 8-31 0 0,34-26 18 0 0,-15 8 0 0 0,9-5 14 0 0,-51 28-152 0 0,-7 1-161 0 0,61-32 255 0 0,-14 11 0 0 0,-1 0-37 0 0,-1-4 29 0 0,11-6 36 0 0,-26 15-93 0 0,36-19 130 0 0,2-1-2 0 0,0 1 0 0 0,-4 2 0 0 0,3-1-12 0 0,0-1 0 0 0,-8 4 1 0 0,5-2-14 0 0,2-1-21 0 0,5-3 49 0 0,1-2-24 0 0,1 0 33 0 0,5-4 0 0 0,-3 2 2 0 0,44-34 18 0 0,-23 16-4 0 0,-3 4 8 0 0,-2 1 20 0 0,9-5 6 0 0,13-5 10 0 0,-19 13-18 0 0,4-5-7 0 0,-2 0 7 0 0,-21 16-31 0 0,45-25 47 0 0,49-13 51 0 0,-74 33-86 0 0,14-5 21 0 0,-32 10-30 0 0,0 1 0 0 0,0 0 1 0 0,11-2-1 0 0,-10 2 2 0 0,10-3 0 0 0,-3 1-3 0 0,1-1 11 0 0,6-1 2 0 0,-15 4-4 0 0,8-3-1 0 0,0 0 8 0 0,44-17 55 0 0,-50 19-64 0 0,8-7 0 0 0,-8 6 0 0 0,1-2 2 0 0,-1 0 0 0 0,11-9 1 0 0,-6 3-2 0 0,22-26 1 0 0,-27 28-13 0 0,-1 2 1 0 0,0 0 1 0 0,6-12 0 0 0,14-32 7 0 0,-16 29-7 0 0,-9 18-1 0 0,6-11-1 0 0,-5 9-1 0 0,-1 4 15 0 0,-1-1 0 0 0,2-6 0 0 0,-2 6 8 0 0,0 0 0 0 0,0-1-1 0 0,0-6 1 0 0,-1 8-15 0 0,0 2-6 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,0 1 9 0 0,0-3 18 0 0,1 4-29 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-2 3 151 0 0,1 0-113 0 0,1 0 0 0 0,-1 4 0 0 0,0-1 9 0 0,-5 18 87 0 0,4-13-82 0 0,-6 21 81 0 0,3-1-44 0 0,1-4-31 0 0,-15 59 82 0 0,1-14-95 0 0,14-48-48 0 0,1-4 0 0 0,1-6-14 0 0,0 2-11 0 0,2-12 8 0 0,0 3 1 0 0,1-3-135 0 0,0-4 149 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-4-11 0 0,-1 3 1 0 0,6-28-96 0 0,-2-2 29 0 0,-1 5 12 0 0,6-47-37 0 0,-8 61 97 0 0,1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,5-11 1 0 0,-2 7 7 0 0,-3 10 1 0 0,0-1 1 0 0,5-9 0 0 0,-2 7 14 0 0,-3 5-10 0 0,0 0 0 0 0,5-6 1 0 0,-3 3 2 0 0,-1 4 7 0 0,-1 0 1 0 0,5-4 0 0 0,-4 4 36 0 0,6-4 0 0 0,0 1 8 0 0,-9 6-57 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,2 0 41 0 0,-1 0 0 0 0,4 1 0 0 0,-5-1-34 0 0,0 0 3 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,0 1 0 0 0,-1 1 22 0 0,1-1 0 0 0,0 1 0 0 0,1 2 1 0 0,-1-2-15 0 0,0 2 23 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 6 0 0 0,0-6-29 0 0,-1 43 203 0 0,0-34-171 0 0,-3 25 65 0 0,0-10-45 0 0,0 19 41 0 0,3-23-57 0 0,1-10-38 0 0,0-9-5 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,3 6 0 0 0,-2-9-7 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,1 2-1 0 0,-1-3-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,3 0 0 0 0,-3-1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,2 0-2 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,4-2 0 0 0,-1 0-9 0 0,-2 2 10 0 0,0-1-1 0 0,1-1 0 0 0,2-3 0 0 0,2-2-5 0 0,-2 3 4 0 0,-1 0 0 0 0,0-1 0 0 0,7-11 0 0 0,-5 4 1 0 0,-3 6 1 0 0,12-25-10 0 0,-7 13 4 0 0,11-24-10 0 0,-18 40 16 0 0,0 0 0 0 0,-1 0 0 0 0,3-6 0 0 0,-2 1 1 0 0,2-8 4 0 0,-3 13-3 0 0,1 0-2 0 0,0-7 0 0 0,-1 8 1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,3-5 0 0 0,-2 5 1 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,2-4-1 0 0,-1-2 3 0 0,0 4 0 0 0,0-4-1 0 0,1-9 7 0 0,1-12 17 0 0,-3 26-21 0 0,0-11 47 0 0,0 14-30 0 0,-1 2-6 0 0,1-2-15 0 0,0 1 4 0 0,0 3 1 0 0,-1-1-7 0 0,-3 35 81 0 0,2-23-24 0 0,0 0-5 0 0,1-10-36 0 0,0-2 2 0 0,0 1 0 0 0,1-1 0 0 0,-1 6 0 0 0,-2 24 80 0 0,1-19-70 0 0,-2 13 19 0 0,0 10 24 0 0,-1 30 65 0 0,4-40-90 0 0,1-10-17 0 0,0-12-12 0 0,0 1 0 0 0,1 7 0 0 0,3 14 27 0 0,-3-23-34 0 0,-1-2-7 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 2 1 0 0,2-1-3 0 0,-4-2 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1-2 0 0 0,4-4 0 0 0,-1 0 0 0 0,1 0 0 0 0,4-10 0 0 0,-5 9 0 0 0,-2 2 0 0 0,6-11 0 0 0,-9 16 0 0 0,13-34 0 0 0,10-36-15 0 0,-23 71 15 0 0,8-26-1 0 0,-7 20 0 0 0,9-31-5 0 0,-8 27 5 0 0,0-15 0 0 0,1-1 2 0 0,-1 15 0 0 0,2-13 4 0 0,0-21 6 0 0,-3 35-6 0 0,-1 6-2 0 0,1 0 0 0 0,0-6-1 0 0,1 2 8 0 0,0-9-1 0 0,-1 6 3 0 0,0-6-3 0 0,-1 3 9 0 0,0-13 38 0 0,0 14-18 0 0,-1 8-17 0 0,0 1 8 0 0,1 4-29 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 2 5 0 0,0 0 0 0 0,0 1 0 0 0,-1 2 0 0 0,1-3-5 0 0,-2 9 4 0 0,0-1 1 0 0,-2 21-1 0 0,1 29 11 0 0,4-46-10 0 0,0 9 1 0 0,-1 1-1 0 0,0 0-9 0 0,-1 37-13 0 0,1-25 8 0 0,0-22 5 0 0,-3 46-34 0 0,2-32 21 0 0,-1 6 5 0 0,-1 27-30 0 0,1-34 20 0 0,2-9 31 0 0,1 2 62 0 0,0-18-59 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,1 3 1 0 0,-1-4 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 2 1 0 0,0-3-4 0 0,2 4 95 0 0,-3-4-98 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 6 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,1-2 0 0 0,-1 0 16 0 0,1 0 0 0 0,1-2 0 0 0,-2 3-26 0 0,-1 0 3 0 0,20-28 141 0 0,-18 24-89 0 0,4-9 0 0 0,-2 3-5 0 0,1-2 39 0 0,4-17 0 0 0,-5 15-39 0 0,6-23 80 0 0,-9 31-106 0 0,1 0 0 0 0,0-11 0 0 0,0 1 5 0 0,0 8-15 0 0,1-4 12 0 0,4-38 73 0 0,-1 2-2 0 0,0 14-4 0 0,-5 29-76 0 0,6-24 82 0 0,-6 27-72 0 0,-1 2 23 0 0,0 1 101 0 0,-6 17-102 0 0,1-6 0 0 0,-2 14-1 0 0,-4 27 68 0 0,7-28-96 0 0,-1 9 10 0 0,4 13 23 0 0,1-31-30 0 0,0-10-8 0 0,0 1 0 0 0,3 10 0 0 0,-1-6 9 0 0,-1-4-13 0 0,0 0 0 0 0,2 5 0 0 0,-1-7-5 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,0-1 1 0 0,4 5-1 0 0,-5-6-2 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,2 1-1 0 0,-2-2-4 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,4-1 0 0 0,-4 1-2 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2-2 0 0 0,4-4 0 0 0,-1 1 0 0 0,8-10 0 0 0,3-6-1 0 0,-15 18 0 0 0,2-3-4 0 0,0-1-1 0 0,6-11 0 0 0,-9 14 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1-10-1 0 0,4-23-16 0 0,-3 17 3 0 0,-3 14 7 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2-10 0 0 0,1 13 3 0 0,0 1 0 0 0,0-1 0 0 0,-3-8 0 0 0,3 10 5 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-3 0 0 0,3 4-1 0 0,1 1 1 0 0,-2-1-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,-4-3 1 0 0,5 4 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,-3 1 0 0 0,-6 3-3 0 0,1 0 0 0 0,-19 9-1 0 0,26-11 6 0 0,-14 7-8 0 0,16-7 6 0 0,0-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 3-1 0 0,-2 3-1 0 0,0-1 0 0 0,1 1 0 0 0,-5 10 0 0 0,8-15 4 0 0,-3 6-7 0 0,1-1 0 0 0,-4 11 0 0 0,6-15 6 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,2 5 1 0 0,-1-5 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,3 3-1 0 0,-4-4 1 0 0,2 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,2 0-1 0 0,1 0 2 0 0,4 1-1 0 0,-7-1 0 0 0,3 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,6-1 0 0 0,31-5 7 0 0,-32 4-6 0 0,-1 0 0 0 0,11-4 1 0 0,-3 0 0 0 0,-5 3 0 0 0,-5 1 1 0 0,12-4 0 0 0,16-9 4 0 0,58-28 13 0 0,-75 34-13 0 0,14-8 14 0 0,-23 13-19 0 0,3-1 6 0 0,22-12-1 0 0,-4 0-5 0 0,-28 16-2 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,1-1 0 0 0,0-1 0 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink52.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-24T19:10:22.075"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1772 1136 2904 0 0,'1'0'8'0'0,"0"0"3"0"0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,3-1 1 0 0,16-11 198 0 0,-5 4-5 0 0,-7 3-124 0 0,3-1 8 0 0,-5 3-66 0 0,6-5 0 0 0,-3 2-5 0 0,14-11 13 0 0,-15 10 3 0 0,9-6-1 0 0,-2 3 51 0 0,-9 5-30 0 0,11-6 1 0 0,-6 5 95 0 0,1-1 0 0 0,10-9 1 0 0,12-8 467 0 0,-25 20-477 0 0,-7 3-34 0 0,1 0-1 0 0,3-3 1 0 0,-5 4-63 0 0,2-2 64 0 0,-3 1-100 0 0,0 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 1 65 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">105 1195 1496 0 0,'0'-1'8'0'0,"1"-3"16"0"0,0 0 1 0 0,0-8-1 0 0,-1 8-2 0 0,2-9 376 0 0,-1 6-239 0 0,0-3 135 0 0,5-14 0 0 0,-3 8 165 0 0,-1 6-214 0 0,4-26 116 0 0,-2 10-241 0 0,1-1-64 0 0,3-15 6 0 0,2-22 179 0 0,5-23 135 0 0,-11 61-257 0 0,2-19 194 0 0,5-34 75 0 0,-3 25-79 0 0,3-23 144 0 0,-10 64-220 0 0,0-16-1 0 0,-1 18-102 0 0,0 10-90 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-2 0 0 0,1 2 344 0 0,0 1-275 0 0,1 2-24 0 0,0 4-1 0 0,1 2-19 0 0,13 82 437 0 0,-12-78-461 0 0,4 15 33 0 0,9 30 66 0 0,-11-44-113 0 0,13 42 39 0 0,6 20-2 0 0,0-5-37 0 0,-6-18-23 0 0,-11-36-9 0 0,14 31-1 0 0,1 1-31 0 0,-14-29-72 0 0,12 20 1 0 0,-19-39 82 0 0,1 4-108 0 0,5 8-1 0 0,-7-12 114 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 2 0 0 0,0 0-67 0 0,0-2 41 0 0,0 0-248 0 0,-9-4 235 0 0,3 0-11 0 0,-13-4 0 0 0,5 3-87 0 0,7 2 60 0 0,-13-2 0 0 0,12 3 42 0 0,-24-3-314 0 0,-5 2 122 0 0,12 3 88 0 0,15-1 74 0 0,-1 1-1 0 0,-19 3 0 0 0,-56 10-283 0 0,77-11 300 0 0,-16 6-1 0 0,14-4 23 0 0,1 0 10 0 0,-4 1-12 0 0,6-3 22 0 0,2-1-30 0 0,-8 3 0 0 0,12-4 51 0 0,1 0-9 0 0,-1 0 0 0 0,1 0 0 0 0,-3 1 1 0 0,3-1 10 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0-3 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0-5 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 9 0 0,0-1-8 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,1-1-1 0 0,0 1-6 0 0,3-4-39 0 0,1 1-1 0 0,10-7 0 0 0,19-10-99 0 0,-11 6 43 0 0,6-5 9 0 0,-6 3 29 0 0,-6 5 6 0 0,9-6-26 0 0,-26 18 97 0 0,36-19-92 0 0,-31 16 77 0 0,4-1-23 0 0,15-8-1 0 0,24-24-65 0 0,-39 30 72 0 0,19-12-1 0 0,7-2-17 0 0,13-7-3 0 0,-34 19 68 0 0,24-17 0 0 0,-26 14-9 0 0,-1 2 37 0 0,0-1 34 0 0,-7 6-31 0 0,0 0 0 0 0,0 0 0 0 0,8-4 0 0 0,-11 7 51 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,4-1 1 0 0,-1 1 910 0 0,-8 4-581 0 0,1-1-298 0 0,-4 6-3 0 0,0 0-1 0 0,-6 14 0 0 0,-3 3 196 0 0,9-16-181 0 0,0-1 0 0 0,-8 9-1 0 0,6-8-11 0 0,-10 15-1 0 0,-3 11 99 0 0,4-10-94 0 0,-1 3-1 0 0,12-17-72 0 0,0 0 1 0 0,-4 12-1 0 0,-13 25 106 0 0,11-23-55 0 0,10-21-90 0 0,0 0-1 0 0,-3 4 1 0 0,4-6-14 0 0,1-1-3 0 0,0-1-2 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,2-3 0 0 0,-3 2 0 0 0,10-6 0 0 0,-6 4-5 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,3-6 0 0 0,13-30-40 0 0,-16 33 42 0 0,11-23-39 0 0,-7 19 15 0 0,6-21 0 0 0,-8 16 8 0 0,4-12-18 0 0,10-12-96 0 0,-8 17-128 0 0,-9 17 171 0 0,5-12 1 0 0,1-2-144 0 0,6-7-145 0 0,-13 26 344 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,1-2-1 0 0,-2 3 22 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 4 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,3 6-21 0 0,-3-5 13 0 0,1 4-9 0 0,0 1-1 0 0,0-1 0 0 0,0 9 1 0 0,-1-9 4 0 0,-1 0 1 0 0,-1 10-1 0 0,0-5-7 0 0,-3 15-19 0 0,0-2 6 0 0,3-10 14 0 0,-7 23 0 0 0,-5 22-30 0 0,10-30 51 0 0,2-16 3 0 0,-5 25 1 0 0,6-36 3 0 0,1 1 0 0 0,-1 4-1 0 0,0-1 4 0 0,1-3 10 0 0,0-3-13 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-3 16 0 0,2 0-10 0 0,-2 1-4 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,2-3 0 0 0,1-4 3 0 0,-1 0 1 0 0,5-18-1 0 0,-5 16 5 0 0,5-13 0 0 0,-3 8 0 0 0,7-25 0 0 0,-8 21-4 0 0,3-10-4 0 0,3-11 14 0 0,1 0 1 0 0,-11 40-16 0 0,5-23 16 0 0,-3 19-11 0 0,-1 0 0 0 0,5-9 0 0 0,6-8 6 0 0,9-21 12 0 0,-20 41-21 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,4-3 0 0 0,-1 1 4 0 0,9-5 0 0 0,-12 8-5 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 2 0 0 0,0 5 9 0 0,1 14-1 0 0,-2-22-9 0 0,1 38 22 0 0,-1-24-19 0 0,-2 15 19 0 0,0-17-17 0 0,-3 29 6 0 0,1-11-5 0 0,-7 43 22 0 0,9-61-25 0 0,-1 13 12 0 0,0 0-9 0 0,2-18 1 0 0,0 1-1 0 0,0 17 1 0 0,1-24-2 0 0,1 0 0 0 0,-1 1 1 0 0,1 3-1 0 0,0-6-5 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,2-2 30 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,4-2 0 0 0,-6 5-31 0 0,4-4 34 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,3-5-1 0 0,18-39 271 0 0,-16 36-202 0 0,-1-1-1 0 0,10-23 1 0 0,-15 30-77 0 0,9-25 81 0 0,-7 24-53 0 0,7-14-1 0 0,-6 14-3 0 0,6-17-1 0 0,1-10 44 0 0,3-6 15 0 0,-2 4-26 0 0,-10 27-63 0 0,7-28 55 0 0,-6 21-20 0 0,-2 11-12 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-9-1 0 0,-1 12-26 0 0,-2-13 65 0 0,2 14-68 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-2-1 0 0 0,2 3-8 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 10 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,-3 2 0 0 0,4-3-11 0 0,-2 2 6 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-2 2-1 0 0,-13 19 77 0 0,14-20-68 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-2 8 0 0 0,-1-1 10 0 0,-10 26 72 0 0,2-7 23 0 0,-1 1-19 0 0,2 10 51 0 0,1-7 17 0 0,7-22-83 0 0,2 1 0 0 0,-4 24 0 0 0,5-15-2 0 0,0-2-19 0 0,1-17-39 0 0,0 1 1 0 0,1 7 0 0 0,-1-2 9 0 0,1-7-23 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,2 2 1 0 0,-3-4-13 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,2-1 0 0 0,1 0-6 0 0,-1 1 5 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,2-3-1 0 0,0-2-3 0 0,3-7 0 0 0,4-21-20 0 0,-5 17 5 0 0,7-24-20 0 0,-5 12 5 0 0,-5 19 27 0 0,1-8-9 0 0,5-16-12 0 0,-8 34 25 0 0,10-41-136 0 0,-5 14 67 0 0,3-15-41 0 0,-4 19 86 0 0,-1 0-1 0 0,0-26 1 0 0,-3 33 12 0 0,-1 10 8 0 0,0-4-18 0 0,1 10 22 0 0,0 1 4 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 3-15 0 0,-1 4 14 0 0,2-3-1 0 0,-2 8-2 0 0,2 0 0 0 0,0 17 0 0 0,0-10 2 0 0,0-11 1 0 0,2 63-14 0 0,0 11 15 0 0,-2-40 0 0 0,-3 102-12 0 0,1-83 1 0 0,-2 20-49 0 0,3-62 47 0 0,-7 82-58 0 0,1-39 26 0 0,-4-1 1 0 0,-8 23-9 0 0,-3-2-13 0 0,4-27 33 0 0,8-26 25 0 0,-8 22 8 0 0,-14 23 0 0 0,29-69 1 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,-9 8 1 0 0,12-12-1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,-3 1 0 0 0,4-3-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-2-1 0 0 0,1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-2 0 0 0,-1-4 3 0 0,1 5-3 0 0,-1-22-3 0 0,4-11-6 0 0,2-2 4 0 0,-1 15-30 0 0,-1-3-11 0 0,6-28-44 0 0,-6 34 72 0 0,29-120-204 0 0,21-70-37 0 0,-46 180 231 0 0,7-26-22 0 0,7-27-24 0 0,-11 42 38 0 0,1-3 8 0 0,1-12-11 0 0,4-22-15 0 0,-4 19 24 0 0,2-9-11 0 0,-12 58 38 0 0,12-72-27 0 0,-14 74 30 0 0,15-84-17 0 0,-2 2 25 0 0,-12 85-8 0 0,4-23 7 0 0,1 0 3 0 0,-6 22-7 0 0,1 0 0 0 0,-1 0 1 0 0,0-5-1 0 0,0 5 45 0 0,1-4 0 0 0,-1 8-39 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1 228 0 0,1 22 63 0 0,-5 27-122 0 0,-1-1-4 0 0,3 1-75 0 0,0-17-49 0 0,-2 23 27 0 0,2-22-43 0 0,-1 12 11 0 0,4-39-43 0 0,-3 51 47 0 0,0 92 47 0 0,8-91-77 0 0,-2-33-1 0 0,-2-16-12 0 0,0 1-1 0 0,1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,6 14-1 0 0,-8-20-3 0 0,0 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,3 2-1 0 0,-3-3 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,2 0 0 0 0,-2-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,2 0 0 0 0,-2 1-6 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,2-2 1 0 0,8-9-21 0 0,-7 7 14 0 0,0-1-6 0 0,0 1 1 0 0,5-8 0 0 0,4-13-48 0 0,-12 25 62 0 0,3-7-21 0 0,0-1 0 0 0,4-12 0 0 0,10-50-95 0 0,-2-8 15 0 0,-12 58 79 0 0,9-82-95 0 0,-10 80 97 0 0,0-17-17 0 0,-3-37-25 0 0,0 71 59 0 0,-1 1 0 0 0,1-1 0 0 0,-4-11 0 0 0,4 15 4 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0-2 1 0 0,0 2 0 0 0,1 1 1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,-1-1 0 0 0,2 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 4 1 0 0,-3 4 4 0 0,-1 2 4 0 0,2-6 2 0 0,-2 8-1 0 0,-15 48 66 0 0,4 14 67 0 0,11-2-20 0 0,4-60-94 0 0,1 32 55 0 0,0-23-49 0 0,1-11-9 0 0,-1 0 1 0 0,2 1 0 0 0,-1-1-1 0 0,5 14 1 0 0,-2-13 0 0 0,7 12-1 0 0,-9-20-13 0 0,0 0 0 0 0,1 0 0 0 0,5 7 0 0 0,-2-5 11 0 0,7 8 0 0 0,-10-12-17 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,5 1 0 0 0,-3-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 0 0 0,9-1 1 0 0,-8 0 3 0 0,1-1 0 0 0,8-3 0 0 0,-8 2-5 0 0,0-1-1 0 0,13-7 1 0 0,-16 7-3 0 0,2 0 2 0 0,-1 0-1 0 0,1-1 0 0 0,7-8 1 0 0,15-18 1 0 0,-19 19 0 0 0,0 0 0 0 0,14-25 0 0 0,-20 29-5 0 0,-1 1 0 0 0,0-1 0 0 0,3-14 0 0 0,-4 16 0 0 0,0-4 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1-14 0 0 0,-2 9 0 0 0,0-1 0 0 0,-7-27 0 0 0,-12-22 0 0 0,2 8 0 0 0,2 9 0 0 0,-1-8 0 0 0,6 17 0 0 0,-36-126 17 0 0,41 136-12 0 0,0 2-3 0 0,-13-51 7 0 0,18 73-6 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,-5-7 1 0 0,5 9 1 0 0,-5-6 1 0 0,6 10-4 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,-2-2 0 0 0,3 3 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,-1 1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 5-1 0 0,-2 11 7 0 0,4-17-8 0 0,-2 7 4 0 0,2 1 0 0 0,-1 0 0 0 0,2 13 0 0 0,5 26 8 0 0,14 42 16 0 0,5-4-10 0 0,-12-47-8 0 0,31 87 29 0 0,-19-54-26 0 0,0-1-2 0 0,11 18 5 0 0,-26-65-6 0 0,2 0 0 0 0,21 34 1 0 0,-30-53-11 0 0,19 27 0 0 0,-17-27 0 0 0,0 1 0 0 0,0-1 0 0 0,8 7 0 0 0,-6-7-9 0 0,7 4 0 0 0,-12-7 5 0 0,1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,5 1 1 0 0,-6-1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,2-1 1 0 0,-2 0-19 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,6-5 0 0 0,-8 5 10 0 0,2-1-6 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,2-3-1 0 0,-2 2-12 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,3-7 0 0 0,13-75-344 0 0,-16 76 308 0 0,-1-18 0 0 0,-1 11 18 0 0,1-6-39 0 0,-2 0 0 0 0,-1 1-1 0 0,-8-46 1 0 0,3 46 74 0 0,6 19 10 0 0,0 3 3 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1-1 0 0 0,-1 0 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">866 1225 696 0 0,'2'0'0'0'0,"0"0"0"0"0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,13-11 8 0 0,-7 6-8 0 0,10-10 0 0 0,4-3 0 0 0,-4 4 0 0 0,-12 10 0 0 0,0 0 0 0 0,9-5 0 0 0,-10 7 1 0 0,19-10 6 0 0,-17 10 26 0 0,17-6-1 0 0,-15 6 8 0 0,-6 2-25 0 0,-4 2-11 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,3 1 64 0 0,-4-1-61 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,-1 1 1 0 0,-5 10 51 0 0,-13 19 43 0 0,15-24-54 0 0,-12 14 0 0 0,7-11-10 0 0,-14 15 42 0 0,10-13-33 0 0,0 2 19 0 0,-18 16 41 0 0,0-4 0 0 0,28-23-88 0 0,-17 13 56 0 0,18-15-54 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,-5 2 1 0 0,9-3-18 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1-1 25 0 0,2-4-8 0 0,1-1 1 0 0,3-8 0 0 0,-1 5-14 0 0,0 0 18 0 0,9-14-1 0 0,-11 20-17 0 0,0 0-1 0 0,1-1 1 0 0,3-3 0 0 0,0 2 0 0 0,-1 1 5 0 0,10-8 1 0 0,-14 11-11 0 0,9-5 37 0 0,17-16 0 0 0,-18 15-5 0 0,-1 0 0 0 0,1 0 0 0 0,1 1-1 0 0,15-9 1 0 0,-7 6 12 0 0,-7 3 39 0 0,15-6-1 0 0,-11 7-13 0 0,-7 2-11 0 0,14-4 0 0 0,27-5 203 0 0,-42 11-221 0 0,0 0 39 0 0,11-2 0 0 0,-12 3 33 0 0,10 1 1 0 0,31 3 246 0 0,-44-2-316 0 0,-1 0 1 0 0,4 1 0 0 0,0 0 7 0 0,-5-2-32 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,2 3 0 0 0,-4-4-9 0 0,1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 2-1 0 0,-1-2 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 4-1 0 0,0-2 8 0 0,0-1 0 0 0,-1 6 0 0 0,-1 0-1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-9 10 0 0 0,-8 6 5 0 0,-1 2-3 0 0,6-8-18 0 0,-26 25-1 0 0,27-28-1 0 0,-14 12 1 0 0,-6 3-11 0 0,20-15-2 0 0,-23 15 1 0 0,15-14-8 0 0,-13 8-8 0 0,-5 8-31 0 0,34-26 18 0 0,-15 8 0 0 0,9-5 14 0 0,-51 28-152 0 0,-7 1-161 0 0,61-32 255 0 0,-14 11 0 0 0,-1 0-37 0 0,-1-4 29 0 0,11-6 36 0 0,-26 15-93 0 0,36-19 130 0 0,2-1-2 0 0,0 1 0 0 0,-4 2 0 0 0,3-1-12 0 0,0-1 0 0 0,-8 4 1 0 0,5-2-14 0 0,2-1-21 0 0,5-3 49 0 0,1-2-24 0 0,1 0 33 0 0,5-4 0 0 0,-3 2 2 0 0,44-34 18 0 0,-23 16-4 0 0,-3 4 8 0 0,-2 1 20 0 0,9-5 6 0 0,13-5 10 0 0,-19 13-18 0 0,4-5-7 0 0,-2 0 7 0 0,-21 16-31 0 0,45-25 47 0 0,49-13 51 0 0,-74 33-86 0 0,14-5 21 0 0,-32 10-30 0 0,0 1 0 0 0,0 0 1 0 0,11-2-1 0 0,-10 2 2 0 0,10-3 0 0 0,-3 1-3 0 0,1-1 11 0 0,6-1 2 0 0,-15 4-4 0 0,8-3-1 0 0,0 0 8 0 0,44-17 55 0 0,-50 19-64 0 0,8-7 0 0 0,-8 6 0 0 0,1-2 2 0 0,-1 0 0 0 0,11-9 1 0 0,-6 3-2 0 0,22-26 1 0 0,-27 28-13 0 0,-1 2 1 0 0,0 0 1 0 0,6-12 0 0 0,14-32 7 0 0,-16 29-7 0 0,-9 18-1 0 0,6-11-1 0 0,-5 9-1 0 0,-1 4 15 0 0,-1-1 0 0 0,2-6 0 0 0,-2 6 8 0 0,0 0 0 0 0,0-1-1 0 0,0-6 1 0 0,-1 8-15 0 0,0 2-6 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,0 1 9 0 0,0-3 18 0 0,1 4-29 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-2 3 151 0 0,1 0-113 0 0,1 0 0 0 0,-1 4 0 0 0,0-1 9 0 0,-5 18 87 0 0,4-13-82 0 0,-6 21 81 0 0,3-1-44 0 0,1-4-31 0 0,-15 59 82 0 0,1-14-95 0 0,14-48-48 0 0,1-4 0 0 0,1-6-14 0 0,0 2-11 0 0,2-12 8 0 0,0 3 1 0 0,1-3-135 0 0,0-4 149 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-4-11 0 0,-1 3 1 0 0,6-28-96 0 0,-2-2 29 0 0,-1 5 12 0 0,6-47-37 0 0,-8 61 97 0 0,1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,5-11 1 0 0,-2 7 7 0 0,-3 10 1 0 0,0-1 1 0 0,5-9 0 0 0,-2 7 14 0 0,-3 5-10 0 0,0 0 0 0 0,5-6 1 0 0,-3 3 2 0 0,-1 4 7 0 0,-1 0 1 0 0,5-4 0 0 0,-4 4 36 0 0,6-4 0 0 0,0 1 8 0 0,-9 6-57 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,2 0 41 0 0,-1 0 0 0 0,4 1 0 0 0,-5-1-34 0 0,0 0 3 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,0 1 0 0 0,-1 1 22 0 0,1-1 0 0 0,0 1 0 0 0,1 2 1 0 0,-1-2-15 0 0,0 2 23 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 6 0 0 0,0-6-29 0 0,-1 43 203 0 0,0-34-171 0 0,-3 25 65 0 0,0-10-45 0 0,0 19 41 0 0,3-23-57 0 0,1-10-38 0 0,0-9-5 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,3 6 0 0 0,-2-9-7 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,1 2-1 0 0,-1-3-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,3 0 0 0 0,-3-1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,2 0-2 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,4-2 0 0 0,-1 0-9 0 0,-2 2 10 0 0,0-1-1 0 0,1-1 0 0 0,2-3 0 0 0,2-2-5 0 0,-2 3 4 0 0,-1 0 0 0 0,0-1 0 0 0,7-11 0 0 0,-5 4 1 0 0,-3 6 1 0 0,12-25-10 0 0,-7 13 4 0 0,11-24-10 0 0,-18 40 16 0 0,0 0 0 0 0,-1 0 0 0 0,3-6 0 0 0,-2 1 1 0 0,2-8 4 0 0,-3 13-3 0 0,1 0-2 0 0,0-7 0 0 0,-1 8 1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,3-5 0 0 0,-2 5 1 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,2-4-1 0 0,-1-2 3 0 0,0 4 0 0 0,0-4-1 0 0,1-9 7 0 0,1-12 17 0 0,-3 26-21 0 0,0-11 47 0 0,0 14-30 0 0,-1 2-6 0 0,1-2-15 0 0,0 1 4 0 0,0 3 1 0 0,-1-1-7 0 0,-3 35 81 0 0,2-23-24 0 0,0 0-5 0 0,1-10-36 0 0,0-2 2 0 0,0 1 0 0 0,1-1 0 0 0,-1 6 0 0 0,-2 24 80 0 0,1-19-70 0 0,-2 13 19 0 0,0 10 24 0 0,-1 30 65 0 0,4-40-90 0 0,1-10-17 0 0,0-12-12 0 0,0 1 0 0 0,1 7 0 0 0,3 14 27 0 0,-3-23-34 0 0,-1-2-7 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 2 1 0 0,2-1-3 0 0,-4-2 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1-2 0 0 0,4-4 0 0 0,-1 0 0 0 0,1 0 0 0 0,4-10 0 0 0,-5 9 0 0 0,-2 2 0 0 0,6-11 0 0 0,-9 16 0 0 0,13-34 0 0 0,10-36-15 0 0,-23 71 15 0 0,8-26-1 0 0,-7 20 0 0 0,9-31-5 0 0,-8 27 5 0 0,0-15 0 0 0,1-1 2 0 0,-1 15 0 0 0,2-13 4 0 0,0-21 6 0 0,-3 35-6 0 0,-1 6-2 0 0,1 0 0 0 0,0-6-1 0 0,1 2 8 0 0,0-9-1 0 0,-1 6 3 0 0,0-6-3 0 0,-1 3 9 0 0,0-13 38 0 0,0 14-18 0 0,-1 8-17 0 0,0 1 8 0 0,1 4-29 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 2 5 0 0,0 0 0 0 0,0 1 0 0 0,-1 2 0 0 0,1-3-5 0 0,-2 9 4 0 0,0-1 1 0 0,-2 21-1 0 0,1 29 11 0 0,4-46-10 0 0,0 9 1 0 0,-1 1-1 0 0,0 0-9 0 0,-1 37-13 0 0,1-25 8 0 0,0-22 5 0 0,-3 46-34 0 0,2-32 21 0 0,-1 6 5 0 0,-1 27-30 0 0,1-34 20 0 0,2-9 31 0 0,1 2 62 0 0,0-18-59 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,1 3 1 0 0,-1-4 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 2 1 0 0,0-3-4 0 0,2 4 95 0 0,-3-4-98 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 6 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,1-2 0 0 0,-1 0 16 0 0,1 0 0 0 0,1-2 0 0 0,-2 3-26 0 0,-1 0 3 0 0,20-28 141 0 0,-18 24-89 0 0,4-9 0 0 0,-2 3-5 0 0,1-2 39 0 0,4-17 0 0 0,-5 15-39 0 0,6-23 80 0 0,-9 31-106 0 0,1 0 0 0 0,0-11 0 0 0,0 1 5 0 0,0 8-15 0 0,1-4 12 0 0,4-38 73 0 0,-1 2-2 0 0,0 14-4 0 0,-5 29-76 0 0,6-24 82 0 0,-6 27-72 0 0,-1 2 23 0 0,0 1 101 0 0,-6 17-102 0 0,1-6 0 0 0,-2 14-1 0 0,-4 27 68 0 0,7-28-96 0 0,-1 9 10 0 0,4 13 23 0 0,1-31-30 0 0,0-10-8 0 0,0 1 0 0 0,3 10 0 0 0,-1-6 9 0 0,-1-4-13 0 0,0 0 0 0 0,2 5 0 0 0,-1-7-5 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,0-1 1 0 0,4 5-1 0 0,-5-6-2 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,2 1-1 0 0,-2-2-4 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,4-1 0 0 0,-4 1-2 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2-2 0 0 0,4-4 0 0 0,-1 1 0 0 0,8-10 0 0 0,3-6-1 0 0,-15 18 0 0 0,2-3-4 0 0,0-1-1 0 0,6-11 0 0 0,-9 14 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1-10-1 0 0,4-23-16 0 0,-3 17 3 0 0,-3 14 7 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2-10 0 0 0,1 13 3 0 0,0 1 0 0 0,0-1 0 0 0,-3-8 0 0 0,3 10 5 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-3 0 0 0,3 4-1 0 0,1 1 1 0 0,-2-1-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,-4-3 1 0 0,5 4 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,-3 1 0 0 0,-6 3-3 0 0,1 0 0 0 0,-19 9-1 0 0,26-11 6 0 0,-14 7-8 0 0,16-7 6 0 0,0-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 3-1 0 0,-2 3-1 0 0,0-1 0 0 0,1 1 0 0 0,-5 10 0 0 0,8-15 4 0 0,-3 6-7 0 0,1-1 0 0 0,-4 11 0 0 0,6-15 6 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,2 5 1 0 0,-1-5 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,3 3-1 0 0,-4-4 1 0 0,2 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,2 0-1 0 0,1 0 2 0 0,4 1-1 0 0,-7-1 0 0 0,3 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,6-1 0 0 0,31-5 7 0 0,-32 4-6 0 0,-1 0 0 0 0,11-4 1 0 0,-3 0 0 0 0,-5 3 0 0 0,-5 1 1 0 0,12-4 0 0 0,16-9 4 0 0,58-28 13 0 0,-75 34-13 0 0,14-8 14 0 0,-23 13-19 0 0,3-1 6 0 0,22-12-1 0 0,-4 0-5 0 0,-28 16-2 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,1-1 0 0 0,0-1 0 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink53.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-24T19:10:27.276"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">244 1381 96 0 0,'4'0'0'0'0,"-2"0"0"0"0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,3 0 0 0 0,-3 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2-6 0 0 0,-1 1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1-11 0 0 0,-1 12 0 0 0,-1 0 0 0 0,-1 0 0 0 0,-1-10 0 0 0,-11-87 0 0 0,3-141 0 0 0,10 174 252 0 0,1 12 195 0 0,4-111 294 0 0,-4 144-540 0 0,1-15 211 0 0,1-22 74 0 0,1-21 22 0 0,-1 30 230 0 0,-3 20 21 0 0,0 32-384 0 0,0 2 306 0 0,3 2-72 0 0,-3-2-580 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,0 4 51 0 0,6 14 87 0 0,-1 0 0 0 0,4 27 0 0 0,3 43 526 0 0,-12-80-609 0 0,11 62 221 0 0,-5-40-178 0 0,-1 3 284 0 0,21 61 0 0 0,-21-82-287 0 0,14 25 0 0 0,-3-7 63 0 0,-7-11-38 0 0,21 41 221 0 0,-24-50-285 0 0,0 0 0 0 0,1 0 0 0 0,10 10 0 0 0,-15-17-24 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,9 6-1 0 0,-6-6-15 0 0,8 6 82 0 0,-12-9-109 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,3 0 0 0 0,-3-1-5 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-7 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-3 0 0 0,2-2 8 0 0,3-8 24 0 0,0-1 0 0 0,5-23 0 0 0,4-33 36 0 0,-5 20-29 0 0,18-111 37 0 0,-12 66-37 0 0,2-25-44 0 0,-8 41-6 0 0,-4 38-10 0 0,1-61 0 0 0,-7 71 6 0 0,1-49-16 0 0,-1 75 15 0 0,0 1 1 0 0,-1-11-1 0 0,0-3-24 0 0,1 18 16 0 0,1 2 2 0 0,2 5-1 0 0,-1-1 11 0 0,6 12-16 0 0,12 34 1 0 0,16 90-67 0 0,-10 0 20 0 0,-17-65 17 0 0,2 9 5 0 0,1 10 3 0 0,-3-26-5 0 0,-2-22 0 0 0,0-11 16 0 0,18 89-59 0 0,-3-50 25 0 0,-8-28 15 0 0,13 34-27 0 0,-19-61 32 0 0,21 36-1 0 0,-21-42 25 0 0,0-1 2 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1063 633 3616 0 0,'0'0'321'0'0,"-2"2"-263"0"0,0 0-52 0 0,-7 6 74 0 0,-12 14 0 0 0,13-12 8 0 0,-13 11 0 0 0,-2 4 50 0 0,12-11-73 0 0,7-9-30 0 0,-5 7 1 0 0,5-8-11 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-4 10 0 0 0,7-14-17 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,0 3 34 0 0,-1-4 3 0 0,1-1-19 0 0,3-1 13 0 0,0 0-32 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,3-2 1 0 0,3-2 3 0 0,-2 0 0 0 0,8-8 1 0 0,-7 7 9 0 0,8-9 36 0 0,23-28 1 0 0,-33 37-43 0 0,-1-1 0 0 0,0 1 1 0 0,5-10-1 0 0,-5 7-4 0 0,0 2 7 0 0,-3 6-15 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,0-1 9 0 0,0 0-1 0 0,0 1 1 0 0,2-4 0 0 0,-1 3 9 0 0,-2 3-19 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 2 8 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-2 5 1 0 0,0 0-3 0 0,-17 35 46 0 0,13-31-24 0 0,6-9-28 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 2 0 0 0,-1 19 76 0 0,2-21-49 0 0,1-2 45 0 0,2 0-38 0 0,-2 0-34 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,1 0 0 0 0,7-8 12 0 0,0 1 0 0 0,-1-2-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,10-18 0 0 0,-14 22-12 0 0,0 0 6 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,9-8 0 0 0,-8 9-2 0 0,-1 3 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,6-4 0 0 0,-6 4 8 0 0,-2 1-12 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-2 1-2 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 2 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,0 3 0 0 0,-2 8 1 0 0,-9 37 13 0 0,8-31-7 0 0,2-13-6 0 0,1 0 1 0 0,-1 1-1 0 0,-2 5 1 0 0,2-6 8 0 0,-3 7 0 0 0,4-8 0 0 0,0 0 0 0 0,-1-1 0 0 0,-2 6 0 0 0,4-6 36 0 0,0-3-47 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 26 0 0,3-1 45 0 0,-2 1-70 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-2 11 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,1-3 1 0 0,3-8 42 0 0,8-32 39 0 0,-8 22-26 0 0,10-24-1 0 0,-14 45-63 0 0,22-51 122 0 0,-19 45-102 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,10-10-1 0 0,-6 6 7 0 0,-7 8-18 0 0,1 0 0 0 0,4-5 0 0 0,-6 6-5 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0-3 0 0 0,4-6 49 0 0,-5 9-43 0 0,0 1 1 0 0,-2 1 55 0 0,1 1-69 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 2-1 0 0,0 2 1 0 0,-3 8-1 0 0,1-4 0 0 0,-3 13 0 0 0,3-13 0 0 0,3-7 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 4 0 0 0,0 14-7 0 0,0-8 3 0 0,0 13 0 0 0,1-18 2 0 0,-1 4 4 0 0,0 2-26 0 0,1-1-122 0 0,-1-8 12 0 0,1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,2 7-1 0 0,-2-11 81 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 1 0 0 0,-2-2 47 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,8-6 3 0 0,-1-1 0 0 0,12-17 0 0 0,13-22 3 0 0,-31 45 2 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,3-3 0 0 0,6-4 8 0 0,3-3 118 0 0,-14 11-88 0 0,0 4 33 0 0,-1 6-65 0 0,-1 1-1 0 0,-4 17 0 0 0,4-24-9 0 0,2-3-3 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-2-5 0 0,5-3-378 0 0,0-3 318 0 0,0 0-1 0 0,-1 0 1 0 0,7-10-1 0 0,-6 8 24 0 0,-2 4-13 0 0,0-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,2-6 1 0 0,-4 9 50 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 0 2 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0-3 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,-1 1 1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-5 5 0 0 0,-2 4-18 0 0,6-8 14 0 0,1 1-1 0 0,-5 8 1 0 0,7-12 6 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,2 2-1 0 0,-2-3 2 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,1 0 0 0 0,2-1-3 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,6-7 0 0 0,-5 6 0 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,4-6 1 0 0,-7 9 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,-1-4 0 0 0,1 5 1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-3 1-1 0 0,-4 3 1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">1137 857 2808 0 0,'0'0'40'0'0,"1"-1"-16"0"0,0 1-10 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,2 0 1 0 0,-1 0 90 0 0,0-1-60 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,2 1 0 0 0,-1-1 64 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,1 3 0 0 0,7 19 89 0 0,-6-14-47 0 0,0 0-132 0 0,-1 1 0 0 0,2 18 0 0 0,-3-20-6 0 0,2 29 26 0 0,-3-34 17 0 0,0 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 7 0 0 0,0-4 34 0 0,0 0 1 0 0,1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,4 10 0 0 0,1 10 846 0 0,-1-12-625 0 0,-4-11-195 0 0,0-1 0 0 0,0 1 0 0 0,1 4 0 0 0,-2-6 19 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">1005 1172 6328 0 0,'0'0'1200'0'0,"0"-2"-1074"0"0,1 1-98 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,11-5 313 0 0,-10 5-290 0 0,23-13 306 0 0,-2 0-146 0 0,32-13 325 0 0,-45 22-451 0 0,0 1-1 0 0,13-3 1 0 0,-8 2-20 0 0,1 0 21 0 0,-9 4-14 0 0,11-6 0 0 0,-13 6-38 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4">41 1424 7528 0 0,'-2'2'8'0'0,"0"0"26"0"0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-4 1 0 0 0,6-1-25 0 0,-1-1 11 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1-1-4 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-2 0 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-1 404 0 0,2 1-412 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,3-2 30 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,3-3-1 0 0,-2 1 4 0 0,26-19 96 0 0,38-25 0 0 0,14 0-32 0 0,17-10-31 0 0,178-92 54 0 0,-251 138-120 0 0,123-59 39 0 0,-106 50-36 0 0,167-79 39 0 0,-148 75-34 0 0,49-21 3 0 0,-28 8 0 0 0,36-17 10 0 0,4 6-18 0 0,107-27 3 0 0,-95 25-5 0 0,-104 37-6 0 0,56-23 4 0 0,-26 15-4 0 0,12-4-1 0 0,59-15 12 0 0,-109 33 2 0 0,-24 8-15 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-2 1 1 0 0,-4 0 0 0 0,-62 16 100 0 0,-2 6 60 0 0,54-18-136 0 0,-28 8 33 0 0,-13 5 29 0 0,-25 16 263 0 0,22-9-123 0 0,-56 20 28 0 0,34-13-7 0 0,-75 33 312 0 0,120-47-473 0 0,-52 25 104 0 0,2 6 58 0 0,80-44-220 0 0,-46 26 148 0 0,38-25-119 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5">1431 1068 1896 0 0,'0'0'0'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6">1295 1049 992 0 0,'0'0'2352'0'0,"-1"1"-2215"0"0,-6 10 374 0 0,6-9-388 0 0,1-2-96 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 3 54 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 2 0 0 0,-1-3-26 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,2 0 1 0 0,1 1 36 0 0,-4-2-70 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,5 0 309 0 0,-5 0-239 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,1-2 0 0 0,-2 1 5 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,2-3 1 0 0,-1 2-13 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,5-2 0 0 0,-7 4-47 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-2 1 0 0,7-9 197 0 0,-4 4-21 0 0,-3 6-133 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0-5 0 0 0,0 3 80 0 0,0 0 0 0 0,-1-6 0 0 0,0 11-127 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0-18 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 1-4 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,2 5 82 0 0,7 18 139 0 0,-6-19-185 0 0,-2-4-33 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 2 0 0 0,2 8 92 0 0,1-4 37 0 0,-4-7-130 0 0,0 0-9 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,1 1 32 0 0,-1-1-12 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,2 1 0 0 0,-2-1-19 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,8-6 49 0 0,-8 6-44 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,2-2-1 0 0,1-3 25 0 0,-3 5-30 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,2-1 0 0 0,-1 1 2 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,2-2 0 0 0,3-7 23 0 0,5-8 24 0 0,-9 16-37 0 0,-2 2-14 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-2 1 0 0,0 2-3 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-2 1 1 0 0,1 0-3 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2 4 0 0 0,-2 0 0 0 0,4-3 0 0 0,0 0 0 0 0,0 0 0 0 0,-2 3 0 0 0,-3 3 0 0 0,6-7 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 4 0 0 0,0-6 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,27-9-8 0 0,-26 8 6 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,4-4 0 0 0,0-1-15 0 0,-5 5-11 0 0,1-1-1 0 0,4-5 1 0 0,-6 7 21 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,-2-1-28 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-3-1 0 0,2 4 21 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 2 0 0,0-1-29 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-1-1 0 0,5 2 35 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,6 7-20 0 0,-6-6 13 0 0,2 1 4 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,5 2-1 0 0,1 0-9 0 0,-6-2 10 0 0,9 3 0 0 0,-2-1-1 0 0,-4 0 2 0 0,-2-2-5 0 0,-3-1 8 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 4 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7">1668 930 7832 0 0,'0'0'1384'0'0,"1"1"-1334"0"0,1 1-38 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 3-1 0 0,-2-3 7 0 0,1-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,1 1-1 0 0,-1 0 13 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,0 1-1 0 0,0-1-1 0 0,-1-1-20 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 2 0 0 0,0-2-7 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-2-5-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-5-7 0 0 0,8 10 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,2-3 0 0 0,0-2 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,7-8 0 0 0,-3 4 0 0 0,-6 7 0 0 0,28-40 8 0 0,-26 37 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8">1747 704 7432 0 0,'0'0'193'0'0,"0"2"6"0"0,1 3 38 0 0,1 9 1 0 0,1 7-24 0 0,-2-12-81 0 0,0 1-1 0 0,5 15 0 0 0,5 22 294 0 0,-6-25-160 0 0,-4-20-239 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 5 1 0 0,0 7 89 0 0,3-8-51 0 0,-3-6-58 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1-1 63 0 0,-1 0-21 0 0,-1 3 6 0 0,1-3-55 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-4-2 41 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-9-1 0 0 0,9 2 40 0 0,1 1-10 0 0,0-1 1 0 0,1 1 0 0 0,-4 0 0 0 0,5 0-41 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 2 0 0 0,2-2 272 0 0,2 0-207 0 0,3 0-61 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,8-3 0 0 0,3 0-5 0 0,15-1 47 0 0,11-4 34 0 0,-24 6-61 0 0,1-1 30 0 0,-3-1-39 0 0,-12 4-29 0 0,-2 1-10 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1-2 0 0 0,1 2-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,2-6 77 0 0,-2 6-75 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,0-1 82 0 0,1 2-76 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-3 0 35 0 0,0 0 0 0 0,-5 2 0 0 0,3-1-20 0 0,1-1 16 0 0,0 1 0 0 0,-8 5-1 0 0,10-6-26 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1 2 0 0 0,2-4-8 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 2-1 0 0,-1-1 2 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,1 0 1 0 0,0 1 3 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,3 0 1 0 0,1 0 8 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,6-2-1 0 0,-8 1 3 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,7-5 0 0 0,-1 1 14 0 0,3-2 23 0 0,-9 5-43 0 0,1 0 0 0 0,4-2 1 0 0,-3 3-2 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink54.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-24T19:10:37.156"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1772 1136 2904 0 0,'1'0'8'0'0,"0"0"3"0"0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,3-1 1 0 0,16-11 198 0 0,-5 4-5 0 0,-7 3-124 0 0,3-1 8 0 0,-5 3-66 0 0,6-5 0 0 0,-3 2-5 0 0,14-11 13 0 0,-15 10 3 0 0,9-6-1 0 0,-2 3 51 0 0,-9 5-30 0 0,11-6 1 0 0,-6 5 95 0 0,1-1 0 0 0,10-9 1 0 0,12-8 467 0 0,-25 20-477 0 0,-7 3-34 0 0,1 0-1 0 0,3-3 1 0 0,-5 4-63 0 0,2-2 64 0 0,-3 1-100 0 0,0 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 1 65 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">105 1195 1496 0 0,'0'-1'8'0'0,"1"-3"16"0"0,0 0 1 0 0,0-8-1 0 0,-1 8-2 0 0,2-9 376 0 0,-1 6-239 0 0,0-3 135 0 0,5-14 0 0 0,-3 8 165 0 0,-1 6-214 0 0,4-26 116 0 0,-2 10-241 0 0,1-1-64 0 0,3-15 6 0 0,2-22 179 0 0,5-23 135 0 0,-11 61-257 0 0,2-19 194 0 0,5-34 75 0 0,-3 25-79 0 0,3-23 144 0 0,-10 64-220 0 0,0-16-1 0 0,-1 18-102 0 0,0 10-90 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-2 0 0 0,1 2 344 0 0,0 1-275 0 0,1 2-24 0 0,0 4-1 0 0,1 2-19 0 0,13 82 437 0 0,-12-78-461 0 0,4 15 33 0 0,9 30 66 0 0,-11-44-113 0 0,13 42 39 0 0,6 20-2 0 0,0-5-37 0 0,-6-18-23 0 0,-11-36-9 0 0,14 31-1 0 0,1 1-31 0 0,-14-29-72 0 0,12 20 1 0 0,-19-39 82 0 0,1 4-108 0 0,5 8-1 0 0,-7-12 114 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 2 0 0 0,0 0-67 0 0,0-2 41 0 0,0 0-248 0 0,-9-4 235 0 0,3 0-11 0 0,-13-4 0 0 0,5 3-87 0 0,7 2 60 0 0,-13-2 0 0 0,12 3 42 0 0,-24-3-314 0 0,-5 2 122 0 0,12 3 88 0 0,15-1 74 0 0,-1 1-1 0 0,-19 3 0 0 0,-56 10-283 0 0,77-11 300 0 0,-16 6-1 0 0,14-4 23 0 0,1 0 10 0 0,-4 1-12 0 0,6-3 22 0 0,2-1-30 0 0,-8 3 0 0 0,12-4 51 0 0,1 0-9 0 0,-1 0 0 0 0,1 0 0 0 0,-3 1 1 0 0,3-1 10 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0-3 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0-5 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 9 0 0,0-1-8 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,1-1-1 0 0,0 1-6 0 0,3-4-39 0 0,1 1-1 0 0,10-7 0 0 0,19-10-99 0 0,-11 6 43 0 0,6-5 9 0 0,-6 3 29 0 0,-6 5 6 0 0,9-6-26 0 0,-26 18 97 0 0,36-19-92 0 0,-31 16 77 0 0,4-1-23 0 0,15-8-1 0 0,24-24-65 0 0,-39 30 72 0 0,19-12-1 0 0,7-2-17 0 0,13-7-3 0 0,-34 19 68 0 0,24-17 0 0 0,-26 14-9 0 0,-1 2 37 0 0,0-1 34 0 0,-7 6-31 0 0,0 0 0 0 0,0 0 0 0 0,8-4 0 0 0,-11 7 51 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,4-1 1 0 0,-1 1 910 0 0,-8 4-581 0 0,1-1-298 0 0,-4 6-3 0 0,0 0-1 0 0,-6 14 0 0 0,-3 3 196 0 0,9-16-181 0 0,0-1 0 0 0,-8 9-1 0 0,6-8-11 0 0,-10 15-1 0 0,-3 11 99 0 0,4-10-94 0 0,-1 3-1 0 0,12-17-72 0 0,0 0 1 0 0,-4 12-1 0 0,-13 25 106 0 0,11-23-55 0 0,10-21-90 0 0,0 0-1 0 0,-3 4 1 0 0,4-6-14 0 0,1-1-3 0 0,0-1-2 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,2-3 0 0 0,-3 2 0 0 0,10-6 0 0 0,-6 4-5 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,3-6 0 0 0,13-30-40 0 0,-16 33 42 0 0,11-23-39 0 0,-7 19 15 0 0,6-21 0 0 0,-8 16 8 0 0,4-12-18 0 0,10-12-96 0 0,-8 17-128 0 0,-9 17 171 0 0,5-12 1 0 0,1-2-144 0 0,6-7-145 0 0,-13 26 344 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,1-2-1 0 0,-2 3 22 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 4 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,3 6-21 0 0,-3-5 13 0 0,1 4-9 0 0,0 1-1 0 0,0-1 0 0 0,0 9 1 0 0,-1-9 4 0 0,-1 0 1 0 0,-1 10-1 0 0,0-5-7 0 0,-3 15-19 0 0,0-2 6 0 0,3-10 14 0 0,-7 23 0 0 0,-5 22-30 0 0,10-30 51 0 0,2-16 3 0 0,-5 25 1 0 0,6-36 3 0 0,1 1 0 0 0,-1 4-1 0 0,0-1 4 0 0,1-3 10 0 0,0-3-13 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-3 16 0 0,2 0-10 0 0,-2 1-4 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,2-3 0 0 0,1-4 3 0 0,-1 0 1 0 0,5-18-1 0 0,-5 16 5 0 0,5-13 0 0 0,-3 8 0 0 0,7-25 0 0 0,-8 21-4 0 0,3-10-4 0 0,3-11 14 0 0,1 0 1 0 0,-11 40-16 0 0,5-23 16 0 0,-3 19-11 0 0,-1 0 0 0 0,5-9 0 0 0,6-8 6 0 0,9-21 12 0 0,-20 41-21 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,4-3 0 0 0,-1 1 4 0 0,9-5 0 0 0,-12 8-5 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 2 0 0 0,0 5 9 0 0,1 14-1 0 0,-2-22-9 0 0,1 38 22 0 0,-1-24-19 0 0,-2 15 19 0 0,0-17-17 0 0,-3 29 6 0 0,1-11-5 0 0,-7 43 22 0 0,9-61-25 0 0,-1 13 12 0 0,0 0-9 0 0,2-18 1 0 0,0 1-1 0 0,0 17 1 0 0,1-24-2 0 0,1 0 0 0 0,-1 1 1 0 0,1 3-1 0 0,0-6-5 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,2-2 30 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,4-2 0 0 0,-6 5-31 0 0,4-4 34 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,3-5-1 0 0,18-39 271 0 0,-16 36-202 0 0,-1-1-1 0 0,10-23 1 0 0,-15 30-77 0 0,9-25 81 0 0,-7 24-53 0 0,7-14-1 0 0,-6 14-3 0 0,6-17-1 0 0,1-10 44 0 0,3-6 15 0 0,-2 4-26 0 0,-10 27-63 0 0,7-28 55 0 0,-6 21-20 0 0,-2 11-12 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-9-1 0 0,-1 12-26 0 0,-2-13 65 0 0,2 14-68 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-2-1 0 0 0,2 3-8 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 10 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,-3 2 0 0 0,4-3-11 0 0,-2 2 6 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-2 2-1 0 0,-13 19 77 0 0,14-20-68 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-2 8 0 0 0,-1-1 10 0 0,-10 26 72 0 0,2-7 23 0 0,-1 1-19 0 0,2 10 51 0 0,1-7 17 0 0,7-22-83 0 0,2 1 0 0 0,-4 24 0 0 0,5-15-2 0 0,0-2-19 0 0,1-17-39 0 0,0 1 1 0 0,1 7 0 0 0,-1-2 9 0 0,1-7-23 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,2 2 1 0 0,-3-4-13 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,2-1 0 0 0,1 0-6 0 0,-1 1 5 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,2-3-1 0 0,0-2-3 0 0,3-7 0 0 0,4-21-20 0 0,-5 17 5 0 0,7-24-20 0 0,-5 12 5 0 0,-5 19 27 0 0,1-8-9 0 0,5-16-12 0 0,-8 34 25 0 0,10-41-136 0 0,-5 14 67 0 0,3-15-41 0 0,-4 19 86 0 0,-1 0-1 0 0,0-26 1 0 0,-3 33 12 0 0,-1 10 8 0 0,0-4-18 0 0,1 10 22 0 0,0 1 4 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 3-15 0 0,-1 4 14 0 0,2-3-1 0 0,-2 8-2 0 0,2 0 0 0 0,0 17 0 0 0,0-10 2 0 0,0-11 1 0 0,2 63-14 0 0,0 11 15 0 0,-2-40 0 0 0,-3 102-12 0 0,1-83 1 0 0,-2 20-49 0 0,3-62 47 0 0,-7 82-58 0 0,1-39 26 0 0,-4-1 1 0 0,-8 23-9 0 0,-3-2-13 0 0,4-27 33 0 0,8-26 25 0 0,-8 22 8 0 0,-14 23 0 0 0,29-69 1 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,-9 8 1 0 0,12-12-1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,-3 1 0 0 0,4-3-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-2-1 0 0 0,1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-2 0 0 0,-1-4 3 0 0,1 5-3 0 0,-1-22-3 0 0,4-11-6 0 0,2-2 4 0 0,-1 15-30 0 0,-1-3-11 0 0,6-28-44 0 0,-6 34 72 0 0,29-120-204 0 0,21-70-37 0 0,-46 180 231 0 0,7-26-22 0 0,7-27-24 0 0,-11 42 38 0 0,1-3 8 0 0,1-12-11 0 0,4-22-15 0 0,-4 19 24 0 0,2-9-11 0 0,-12 58 38 0 0,12-72-27 0 0,-14 74 30 0 0,15-84-17 0 0,-2 2 25 0 0,-12 85-8 0 0,4-23 7 0 0,1 0 3 0 0,-6 22-7 0 0,1 0 0 0 0,-1 0 1 0 0,0-5-1 0 0,0 5 45 0 0,1-4 0 0 0,-1 8-39 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1 228 0 0,1 22 63 0 0,-5 27-122 0 0,-1-1-4 0 0,3 1-75 0 0,0-17-49 0 0,-2 23 27 0 0,2-22-43 0 0,-1 12 11 0 0,4-39-43 0 0,-3 51 47 0 0,0 92 47 0 0,8-91-77 0 0,-2-33-1 0 0,-2-16-12 0 0,0 1-1 0 0,1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,6 14-1 0 0,-8-20-3 0 0,0 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,3 2-1 0 0,-3-3 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,2 0 0 0 0,-2-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,2 0 0 0 0,-2 1-6 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,2-2 1 0 0,8-9-21 0 0,-7 7 14 0 0,0-1-6 0 0,0 1 1 0 0,5-8 0 0 0,4-13-48 0 0,-12 25 62 0 0,3-7-21 0 0,0-1 0 0 0,4-12 0 0 0,10-50-95 0 0,-2-8 15 0 0,-12 58 79 0 0,9-82-95 0 0,-10 80 97 0 0,0-17-17 0 0,-3-37-25 0 0,0 71 59 0 0,-1 1 0 0 0,1-1 0 0 0,-4-11 0 0 0,4 15 4 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0-2 1 0 0,0 2 0 0 0,1 1 1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,-1-1 0 0 0,2 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 4 1 0 0,-3 4 4 0 0,-1 2 4 0 0,2-6 2 0 0,-2 8-1 0 0,-15 48 66 0 0,4 14 67 0 0,11-2-20 0 0,4-60-94 0 0,1 32 55 0 0,0-23-49 0 0,1-11-9 0 0,-1 0 1 0 0,2 1 0 0 0,-1-1-1 0 0,5 14 1 0 0,-2-13 0 0 0,7 12-1 0 0,-9-20-13 0 0,0 0 0 0 0,1 0 0 0 0,5 7 0 0 0,-2-5 11 0 0,7 8 0 0 0,-10-12-17 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,5 1 0 0 0,-3-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 0 0 0,9-1 1 0 0,-8 0 3 0 0,1-1 0 0 0,8-3 0 0 0,-8 2-5 0 0,0-1-1 0 0,13-7 1 0 0,-16 7-3 0 0,2 0 2 0 0,-1 0-1 0 0,1-1 0 0 0,7-8 1 0 0,15-18 1 0 0,-19 19 0 0 0,0 0 0 0 0,14-25 0 0 0,-20 29-5 0 0,-1 1 0 0 0,0-1 0 0 0,3-14 0 0 0,-4 16 0 0 0,0-4 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1-14 0 0 0,-2 9 0 0 0,0-1 0 0 0,-7-27 0 0 0,-12-22 0 0 0,2 8 0 0 0,2 9 0 0 0,-1-8 0 0 0,6 17 0 0 0,-36-126 17 0 0,41 136-12 0 0,0 2-3 0 0,-13-51 7 0 0,18 73-6 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,-5-7 1 0 0,5 9 1 0 0,-5-6 1 0 0,6 10-4 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,-2-2 0 0 0,3 3 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,-1 1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 5-1 0 0,-2 11 7 0 0,4-17-8 0 0,-2 7 4 0 0,2 1 0 0 0,-1 0 0 0 0,2 13 0 0 0,5 26 8 0 0,14 42 16 0 0,5-4-10 0 0,-12-47-8 0 0,31 87 29 0 0,-19-54-26 0 0,0-1-2 0 0,11 18 5 0 0,-26-65-6 0 0,2 0 0 0 0,21 34 1 0 0,-30-53-11 0 0,19 27 0 0 0,-17-27 0 0 0,0 1 0 0 0,0-1 0 0 0,8 7 0 0 0,-6-7-9 0 0,7 4 0 0 0,-12-7 5 0 0,1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,5 1 1 0 0,-6-1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,2-1 1 0 0,-2 0-19 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,6-5 0 0 0,-8 5 10 0 0,2-1-6 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,2-3-1 0 0,-2 2-12 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,3-7 0 0 0,13-75-344 0 0,-16 76 308 0 0,-1-18 0 0 0,-1 11 18 0 0,1-6-39 0 0,-2 0 0 0 0,-1 1-1 0 0,-8-46 1 0 0,3 46 74 0 0,6 19 10 0 0,0 3 3 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1-1 0 0 0,-1 0 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">866 1225 696 0 0,'2'0'0'0'0,"0"0"0"0"0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,13-11 8 0 0,-7 6-8 0 0,10-10 0 0 0,4-3 0 0 0,-4 4 0 0 0,-12 10 0 0 0,0 0 0 0 0,9-5 0 0 0,-10 7 1 0 0,19-10 6 0 0,-17 10 26 0 0,17-6-1 0 0,-15 6 8 0 0,-6 2-25 0 0,-4 2-11 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,3 1 64 0 0,-4-1-61 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,-1 1 1 0 0,-5 10 51 0 0,-13 19 43 0 0,15-24-54 0 0,-12 14 0 0 0,7-11-10 0 0,-14 15 42 0 0,10-13-33 0 0,0 2 19 0 0,-18 16 41 0 0,0-4 0 0 0,28-23-88 0 0,-17 13 56 0 0,18-15-54 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,-5 2 1 0 0,9-3-18 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1-1 25 0 0,2-4-8 0 0,1-1 1 0 0,3-8 0 0 0,-1 5-14 0 0,0 0 18 0 0,9-14-1 0 0,-11 20-17 0 0,0 0-1 0 0,1-1 1 0 0,3-3 0 0 0,0 2 0 0 0,-1 1 5 0 0,10-8 1 0 0,-14 11-11 0 0,9-5 37 0 0,17-16 0 0 0,-18 15-5 0 0,-1 0 0 0 0,1 0 0 0 0,1 1-1 0 0,15-9 1 0 0,-7 6 12 0 0,-7 3 39 0 0,15-6-1 0 0,-11 7-13 0 0,-7 2-11 0 0,14-4 0 0 0,27-5 203 0 0,-42 11-221 0 0,0 0 39 0 0,11-2 0 0 0,-12 3 33 0 0,10 1 1 0 0,31 3 246 0 0,-44-2-316 0 0,-1 0 1 0 0,4 1 0 0 0,0 0 7 0 0,-5-2-32 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,2 3 0 0 0,-4-4-9 0 0,1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 2-1 0 0,-1-2 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 4-1 0 0,0-2 8 0 0,0-1 0 0 0,-1 6 0 0 0,-1 0-1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-9 10 0 0 0,-8 6 5 0 0,-1 2-3 0 0,6-8-18 0 0,-26 25-1 0 0,27-28-1 0 0,-14 12 1 0 0,-6 3-11 0 0,20-15-2 0 0,-23 15 1 0 0,15-14-8 0 0,-13 8-8 0 0,-5 8-31 0 0,34-26 18 0 0,-15 8 0 0 0,9-5 14 0 0,-51 28-152 0 0,-7 1-161 0 0,61-32 255 0 0,-14 11 0 0 0,-1 0-37 0 0,-1-4 29 0 0,11-6 36 0 0,-26 15-93 0 0,36-19 130 0 0,2-1-2 0 0,0 1 0 0 0,-4 2 0 0 0,3-1-12 0 0,0-1 0 0 0,-8 4 1 0 0,5-2-14 0 0,2-1-21 0 0,5-3 49 0 0,1-2-24 0 0,1 0 33 0 0,5-4 0 0 0,-3 2 2 0 0,44-34 18 0 0,-23 16-4 0 0,-3 4 8 0 0,-2 1 20 0 0,9-5 6 0 0,13-5 10 0 0,-19 13-18 0 0,4-5-7 0 0,-2 0 7 0 0,-21 16-31 0 0,45-25 47 0 0,49-13 51 0 0,-74 33-86 0 0,14-5 21 0 0,-32 10-30 0 0,0 1 0 0 0,0 0 1 0 0,11-2-1 0 0,-10 2 2 0 0,10-3 0 0 0,-3 1-3 0 0,1-1 11 0 0,6-1 2 0 0,-15 4-4 0 0,8-3-1 0 0,0 0 8 0 0,44-17 55 0 0,-50 19-64 0 0,8-7 0 0 0,-8 6 0 0 0,1-2 2 0 0,-1 0 0 0 0,11-9 1 0 0,-6 3-2 0 0,22-26 1 0 0,-27 28-13 0 0,-1 2 1 0 0,0 0 1 0 0,6-12 0 0 0,14-32 7 0 0,-16 29-7 0 0,-9 18-1 0 0,6-11-1 0 0,-5 9-1 0 0,-1 4 15 0 0,-1-1 0 0 0,2-6 0 0 0,-2 6 8 0 0,0 0 0 0 0,0-1-1 0 0,0-6 1 0 0,-1 8-15 0 0,0 2-6 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,0 1 9 0 0,0-3 18 0 0,1 4-29 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-2 3 151 0 0,1 0-113 0 0,1 0 0 0 0,-1 4 0 0 0,0-1 9 0 0,-5 18 87 0 0,4-13-82 0 0,-6 21 81 0 0,3-1-44 0 0,1-4-31 0 0,-15 59 82 0 0,1-14-95 0 0,14-48-48 0 0,1-4 0 0 0,1-6-14 0 0,0 2-11 0 0,2-12 8 0 0,0 3 1 0 0,1-3-135 0 0,0-4 149 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-4-11 0 0,-1 3 1 0 0,6-28-96 0 0,-2-2 29 0 0,-1 5 12 0 0,6-47-37 0 0,-8 61 97 0 0,1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,5-11 1 0 0,-2 7 7 0 0,-3 10 1 0 0,0-1 1 0 0,5-9 0 0 0,-2 7 14 0 0,-3 5-10 0 0,0 0 0 0 0,5-6 1 0 0,-3 3 2 0 0,-1 4 7 0 0,-1 0 1 0 0,5-4 0 0 0,-4 4 36 0 0,6-4 0 0 0,0 1 8 0 0,-9 6-57 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,2 0 41 0 0,-1 0 0 0 0,4 1 0 0 0,-5-1-34 0 0,0 0 3 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,0 1 0 0 0,-1 1 22 0 0,1-1 0 0 0,0 1 0 0 0,1 2 1 0 0,-1-2-15 0 0,0 2 23 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 6 0 0 0,0-6-29 0 0,-1 43 203 0 0,0-34-171 0 0,-3 25 65 0 0,0-10-45 0 0,0 19 41 0 0,3-23-57 0 0,1-10-38 0 0,0-9-5 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,3 6 0 0 0,-2-9-7 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,1 2-1 0 0,-1-3-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,3 0 0 0 0,-3-1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,2 0-2 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,4-2 0 0 0,-1 0-9 0 0,-2 2 10 0 0,0-1-1 0 0,1-1 0 0 0,2-3 0 0 0,2-2-5 0 0,-2 3 4 0 0,-1 0 0 0 0,0-1 0 0 0,7-11 0 0 0,-5 4 1 0 0,-3 6 1 0 0,12-25-10 0 0,-7 13 4 0 0,11-24-10 0 0,-18 40 16 0 0,0 0 0 0 0,-1 0 0 0 0,3-6 0 0 0,-2 1 1 0 0,2-8 4 0 0,-3 13-3 0 0,1 0-2 0 0,0-7 0 0 0,-1 8 1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,3-5 0 0 0,-2 5 1 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,2-4-1 0 0,-1-2 3 0 0,0 4 0 0 0,0-4-1 0 0,1-9 7 0 0,1-12 17 0 0,-3 26-21 0 0,0-11 47 0 0,0 14-30 0 0,-1 2-6 0 0,1-2-15 0 0,0 1 4 0 0,0 3 1 0 0,-1-1-7 0 0,-3 35 81 0 0,2-23-24 0 0,0 0-5 0 0,1-10-36 0 0,0-2 2 0 0,0 1 0 0 0,1-1 0 0 0,-1 6 0 0 0,-2 24 80 0 0,1-19-70 0 0,-2 13 19 0 0,0 10 24 0 0,-1 30 65 0 0,4-40-90 0 0,1-10-17 0 0,0-12-12 0 0,0 1 0 0 0,1 7 0 0 0,3 14 27 0 0,-3-23-34 0 0,-1-2-7 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 2 1 0 0,2-1-3 0 0,-4-2 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1-2 0 0 0,4-4 0 0 0,-1 0 0 0 0,1 0 0 0 0,4-10 0 0 0,-5 9 0 0 0,-2 2 0 0 0,6-11 0 0 0,-9 16 0 0 0,13-34 0 0 0,10-36-15 0 0,-23 71 15 0 0,8-26-1 0 0,-7 20 0 0 0,9-31-5 0 0,-8 27 5 0 0,0-15 0 0 0,1-1 2 0 0,-1 15 0 0 0,2-13 4 0 0,0-21 6 0 0,-3 35-6 0 0,-1 6-2 0 0,1 0 0 0 0,0-6-1 0 0,1 2 8 0 0,0-9-1 0 0,-1 6 3 0 0,0-6-3 0 0,-1 3 9 0 0,0-13 38 0 0,0 14-18 0 0,-1 8-17 0 0,0 1 8 0 0,1 4-29 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 2 5 0 0,0 0 0 0 0,0 1 0 0 0,-1 2 0 0 0,1-3-5 0 0,-2 9 4 0 0,0-1 1 0 0,-2 21-1 0 0,1 29 11 0 0,4-46-10 0 0,0 9 1 0 0,-1 1-1 0 0,0 0-9 0 0,-1 37-13 0 0,1-25 8 0 0,0-22 5 0 0,-3 46-34 0 0,2-32 21 0 0,-1 6 5 0 0,-1 27-30 0 0,1-34 20 0 0,2-9 31 0 0,1 2 62 0 0,0-18-59 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,1 3 1 0 0,-1-4 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 2 1 0 0,0-3-4 0 0,2 4 95 0 0,-3-4-98 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 6 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,1-2 0 0 0,-1 0 16 0 0,1 0 0 0 0,1-2 0 0 0,-2 3-26 0 0,-1 0 3 0 0,20-28 141 0 0,-18 24-89 0 0,4-9 0 0 0,-2 3-5 0 0,1-2 39 0 0,4-17 0 0 0,-5 15-39 0 0,6-23 80 0 0,-9 31-106 0 0,1 0 0 0 0,0-11 0 0 0,0 1 5 0 0,0 8-15 0 0,1-4 12 0 0,4-38 73 0 0,-1 2-2 0 0,0 14-4 0 0,-5 29-76 0 0,6-24 82 0 0,-6 27-72 0 0,-1 2 23 0 0,0 1 101 0 0,-6 17-102 0 0,1-6 0 0 0,-2 14-1 0 0,-4 27 68 0 0,7-28-96 0 0,-1 9 10 0 0,4 13 23 0 0,1-31-30 0 0,0-10-8 0 0,0 1 0 0 0,3 10 0 0 0,-1-6 9 0 0,-1-4-13 0 0,0 0 0 0 0,2 5 0 0 0,-1-7-5 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,0-1 1 0 0,4 5-1 0 0,-5-6-2 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,2 1-1 0 0,-2-2-4 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,4-1 0 0 0,-4 1-2 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2-2 0 0 0,4-4 0 0 0,-1 1 0 0 0,8-10 0 0 0,3-6-1 0 0,-15 18 0 0 0,2-3-4 0 0,0-1-1 0 0,6-11 0 0 0,-9 14 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1-10-1 0 0,4-23-16 0 0,-3 17 3 0 0,-3 14 7 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2-10 0 0 0,1 13 3 0 0,0 1 0 0 0,0-1 0 0 0,-3-8 0 0 0,3 10 5 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-3 0 0 0,3 4-1 0 0,1 1 1 0 0,-2-1-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,-4-3 1 0 0,5 4 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,-3 1 0 0 0,-6 3-3 0 0,1 0 0 0 0,-19 9-1 0 0,26-11 6 0 0,-14 7-8 0 0,16-7 6 0 0,0-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 3-1 0 0,-2 3-1 0 0,0-1 0 0 0,1 1 0 0 0,-5 10 0 0 0,8-15 4 0 0,-3 6-7 0 0,1-1 0 0 0,-4 11 0 0 0,6-15 6 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,2 5 1 0 0,-1-5 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,3 3-1 0 0,-4-4 1 0 0,2 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,2 0-1 0 0,1 0 2 0 0,4 1-1 0 0,-7-1 0 0 0,3 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,6-1 0 0 0,31-5 7 0 0,-32 4-6 0 0,-1 0 0 0 0,11-4 1 0 0,-3 0 0 0 0,-5 3 0 0 0,-5 1 1 0 0,12-4 0 0 0,16-9 4 0 0,58-28 13 0 0,-75 34-13 0 0,14-8 14 0 0,-23 13-19 0 0,3-1 6 0 0,22-12-1 0 0,-4 0-5 0 0,-28 16-2 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,1-1 0 0 0,0-1 0 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink55.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-24T19:10:41.907"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1772 1136 2904 0 0,'1'0'8'0'0,"0"0"3"0"0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,3-1 1 0 0,16-11 198 0 0,-5 4-5 0 0,-7 3-124 0 0,3-1 8 0 0,-5 3-66 0 0,6-5 0 0 0,-3 2-5 0 0,14-11 13 0 0,-15 10 3 0 0,9-6-1 0 0,-2 3 51 0 0,-9 5-30 0 0,11-6 1 0 0,-6 5 95 0 0,1-1 0 0 0,10-9 1 0 0,12-8 467 0 0,-25 20-477 0 0,-7 3-34 0 0,1 0-1 0 0,3-3 1 0 0,-5 4-63 0 0,2-2 64 0 0,-3 1-100 0 0,0 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 1 65 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">105 1195 1496 0 0,'0'-1'8'0'0,"1"-3"16"0"0,0 0 1 0 0,0-8-1 0 0,-1 8-2 0 0,2-9 376 0 0,-1 6-239 0 0,0-3 135 0 0,5-14 0 0 0,-3 8 165 0 0,-1 6-214 0 0,4-26 116 0 0,-2 10-241 0 0,1-1-64 0 0,3-15 6 0 0,2-22 179 0 0,5-23 135 0 0,-11 61-257 0 0,2-19 194 0 0,5-34 75 0 0,-3 25-79 0 0,3-23 144 0 0,-10 64-220 0 0,0-16-1 0 0,-1 18-102 0 0,0 10-90 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-2 0 0 0,1 2 344 0 0,0 1-275 0 0,1 2-24 0 0,0 4-1 0 0,1 2-19 0 0,13 82 437 0 0,-12-78-461 0 0,4 15 33 0 0,9 30 66 0 0,-11-44-113 0 0,13 42 39 0 0,6 20-2 0 0,0-5-37 0 0,-6-18-23 0 0,-11-36-9 0 0,14 31-1 0 0,1 1-31 0 0,-14-29-72 0 0,12 20 1 0 0,-19-39 82 0 0,1 4-108 0 0,5 8-1 0 0,-7-12 114 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 2 0 0 0,0 0-67 0 0,0-2 41 0 0,0 0-248 0 0,-9-4 235 0 0,3 0-11 0 0,-13-4 0 0 0,5 3-87 0 0,7 2 60 0 0,-13-2 0 0 0,12 3 42 0 0,-24-3-314 0 0,-5 2 122 0 0,12 3 88 0 0,15-1 74 0 0,-1 1-1 0 0,-19 3 0 0 0,-56 10-283 0 0,77-11 300 0 0,-16 6-1 0 0,14-4 23 0 0,1 0 10 0 0,-4 1-12 0 0,6-3 22 0 0,2-1-30 0 0,-8 3 0 0 0,12-4 51 0 0,1 0-9 0 0,-1 0 0 0 0,1 0 0 0 0,-3 1 1 0 0,3-1 10 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0-3 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0-5 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 9 0 0,0-1-8 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,1-1-1 0 0,0 1-6 0 0,3-4-39 0 0,1 1-1 0 0,10-7 0 0 0,19-10-99 0 0,-11 6 43 0 0,6-5 9 0 0,-6 3 29 0 0,-6 5 6 0 0,9-6-26 0 0,-26 18 97 0 0,36-19-92 0 0,-31 16 77 0 0,4-1-23 0 0,15-8-1 0 0,24-24-65 0 0,-39 30 72 0 0,19-12-1 0 0,7-2-17 0 0,13-7-3 0 0,-34 19 68 0 0,24-17 0 0 0,-26 14-9 0 0,-1 2 37 0 0,0-1 34 0 0,-7 6-31 0 0,0 0 0 0 0,0 0 0 0 0,8-4 0 0 0,-11 7 51 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,4-1 1 0 0,-1 1 910 0 0,-8 4-581 0 0,1-1-298 0 0,-4 6-3 0 0,0 0-1 0 0,-6 14 0 0 0,-3 3 196 0 0,9-16-181 0 0,0-1 0 0 0,-8 9-1 0 0,6-8-11 0 0,-10 15-1 0 0,-3 11 99 0 0,4-10-94 0 0,-1 3-1 0 0,12-17-72 0 0,0 0 1 0 0,-4 12-1 0 0,-13 25 106 0 0,11-23-55 0 0,10-21-90 0 0,0 0-1 0 0,-3 4 1 0 0,4-6-14 0 0,1-1-3 0 0,0-1-2 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,2-3 0 0 0,-3 2 0 0 0,10-6 0 0 0,-6 4-5 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,3-6 0 0 0,13-30-40 0 0,-16 33 42 0 0,11-23-39 0 0,-7 19 15 0 0,6-21 0 0 0,-8 16 8 0 0,4-12-18 0 0,10-12-96 0 0,-8 17-128 0 0,-9 17 171 0 0,5-12 1 0 0,1-2-144 0 0,6-7-145 0 0,-13 26 344 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,1-2-1 0 0,-2 3 22 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 4 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,3 6-21 0 0,-3-5 13 0 0,1 4-9 0 0,0 1-1 0 0,0-1 0 0 0,0 9 1 0 0,-1-9 4 0 0,-1 0 1 0 0,-1 10-1 0 0,0-5-7 0 0,-3 15-19 0 0,0-2 6 0 0,3-10 14 0 0,-7 23 0 0 0,-5 22-30 0 0,10-30 51 0 0,2-16 3 0 0,-5 25 1 0 0,6-36 3 0 0,1 1 0 0 0,-1 4-1 0 0,0-1 4 0 0,1-3 10 0 0,0-3-13 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-3 16 0 0,2 0-10 0 0,-2 1-4 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,2-3 0 0 0,1-4 3 0 0,-1 0 1 0 0,5-18-1 0 0,-5 16 5 0 0,5-13 0 0 0,-3 8 0 0 0,7-25 0 0 0,-8 21-4 0 0,3-10-4 0 0,3-11 14 0 0,1 0 1 0 0,-11 40-16 0 0,5-23 16 0 0,-3 19-11 0 0,-1 0 0 0 0,5-9 0 0 0,6-8 6 0 0,9-21 12 0 0,-20 41-21 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,4-3 0 0 0,-1 1 4 0 0,9-5 0 0 0,-12 8-5 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 2 0 0 0,0 5 9 0 0,1 14-1 0 0,-2-22-9 0 0,1 38 22 0 0,-1-24-19 0 0,-2 15 19 0 0,0-17-17 0 0,-3 29 6 0 0,1-11-5 0 0,-7 43 22 0 0,9-61-25 0 0,-1 13 12 0 0,0 0-9 0 0,2-18 1 0 0,0 1-1 0 0,0 17 1 0 0,1-24-2 0 0,1 0 0 0 0,-1 1 1 0 0,1 3-1 0 0,0-6-5 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,2-2 30 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,4-2 0 0 0,-6 5-31 0 0,4-4 34 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,3-5-1 0 0,18-39 271 0 0,-16 36-202 0 0,-1-1-1 0 0,10-23 1 0 0,-15 30-77 0 0,9-25 81 0 0,-7 24-53 0 0,7-14-1 0 0,-6 14-3 0 0,6-17-1 0 0,1-10 44 0 0,3-6 15 0 0,-2 4-26 0 0,-10 27-63 0 0,7-28 55 0 0,-6 21-20 0 0,-2 11-12 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-9-1 0 0,-1 12-26 0 0,-2-13 65 0 0,2 14-68 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-2-1 0 0 0,2 3-8 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 10 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,-3 2 0 0 0,4-3-11 0 0,-2 2 6 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-2 2-1 0 0,-13 19 77 0 0,14-20-68 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-2 8 0 0 0,-1-1 10 0 0,-10 26 72 0 0,2-7 23 0 0,-1 1-19 0 0,2 10 51 0 0,1-7 17 0 0,7-22-83 0 0,2 1 0 0 0,-4 24 0 0 0,5-15-2 0 0,0-2-19 0 0,1-17-39 0 0,0 1 1 0 0,1 7 0 0 0,-1-2 9 0 0,1-7-23 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,2 2 1 0 0,-3-4-13 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,2-1 0 0 0,1 0-6 0 0,-1 1 5 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,2-3-1 0 0,0-2-3 0 0,3-7 0 0 0,4-21-20 0 0,-5 17 5 0 0,7-24-20 0 0,-5 12 5 0 0,-5 19 27 0 0,1-8-9 0 0,5-16-12 0 0,-8 34 25 0 0,10-41-136 0 0,-5 14 67 0 0,3-15-41 0 0,-4 19 86 0 0,-1 0-1 0 0,0-26 1 0 0,-3 33 12 0 0,-1 10 8 0 0,0-4-18 0 0,1 10 22 0 0,0 1 4 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 3-15 0 0,-1 4 14 0 0,2-3-1 0 0,-2 8-2 0 0,2 0 0 0 0,0 17 0 0 0,0-10 2 0 0,0-11 1 0 0,2 63-14 0 0,0 11 15 0 0,-2-40 0 0 0,-3 102-12 0 0,1-83 1 0 0,-2 20-49 0 0,3-62 47 0 0,-7 82-58 0 0,1-39 26 0 0,-4-1 1 0 0,-8 23-9 0 0,-3-2-13 0 0,4-27 33 0 0,8-26 25 0 0,-8 22 8 0 0,-14 23 0 0 0,29-69 1 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,-9 8 1 0 0,12-12-1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,-3 1 0 0 0,4-3-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-2-1 0 0 0,1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-2 0 0 0,-1-4 3 0 0,1 5-3 0 0,-1-22-3 0 0,4-11-6 0 0,2-2 4 0 0,-1 15-30 0 0,-1-3-11 0 0,6-28-44 0 0,-6 34 72 0 0,29-120-204 0 0,21-70-37 0 0,-46 180 231 0 0,7-26-22 0 0,7-27-24 0 0,-11 42 38 0 0,1-3 8 0 0,1-12-11 0 0,4-22-15 0 0,-4 19 24 0 0,2-9-11 0 0,-12 58 38 0 0,12-72-27 0 0,-14 74 30 0 0,15-84-17 0 0,-2 2 25 0 0,-12 85-8 0 0,4-23 7 0 0,1 0 3 0 0,-6 22-7 0 0,1 0 0 0 0,-1 0 1 0 0,0-5-1 0 0,0 5 45 0 0,1-4 0 0 0,-1 8-39 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1 228 0 0,1 22 63 0 0,-5 27-122 0 0,-1-1-4 0 0,3 1-75 0 0,0-17-49 0 0,-2 23 27 0 0,2-22-43 0 0,-1 12 11 0 0,4-39-43 0 0,-3 51 47 0 0,0 92 47 0 0,8-91-77 0 0,-2-33-1 0 0,-2-16-12 0 0,0 1-1 0 0,1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,6 14-1 0 0,-8-20-3 0 0,0 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,3 2-1 0 0,-3-3 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,2 0 0 0 0,-2-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,2 0 0 0 0,-2 1-6 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,2-2 1 0 0,8-9-21 0 0,-7 7 14 0 0,0-1-6 0 0,0 1 1 0 0,5-8 0 0 0,4-13-48 0 0,-12 25 62 0 0,3-7-21 0 0,0-1 0 0 0,4-12 0 0 0,10-50-95 0 0,-2-8 15 0 0,-12 58 79 0 0,9-82-95 0 0,-10 80 97 0 0,0-17-17 0 0,-3-37-25 0 0,0 71 59 0 0,-1 1 0 0 0,1-1 0 0 0,-4-11 0 0 0,4 15 4 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0-2 1 0 0,0 2 0 0 0,1 1 1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,-1-1 0 0 0,2 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 4 1 0 0,-3 4 4 0 0,-1 2 4 0 0,2-6 2 0 0,-2 8-1 0 0,-15 48 66 0 0,4 14 67 0 0,11-2-20 0 0,4-60-94 0 0,1 32 55 0 0,0-23-49 0 0,1-11-9 0 0,-1 0 1 0 0,2 1 0 0 0,-1-1-1 0 0,5 14 1 0 0,-2-13 0 0 0,7 12-1 0 0,-9-20-13 0 0,0 0 0 0 0,1 0 0 0 0,5 7 0 0 0,-2-5 11 0 0,7 8 0 0 0,-10-12-17 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,5 1 0 0 0,-3-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 0 0 0,9-1 1 0 0,-8 0 3 0 0,1-1 0 0 0,8-3 0 0 0,-8 2-5 0 0,0-1-1 0 0,13-7 1 0 0,-16 7-3 0 0,2 0 2 0 0,-1 0-1 0 0,1-1 0 0 0,7-8 1 0 0,15-18 1 0 0,-19 19 0 0 0,0 0 0 0 0,14-25 0 0 0,-20 29-5 0 0,-1 1 0 0 0,0-1 0 0 0,3-14 0 0 0,-4 16 0 0 0,0-4 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1-14 0 0 0,-2 9 0 0 0,0-1 0 0 0,-7-27 0 0 0,-12-22 0 0 0,2 8 0 0 0,2 9 0 0 0,-1-8 0 0 0,6 17 0 0 0,-36-126 17 0 0,41 136-12 0 0,0 2-3 0 0,-13-51 7 0 0,18 73-6 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,-5-7 1 0 0,5 9 1 0 0,-5-6 1 0 0,6 10-4 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,-2-2 0 0 0,3 3 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,-1 1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 5-1 0 0,-2 11 7 0 0,4-17-8 0 0,-2 7 4 0 0,2 1 0 0 0,-1 0 0 0 0,2 13 0 0 0,5 26 8 0 0,14 42 16 0 0,5-4-10 0 0,-12-47-8 0 0,31 87 29 0 0,-19-54-26 0 0,0-1-2 0 0,11 18 5 0 0,-26-65-6 0 0,2 0 0 0 0,21 34 1 0 0,-30-53-11 0 0,19 27 0 0 0,-17-27 0 0 0,0 1 0 0 0,0-1 0 0 0,8 7 0 0 0,-6-7-9 0 0,7 4 0 0 0,-12-7 5 0 0,1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,5 1 1 0 0,-6-1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,2-1 1 0 0,-2 0-19 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,6-5 0 0 0,-8 5 10 0 0,2-1-6 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,2-3-1 0 0,-2 2-12 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,3-7 0 0 0,13-75-344 0 0,-16 76 308 0 0,-1-18 0 0 0,-1 11 18 0 0,1-6-39 0 0,-2 0 0 0 0,-1 1-1 0 0,-8-46 1 0 0,3 46 74 0 0,6 19 10 0 0,0 3 3 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1-1 0 0 0,-1 0 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">866 1225 696 0 0,'2'0'0'0'0,"0"0"0"0"0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,13-11 8 0 0,-7 6-8 0 0,10-10 0 0 0,4-3 0 0 0,-4 4 0 0 0,-12 10 0 0 0,0 0 0 0 0,9-5 0 0 0,-10 7 1 0 0,19-10 6 0 0,-17 10 26 0 0,17-6-1 0 0,-15 6 8 0 0,-6 2-25 0 0,-4 2-11 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,3 1 64 0 0,-4-1-61 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,-1 1 1 0 0,-5 10 51 0 0,-13 19 43 0 0,15-24-54 0 0,-12 14 0 0 0,7-11-10 0 0,-14 15 42 0 0,10-13-33 0 0,0 2 19 0 0,-18 16 41 0 0,0-4 0 0 0,28-23-88 0 0,-17 13 56 0 0,18-15-54 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,-5 2 1 0 0,9-3-18 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1-1 25 0 0,2-4-8 0 0,1-1 1 0 0,3-8 0 0 0,-1 5-14 0 0,0 0 18 0 0,9-14-1 0 0,-11 20-17 0 0,0 0-1 0 0,1-1 1 0 0,3-3 0 0 0,0 2 0 0 0,-1 1 5 0 0,10-8 1 0 0,-14 11-11 0 0,9-5 37 0 0,17-16 0 0 0,-18 15-5 0 0,-1 0 0 0 0,1 0 0 0 0,1 1-1 0 0,15-9 1 0 0,-7 6 12 0 0,-7 3 39 0 0,15-6-1 0 0,-11 7-13 0 0,-7 2-11 0 0,14-4 0 0 0,27-5 203 0 0,-42 11-221 0 0,0 0 39 0 0,11-2 0 0 0,-12 3 33 0 0,10 1 1 0 0,31 3 246 0 0,-44-2-316 0 0,-1 0 1 0 0,4 1 0 0 0,0 0 7 0 0,-5-2-32 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,2 3 0 0 0,-4-4-9 0 0,1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 2-1 0 0,-1-2 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 4-1 0 0,0-2 8 0 0,0-1 0 0 0,-1 6 0 0 0,-1 0-1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-9 10 0 0 0,-8 6 5 0 0,-1 2-3 0 0,6-8-18 0 0,-26 25-1 0 0,27-28-1 0 0,-14 12 1 0 0,-6 3-11 0 0,20-15-2 0 0,-23 15 1 0 0,15-14-8 0 0,-13 8-8 0 0,-5 8-31 0 0,34-26 18 0 0,-15 8 0 0 0,9-5 14 0 0,-51 28-152 0 0,-7 1-161 0 0,61-32 255 0 0,-14 11 0 0 0,-1 0-37 0 0,-1-4 29 0 0,11-6 36 0 0,-26 15-93 0 0,36-19 130 0 0,2-1-2 0 0,0 1 0 0 0,-4 2 0 0 0,3-1-12 0 0,0-1 0 0 0,-8 4 1 0 0,5-2-14 0 0,2-1-21 0 0,5-3 49 0 0,1-2-24 0 0,1 0 33 0 0,5-4 0 0 0,-3 2 2 0 0,44-34 18 0 0,-23 16-4 0 0,-3 4 8 0 0,-2 1 20 0 0,9-5 6 0 0,13-5 10 0 0,-19 13-18 0 0,4-5-7 0 0,-2 0 7 0 0,-21 16-31 0 0,45-25 47 0 0,49-13 51 0 0,-74 33-86 0 0,14-5 21 0 0,-32 10-30 0 0,0 1 0 0 0,0 0 1 0 0,11-2-1 0 0,-10 2 2 0 0,10-3 0 0 0,-3 1-3 0 0,1-1 11 0 0,6-1 2 0 0,-15 4-4 0 0,8-3-1 0 0,0 0 8 0 0,44-17 55 0 0,-50 19-64 0 0,8-7 0 0 0,-8 6 0 0 0,1-2 2 0 0,-1 0 0 0 0,11-9 1 0 0,-6 3-2 0 0,22-26 1 0 0,-27 28-13 0 0,-1 2 1 0 0,0 0 1 0 0,6-12 0 0 0,14-32 7 0 0,-16 29-7 0 0,-9 18-1 0 0,6-11-1 0 0,-5 9-1 0 0,-1 4 15 0 0,-1-1 0 0 0,2-6 0 0 0,-2 6 8 0 0,0 0 0 0 0,0-1-1 0 0,0-6 1 0 0,-1 8-15 0 0,0 2-6 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,0 1 9 0 0,0-3 18 0 0,1 4-29 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-2 3 151 0 0,1 0-113 0 0,1 0 0 0 0,-1 4 0 0 0,0-1 9 0 0,-5 18 87 0 0,4-13-82 0 0,-6 21 81 0 0,3-1-44 0 0,1-4-31 0 0,-15 59 82 0 0,1-14-95 0 0,14-48-48 0 0,1-4 0 0 0,1-6-14 0 0,0 2-11 0 0,2-12 8 0 0,0 3 1 0 0,1-3-135 0 0,0-4 149 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-4-11 0 0,-1 3 1 0 0,6-28-96 0 0,-2-2 29 0 0,-1 5 12 0 0,6-47-37 0 0,-8 61 97 0 0,1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,5-11 1 0 0,-2 7 7 0 0,-3 10 1 0 0,0-1 1 0 0,5-9 0 0 0,-2 7 14 0 0,-3 5-10 0 0,0 0 0 0 0,5-6 1 0 0,-3 3 2 0 0,-1 4 7 0 0,-1 0 1 0 0,5-4 0 0 0,-4 4 36 0 0,6-4 0 0 0,0 1 8 0 0,-9 6-57 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,2 0 41 0 0,-1 0 0 0 0,4 1 0 0 0,-5-1-34 0 0,0 0 3 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,0 1 0 0 0,-1 1 22 0 0,1-1 0 0 0,0 1 0 0 0,1 2 1 0 0,-1-2-15 0 0,0 2 23 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 6 0 0 0,0-6-29 0 0,-1 43 203 0 0,0-34-171 0 0,-3 25 65 0 0,0-10-45 0 0,0 19 41 0 0,3-23-57 0 0,1-10-38 0 0,0-9-5 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,3 6 0 0 0,-2-9-7 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,1 2-1 0 0,-1-3-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,3 0 0 0 0,-3-1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,2 0-2 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,4-2 0 0 0,-1 0-9 0 0,-2 2 10 0 0,0-1-1 0 0,1-1 0 0 0,2-3 0 0 0,2-2-5 0 0,-2 3 4 0 0,-1 0 0 0 0,0-1 0 0 0,7-11 0 0 0,-5 4 1 0 0,-3 6 1 0 0,12-25-10 0 0,-7 13 4 0 0,11-24-10 0 0,-18 40 16 0 0,0 0 0 0 0,-1 0 0 0 0,3-6 0 0 0,-2 1 1 0 0,2-8 4 0 0,-3 13-3 0 0,1 0-2 0 0,0-7 0 0 0,-1 8 1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,3-5 0 0 0,-2 5 1 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,2-4-1 0 0,-1-2 3 0 0,0 4 0 0 0,0-4-1 0 0,1-9 7 0 0,1-12 17 0 0,-3 26-21 0 0,0-11 47 0 0,0 14-30 0 0,-1 2-6 0 0,1-2-15 0 0,0 1 4 0 0,0 3 1 0 0,-1-1-7 0 0,-3 35 81 0 0,2-23-24 0 0,0 0-5 0 0,1-10-36 0 0,0-2 2 0 0,0 1 0 0 0,1-1 0 0 0,-1 6 0 0 0,-2 24 80 0 0,1-19-70 0 0,-2 13 19 0 0,0 10 24 0 0,-1 30 65 0 0,4-40-90 0 0,1-10-17 0 0,0-12-12 0 0,0 1 0 0 0,1 7 0 0 0,3 14 27 0 0,-3-23-34 0 0,-1-2-7 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 2 1 0 0,2-1-3 0 0,-4-2 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1-2 0 0 0,4-4 0 0 0,-1 0 0 0 0,1 0 0 0 0,4-10 0 0 0,-5 9 0 0 0,-2 2 0 0 0,6-11 0 0 0,-9 16 0 0 0,13-34 0 0 0,10-36-15 0 0,-23 71 15 0 0,8-26-1 0 0,-7 20 0 0 0,9-31-5 0 0,-8 27 5 0 0,0-15 0 0 0,1-1 2 0 0,-1 15 0 0 0,2-13 4 0 0,0-21 6 0 0,-3 35-6 0 0,-1 6-2 0 0,1 0 0 0 0,0-6-1 0 0,1 2 8 0 0,0-9-1 0 0,-1 6 3 0 0,0-6-3 0 0,-1 3 9 0 0,0-13 38 0 0,0 14-18 0 0,-1 8-17 0 0,0 1 8 0 0,1 4-29 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 2 5 0 0,0 0 0 0 0,0 1 0 0 0,-1 2 0 0 0,1-3-5 0 0,-2 9 4 0 0,0-1 1 0 0,-2 21-1 0 0,1 29 11 0 0,4-46-10 0 0,0 9 1 0 0,-1 1-1 0 0,0 0-9 0 0,-1 37-13 0 0,1-25 8 0 0,0-22 5 0 0,-3 46-34 0 0,2-32 21 0 0,-1 6 5 0 0,-1 27-30 0 0,1-34 20 0 0,2-9 31 0 0,1 2 62 0 0,0-18-59 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,1 3 1 0 0,-1-4 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 2 1 0 0,0-3-4 0 0,2 4 95 0 0,-3-4-98 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 6 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,1-2 0 0 0,-1 0 16 0 0,1 0 0 0 0,1-2 0 0 0,-2 3-26 0 0,-1 0 3 0 0,20-28 141 0 0,-18 24-89 0 0,4-9 0 0 0,-2 3-5 0 0,1-2 39 0 0,4-17 0 0 0,-5 15-39 0 0,6-23 80 0 0,-9 31-106 0 0,1 0 0 0 0,0-11 0 0 0,0 1 5 0 0,0 8-15 0 0,1-4 12 0 0,4-38 73 0 0,-1 2-2 0 0,0 14-4 0 0,-5 29-76 0 0,6-24 82 0 0,-6 27-72 0 0,-1 2 23 0 0,0 1 101 0 0,-6 17-102 0 0,1-6 0 0 0,-2 14-1 0 0,-4 27 68 0 0,7-28-96 0 0,-1 9 10 0 0,4 13 23 0 0,1-31-30 0 0,0-10-8 0 0,0 1 0 0 0,3 10 0 0 0,-1-6 9 0 0,-1-4-13 0 0,0 0 0 0 0,2 5 0 0 0,-1-7-5 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,0-1 1 0 0,4 5-1 0 0,-5-6-2 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,2 1-1 0 0,-2-2-4 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,4-1 0 0 0,-4 1-2 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2-2 0 0 0,4-4 0 0 0,-1 1 0 0 0,8-10 0 0 0,3-6-1 0 0,-15 18 0 0 0,2-3-4 0 0,0-1-1 0 0,6-11 0 0 0,-9 14 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1-10-1 0 0,4-23-16 0 0,-3 17 3 0 0,-3 14 7 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2-10 0 0 0,1 13 3 0 0,0 1 0 0 0,0-1 0 0 0,-3-8 0 0 0,3 10 5 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-3 0 0 0,3 4-1 0 0,1 1 1 0 0,-2-1-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,-4-3 1 0 0,5 4 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,-3 1 0 0 0,-6 3-3 0 0,1 0 0 0 0,-19 9-1 0 0,26-11 6 0 0,-14 7-8 0 0,16-7 6 0 0,0-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 3-1 0 0,-2 3-1 0 0,0-1 0 0 0,1 1 0 0 0,-5 10 0 0 0,8-15 4 0 0,-3 6-7 0 0,1-1 0 0 0,-4 11 0 0 0,6-15 6 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,2 5 1 0 0,-1-5 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,3 3-1 0 0,-4-4 1 0 0,2 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,2 0-1 0 0,1 0 2 0 0,4 1-1 0 0,-7-1 0 0 0,3 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,6-1 0 0 0,31-5 7 0 0,-32 4-6 0 0,-1 0 0 0 0,11-4 1 0 0,-3 0 0 0 0,-5 3 0 0 0,-5 1 1 0 0,12-4 0 0 0,16-9 4 0 0,58-28 13 0 0,-75 34-13 0 0,14-8 14 0 0,-23 13-19 0 0,3-1 6 0 0,22-12-1 0 0,-4 0-5 0 0,-28 16-2 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,1-1 0 0 0,0-1 0 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -3855,7 +6007,7 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -4560,16 +6712,16 @@
     </row>
     <row r="47" spans="1:5" ht="120" x14ac:dyDescent="0.5">
       <c r="A47" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B47" s="2">
         <v>44396</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E47" s="1"/>
     </row>
@@ -4584,13 +6736,13 @@
         <v>5</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" ht="120" x14ac:dyDescent="0.5">
       <c r="A49" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B49" s="2">
         <v>44397</v>
@@ -4599,7 +6751,7 @@
         <v>12</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E49" s="1"/>
     </row>
@@ -4620,7 +6772,7 @@
     </row>
     <row r="51" spans="1:5" ht="120" x14ac:dyDescent="0.5">
       <c r="A51" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B51" s="2">
         <v>44398</v>
@@ -4629,7 +6781,7 @@
         <v>12</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E51" s="1"/>
     </row>
@@ -4644,7 +6796,7 @@
         <v>10</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E52" s="1"/>
     </row>
@@ -4659,13 +6811,13 @@
         <v>5</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" ht="60" x14ac:dyDescent="0.5">
       <c r="A54" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B54" s="2">
         <v>44400</v>
@@ -4674,15 +6826,23 @@
         <v>5</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.5">
-      <c r="A55" s="1"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+    <row r="55" spans="1:5" ht="120" x14ac:dyDescent="0.5">
+      <c r="A55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" s="2">
+        <v>44401</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="E55" s="1"/>
     </row>
     <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.5">

--- a/Bitácora.xlsx
+++ b/Bitácora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\agust\Documents\Universidad\8vo Semestre\Lab. Computación Gráfica\Proyecto_Final_Computacion_Grafica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82427206-7621-4BA9-99AD-3CE51DA5A82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6458D5AB-C341-473E-84DF-A69A62C8EE65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10260" yWindow="6227" windowWidth="19200" windowHeight="10073" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="103">
   <si>
     <t>Plan de Pruebas</t>
   </si>
@@ -264,12 +264,6 @@
     <t>Se texturizó el modelo de la Luna, posteriormente, es exportó como archivo OBJ.</t>
   </si>
   <si>
-    <t>Creación del Manual de Usuario</t>
-  </si>
-  <si>
-    <t>Animaciones básicas. Wall-E y Speeder Bike</t>
-  </si>
-  <si>
     <t>Se comenzó con el llenado de información en el Manual de Usuario con lo avanzado hasta el momento.</t>
   </si>
   <si>
@@ -279,15 +273,6 @@
     <t>Se concluyó con la animación de Speeder Bike.</t>
   </si>
   <si>
-    <t>Animaciones extra. Sol y Luna</t>
-  </si>
-  <si>
-    <t>Proyección de Costos / Ganancias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animaciones Complejas. EVA, Estrella de la Muerte y Star Fighter </t>
-  </si>
-  <si>
     <t>Se continuó con las animaciones de EVA, Estrella de la Muerte y Star Fighter. Se logra que Star Fighter haga un movimiento sobre el Eje Y y haga una transición al Eje X.</t>
   </si>
   <si>
@@ -313,6 +298,51 @@
   </si>
   <si>
     <t>Se crearon las animaciones mediante KeyFrames del Sol y la Luna.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animaciones Complejas. Stormtroopers. </t>
+  </si>
+  <si>
+    <t>Creación del Manual de Usuario.</t>
+  </si>
+  <si>
+    <t>Animaciones básicas. Wall-E y Speeder Bike.</t>
+  </si>
+  <si>
+    <t>Animaciones Complejas. EVA, Estrella de la Muerte y Star Fighter.</t>
+  </si>
+  <si>
+    <t>Animaciones extra. Sol y Luna.</t>
+  </si>
+  <si>
+    <t>Proyección de Costos / Ganancias.</t>
+  </si>
+  <si>
+    <t>Se comenzó y finalizó con la animación de los Stormtroopers. Se logra toda la animación deseada.</t>
+  </si>
+  <si>
+    <t>Cambio de cámaras.</t>
+  </si>
+  <si>
+    <t>Se implementó el cambio de cámaras en el escenario.</t>
+  </si>
+  <si>
+    <t>Creación del video.</t>
+  </si>
+  <si>
+    <t>Se grabó el video solicitado en los requerimientos.</t>
+  </si>
+  <si>
+    <t>Verificación de cumplimiento de objetivos.</t>
+  </si>
+  <si>
+    <t>Entrega del trabajo final.</t>
+  </si>
+  <si>
+    <t>Se verificó que todos los requerimientos y objetivos estén cubiertos en su totalidad.</t>
+  </si>
+  <si>
+    <t>Se realiza la entrega del trabajo final.</t>
   </si>
 </sst>
 </file>
@@ -2389,8 +2419,8 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>993211</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="105" name="Entrada de lápiz 104">
@@ -2409,7 +2439,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="105" name="Entrada de lápiz 104">
@@ -2454,8 +2484,8 @@
       <xdr:row>51</xdr:row>
       <xdr:rowOff>651644</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="106" name="Entrada de lápiz 105">
@@ -2474,7 +2504,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="106" name="Entrada de lápiz 105">
@@ -2519,8 +2549,8 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>770178</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId38">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="107" name="Entrada de lápiz 106">
@@ -2539,7 +2569,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="107" name="Entrada de lápiz 106">
@@ -2584,8 +2614,8 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>668578</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="108" name="Entrada de lápiz 107">
@@ -2604,7 +2634,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="108" name="Entrada de lápiz 107">
@@ -2649,8 +2679,8 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>1193511</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId40">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="109" name="Entrada de lápiz 108">
@@ -2669,7 +2699,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="109" name="Entrada de lápiz 108">
@@ -2714,8 +2744,8 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>956444</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId41">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="110" name="Entrada de lápiz 109">
@@ -2734,7 +2764,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="110" name="Entrada de lápiz 109">
@@ -2779,8 +2809,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>935277</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId42">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="111" name="Entrada de lápiz 110">
@@ -2799,7 +2829,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="111" name="Entrada de lápiz 110">
@@ -2844,8 +2874,8 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>897177</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="112" name="Entrada de lápiz 111">
@@ -2864,7 +2894,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="112" name="Entrada de lápiz 111">
@@ -2909,8 +2939,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>829444</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId44">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="113" name="Entrada de lápiz 112">
@@ -2929,7 +2959,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="113" name="Entrada de lápiz 112">
@@ -2974,8 +3004,8 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>964911</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId45">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="114" name="Entrada de lápiz 113">
@@ -2994,7 +3024,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="114" name="Entrada de lápiz 113">
@@ -3039,8 +3069,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>732078</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId46">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="115" name="Entrada de lápiz 114">
@@ -3059,7 +3089,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="115" name="Entrada de lápiz 114">
@@ -3104,8 +3134,8 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>808278</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId47">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="116" name="Entrada de lápiz 115">
@@ -3124,7 +3154,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="116" name="Entrada de lápiz 115">
@@ -3169,8 +3199,8 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>698211</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId48">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="117" name="Entrada de lápiz 116">
@@ -3189,7 +3219,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="117" name="Entrada de lápiz 116">
@@ -3234,8 +3264,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>1016001</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId49">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="125" name="Entrada de lápiz 124">
@@ -3254,7 +3284,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="125" name="Entrada de lápiz 124">
@@ -3299,8 +3329,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>736603</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId51">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="126" name="Entrada de lápiz 125">
@@ -3319,7 +3349,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="126" name="Entrada de lápiz 125">
@@ -3364,8 +3394,8 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>719670</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId53">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="127" name="Entrada de lápiz 126">
@@ -3384,7 +3414,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="127" name="Entrada de lápiz 126">
@@ -3429,8 +3459,8 @@
       <xdr:row>42</xdr:row>
       <xdr:rowOff>795282</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId54">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="128" name="Entrada de lápiz 127">
@@ -3449,7 +3479,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="128" name="Entrada de lápiz 127">
@@ -3494,8 +3524,8 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>782582</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId55">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="129" name="Entrada de lápiz 128">
@@ -3514,7 +3544,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="129" name="Entrada de lápiz 128">
@@ -3559,8 +3589,8 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>685215</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId56">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="130" name="Entrada de lápiz 129">
@@ -3579,7 +3609,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="130" name="Entrada de lápiz 129">
@@ -3624,8 +3654,8 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>1324744</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId57">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="131" name="Entrada de lápiz 130">
@@ -3644,7 +3674,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="131" name="Entrada de lápiz 130">
@@ -3689,8 +3719,8 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>1032348</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId58">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="132" name="Entrada de lápiz 131">
@@ -3709,7 +3739,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="132" name="Entrada de lápiz 131">
@@ -3754,8 +3784,8 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>960381</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId59">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="133" name="Entrada de lápiz 132">
@@ -3774,7 +3804,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="133" name="Entrada de lápiz 132">
@@ -3806,6 +3836,316 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>389467</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1245387</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>757182</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId60">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="57" name="Entrada de lápiz 56">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAD00B8E-A2F9-4411-A1AD-FD5B4823D478}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6506634" y="54660800"/>
+            <a:ext cx="855920" cy="642882"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="133" name="Entrada de lápiz 132">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4B9B008-AF4B-45BF-9319-A5717DC9E037}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6434581" y="49716182"/>
+              <a:ext cx="864558" cy="651516"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>461433</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1281919</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>545811</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId61">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="58" name="Entrada de lápiz 57">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{807D83EA-7E86-4D4E-8238-99B25F08D14C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6578600" y="55524400"/>
+            <a:ext cx="820486" cy="520411"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="105" name="Entrada de lápiz 104">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04594815-F445-4082-9E2B-E7E82E4EDA0F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6380327" y="53490978"/>
+              <a:ext cx="829126" cy="529055"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>537633</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="532970" cy="496047"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId62">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="59" name="Entrada de lápiz 58">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2E99D75-047F-4896-97FE-A4ED61DB031C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6654800" y="56095900"/>
+            <a:ext cx="532970" cy="496047"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="43" name="Entrada de lápiz 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DB0FFF2-DFD3-4FED-B861-5526AA9A45B0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6565814" y="37532649"/>
+              <a:ext cx="541607" cy="504680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>461433</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>237067</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="532970" cy="496047"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId63">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="60" name="Entrada de lápiz 59">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFE077B9-3480-4F75-9004-E80BC990E9A8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6578600" y="56879067"/>
+            <a:ext cx="532970" cy="496047"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="43" name="Entrada de lápiz 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DB0FFF2-DFD3-4FED-B861-5526AA9A45B0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6565814" y="37532649"/>
+              <a:ext cx="541607" cy="504680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>21167</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="359328" cy="334434"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId64">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="61" name="Entrada de lápiz 60">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66CF88C1-17F5-4E1A-AE4B-EBE03B218155}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6637867" y="57615667"/>
+            <a:ext cx="359328" cy="334434"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="43" name="Entrada de lápiz 42">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DB0FFF2-DFD3-4FED-B861-5526AA9A45B0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6565814" y="37532649"/>
+              <a:ext cx="541607" cy="504680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3838,7 +4178,7 @@
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">219 647 392 0 0,'0'-1'8'0'0,"-5"-5"1"0"0,4 5 2 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-3 0 0 0 0,0-1 86 0 0,0 1 0 0 0,0 1-1 0 0,-8 0 1 0 0,10-1-75 0 0,0 1 14 0 0,-1-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,-2 1-1 0 0,-1 2-25 0 0,3-3-11 0 0,0 1 0 0 0,0 0 0 0 0,-5 4 0 0 0,4-3-1 0 0,0 0 1 0 0,-6 4-1 0 0,2-2 14 0 0,-5 3 95 0 0,9-6-68 0 0,1 0-1 0 0,-1 0 0 0 0,-3 4 0 0 0,-27 27 380 0 0,29-29-329 0 0,3-2-21 0 0,0 1 1 0 0,-5 3-1 0 0,5-2-24 0 0,0-2-5 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 4-1 0 0,0-3 22 0 0,2-2-26 0 0,-1 1 0 0 0,0-1 0 0 0,0 3 1 0 0,1-4-30 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,4 4 95 0 0,-3-3-9 0 0,0 0 0 0 0,3 3 0 0 0,-3-4-80 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,2-1 0 0 0,-1 1 4 0 0,0 0-3 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,3-1 0 0 0,0 1 0 0 0,-1-1 22 0 0,5-3 0 0 0,1 0 32 0 0,-6 3-27 0 0,0 0 1 0 0,4-4-1 0 0,-1 2-6 0 0,-4 2-18 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,2-5-1 0 0,3-2 24 0 0,8-10 48 0 0,2-1 9 0 0,-14 16-86 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,2-4 0 0 0,2-2 21 0 0,-3 2 1 0 0,1 1 1 0 0,3-11-1 0 0,-3 9 10 0 0,-2 3-30 0 0,-1 5-9 0 0,-1-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1-1-1 0 0,1 0 12 0 0,-1 1-7 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,1-2 83 0 0,0 2 1 0 0,-1 2 175 0 0,0 2-233 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 3 0 0 0,-1 3-8 0 0,-4 23 108 0 0,1-5 6 0 0,0 1-27 0 0,4-21-86 0 0,1-4-12 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 2 0 0 0,2 4 54 0 0,-1-6-32 0 0,-1 0 0 0 0,1 0-1 0 0,1 3 1 0 0,-2-4-25 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,1 2 0 0 0,-1-2-5 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,2-1 9 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,5-3 0 0 0,2-3 16 0 0,-6 5-8 0 0,7-6-1 0 0,10-11 33 0 0,9-8 7 0 0,-19 17-32 0 0,-6 8-24 0 0,-1-1 0 0 0,-1-1-1 0 0,8-8 1 0 0,-7 6-3 0 0,17-27 36 0 0,-14 23-39 0 0,-5 8-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,3-6-1 0 0,-4 7 1 0 0,0 2-1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-5 3 0 0 0,-2 1-1 0 0,3-2 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-3 4 0 0 0,-5 5 0 0 0,-2 2-6 0 0,13-13 7 0 0,-2 3-1 0 0,-1 0 1 0 0,1 0-1 0 0,-5 9 0 0 0,-14 31-12 0 0,14-31 7 0 0,5-8 0 0 0,-4 8 0 0 0,7-12 5 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 3 1 0 0,-1-4 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,4-2 1 0 0,-5 2 1 0 0,1-1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,2-2 0 0 0,2-2 0 0 0,5-5 0 0 0,12-15 0 0 0,-13 16 0 0 0,-7 7 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,3-5 0 0 0,-1 1 0 0 0,3-11 0 0 0,-2 2 0 0 0,-1 9 0 0 0,-2 2 0 0 0,2-6 0 0 0,-4 9 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,1-2 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,2-3 0 0 0,-1 3 0 0 0,-1 1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0-2 0 0 0,0 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1-2 0 0 0,2 0 0 0 0,-3 1 0 0 0,-1 3 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 3 0 0 0,-1 1 0 0 0,1-1 0 0 0,-3 7 0 0 0,1-3 0 0 0,-5 21 0 0 0,-4 14 0 0 0,11-42 0 0 0,-1 5 0 0 0,-5 11 0 0 0,-7 21 0 0 0,11-35 0 0 0,1 0 0 0 0,-1 0 0 0 0,-2 4 0 0 0,2-4 0 0 0,0 1 0 0 0,-1 3 0 0 0,0 1 0 0 0,-3 5 0 0 0,3-6 0 0 0,-4 13 0 0 0,2-7 0 0 0,-6 13 0 0 0,-1 4 0 0 0,-8 22 0 0 0,19-47 0 0 0,-2 7 0 0 0,3-8 0 0 0,-1 0 0 0 0,-2 7 0 0 0,0-4 0 0 0,3-5 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-3 2 0 0 0,0 0 0 0 0,2-3 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-3 2 0 0 0,1-1 0 0 0,2-1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,0-5 0 0 0,1-7 2 0 0,2-13 0 0 0,-1 19-1 0 0,0-1 0 0 0,0 1 0 0 0,5-12-1 0 0,-4 14 2 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,7-8-1 0 0,-6 7 0 0 0,0 0 1 0 0,0-1-1 0 0,5-9 0 0 0,-1-1 0 0 0,1 1-1 0 0,20-31 6 0 0,-21 34-6 0 0,-4 7 2 0 0,4-7-1 0 0,31-45 9 0 0,-35 52-11 0 0,26-41 8 0 0,-12 24-3 0 0,-7 10-3 0 0,-6 8-2 0 0,-4 4 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-2 0 0 0,1-1 0 0 0,-2 3 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-3 6 33 0 0,-3 4-19 0 0,0-1-1 0 0,0 1 0 0 0,-5 10 1 0 0,9-13-4 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 9-1 0 0,2-13-5 0 0,-2 34 52 0 0,2-33-52 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,2 4 1 0 0,-2-6-10 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,1-1-12 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 1 0 0,3 0-1 0 0,-2 0 2 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,4-4 0 0 0,-2 0-29 0 0,7-15-1 0 0,3-8-37 0 0,-1 0 8 0 0,-11 24 57 0 0,7-12-20 0 0,-7 13 12 0 0,3-9 1 0 0,-2 5 4 0 0,4-11-21 0 0,-6 11 26 0 0,8-24-22 0 0,-9 29 38 0 0,-1 2 0 0 0,0 3 0 0 0,-1 21 0 0 0,1-10 0 0 0,0-1 0 0 0,0 35 0 0 0,0-33 1 0 0,5 38 6 0 0,2-24 1 0 0,-7-26-6 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,1 2 1 0 0,-1-2-1 0 0,-1 0-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,2-2 0 0 0,2-1-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,6-7 0 0 0,13-15 0 0 0,-19 21 0 0 0,6-11 0 0 0,-2 3 0 0 0,-2 4-1 0 0,15-23-6 0 0,6-13 0 0 0,-24 39 7 0 0,4-8-1 0 0,-5 8-2 0 0,6-8-1 0 0,6-11-12 0 0,-12 21 16 0 0,1 0-16 0 0,5-10 0 0 0,-5 8-2 0 0,-2 6 18 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1-1 0 0,0 22-11 0 0,-5 34 1 0 0,4-52 12 0 0,-5 32-7 0 0,5-32 7 0 0,-4 7-1 0 0,1 0-6 0 0,3-10 7 0 0,0 0-1 0 0,0 1 1 0 0,-2 2 0 0 0,-1 1 0 0 0,-2 6 0 0 0,-13 18 0 0 0,18-28 0 0 0,-5 5 0 0 0,2-4 0 0 0,4-3-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,-2-4-11 0 0,2 1-7 0 0,-2-6 0 0 0,2 8 13 0 0,1-1-16 0 0,0 2 22 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,14 6-2 0 0,12 4-7 0 0,-22-9 8 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,5-1 0 0 0,-4 0 1 0 0,1-1 0 0 0,-1 0 0 0 0,7-1 0 0 0,-8 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,3-2 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,8-9 0 0 0,-6 6 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,9-16 0 0 0,4-15 0 0 0,-18 35 0 0 0,3-7 0 0 0,-3 7 0 0 0,1 0 0 0 0,1-5 0 0 0,0 3 0 0 0,3-12 0 0 0,-1 4 0 0 0,-2 4 0 0 0,0-1 0 0 0,1-19 0 0 0,-2 16 0 0 0,7-46 0 0 0,-6 32 0 0 0,2-10 0 0 0,0 0 0 0 0,-4 28 0 0 0,-1 3 0 0 0,0 14 47 0 0,2 7 0 0 0,0 6 92 0 0,-2-4-19 0 0,0-10-92 0 0,-1 35 143 0 0,-1-1 133 0 0,1-17-128 0 0,0 6-64 0 0,0 31 121 0 0,1-43-73 0 0,5 27 0 0 0,-1-22-71 0 0,9 41 175 0 0,-12-58-208 0 0,1 0 0 0 0,3 8-1 0 0,-5-13-49 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,1-2 1 0 0,1 0 0 0 0,-1 0 0 0 0,4-4-1 0 0,-4 5 5 0 0,2-4 4 0 0,0 0-1 0 0,6-11 1 0 0,-6 10-4 0 0,-1-1-7 0 0,1 1 0 0 0,-1-1 0 0 0,3-9-1 0 0,-3 6 3 0 0,2-6 0 0 0,0 0 0 0 0,3-4 4 0 0,-7 16-5 0 0,2-5 0 0 0,-1 2-1 0 0,-2 3-2 0 0,-1 6 0 0 0,-2 1 0 0 0,1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 6 0 0 0,0 1 0 0 0,0 13 0 0 0,1-22 0 0 0,0 5 0 0 0,1 5 0 0 0,-1-9 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,2 3 0 0 0,-1-2 9 0 0,0-2-4 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1-4 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,1-1 5 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1-3-1 0 0,3-2 16 0 0,0 0 0 0 0,5-10 1 0 0,9-15 54 0 0,2-3-35 0 0,-11 19-14 0 0,-6 9 8 0 0,5-8 1 0 0,-1 2 21 0 0,-8 11-42 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,1-2 1 0 0,-2 2 24 0 0,0 5 18 0 0,-1 3-28 0 0,0 1-1 0 0,0-1 1 0 0,-5 16-1 0 0,4-15-7 0 0,-2 8 35 0 0,4-17-53 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-4 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,6-7 13 0 0,14-23 3 0 0,-15 22-9 0 0,7-14 0 0 0,-6 9-2 0 0,17-31 27 0 0,-18 35-23 0 0,-4 6 4 0 0,1 0 0 0 0,4-7 0 0 0,-5 9 5 0 0,1-1 11 0 0,-2 2-28 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 11 42 0 0,0-3-30 0 0,0 9 0 0 0,-4 25 30 0 0,2-23-30 0 0,-5 30 37 0 0,7-38-47 0 0,1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,3 17 1 0 0,-4-25-3 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,2 3 0 0 0,-3-5-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,2-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,4-4 0 0 0,-4 3 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,3-4 0 0 0,-2 2 0 0 0,4-6 0 0 0,-1 0 0 0 0,6-12 0 0 0,-5 7 0 0 0,5-24 0 0 0,-8 25 0 0 0,-1 0 0 0 0,1-25 0 0 0,-4 13 0 0 0,-1 14 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,-7-18 0 0 0,4 16 0 0 0,0 0 0 0 0,-16-23 0 0 0,13 23 0 0 0,-1 1 0 0 0,-13-13 0 0 0,16 20 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 1 0 0 0,1 1 0 0 0,-11-6 0 0 0,4 4 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 1 0 0 0,1 1 0 0 0,-26-4 0 0 0,18 5 6 0 0,0 1 0 0 0,0 1 1 0 0,-24 2-1 0 0,-81 16 18 0 0,93-9-12 0 0,-57 19 0 0 0,13 5 24 0 0,-92 51 0 0 0,89-34-9 0 0,1 5 9 0 0,-30 32 7 0 0,75-56-29 0 0,9-7 10 0 0,-38 41 0 0 0,-9 23 39 0 0,61-71-42 0 0,1 0 1 0 0,-13 26-1 0 0,20-33 1 0 0,0 2 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-3 21 0 0 0,6-28-14 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 1 0 0,3 4-1 0 0,-1-5 8 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,0 1 1 0 0,3 2-1 0 0,2 1 40 0 0,0 0 0 0 0,11 5 0 0 0,-13-8-33 0 0,1 0-1 0 0,-1-1 1 0 0,1 0 0 0 0,7 2-1 0 0,4-1 54 0 0,35 2-1 0 0,18-7 50 0 0,-62 1-109 0 0,87-10 110 0 0,117-36 66 0 0,16-7-34 0 0,-187 44-133 0 0,47-10 32 0 0,-42 12-30 0 0,106-17 54 0 0,-108 19-59 0 0,67-1 0 0 0,-103 7-20 0 0,11 0 12 0 0,23 3-1 0 0,-5 4-10 0 0,-35-6-3 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,5 3 0 0 0,11 9 3 0 0,-18-13-4 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 3 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-5 6 0 0 0,-4 2 0 0 0,-21 16 0 0 0,-37 23 0 0 0,-2-3 0 0 0,49-34 0 0 0,-73 41 0 0 0,-4-5 0 0 0,39-19 0 0 0,-80 34 0 0 0,88-41 0 0 0,-35 14 0 0 0,46-20 1 0 0,-102 40 6 0 0,-49 10 17 0 0,165-60-11 0 0,-1 0 0 0 0,-49 5 1 0 0,72-12-10 0 0,0-1 0 0 0,1 0 1 0 0,-13-2-1 0 0,16 2-3 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-4-3 0 0 0,4 3 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-3 1 0 0,1-1 2 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,3-6 0 0 0,3-5 0 0 0,0 1 1 0 0,2 1 0 0 0,-1 0 0 0 0,2 0 0 0 0,0 1 0 0 0,0 0-1 0 0,19-15 1 0 0,-15 15-3 0 0,26-23-2 0 0,28-27 0 0 0,12-2 0 0 0,70-49-24 0 0,-108 83 16 0 0,37-23-20 0 0,2 4 0 0 0,-25 15 12 0 0,166-97-136 0 0,-111 71 34 0 0,-18 9 28 0 0,3 4 2 0 0,-15 10-58 0 0,-46 17 68 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="328.63">881 448 8240 0 0,'0'0'0'0'0,"15"-11"0"0"0,0 1 0 0 0,1-1 88 0 0,1 3 8 0 0,2-2-8 0 0,1 3 16 0 0,-1-1-48 0 0,-2-1 0 0 0,0 0 8 0 0,1 0 0 0 0,0 1 80 0 0,0 1 8 0 0,0 0-8 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="654.94">1164 342 4416 0 0,'0'0'0'0'0,"8"-4"0"0"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="654.93">1164 342 4416 0 0,'0'0'0'0'0,"8"-4"0"0"0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1886.38">1378 490 1200 0 0,'0'0'0'0'0</inkml:trace>
 </inkml:ink>
 </file>
@@ -4760,9 +5100,9 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="45854.87">1005 1172 6328 0 0,'0'0'1200'0'0,"0"-2"-1074"0"0,1 1-98 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,11-5 313 0 0,-10 5-290 0 0,23-13 306 0 0,-2 0-146 0 0,32-13 325 0 0,-45 22-451 0 0,0 1-1 0 0,13-3 1 0 0,-8 2-20 0 0,1 0 21 0 0,-9 4-14 0 0,11-6 0 0 0,-13 6-38 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="48686.4">41 1424 7528 0 0,'-2'2'8'0'0,"0"0"26"0"0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-4 1 0 0 0,6-1-25 0 0,-1-1 11 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1-1-4 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-2 0 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-1 404 0 0,2 1-412 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,3-2 30 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,3-3-1 0 0,-2 1 4 0 0,26-19 96 0 0,38-25 0 0 0,14 0-32 0 0,17-10-31 0 0,178-92 54 0 0,-251 138-120 0 0,123-59 39 0 0,-106 50-36 0 0,167-79 39 0 0,-148 75-34 0 0,49-21 3 0 0,-28 8 0 0 0,36-17 10 0 0,4 6-18 0 0,107-27 3 0 0,-95 25-5 0 0,-104 37-6 0 0,56-23 4 0 0,-26 15-4 0 0,12-4-1 0 0,59-15 12 0 0,-109 33 2 0 0,-24 8-15 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-2 1 1 0 0,-4 0 0 0 0,-62 16 100 0 0,-2 6 60 0 0,54-18-136 0 0,-28 8 33 0 0,-13 5 29 0 0,-25 16 263 0 0,22-9-123 0 0,-56 20 28 0 0,34-13-7 0 0,-75 33 312 0 0,120-47-473 0 0,-52 25 104 0 0,2 6 58 0 0,80-44-220 0 0,-46 26 148 0 0,38-25-119 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="49388.94">1431 1068 1896 0 0,'0'0'0'0'0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="334209.56">1295 1049 992 0 0,'0'0'2352'0'0,"-1"1"-2215"0"0,-6 10 374 0 0,6-9-388 0 0,1-2-96 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 3 54 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 2 0 0 0,-1-3-26 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,2 0 1 0 0,1 1 36 0 0,-4-2-70 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,5 0 309 0 0,-5 0-239 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,1-2 0 0 0,-2 1 5 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,2-3 1 0 0,-1 2-13 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,5-2 0 0 0,-7 4-47 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-2 1 0 0,7-9 197 0 0,-4 4-21 0 0,-3 6-133 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0-5 0 0 0,0 3 80 0 0,0 0 0 0 0,-1-6 0 0 0,0 11-127 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0-18 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 1-4 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,2 5 82 0 0,7 18 139 0 0,-6-19-185 0 0,-2-4-33 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 2 0 0 0,2 8 92 0 0,1-4 37 0 0,-4-7-130 0 0,0 0-9 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,1 1 32 0 0,-1-1-12 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,2 1 0 0 0,-2-1-19 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,8-6 49 0 0,-8 6-44 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,2-2-1 0 0,1-3 25 0 0,-3 5-30 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,2-1 0 0 0,-1 1 2 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,2-2 0 0 0,3-7 23 0 0,5-8 24 0 0,-9 16-37 0 0,-2 2-14 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-2 1 0 0,0 2-3 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-2 1 1 0 0,1 0-3 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2 4 0 0 0,-2 0 0 0 0,4-3 0 0 0,0 0 0 0 0,0 0 0 0 0,-2 3 0 0 0,-3 3 0 0 0,6-7 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 4 0 0 0,0-6 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,27-9-8 0 0,-26 8 6 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,4-4 0 0 0,0-1-15 0 0,-5 5-11 0 0,1-1-1 0 0,4-5 1 0 0,-6 7 21 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,-2-1-28 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-3-1 0 0,2 4 21 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 2 0 0,0-1-29 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-1-1 0 0,5 2 35 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,6 7-20 0 0,-6-6 13 0 0,2 1 4 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,5 2-1 0 0,1 0-9 0 0,-6-2 10 0 0,9 3 0 0 0,-2-1-1 0 0,-4 0 2 0 0,-2-2-5 0 0,-3-1 8 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 4 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="334737.6">1668 930 7832 0 0,'0'0'1384'0'0,"1"1"-1334"0"0,1 1-38 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 3-1 0 0,-2-3 7 0 0,1-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,1 1-1 0 0,-1 0 13 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,0 1-1 0 0,0-1-1 0 0,-1-1-20 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 2 0 0 0,0-2-7 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-2-5-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-5-7 0 0 0,8 10 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,2-3 0 0 0,0-2 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,7-8 0 0 0,-3 4 0 0 0,-6 7 0 0 0,28-40 8 0 0,-26 37 0 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="335584.16">1747 704 7432 0 0,'0'0'193'0'0,"0"2"6"0"0,1 3 38 0 0,1 9 1 0 0,1 7-24 0 0,-2-12-81 0 0,0 1-1 0 0,5 15 0 0 0,5 22 294 0 0,-6-25-160 0 0,-4-20-239 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 5 1 0 0,0 7 89 0 0,3-8-51 0 0,-3-6-58 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1-1 63 0 0,-1 0-21 0 0,-1 3 6 0 0,1-3-55 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-4-2 41 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-9-1 0 0 0,9 2 40 0 0,1 1-10 0 0,0-1 1 0 0,1 1 0 0 0,-4 0 0 0 0,5 0-41 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 2 0 0 0,2-2 272 0 0,2 0-207 0 0,3 0-61 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,8-3 0 0 0,3 0-5 0 0,15-1 47 0 0,11-4 34 0 0,-24 6-61 0 0,1-1 30 0 0,-3-1-39 0 0,-12 4-29 0 0,-2 1-10 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1-2 0 0 0,1 2-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,2-6 77 0 0,-2 6-75 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,0-1 82 0 0,1 2-76 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-3 0 35 0 0,0 0 0 0 0,-5 2 0 0 0,3-1-20 0 0,1-1 16 0 0,0 1 0 0 0,-8 5-1 0 0,10-6-26 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1 2 0 0 0,2-4-8 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 2-1 0 0,-1-1 2 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,1 0 1 0 0,0 1 3 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,3 0 1 0 0,1 0 8 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,6-2-1 0 0,-8 1 3 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,7-5 0 0 0,-1 1 14 0 0,3-2 23 0 0,-9 5-43 0 0,1 0 0 0 0,4-2 1 0 0,-3 3-2 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-95287.17">1295 1049 992 0 0,'0'0'2352'0'0,"-1"1"-2215"0"0,-6 10 374 0 0,6-9-388 0 0,1-2-96 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 3 54 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 2 0 0 0,-1-3-26 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,2 0 1 0 0,1 1 36 0 0,-4-2-70 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,5 0 309 0 0,-5 0-239 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,1-2 0 0 0,-2 1 5 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,2-3 1 0 0,-1 2-13 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,5-2 0 0 0,-7 4-47 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-2 1 0 0,7-9 197 0 0,-4 4-21 0 0,-3 6-133 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0-5 0 0 0,0 3 80 0 0,0 0 0 0 0,-1-6 0 0 0,0 11-127 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0-18 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 1-4 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,2 5 82 0 0,7 18 139 0 0,-6-19-185 0 0,-2-4-33 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 2 0 0 0,2 8 92 0 0,1-4 37 0 0,-4-7-130 0 0,0 0-9 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,1 1 32 0 0,-1-1-12 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,2 1 0 0 0,-2-1-19 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,8-6 49 0 0,-8 6-44 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,2-2-1 0 0,1-3 25 0 0,-3 5-30 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,2-1 0 0 0,-1 1 2 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,2-2 0 0 0,3-7 23 0 0,5-8 24 0 0,-9 16-37 0 0,-2 2-14 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-2 1 0 0,0 2-3 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-2 1 1 0 0,1 0-3 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2 4 0 0 0,-2 0 0 0 0,4-3 0 0 0,0 0 0 0 0,0 0 0 0 0,-2 3 0 0 0,-3 3 0 0 0,6-7 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 4 0 0 0,0-6 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,27-9-8 0 0,-26 8 6 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,4-4 0 0 0,0-1-15 0 0,-5 5-11 0 0,1-1-1 0 0,4-5 1 0 0,-6 7 21 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,-2-1-28 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-3-1 0 0,2 4 21 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 2 0 0,0-1-29 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-1-1 0 0,5 2 35 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,6 7-20 0 0,-6-6 13 0 0,2 1 4 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,5 2-1 0 0,1 0-9 0 0,-6-2 10 0 0,9 3 0 0 0,-2-1-1 0 0,-4 0 2 0 0,-2-2-5 0 0,-3-1 8 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 4 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-94759.14">1668 930 7832 0 0,'0'0'1384'0'0,"1"1"-1334"0"0,1 1-38 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 3-1 0 0,-2-3 7 0 0,1-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,1 1-1 0 0,-1 0 13 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,0 1-1 0 0,0-1-1 0 0,-1-1-20 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 2 0 0 0,0-2-7 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-2-5-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-5-7 0 0 0,8 10 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,2-3 0 0 0,0-2 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,7-8 0 0 0,-3 4 0 0 0,-6 7 0 0 0,28-40 8 0 0,-26 37 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-93912.57">1747 704 7432 0 0,'0'0'193'0'0,"0"2"6"0"0,1 3 38 0 0,1 9 1 0 0,1 7-24 0 0,-2-12-81 0 0,0 1-1 0 0,5 15 0 0 0,5 22 294 0 0,-6-25-160 0 0,-4-20-239 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 5 1 0 0,0 7 89 0 0,3-8-51 0 0,-3-6-58 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1-1 63 0 0,-1 0-21 0 0,-1 3 6 0 0,1-3-55 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-4-2 41 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-9-1 0 0 0,9 2 40 0 0,1 1-10 0 0,0-1 1 0 0,1 1 0 0 0,-4 0 0 0 0,5 0-41 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 2 0 0 0,2-2 272 0 0,2 0-207 0 0,3 0-61 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,8-3 0 0 0,3 0-5 0 0,15-1 47 0 0,11-4 34 0 0,-24 6-61 0 0,1-1 30 0 0,-3-1-39 0 0,-12 4-29 0 0,-2 1-10 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1-2 0 0 0,1 2-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,2-6 77 0 0,-2 6-75 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,0-1 82 0 0,1 2-76 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-3 0 35 0 0,0 0 0 0 0,-5 2 0 0 0,3-1-20 0 0,1-1 16 0 0,0 1 0 0 0,-8 5-1 0 0,10-6-26 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1 2 0 0 0,2-4-8 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 2-1 0 0,-1-1 2 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,1 0 1 0 0,0 1 3 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,3 0 1 0 0,1 0 8 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,6-2-1 0 0,-8 1 3 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,7-5 0 0 0,-1 1 14 0 0,3-2 23 0 0,-9 5-43 0 0,1 0 0 0 0,4-2 1 0 0,-3 3-2 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -5605,6 +5945,146 @@
 </inkml:ink>
 </file>
 
+<file path=xl/ink/ink56.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-25T08:28:54.817"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1772 1136 2904 0 0,'1'0'8'0'0,"0"0"3"0"0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,3-1 1 0 0,16-11 198 0 0,-5 4-5 0 0,-7 3-124 0 0,3-1 8 0 0,-5 3-66 0 0,6-5 0 0 0,-3 2-5 0 0,14-11 13 0 0,-15 10 3 0 0,9-6-1 0 0,-2 3 51 0 0,-9 5-30 0 0,11-6 1 0 0,-6 5 95 0 0,1-1 0 0 0,10-9 1 0 0,12-8 467 0 0,-25 20-477 0 0,-7 3-34 0 0,1 0-1 0 0,3-3 1 0 0,-5 4-63 0 0,2-2 64 0 0,-3 1-100 0 0,0 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 1 65 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">105 1195 1496 0 0,'0'-1'8'0'0,"1"-3"16"0"0,0 0 1 0 0,0-8-1 0 0,-1 8-2 0 0,2-9 376 0 0,-1 6-239 0 0,0-3 135 0 0,5-14 0 0 0,-3 8 165 0 0,-1 6-214 0 0,4-26 116 0 0,-2 10-241 0 0,1-1-64 0 0,3-15 6 0 0,2-22 179 0 0,5-23 135 0 0,-11 61-257 0 0,2-19 194 0 0,5-34 75 0 0,-3 25-79 0 0,3-23 144 0 0,-10 64-220 0 0,0-16-1 0 0,-1 18-102 0 0,0 10-90 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-2 0 0 0,1 2 344 0 0,0 1-275 0 0,1 2-24 0 0,0 4-1 0 0,1 2-19 0 0,13 82 437 0 0,-12-78-461 0 0,4 15 33 0 0,9 30 66 0 0,-11-44-113 0 0,13 42 39 0 0,6 20-2 0 0,0-5-37 0 0,-6-18-23 0 0,-11-36-9 0 0,14 31-1 0 0,1 1-31 0 0,-14-29-72 0 0,12 20 1 0 0,-19-39 82 0 0,1 4-108 0 0,5 8-1 0 0,-7-12 114 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 2 0 0 0,0 0-67 0 0,0-2 41 0 0,0 0-248 0 0,-9-4 235 0 0,3 0-11 0 0,-13-4 0 0 0,5 3-87 0 0,7 2 60 0 0,-13-2 0 0 0,12 3 42 0 0,-24-3-314 0 0,-5 2 122 0 0,12 3 88 0 0,15-1 74 0 0,-1 1-1 0 0,-19 3 0 0 0,-56 10-283 0 0,77-11 300 0 0,-16 6-1 0 0,14-4 23 0 0,1 0 10 0 0,-4 1-12 0 0,6-3 22 0 0,2-1-30 0 0,-8 3 0 0 0,12-4 51 0 0,1 0-9 0 0,-1 0 0 0 0,1 0 0 0 0,-3 1 1 0 0,3-1 10 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0-3 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0-5 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 9 0 0,0-1-8 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,1-1-1 0 0,0 1-6 0 0,3-4-39 0 0,1 1-1 0 0,10-7 0 0 0,19-10-99 0 0,-11 6 43 0 0,6-5 9 0 0,-6 3 29 0 0,-6 5 6 0 0,9-6-26 0 0,-26 18 97 0 0,36-19-92 0 0,-31 16 77 0 0,4-1-23 0 0,15-8-1 0 0,24-24-65 0 0,-39 30 72 0 0,19-12-1 0 0,7-2-17 0 0,13-7-3 0 0,-34 19 68 0 0,24-17 0 0 0,-26 14-9 0 0,-1 2 37 0 0,0-1 34 0 0,-7 6-31 0 0,0 0 0 0 0,0 0 0 0 0,8-4 0 0 0,-11 7 51 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,4-1 1 0 0,-1 1 910 0 0,-8 4-581 0 0,1-1-298 0 0,-4 6-3 0 0,0 0-1 0 0,-6 14 0 0 0,-3 3 196 0 0,9-16-181 0 0,0-1 0 0 0,-8 9-1 0 0,6-8-11 0 0,-10 15-1 0 0,-3 11 99 0 0,4-10-94 0 0,-1 3-1 0 0,12-17-72 0 0,0 0 1 0 0,-4 12-1 0 0,-13 25 106 0 0,11-23-55 0 0,10-21-90 0 0,0 0-1 0 0,-3 4 1 0 0,4-6-14 0 0,1-1-3 0 0,0-1-2 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,2-3 0 0 0,-3 2 0 0 0,10-6 0 0 0,-6 4-5 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,3-6 0 0 0,13-30-40 0 0,-16 33 42 0 0,11-23-39 0 0,-7 19 15 0 0,6-21 0 0 0,-8 16 8 0 0,4-12-18 0 0,10-12-96 0 0,-8 17-128 0 0,-9 17 171 0 0,5-12 1 0 0,1-2-144 0 0,6-7-145 0 0,-13 26 344 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,1-2-1 0 0,-2 3 22 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 4 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,3 6-21 0 0,-3-5 13 0 0,1 4-9 0 0,0 1-1 0 0,0-1 0 0 0,0 9 1 0 0,-1-9 4 0 0,-1 0 1 0 0,-1 10-1 0 0,0-5-7 0 0,-3 15-19 0 0,0-2 6 0 0,3-10 14 0 0,-7 23 0 0 0,-5 22-30 0 0,10-30 51 0 0,2-16 3 0 0,-5 25 1 0 0,6-36 3 0 0,1 1 0 0 0,-1 4-1 0 0,0-1 4 0 0,1-3 10 0 0,0-3-13 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-3 16 0 0,2 0-10 0 0,-2 1-4 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,2-3 0 0 0,1-4 3 0 0,-1 0 1 0 0,5-18-1 0 0,-5 16 5 0 0,5-13 0 0 0,-3 8 0 0 0,7-25 0 0 0,-8 21-4 0 0,3-10-4 0 0,3-11 14 0 0,1 0 1 0 0,-11 40-16 0 0,5-23 16 0 0,-3 19-11 0 0,-1 0 0 0 0,5-9 0 0 0,6-8 6 0 0,9-21 12 0 0,-20 41-21 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,4-3 0 0 0,-1 1 4 0 0,9-5 0 0 0,-12 8-5 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 2 0 0 0,0 5 9 0 0,1 14-1 0 0,-2-22-9 0 0,1 38 22 0 0,-1-24-19 0 0,-2 15 19 0 0,0-17-17 0 0,-3 29 6 0 0,1-11-5 0 0,-7 43 22 0 0,9-61-25 0 0,-1 13 12 0 0,0 0-9 0 0,2-18 1 0 0,0 1-1 0 0,0 17 1 0 0,1-24-2 0 0,1 0 0 0 0,-1 1 1 0 0,1 3-1 0 0,0-6-5 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,2-2 30 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,4-2 0 0 0,-6 5-31 0 0,4-4 34 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,3-5-1 0 0,18-39 271 0 0,-16 36-202 0 0,-1-1-1 0 0,10-23 1 0 0,-15 30-77 0 0,9-25 81 0 0,-7 24-53 0 0,7-14-1 0 0,-6 14-3 0 0,6-17-1 0 0,1-10 44 0 0,3-6 15 0 0,-2 4-26 0 0,-10 27-63 0 0,7-28 55 0 0,-6 21-20 0 0,-2 11-12 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-9-1 0 0,-1 12-26 0 0,-2-13 65 0 0,2 14-68 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-2-1 0 0 0,2 3-8 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 10 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,-3 2 0 0 0,4-3-11 0 0,-2 2 6 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-2 2-1 0 0,-13 19 77 0 0,14-20-68 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-2 8 0 0 0,-1-1 10 0 0,-10 26 72 0 0,2-7 23 0 0,-1 1-19 0 0,2 10 51 0 0,1-7 17 0 0,7-22-83 0 0,2 1 0 0 0,-4 24 0 0 0,5-15-2 0 0,0-2-19 0 0,1-17-39 0 0,0 1 1 0 0,1 7 0 0 0,-1-2 9 0 0,1-7-23 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,2 2 1 0 0,-3-4-13 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,2-1 0 0 0,1 0-6 0 0,-1 1 5 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,2-3-1 0 0,0-2-3 0 0,3-7 0 0 0,4-21-20 0 0,-5 17 5 0 0,7-24-20 0 0,-5 12 5 0 0,-5 19 27 0 0,1-8-9 0 0,5-16-12 0 0,-8 34 25 0 0,10-41-136 0 0,-5 14 67 0 0,3-15-41 0 0,-4 19 86 0 0,-1 0-1 0 0,0-26 1 0 0,-3 33 12 0 0,-1 10 8 0 0,0-4-18 0 0,1 10 22 0 0,0 1 4 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 3-15 0 0,-1 4 14 0 0,2-3-1 0 0,-2 8-2 0 0,2 0 0 0 0,0 17 0 0 0,0-10 2 0 0,0-11 1 0 0,2 63-14 0 0,0 11 15 0 0,-2-40 0 0 0,-3 102-12 0 0,1-83 1 0 0,-2 20-49 0 0,3-62 47 0 0,-7 82-58 0 0,1-39 26 0 0,-4-1 1 0 0,-8 23-9 0 0,-3-2-13 0 0,4-27 33 0 0,8-26 25 0 0,-8 22 8 0 0,-14 23 0 0 0,29-69 1 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,-9 8 1 0 0,12-12-1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,-3 1 0 0 0,4-3-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-2-1 0 0 0,1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-2 0 0 0,-1-4 3 0 0,1 5-3 0 0,-1-22-3 0 0,4-11-6 0 0,2-2 4 0 0,-1 15-30 0 0,-1-3-11 0 0,6-28-44 0 0,-6 34 72 0 0,29-120-204 0 0,21-70-37 0 0,-46 180 231 0 0,7-26-22 0 0,7-27-24 0 0,-11 42 38 0 0,1-3 8 0 0,1-12-11 0 0,4-22-15 0 0,-4 19 24 0 0,2-9-11 0 0,-12 58 38 0 0,12-72-27 0 0,-14 74 30 0 0,15-84-17 0 0,-2 2 25 0 0,-12 85-8 0 0,4-23 7 0 0,1 0 3 0 0,-6 22-7 0 0,1 0 0 0 0,-1 0 1 0 0,0-5-1 0 0,0 5 45 0 0,1-4 0 0 0,-1 8-39 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1 228 0 0,1 22 63 0 0,-5 27-122 0 0,-1-1-4 0 0,3 1-75 0 0,0-17-49 0 0,-2 23 27 0 0,2-22-43 0 0,-1 12 11 0 0,4-39-43 0 0,-3 51 47 0 0,0 92 47 0 0,8-91-77 0 0,-2-33-1 0 0,-2-16-12 0 0,0 1-1 0 0,1-1 1 0 0,0 0-1 0 0,1 0 1 0 0,6 14-1 0 0,-8-20-3 0 0,0 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,3 2-1 0 0,-3-3 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,2 0 0 0 0,-2-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,2 0 0 0 0,-2 1-6 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,2-2 1 0 0,8-9-21 0 0,-7 7 14 0 0,0-1-6 0 0,0 1 1 0 0,5-8 0 0 0,4-13-48 0 0,-12 25 62 0 0,3-7-21 0 0,0-1 0 0 0,4-12 0 0 0,10-50-95 0 0,-2-8 15 0 0,-12 58 79 0 0,9-82-95 0 0,-10 80 97 0 0,0-17-17 0 0,-3-37-25 0 0,0 71 59 0 0,-1 1 0 0 0,1-1 0 0 0,-4-11 0 0 0,4 15 4 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0-2 1 0 0,0 2 0 0 0,1 1 1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 1 0 0 0,-1-1 0 0 0,2 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 4 1 0 0,-3 4 4 0 0,-1 2 4 0 0,2-6 2 0 0,-2 8-1 0 0,-15 48 66 0 0,4 14 67 0 0,11-2-20 0 0,4-60-94 0 0,1 32 55 0 0,0-23-49 0 0,1-11-9 0 0,-1 0 1 0 0,2 1 0 0 0,-1-1-1 0 0,5 14 1 0 0,-2-13 0 0 0,7 12-1 0 0,-9-20-13 0 0,0 0 0 0 0,1 0 0 0 0,5 7 0 0 0,-2-5 11 0 0,7 8 0 0 0,-10-12-17 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,5 1 0 0 0,-3-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 0 0 0,9-1 1 0 0,-8 0 3 0 0,1-1 0 0 0,8-3 0 0 0,-8 2-5 0 0,0-1-1 0 0,13-7 1 0 0,-16 7-3 0 0,2 0 2 0 0,-1 0-1 0 0,1-1 0 0 0,7-8 1 0 0,15-18 1 0 0,-19 19 0 0 0,0 0 0 0 0,14-25 0 0 0,-20 29-5 0 0,-1 1 0 0 0,0-1 0 0 0,3-14 0 0 0,-4 16 0 0 0,0-4 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1-14 0 0 0,-2 9 0 0 0,0-1 0 0 0,-7-27 0 0 0,-12-22 0 0 0,2 8 0 0 0,2 9 0 0 0,-1-8 0 0 0,6 17 0 0 0,-36-126 17 0 0,41 136-12 0 0,0 2-3 0 0,-13-51 7 0 0,18 73-6 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,-5-7 1 0 0,5 9 1 0 0,-5-6 1 0 0,6 10-4 0 0,1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,-2-2 0 0 0,3 3 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,-1 1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 5-1 0 0,-2 11 7 0 0,4-17-8 0 0,-2 7 4 0 0,2 1 0 0 0,-1 0 0 0 0,2 13 0 0 0,5 26 8 0 0,14 42 16 0 0,5-4-10 0 0,-12-47-8 0 0,31 87 29 0 0,-19-54-26 0 0,0-1-2 0 0,11 18 5 0 0,-26-65-6 0 0,2 0 0 0 0,21 34 1 0 0,-30-53-11 0 0,19 27 0 0 0,-17-27 0 0 0,0 1 0 0 0,0-1 0 0 0,8 7 0 0 0,-6-7-9 0 0,7 4 0 0 0,-12-7 5 0 0,1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,5 1 1 0 0,-6-1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,2-1 1 0 0,-2 0-19 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,6-5 0 0 0,-8 5 10 0 0,2-1-6 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,2-3-1 0 0,-2 2-12 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,3-7 0 0 0,13-75-344 0 0,-16 76 308 0 0,-1-18 0 0 0,-1 11 18 0 0,1-6-39 0 0,-2 0 0 0 0,-1 1-1 0 0,-8-46 1 0 0,3 46 74 0 0,6 19 10 0 0,0 3 3 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1-1 0 0 0,-1 0 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">866 1225 696 0 0,'2'0'0'0'0,"0"0"0"0"0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,13-11 8 0 0,-7 6-8 0 0,10-10 0 0 0,4-3 0 0 0,-4 4 0 0 0,-12 10 0 0 0,0 0 0 0 0,9-5 0 0 0,-10 7 1 0 0,19-10 6 0 0,-17 10 26 0 0,17-6-1 0 0,-15 6 8 0 0,-6 2-25 0 0,-4 2-11 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,3 1 64 0 0,-4-1-61 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,-1 1 1 0 0,-5 10 51 0 0,-13 19 43 0 0,15-24-54 0 0,-12 14 0 0 0,7-11-10 0 0,-14 15 42 0 0,10-13-33 0 0,0 2 19 0 0,-18 16 41 0 0,0-4 0 0 0,28-23-88 0 0,-17 13 56 0 0,18-15-54 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,-5 2 1 0 0,9-3-18 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1-1 25 0 0,2-4-8 0 0,1-1 1 0 0,3-8 0 0 0,-1 5-14 0 0,0 0 18 0 0,9-14-1 0 0,-11 20-17 0 0,0 0-1 0 0,1-1 1 0 0,3-3 0 0 0,0 2 0 0 0,-1 1 5 0 0,10-8 1 0 0,-14 11-11 0 0,9-5 37 0 0,17-16 0 0 0,-18 15-5 0 0,-1 0 0 0 0,1 0 0 0 0,1 1-1 0 0,15-9 1 0 0,-7 6 12 0 0,-7 3 39 0 0,15-6-1 0 0,-11 7-13 0 0,-7 2-11 0 0,14-4 0 0 0,27-5 203 0 0,-42 11-221 0 0,0 0 39 0 0,11-2 0 0 0,-12 3 33 0 0,10 1 1 0 0,31 3 246 0 0,-44-2-316 0 0,-1 0 1 0 0,4 1 0 0 0,0 0 7 0 0,-5-2-32 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,2 3 0 0 0,-4-4-9 0 0,1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 2-1 0 0,-1-2 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 4-1 0 0,0-2 8 0 0,0-1 0 0 0,-1 6 0 0 0,-1 0-1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-9 10 0 0 0,-8 6 5 0 0,-1 2-3 0 0,6-8-18 0 0,-26 25-1 0 0,27-28-1 0 0,-14 12 1 0 0,-6 3-11 0 0,20-15-2 0 0,-23 15 1 0 0,15-14-8 0 0,-13 8-8 0 0,-5 8-31 0 0,34-26 18 0 0,-15 8 0 0 0,9-5 14 0 0,-51 28-152 0 0,-7 1-161 0 0,61-32 255 0 0,-14 11 0 0 0,-1 0-37 0 0,-1-4 29 0 0,11-6 36 0 0,-26 15-93 0 0,36-19 130 0 0,2-1-2 0 0,0 1 0 0 0,-4 2 0 0 0,3-1-12 0 0,0-1 0 0 0,-8 4 1 0 0,5-2-14 0 0,2-1-21 0 0,5-3 49 0 0,1-2-24 0 0,1 0 33 0 0,5-4 0 0 0,-3 2 2 0 0,44-34 18 0 0,-23 16-4 0 0,-3 4 8 0 0,-2 1 20 0 0,9-5 6 0 0,13-5 10 0 0,-19 13-18 0 0,4-5-7 0 0,-2 0 7 0 0,-21 16-31 0 0,45-25 47 0 0,49-13 51 0 0,-74 33-86 0 0,14-5 21 0 0,-32 10-30 0 0,0 1 0 0 0,0 0 1 0 0,11-2-1 0 0,-10 2 2 0 0,10-3 0 0 0,-3 1-3 0 0,1-1 11 0 0,6-1 2 0 0,-15 4-4 0 0,8-3-1 0 0,0 0 8 0 0,44-17 55 0 0,-50 19-64 0 0,8-7 0 0 0,-8 6 0 0 0,1-2 2 0 0,-1 0 0 0 0,11-9 1 0 0,-6 3-2 0 0,22-26 1 0 0,-27 28-13 0 0,-1 2 1 0 0,0 0 1 0 0,6-12 0 0 0,14-32 7 0 0,-16 29-7 0 0,-9 18-1 0 0,6-11-1 0 0,-5 9-1 0 0,-1 4 15 0 0,-1-1 0 0 0,2-6 0 0 0,-2 6 8 0 0,0 0 0 0 0,0-1-1 0 0,0-6 1 0 0,-1 8-15 0 0,0 2-6 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,0 1 9 0 0,0-3 18 0 0,1 4-29 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-2 3 151 0 0,1 0-113 0 0,1 0 0 0 0,-1 4 0 0 0,0-1 9 0 0,-5 18 87 0 0,4-13-82 0 0,-6 21 81 0 0,3-1-44 0 0,1-4-31 0 0,-15 59 82 0 0,1-14-95 0 0,14-48-48 0 0,1-4 0 0 0,1-6-14 0 0,0 2-11 0 0,2-12 8 0 0,0 3 1 0 0,1-3-135 0 0,0-4 149 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-4-11 0 0,-1 3 1 0 0,6-28-96 0 0,-2-2 29 0 0,-1 5 12 0 0,6-47-37 0 0,-8 61 97 0 0,1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,5-11 1 0 0,-2 7 7 0 0,-3 10 1 0 0,0-1 1 0 0,5-9 0 0 0,-2 7 14 0 0,-3 5-10 0 0,0 0 0 0 0,5-6 1 0 0,-3 3 2 0 0,-1 4 7 0 0,-1 0 1 0 0,5-4 0 0 0,-4 4 36 0 0,6-4 0 0 0,0 1 8 0 0,-9 6-57 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,2 0 41 0 0,-1 0 0 0 0,4 1 0 0 0,-5-1-34 0 0,0 0 3 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,0 1 0 0 0,-1 1 22 0 0,1-1 0 0 0,0 1 0 0 0,1 2 1 0 0,-1-2-15 0 0,0 2 23 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 6 0 0 0,0-6-29 0 0,-1 43 203 0 0,0-34-171 0 0,-3 25 65 0 0,0-10-45 0 0,0 19 41 0 0,3-23-57 0 0,1-10-38 0 0,0-9-5 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,3 6 0 0 0,-2-9-7 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,1 2-1 0 0,-1-3-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,3 0 0 0 0,-3-1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,2 0-2 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,4-2 0 0 0,-1 0-9 0 0,-2 2 10 0 0,0-1-1 0 0,1-1 0 0 0,2-3 0 0 0,2-2-5 0 0,-2 3 4 0 0,-1 0 0 0 0,0-1 0 0 0,7-11 0 0 0,-5 4 1 0 0,-3 6 1 0 0,12-25-10 0 0,-7 13 4 0 0,11-24-10 0 0,-18 40 16 0 0,0 0 0 0 0,-1 0 0 0 0,3-6 0 0 0,-2 1 1 0 0,2-8 4 0 0,-3 13-3 0 0,1 0-2 0 0,0-7 0 0 0,-1 8 1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,3-5 0 0 0,-2 5 1 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,2-4-1 0 0,-1-2 3 0 0,0 4 0 0 0,0-4-1 0 0,1-9 7 0 0,1-12 17 0 0,-3 26-21 0 0,0-11 47 0 0,0 14-30 0 0,-1 2-6 0 0,1-2-15 0 0,0 1 4 0 0,0 3 1 0 0,-1-1-7 0 0,-3 35 81 0 0,2-23-24 0 0,0 0-5 0 0,1-10-36 0 0,0-2 2 0 0,0 1 0 0 0,1-1 0 0 0,-1 6 0 0 0,-2 24 80 0 0,1-19-70 0 0,-2 13 19 0 0,0 10 24 0 0,-1 30 65 0 0,4-40-90 0 0,1-10-17 0 0,0-12-12 0 0,0 1 0 0 0,1 7 0 0 0,3 14 27 0 0,-3-23-34 0 0,-1-2-7 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 2 1 0 0,2-1-3 0 0,-4-2 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1-2 0 0 0,4-4 0 0 0,-1 0 0 0 0,1 0 0 0 0,4-10 0 0 0,-5 9 0 0 0,-2 2 0 0 0,6-11 0 0 0,-9 16 0 0 0,13-34 0 0 0,10-36-15 0 0,-23 71 15 0 0,8-26-1 0 0,-7 20 0 0 0,9-31-5 0 0,-8 27 5 0 0,0-15 0 0 0,1-1 2 0 0,-1 15 0 0 0,2-13 4 0 0,0-21 6 0 0,-3 35-6 0 0,-1 6-2 0 0,1 0 0 0 0,0-6-1 0 0,1 2 8 0 0,0-9-1 0 0,-1 6 3 0 0,0-6-3 0 0,-1 3 9 0 0,0-13 38 0 0,0 14-18 0 0,-1 8-17 0 0,0 1 8 0 0,1 4-29 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 2 5 0 0,0 0 0 0 0,0 1 0 0 0,-1 2 0 0 0,1-3-5 0 0,-2 9 4 0 0,0-1 1 0 0,-2 21-1 0 0,1 29 11 0 0,4-46-10 0 0,0 9 1 0 0,-1 1-1 0 0,0 0-9 0 0,-1 37-13 0 0,1-25 8 0 0,0-22 5 0 0,-3 46-34 0 0,2-32 21 0 0,-1 6 5 0 0,-1 27-30 0 0,1-34 20 0 0,2-9 31 0 0,1 2 62 0 0,0-18-59 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,1 3 1 0 0,-1-4 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 2 1 0 0,0-3-4 0 0,2 4 95 0 0,-3-4-98 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 6 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,1-2 0 0 0,-1 0 16 0 0,1 0 0 0 0,1-2 0 0 0,-2 3-26 0 0,-1 0 3 0 0,20-28 141 0 0,-18 24-89 0 0,4-9 0 0 0,-2 3-5 0 0,1-2 39 0 0,4-17 0 0 0,-5 15-39 0 0,6-23 80 0 0,-9 31-106 0 0,1 0 0 0 0,0-11 0 0 0,0 1 5 0 0,0 8-15 0 0,1-4 12 0 0,4-38 73 0 0,-1 2-2 0 0,0 14-4 0 0,-5 29-76 0 0,6-24 82 0 0,-6 27-72 0 0,-1 2 23 0 0,0 1 101 0 0,-6 17-102 0 0,1-6 0 0 0,-2 14-1 0 0,-4 27 68 0 0,7-28-96 0 0,-1 9 10 0 0,4 13 23 0 0,1-31-30 0 0,0-10-8 0 0,0 1 0 0 0,3 10 0 0 0,-1-6 9 0 0,-1-4-13 0 0,0 0 0 0 0,2 5 0 0 0,-1-7-5 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,0-1 1 0 0,4 5-1 0 0,-5-6-2 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,2 1-1 0 0,-2-2-4 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,4-1 0 0 0,-4 1-2 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2-2 0 0 0,4-4 0 0 0,-1 1 0 0 0,8-10 0 0 0,3-6-1 0 0,-15 18 0 0 0,2-3-4 0 0,0-1-1 0 0,6-11 0 0 0,-9 14 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1-10-1 0 0,4-23-16 0 0,-3 17 3 0 0,-3 14 7 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2-10 0 0 0,1 13 3 0 0,0 1 0 0 0,0-1 0 0 0,-3-8 0 0 0,3 10 5 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-3 0 0 0,3 4-1 0 0,1 1 1 0 0,-2-1-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,-4-3 1 0 0,5 4 1 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,-3 1 0 0 0,-6 3-3 0 0,1 0 0 0 0,-19 9-1 0 0,26-11 6 0 0,-14 7-8 0 0,16-7 6 0 0,0-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 3-1 0 0,-2 3-1 0 0,0-1 0 0 0,1 1 0 0 0,-5 10 0 0 0,8-15 4 0 0,-3 6-7 0 0,1-1 0 0 0,-4 11 0 0 0,6-15 6 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,2 5 1 0 0,-1-5 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,3 3-1 0 0,-4-4 1 0 0,2 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,2 0-1 0 0,1 0 2 0 0,4 1-1 0 0,-7-1 0 0 0,3 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,6-1 0 0 0,31-5 7 0 0,-32 4-6 0 0,-1 0 0 0 0,11-4 1 0 0,-3 0 0 0 0,-5 3 0 0 0,-5 1 1 0 0,12-4 0 0 0,16-9 4 0 0,58-28 13 0 0,-75 34-13 0 0,14-8 14 0 0,-23 13-19 0 0,3-1 6 0 0,22-12-1 0 0,-4 0-5 0 0,-28 16-2 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,1-1 0 0 0,0-1 0 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink57.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-25T08:29:59.269"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">244 1381 96 0 0,'4'0'0'0'0,"-2"0"0"0"0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,3 0 0 0 0,-3 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2-6 0 0 0,-1 1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1-11 0 0 0,-1 12 0 0 0,-1 0 0 0 0,-1 0 0 0 0,-1-10 0 0 0,-11-87 0 0 0,3-141 0 0 0,10 174 252 0 0,1 12 195 0 0,4-111 294 0 0,-4 144-540 0 0,1-15 211 0 0,1-22 74 0 0,1-21 22 0 0,-1 30 230 0 0,-3 20 21 0 0,0 32-384 0 0,0 2 306 0 0,3 2-72 0 0,-3-2-580 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,0 4 51 0 0,6 14 87 0 0,-1 0 0 0 0,4 27 0 0 0,3 43 526 0 0,-12-80-609 0 0,11 62 221 0 0,-5-40-178 0 0,-1 3 284 0 0,21 61 0 0 0,-21-82-287 0 0,14 25 0 0 0,-3-7 63 0 0,-7-11-38 0 0,21 41 221 0 0,-24-50-285 0 0,0 0 0 0 0,1 0 0 0 0,10 10 0 0 0,-15-17-24 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,9 6-1 0 0,-6-6-15 0 0,8 6 82 0 0,-12-9-109 0 0,-1 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,3 0 0 0 0,-3-1-5 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-7 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-3 0 0 0,2-2 8 0 0,3-8 24 0 0,0-1 0 0 0,5-23 0 0 0,4-33 36 0 0,-5 20-29 0 0,18-111 37 0 0,-12 66-37 0 0,2-25-44 0 0,-8 41-6 0 0,-4 38-10 0 0,1-61 0 0 0,-7 71 6 0 0,1-49-16 0 0,-1 75 15 0 0,0 1 1 0 0,-1-11-1 0 0,0-3-24 0 0,1 18 16 0 0,1 2 2 0 0,2 5-1 0 0,-1-1 11 0 0,6 12-16 0 0,12 34 1 0 0,16 90-67 0 0,-10 0 20 0 0,-17-65 17 0 0,2 9 5 0 0,1 10 3 0 0,-3-26-5 0 0,-2-22 0 0 0,0-11 16 0 0,18 89-59 0 0,-3-50 25 0 0,-8-28 15 0 0,13 34-27 0 0,-19-61 32 0 0,21 36-1 0 0,-21-42 25 0 0,0-1 2 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">1063 633 3616 0 0,'0'0'321'0'0,"-2"2"-263"0"0,0 0-52 0 0,-7 6 74 0 0,-12 14 0 0 0,13-12 8 0 0,-13 11 0 0 0,-2 4 50 0 0,12-11-73 0 0,7-9-30 0 0,-5 7 1 0 0,5-8-11 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-4 10 0 0 0,7-14-17 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 1 0 0 0,0 3 34 0 0,-1-4 3 0 0,1-1-19 0 0,3-1 13 0 0,0 0-32 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,3-2 1 0 0,3-2 3 0 0,-2 0 0 0 0,8-8 1 0 0,-7 7 9 0 0,8-9 36 0 0,23-28 1 0 0,-33 37-43 0 0,-1-1 0 0 0,0 1 1 0 0,5-10-1 0 0,-5 7-4 0 0,0 2 7 0 0,-3 6-15 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,0-1 9 0 0,0 0-1 0 0,0 1 1 0 0,2-4 0 0 0,-1 3 9 0 0,-2 3-19 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 2 8 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-2 5 1 0 0,0 0-3 0 0,-17 35 46 0 0,13-31-24 0 0,6-9-28 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 2 0 0 0,-1 19 76 0 0,2-21-49 0 0,1-2 45 0 0,2 0-38 0 0,-2 0-34 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,1 0 0 0 0,7-8 12 0 0,0 1 0 0 0,-1-2-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0 0 0 0,10-18 0 0 0,-14 22-12 0 0,0 0 6 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,9-8 0 0 0,-8 9-2 0 0,-1 3 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,6-4 0 0 0,-6 4 8 0 0,-2 1-12 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-2 1-2 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 2 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,0 3 0 0 0,-2 8 1 0 0,-9 37 13 0 0,8-31-7 0 0,2-13-6 0 0,1 0 1 0 0,-1 1-1 0 0,-2 5 1 0 0,2-6 8 0 0,-3 7 0 0 0,4-8 0 0 0,0 0 0 0 0,-1-1 0 0 0,-2 6 0 0 0,4-6 36 0 0,0-3-47 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 26 0 0,3-1 45 0 0,-2 1-70 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-2 11 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,1-3 1 0 0,3-8 42 0 0,8-32 39 0 0,-8 22-26 0 0,10-24-1 0 0,-14 45-63 0 0,22-51 122 0 0,-19 45-102 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,10-10-1 0 0,-6 6 7 0 0,-7 8-18 0 0,1 0 0 0 0,4-5 0 0 0,-6 6-5 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0-3 0 0 0,4-6 49 0 0,-5 9-43 0 0,0 1 1 0 0,-2 1 55 0 0,1 1-69 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 2-1 0 0,0 2 1 0 0,-3 8-1 0 0,1-4 0 0 0,-3 13 0 0 0,3-13 0 0 0,3-7 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 4 0 0 0,0 14-7 0 0,0-8 3 0 0,0 13 0 0 0,1-18 2 0 0,-1 4 4 0 0,0 2-26 0 0,1-1-122 0 0,-1-8 12 0 0,1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,2 7-1 0 0,-2-11 81 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 1 0 0 0,-2-2 47 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,8-6 3 0 0,-1-1 0 0 0,12-17 0 0 0,13-22 3 0 0,-31 45 2 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,3-3 0 0 0,6-4 8 0 0,3-3 118 0 0,-14 11-88 0 0,0 4 33 0 0,-1 6-65 0 0,-1 1-1 0 0,-4 17 0 0 0,4-24-9 0 0,2-3-3 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-2-5 0 0,5-3-378 0 0,0-3 318 0 0,0 0-1 0 0,-1 0 1 0 0,7-10-1 0 0,-6 8 24 0 0,-2 4-13 0 0,0-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,2-6 1 0 0,-4 9 50 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 0 2 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0-3 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,-1 1 1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-5 5 0 0 0,-2 4-18 0 0,6-8 14 0 0,1 1-1 0 0,-5 8 1 0 0,7-12 6 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,2 2-1 0 0,-2-3 2 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 1 0 0,1 0 0 0 0,2-1-3 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,6-7 0 0 0,-5 6 0 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,4-6 1 0 0,-7 9 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,-1-4 0 0 0,1 5 1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-3 1-1 0 0,-4 3 1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">1137 857 2808 0 0,'0'0'40'0'0,"1"-1"-16"0"0,0 1-10 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,2 0 1 0 0,-1 0 90 0 0,0-1-60 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,2 1 0 0 0,-1-1 64 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,1 3 0 0 0,7 19 89 0 0,-6-14-47 0 0,0 0-132 0 0,-1 1 0 0 0,2 18 0 0 0,-3-20-6 0 0,2 29 26 0 0,-3-34 17 0 0,0 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 7 0 0 0,0-4 34 0 0,0 0 1 0 0,1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,4 10 0 0 0,1 10 846 0 0,-1-12-625 0 0,-4-11-195 0 0,0-1 0 0 0,0 1 0 0 0,1 4 0 0 0,-2-6 19 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">1005 1172 6328 0 0,'0'0'1200'0'0,"0"-2"-1074"0"0,1 1-98 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,11-5 313 0 0,-10 5-290 0 0,23-13 306 0 0,-2 0-146 0 0,32-13 325 0 0,-45 22-451 0 0,0 1-1 0 0,13-3 1 0 0,-8 2-20 0 0,1 0 21 0 0,-9 4-14 0 0,11-6 0 0 0,-13 6-38 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4">41 1424 7528 0 0,'-2'2'8'0'0,"0"0"26"0"0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-4 1 0 0 0,6-1-25 0 0,-1-1 11 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1-1-4 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-2 0 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-1 404 0 0,2 1-412 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,3-2 30 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,3-3-1 0 0,-2 1 4 0 0,26-19 96 0 0,38-25 0 0 0,14 0-32 0 0,17-10-31 0 0,178-92 54 0 0,-251 138-120 0 0,123-59 39 0 0,-106 50-36 0 0,167-79 39 0 0,-148 75-34 0 0,49-21 3 0 0,-28 8 0 0 0,36-17 10 0 0,4 6-18 0 0,107-27 3 0 0,-95 25-5 0 0,-104 37-6 0 0,56-23 4 0 0,-26 15-4 0 0,12-4-1 0 0,59-15 12 0 0,-109 33 2 0 0,-24 8-15 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-2 1 1 0 0,-4 0 0 0 0,-62 16 100 0 0,-2 6 60 0 0,54-18-136 0 0,-28 8 33 0 0,-13 5 29 0 0,-25 16 263 0 0,22-9-123 0 0,-56 20 28 0 0,34-13-7 0 0,-75 33 312 0 0,120-47-473 0 0,-52 25 104 0 0,2 6 58 0 0,80-44-220 0 0,-46 26 148 0 0,38-25-119 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5">1431 1068 1896 0 0,'0'0'0'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6">1295 1049 992 0 0,'0'0'2352'0'0,"-1"1"-2215"0"0,-6 10 374 0 0,6-9-388 0 0,1-2-96 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 3 54 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 2 0 0 0,-1-3-26 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,2 0 1 0 0,1 1 36 0 0,-4-2-70 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,5 0 309 0 0,-5 0-239 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,1-2 0 0 0,-2 1 5 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,2-3 1 0 0,-1 2-13 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,5-2 0 0 0,-7 4-47 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-2 1 0 0,7-9 197 0 0,-4 4-21 0 0,-3 6-133 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0-5 0 0 0,0 3 80 0 0,0 0 0 0 0,-1-6 0 0 0,0 11-127 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0-18 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,1 1-4 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,2 5 82 0 0,7 18 139 0 0,-6-19-185 0 0,-2-4-33 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 2 0 0 0,2 8 92 0 0,1-4 37 0 0,-4-7-130 0 0,0 0-9 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,1 1 32 0 0,-1-1-12 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,2 1 0 0 0,-2-1-19 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,8-6 49 0 0,-8 6-44 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,2-2-1 0 0,1-3 25 0 0,-3 5-30 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,2-1 0 0 0,-1 1 2 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,2-2 0 0 0,3-7 23 0 0,5-8 24 0 0,-9 16-37 0 0,-2 2-14 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-2 1 0 0,0 2-3 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-2 1 1 0 0,1 0-3 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2 4 0 0 0,-2 0 0 0 0,4-3 0 0 0,0 0 0 0 0,0 0 0 0 0,-2 3 0 0 0,-3 3 0 0 0,6-7 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 2 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 4 0 0 0,0-6 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,27-9-8 0 0,-26 8 6 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,4-4 0 0 0,0-1-15 0 0,-5 5-11 0 0,1-1-1 0 0,4-5 1 0 0,-6 7 21 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,-2-1-28 0 0,1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-3-1 0 0,2 4 21 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 2 0 0,0-1-29 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-3-1-1 0 0,5 2 35 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,6 7-20 0 0,-6-6 13 0 0,2 1 4 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,5 2-1 0 0,1 0-9 0 0,-6-2 10 0 0,9 3 0 0 0,-2-1-1 0 0,-4 0 2 0 0,-2-2-5 0 0,-3-1 8 0 0,-1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 4 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7">1668 930 7832 0 0,'0'0'1384'0'0,"1"1"-1334"0"0,1 1-38 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 3-1 0 0,-2-3 7 0 0,1-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,1 1-1 0 0,-1 0 13 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,0 1-1 0 0,0-1-1 0 0,-1-1-20 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 2 0 0 0,0-2-7 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-2-5-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,-5-7 0 0 0,8 10 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,2-3 0 0 0,0-2 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,7-8 0 0 0,-3 4 0 0 0,-6 7 0 0 0,28-40 8 0 0,-26 37 0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8">1747 704 7432 0 0,'0'0'193'0'0,"0"2"6"0"0,1 3 38 0 0,1 9 1 0 0,1 7-24 0 0,-2-12-81 0 0,0 1-1 0 0,5 15 0 0 0,5 22 294 0 0,-6-25-160 0 0,-4-20-239 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 5 1 0 0,0 7 89 0 0,3-8-51 0 0,-3-6-58 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1-1 63 0 0,-1 0-21 0 0,-1 3 6 0 0,1-3-55 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-4-2 41 0 0,0 0-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,-9-1 0 0 0,9 2 40 0 0,1 1-10 0 0,0-1 1 0 0,1 1 0 0 0,-4 0 0 0 0,5 0-41 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 2 0 0 0,2-2 272 0 0,2 0-207 0 0,3 0-61 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,8-3 0 0 0,3 0-5 0 0,15-1 47 0 0,11-4 34 0 0,-24 6-61 0 0,1-1 30 0 0,-3-1-39 0 0,-12 4-29 0 0,-2 1-10 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,1 0 0 0 0,-1-2 0 0 0,1 2-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,2-6 77 0 0,-2 6-75 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,0-1 82 0 0,1 2-76 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-3 0 35 0 0,0 0 0 0 0,-5 2 0 0 0,3-1-20 0 0,1-1 16 0 0,0 1 0 0 0,-8 5-1 0 0,10-6-26 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,-1 2 0 0 0,2-4-8 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 2-1 0 0,-1-1 2 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,1 0 1 0 0,0 1 3 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,3 0 1 0 0,1 0 8 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,6-2-1 0 0,-8 1 3 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,7-5 0 0 0,-1 1 14 0 0,3-2 23 0 0,-9 5-43 0 0,1 0 0 0 0,4-2 1 0 0,-3 3-2 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink58.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-25T08:30:52.210"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">219 647 392 0 0,'0'-1'8'0'0,"-5"-5"1"0"0,4 5 2 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-3 0 0 0 0,0-1 86 0 0,0 1 0 0 0,0 1-1 0 0,-8 0 1 0 0,10-1-75 0 0,0 1 14 0 0,-1-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,-2 1-1 0 0,-1 2-25 0 0,3-3-11 0 0,0 1 0 0 0,0 0 0 0 0,-5 4 0 0 0,4-3-1 0 0,0 0 1 0 0,-6 4-1 0 0,2-2 14 0 0,-5 3 95 0 0,9-6-68 0 0,1 0-1 0 0,-1 0 0 0 0,-3 4 0 0 0,-27 27 380 0 0,29-29-329 0 0,3-2-21 0 0,0 1 1 0 0,-5 3-1 0 0,5-2-24 0 0,0-2-5 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 4-1 0 0,0-3 22 0 0,2-2-26 0 0,-1 1 0 0 0,0-1 0 0 0,0 3 1 0 0,1-4-30 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,4 4 95 0 0,-3-3-9 0 0,0 0 0 0 0,3 3 0 0 0,-3-4-80 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,2-1 0 0 0,-1 1 4 0 0,0 0-3 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,3-1 0 0 0,0 1 0 0 0,-1-1 22 0 0,5-3 0 0 0,1 0 32 0 0,-6 3-27 0 0,0 0 1 0 0,4-4-1 0 0,-1 2-6 0 0,-4 2-18 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,2-5-1 0 0,3-2 24 0 0,8-10 48 0 0,2-1 9 0 0,-14 16-86 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,2-4 0 0 0,2-2 21 0 0,-3 2 1 0 0,1 1 1 0 0,3-11-1 0 0,-3 9 10 0 0,-2 3-30 0 0,-1 5-9 0 0,-1-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1-1-1 0 0,1 0 12 0 0,-1 1-7 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,1-2 83 0 0,0 2 1 0 0,-1 2 175 0 0,0 2-233 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 3 0 0 0,-1 3-8 0 0,-4 23 108 0 0,1-5 6 0 0,0 1-27 0 0,4-21-86 0 0,1-4-12 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 2 0 0 0,2 4 54 0 0,-1-6-32 0 0,-1 0 0 0 0,1 0-1 0 0,1 3 1 0 0,-2-4-25 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,1 2 0 0 0,-1-2-5 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,2-1 9 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,5-3 0 0 0,2-3 16 0 0,-6 5-8 0 0,7-6-1 0 0,10-11 33 0 0,9-8 7 0 0,-19 17-32 0 0,-6 8-24 0 0,-1-1 0 0 0,-1-1-1 0 0,8-8 1 0 0,-7 6-3 0 0,17-27 36 0 0,-14 23-39 0 0,-5 8-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,3-6-1 0 0,-4 7 1 0 0,0 2-1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-5 3 0 0 0,-2 1-1 0 0,3-2 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-3 4 0 0 0,-5 5 0 0 0,-2 2-6 0 0,13-13 7 0 0,-2 3-1 0 0,-1 0 1 0 0,1 0-1 0 0,-5 9 0 0 0,-14 31-12 0 0,14-31 7 0 0,5-8 0 0 0,-4 8 0 0 0,7-12 5 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 3 1 0 0,-1-4 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,4-2 1 0 0,-5 2 1 0 0,1-1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,2-2 0 0 0,2-2 0 0 0,5-5 0 0 0,12-15 0 0 0,-13 16 0 0 0,-7 7 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,3-5 0 0 0,-1 1 0 0 0,3-11 0 0 0,-2 2 0 0 0,-1 9 0 0 0,-2 2 0 0 0,2-6 0 0 0,-4 9 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,1-2 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,2-3 0 0 0,-1 3 0 0 0,-1 1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0-2 0 0 0,0 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1-2 0 0 0,2 0 0 0 0,-3 1 0 0 0,-1 3 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 3 0 0 0,-1 1 0 0 0,1-1 0 0 0,-3 7 0 0 0,1-3 0 0 0,-5 21 0 0 0,-4 14 0 0 0,11-42 0 0 0,-1 5 0 0 0,-5 11 0 0 0,-7 21 0 0 0,11-35 0 0 0,1 0 0 0 0,-1 0 0 0 0,-2 4 0 0 0,2-4 0 0 0,0 1 0 0 0,-1 3 0 0 0,0 1 0 0 0,-3 5 0 0 0,3-6 0 0 0,-4 13 0 0 0,2-7 0 0 0,-6 13 0 0 0,-1 4 0 0 0,-8 22 0 0 0,19-47 0 0 0,-2 7 0 0 0,3-8 0 0 0,-1 0 0 0 0,-2 7 0 0 0,0-4 0 0 0,3-5 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-3 2 0 0 0,0 0 0 0 0,2-3 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-3 2 0 0 0,1-1 0 0 0,2-1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,0-5 0 0 0,1-7 2 0 0,2-13 0 0 0,-1 19-1 0 0,0-1 0 0 0,0 1 0 0 0,5-12-1 0 0,-4 14 2 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,7-8-1 0 0,-6 7 0 0 0,0 0 1 0 0,0-1-1 0 0,5-9 0 0 0,-1-1 0 0 0,1 1-1 0 0,20-31 6 0 0,-21 34-6 0 0,-4 7 2 0 0,4-7-1 0 0,31-45 9 0 0,-35 52-11 0 0,26-41 8 0 0,-12 24-3 0 0,-7 10-3 0 0,-6 8-2 0 0,-4 4 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-2 0 0 0,1-1 0 0 0,-2 3 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-3 6 33 0 0,-3 4-19 0 0,0-1-1 0 0,0 1 0 0 0,-5 10 1 0 0,9-13-4 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 9-1 0 0,2-13-5 0 0,-2 34 52 0 0,2-33-52 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,2 4 1 0 0,-2-6-10 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,1-1-12 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 1 0 0,3 0-1 0 0,-2 0 2 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,4-4 0 0 0,-2 0-29 0 0,7-15-1 0 0,3-8-37 0 0,-1 0 8 0 0,-11 24 57 0 0,7-12-20 0 0,-7 13 12 0 0,3-9 1 0 0,-2 5 4 0 0,4-11-21 0 0,-6 11 26 0 0,8-24-22 0 0,-9 29 38 0 0,-1 2 0 0 0,0 3 0 0 0,-1 21 0 0 0,1-10 0 0 0,0-1 0 0 0,0 35 0 0 0,0-33 1 0 0,5 38 6 0 0,2-24 1 0 0,-7-26-6 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,1 2 1 0 0,-1-2-1 0 0,-1 0-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,2-2 0 0 0,2-1-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,6-7 0 0 0,13-15 0 0 0,-19 21 0 0 0,6-11 0 0 0,-2 3 0 0 0,-2 4-1 0 0,15-23-6 0 0,6-13 0 0 0,-24 39 7 0 0,4-8-1 0 0,-5 8-2 0 0,6-8-1 0 0,6-11-12 0 0,-12 21 16 0 0,1 0-16 0 0,5-10 0 0 0,-5 8-2 0 0,-2 6 18 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1-1 0 0,0 22-11 0 0,-5 34 1 0 0,4-52 12 0 0,-5 32-7 0 0,5-32 7 0 0,-4 7-1 0 0,1 0-6 0 0,3-10 7 0 0,0 0-1 0 0,0 1 1 0 0,-2 2 0 0 0,-1 1 0 0 0,-2 6 0 0 0,-13 18 0 0 0,18-28 0 0 0,-5 5 0 0 0,2-4 0 0 0,4-3-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,-2-4-11 0 0,2 1-7 0 0,-2-6 0 0 0,2 8 13 0 0,1-1-16 0 0,0 2 22 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,14 6-2 0 0,12 4-7 0 0,-22-9 8 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,5-1 0 0 0,-4 0 1 0 0,1-1 0 0 0,-1 0 0 0 0,7-1 0 0 0,-8 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,3-2 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,8-9 0 0 0,-6 6 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,9-16 0 0 0,4-15 0 0 0,-18 35 0 0 0,3-7 0 0 0,-3 7 0 0 0,1 0 0 0 0,1-5 0 0 0,0 3 0 0 0,3-12 0 0 0,-1 4 0 0 0,-2 4 0 0 0,0-1 0 0 0,1-19 0 0 0,-2 16 0 0 0,7-46 0 0 0,-6 32 0 0 0,2-10 0 0 0,0 0 0 0 0,-4 28 0 0 0,-1 3 0 0 0,0 14 47 0 0,2 7 0 0 0,0 6 92 0 0,-2-4-19 0 0,0-10-92 0 0,-1 35 143 0 0,-1-1 133 0 0,1-17-128 0 0,0 6-64 0 0,0 31 121 0 0,1-43-73 0 0,5 27 0 0 0,-1-22-71 0 0,9 41 175 0 0,-12-58-208 0 0,1 0 0 0 0,3 8-1 0 0,-5-13-49 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,1-2 1 0 0,1 0 0 0 0,-1 0 0 0 0,4-4-1 0 0,-4 5 5 0 0,2-4 4 0 0,0 0-1 0 0,6-11 1 0 0,-6 10-4 0 0,-1-1-7 0 0,1 1 0 0 0,-1-1 0 0 0,3-9-1 0 0,-3 6 3 0 0,2-6 0 0 0,0 0 0 0 0,3-4 4 0 0,-7 16-5 0 0,2-5 0 0 0,-1 2-1 0 0,-2 3-2 0 0,-1 6 0 0 0,-2 1 0 0 0,1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 6 0 0 0,0 1 0 0 0,0 13 0 0 0,1-22 0 0 0,0 5 0 0 0,1 5 0 0 0,-1-9 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,2 3 0 0 0,-1-2 9 0 0,0-2-4 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1-4 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,1-1 5 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1-3-1 0 0,3-2 16 0 0,0 0 0 0 0,5-10 1 0 0,9-15 54 0 0,2-3-35 0 0,-11 19-14 0 0,-6 9 8 0 0,5-8 1 0 0,-1 2 21 0 0,-8 11-42 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,1-2 1 0 0,-2 2 24 0 0,0 5 18 0 0,-1 3-28 0 0,0 1-1 0 0,0-1 1 0 0,-5 16-1 0 0,4-15-7 0 0,-2 8 35 0 0,4-17-53 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-4 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,6-7 13 0 0,14-23 3 0 0,-15 22-9 0 0,7-14 0 0 0,-6 9-2 0 0,17-31 27 0 0,-18 35-23 0 0,-4 6 4 0 0,1 0 0 0 0,4-7 0 0 0,-5 9 5 0 0,1-1 11 0 0,-2 2-28 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 11 42 0 0,0-3-30 0 0,0 9 0 0 0,-4 25 30 0 0,2-23-30 0 0,-5 30 37 0 0,7-38-47 0 0,1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,3 17 1 0 0,-4-25-3 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,2 3 0 0 0,-3-5-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,2-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,4-4 0 0 0,-4 3 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,3-4 0 0 0,-2 2 0 0 0,4-6 0 0 0,-1 0 0 0 0,6-12 0 0 0,-5 7 0 0 0,5-24 0 0 0,-8 25 0 0 0,-1 0 0 0 0,1-25 0 0 0,-4 13 0 0 0,-1 14 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,-7-18 0 0 0,4 16 0 0 0,0 0 0 0 0,-16-23 0 0 0,13 23 0 0 0,-1 1 0 0 0,-13-13 0 0 0,16 20 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 1 0 0 0,1 1 0 0 0,-11-6 0 0 0,4 4 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 1 0 0 0,1 1 0 0 0,-26-4 0 0 0,18 5 6 0 0,0 1 0 0 0,0 1 1 0 0,-24 2-1 0 0,-81 16 18 0 0,93-9-12 0 0,-57 19 0 0 0,13 5 24 0 0,-92 51 0 0 0,89-34-9 0 0,1 5 9 0 0,-30 32 7 0 0,75-56-29 0 0,9-7 10 0 0,-38 41 0 0 0,-9 23 39 0 0,61-71-42 0 0,1 0 1 0 0,-13 26-1 0 0,20-33 1 0 0,0 2 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-3 21 0 0 0,6-28-14 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 1 0 0,3 4-1 0 0,-1-5 8 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,0 1 1 0 0,3 2-1 0 0,2 1 40 0 0,0 0 0 0 0,11 5 0 0 0,-13-8-33 0 0,1 0-1 0 0,-1-1 1 0 0,1 0 0 0 0,7 2-1 0 0,4-1 54 0 0,35 2-1 0 0,18-7 50 0 0,-62 1-109 0 0,87-10 110 0 0,117-36 66 0 0,16-7-34 0 0,-187 44-133 0 0,47-10 32 0 0,-42 12-30 0 0,106-17 54 0 0,-108 19-59 0 0,67-1 0 0 0,-103 7-20 0 0,11 0 12 0 0,23 3-1 0 0,-5 4-10 0 0,-35-6-3 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,5 3 0 0 0,11 9 3 0 0,-18-13-4 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 3 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-5 6 0 0 0,-4 2 0 0 0,-21 16 0 0 0,-37 23 0 0 0,-2-3 0 0 0,49-34 0 0 0,-73 41 0 0 0,-4-5 0 0 0,39-19 0 0 0,-80 34 0 0 0,88-41 0 0 0,-35 14 0 0 0,46-20 1 0 0,-102 40 6 0 0,-49 10 17 0 0,165-60-11 0 0,-1 0 0 0 0,-49 5 1 0 0,72-12-10 0 0,0-1 0 0 0,1 0 1 0 0,-13-2-1 0 0,16 2-3 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-4-3 0 0 0,4 3 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-3 1 0 0,1-1 2 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,3-6 0 0 0,3-5 0 0 0,0 1 1 0 0,2 1 0 0 0,-1 0 0 0 0,2 0 0 0 0,0 1 0 0 0,0 0-1 0 0,19-15 1 0 0,-15 15-3 0 0,26-23-2 0 0,28-27 0 0 0,12-2 0 0 0,70-49-24 0 0,-108 83 16 0 0,37-23-20 0 0,2 4 0 0 0,-25 15 12 0 0,166-97-136 0 0,-111 71 34 0 0,-18 9 28 0 0,3 4 2 0 0,-15 10-58 0 0,-46 17 68 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">881 448 8240 0 0,'0'0'0'0'0,"15"-11"0"0"0,0 1 0 0 0,1-1 88 0 0,1 3 8 0 0,2-2-8 0 0,1 3 16 0 0,-1-1-48 0 0,-2-1 0 0 0,0 0 8 0 0,1 0 0 0 0,0 1 80 0 0,0 1 8 0 0,0 0-8 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">1164 342 4416 0 0,'0'0'0'0'0,"8"-4"0"0"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">1378 490 1200 0 0,'0'0'0'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink59.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-25T08:32:12.991"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">219 647 392 0 0,'0'-1'8'0'0,"-5"-5"1"0"0,4 5 2 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-3 0 0 0 0,0-1 86 0 0,0 1 0 0 0,0 1-1 0 0,-8 0 1 0 0,10-1-75 0 0,0 1 14 0 0,-1-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,-2 1-1 0 0,-1 2-25 0 0,3-3-11 0 0,0 1 0 0 0,0 0 0 0 0,-5 4 0 0 0,4-3-1 0 0,0 0 1 0 0,-6 4-1 0 0,2-2 14 0 0,-5 3 95 0 0,9-6-68 0 0,1 0-1 0 0,-1 0 0 0 0,-3 4 0 0 0,-27 27 380 0 0,29-29-329 0 0,3-2-21 0 0,0 1 1 0 0,-5 3-1 0 0,5-2-24 0 0,0-2-5 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 4-1 0 0,0-3 22 0 0,2-2-26 0 0,-1 1 0 0 0,0-1 0 0 0,0 3 1 0 0,1-4-30 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,4 4 95 0 0,-3-3-9 0 0,0 0 0 0 0,3 3 0 0 0,-3-4-80 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,2-1 0 0 0,-1 1 4 0 0,0 0-3 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,3-1 0 0 0,0 1 0 0 0,-1-1 22 0 0,5-3 0 0 0,1 0 32 0 0,-6 3-27 0 0,0 0 1 0 0,4-4-1 0 0,-1 2-6 0 0,-4 2-18 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,2-5-1 0 0,3-2 24 0 0,8-10 48 0 0,2-1 9 0 0,-14 16-86 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,2-4 0 0 0,2-2 21 0 0,-3 2 1 0 0,1 1 1 0 0,3-11-1 0 0,-3 9 10 0 0,-2 3-30 0 0,-1 5-9 0 0,-1-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1-1-1 0 0,1 0 12 0 0,-1 1-7 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,1-2 83 0 0,0 2 1 0 0,-1 2 175 0 0,0 2-233 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 3 0 0 0,-1 3-8 0 0,-4 23 108 0 0,1-5 6 0 0,0 1-27 0 0,4-21-86 0 0,1-4-12 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 2 0 0 0,2 4 54 0 0,-1-6-32 0 0,-1 0 0 0 0,1 0-1 0 0,1 3 1 0 0,-2-4-25 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,1 2 0 0 0,-1-2-5 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,2-1 9 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,5-3 0 0 0,2-3 16 0 0,-6 5-8 0 0,7-6-1 0 0,10-11 33 0 0,9-8 7 0 0,-19 17-32 0 0,-6 8-24 0 0,-1-1 0 0 0,-1-1-1 0 0,8-8 1 0 0,-7 6-3 0 0,17-27 36 0 0,-14 23-39 0 0,-5 8-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,3-6-1 0 0,-4 7 1 0 0,0 2-1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-5 3 0 0 0,-2 1-1 0 0,3-2 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-3 4 0 0 0,-5 5 0 0 0,-2 2-6 0 0,13-13 7 0 0,-2 3-1 0 0,-1 0 1 0 0,1 0-1 0 0,-5 9 0 0 0,-14 31-12 0 0,14-31 7 0 0,5-8 0 0 0,-4 8 0 0 0,7-12 5 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 3 1 0 0,-1-4 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,4-2 1 0 0,-5 2 1 0 0,1-1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,2-2 0 0 0,2-2 0 0 0,5-5 0 0 0,12-15 0 0 0,-13 16 0 0 0,-7 7 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,3-5 0 0 0,-1 1 0 0 0,3-11 0 0 0,-2 2 0 0 0,-1 9 0 0 0,-2 2 0 0 0,2-6 0 0 0,-4 9 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,1-2 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,2-3 0 0 0,-1 3 0 0 0,-1 1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0-2 0 0 0,0 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1-2 0 0 0,2 0 0 0 0,-3 1 0 0 0,-1 3 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 3 0 0 0,-1 1 0 0 0,1-1 0 0 0,-3 7 0 0 0,1-3 0 0 0,-5 21 0 0 0,-4 14 0 0 0,11-42 0 0 0,-1 5 0 0 0,-5 11 0 0 0,-7 21 0 0 0,11-35 0 0 0,1 0 0 0 0,-1 0 0 0 0,-2 4 0 0 0,2-4 0 0 0,0 1 0 0 0,-1 3 0 0 0,0 1 0 0 0,-3 5 0 0 0,3-6 0 0 0,-4 13 0 0 0,2-7 0 0 0,-6 13 0 0 0,-1 4 0 0 0,-8 22 0 0 0,19-47 0 0 0,-2 7 0 0 0,3-8 0 0 0,-1 0 0 0 0,-2 7 0 0 0,0-4 0 0 0,3-5 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-3 2 0 0 0,0 0 0 0 0,2-3 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-3 2 0 0 0,1-1 0 0 0,2-1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,0-5 0 0 0,1-7 2 0 0,2-13 0 0 0,-1 19-1 0 0,0-1 0 0 0,0 1 0 0 0,5-12-1 0 0,-4 14 2 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,7-8-1 0 0,-6 7 0 0 0,0 0 1 0 0,0-1-1 0 0,5-9 0 0 0,-1-1 0 0 0,1 1-1 0 0,20-31 6 0 0,-21 34-6 0 0,-4 7 2 0 0,4-7-1 0 0,31-45 9 0 0,-35 52-11 0 0,26-41 8 0 0,-12 24-3 0 0,-7 10-3 0 0,-6 8-2 0 0,-4 4 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-2 0 0 0,1-1 0 0 0,-2 3 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-3 6 33 0 0,-3 4-19 0 0,0-1-1 0 0,0 1 0 0 0,-5 10 1 0 0,9-13-4 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 9-1 0 0,2-13-5 0 0,-2 34 52 0 0,2-33-52 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,2 4 1 0 0,-2-6-10 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,1-1-12 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 1 0 0,3 0-1 0 0,-2 0 2 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,4-4 0 0 0,-2 0-29 0 0,7-15-1 0 0,3-8-37 0 0,-1 0 8 0 0,-11 24 57 0 0,7-12-20 0 0,-7 13 12 0 0,3-9 1 0 0,-2 5 4 0 0,4-11-21 0 0,-6 11 26 0 0,8-24-22 0 0,-9 29 38 0 0,-1 2 0 0 0,0 3 0 0 0,-1 21 0 0 0,1-10 0 0 0,0-1 0 0 0,0 35 0 0 0,0-33 1 0 0,5 38 6 0 0,2-24 1 0 0,-7-26-6 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,1 2 1 0 0,-1-2-1 0 0,-1 0-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,2-2 0 0 0,2-1-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,6-7 0 0 0,13-15 0 0 0,-19 21 0 0 0,6-11 0 0 0,-2 3 0 0 0,-2 4-1 0 0,15-23-6 0 0,6-13 0 0 0,-24 39 7 0 0,4-8-1 0 0,-5 8-2 0 0,6-8-1 0 0,6-11-12 0 0,-12 21 16 0 0,1 0-16 0 0,5-10 0 0 0,-5 8-2 0 0,-2 6 18 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1-1 0 0,0 22-11 0 0,-5 34 1 0 0,4-52 12 0 0,-5 32-7 0 0,5-32 7 0 0,-4 7-1 0 0,1 0-6 0 0,3-10 7 0 0,0 0-1 0 0,0 1 1 0 0,-2 2 0 0 0,-1 1 0 0 0,-2 6 0 0 0,-13 18 0 0 0,18-28 0 0 0,-5 5 0 0 0,2-4 0 0 0,4-3-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,-2-4-11 0 0,2 1-7 0 0,-2-6 0 0 0,2 8 13 0 0,1-1-16 0 0,0 2 22 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,14 6-2 0 0,12 4-7 0 0,-22-9 8 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,5-1 0 0 0,-4 0 1 0 0,1-1 0 0 0,-1 0 0 0 0,7-1 0 0 0,-8 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,3-2 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,8-9 0 0 0,-6 6 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,9-16 0 0 0,4-15 0 0 0,-18 35 0 0 0,3-7 0 0 0,-3 7 0 0 0,1 0 0 0 0,1-5 0 0 0,0 3 0 0 0,3-12 0 0 0,-1 4 0 0 0,-2 4 0 0 0,0-1 0 0 0,1-19 0 0 0,-2 16 0 0 0,7-46 0 0 0,-6 32 0 0 0,2-10 0 0 0,0 0 0 0 0,-4 28 0 0 0,-1 3 0 0 0,0 14 47 0 0,2 7 0 0 0,0 6 92 0 0,-2-4-19 0 0,0-10-92 0 0,-1 35 143 0 0,-1-1 133 0 0,1-17-128 0 0,0 6-64 0 0,0 31 121 0 0,1-43-73 0 0,5 27 0 0 0,-1-22-71 0 0,9 41 175 0 0,-12-58-208 0 0,1 0 0 0 0,3 8-1 0 0,-5-13-49 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,1-2 1 0 0,1 0 0 0 0,-1 0 0 0 0,4-4-1 0 0,-4 5 5 0 0,2-4 4 0 0,0 0-1 0 0,6-11 1 0 0,-6 10-4 0 0,-1-1-7 0 0,1 1 0 0 0,-1-1 0 0 0,3-9-1 0 0,-3 6 3 0 0,2-6 0 0 0,0 0 0 0 0,3-4 4 0 0,-7 16-5 0 0,2-5 0 0 0,-1 2-1 0 0,-2 3-2 0 0,-1 6 0 0 0,-2 1 0 0 0,1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 6 0 0 0,0 1 0 0 0,0 13 0 0 0,1-22 0 0 0,0 5 0 0 0,1 5 0 0 0,-1-9 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,2 3 0 0 0,-1-2 9 0 0,0-2-4 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1-4 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,1-1 5 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1-3-1 0 0,3-2 16 0 0,0 0 0 0 0,5-10 1 0 0,9-15 54 0 0,2-3-35 0 0,-11 19-14 0 0,-6 9 8 0 0,5-8 1 0 0,-1 2 21 0 0,-8 11-42 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,1-2 1 0 0,-2 2 24 0 0,0 5 18 0 0,-1 3-28 0 0,0 1-1 0 0,0-1 1 0 0,-5 16-1 0 0,4-15-7 0 0,-2 8 35 0 0,4-17-53 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-4 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,6-7 13 0 0,14-23 3 0 0,-15 22-9 0 0,7-14 0 0 0,-6 9-2 0 0,17-31 27 0 0,-18 35-23 0 0,-4 6 4 0 0,1 0 0 0 0,4-7 0 0 0,-5 9 5 0 0,1-1 11 0 0,-2 2-28 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 11 42 0 0,0-3-30 0 0,0 9 0 0 0,-4 25 30 0 0,2-23-30 0 0,-5 30 37 0 0,7-38-47 0 0,1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,3 17 1 0 0,-4-25-3 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,2 3 0 0 0,-3-5-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,2-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,4-4 0 0 0,-4 3 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,3-4 0 0 0,-2 2 0 0 0,4-6 0 0 0,-1 0 0 0 0,6-12 0 0 0,-5 7 0 0 0,5-24 0 0 0,-8 25 0 0 0,-1 0 0 0 0,1-25 0 0 0,-4 13 0 0 0,-1 14 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,-1-1 0 0 0,-7-18 0 0 0,4 16 0 0 0,0 0 0 0 0,-16-23 0 0 0,13 23 0 0 0,-1 1 0 0 0,-13-13 0 0 0,16 20 0 0 0,0 0 0 0 0,1 0 0 0 0,-2 1 0 0 0,1 1 0 0 0,-11-6 0 0 0,4 4 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 1 0 0 0,1 1 0 0 0,-26-4 0 0 0,18 5 6 0 0,0 1 0 0 0,0 1 1 0 0,-24 2-1 0 0,-81 16 18 0 0,93-9-12 0 0,-57 19 0 0 0,13 5 24 0 0,-92 51 0 0 0,89-34-9 0 0,1 5 9 0 0,-30 32 7 0 0,75-56-29 0 0,9-7 10 0 0,-38 41 0 0 0,-9 23 39 0 0,61-71-42 0 0,1 0 1 0 0,-13 26-1 0 0,20-33 1 0 0,0 2 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,-3 21 0 0 0,6-28-14 0 0,1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 1 0 0,3 4-1 0 0,-1-5 8 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,0 1 1 0 0,3 2-1 0 0,2 1 40 0 0,0 0 0 0 0,11 5 0 0 0,-13-8-33 0 0,1 0-1 0 0,-1-1 1 0 0,1 0 0 0 0,7 2-1 0 0,4-1 54 0 0,35 2-1 0 0,18-7 50 0 0,-62 1-109 0 0,87-10 110 0 0,117-36 66 0 0,16-7-34 0 0,-187 44-133 0 0,47-10 32 0 0,-42 12-30 0 0,106-17 54 0 0,-108 19-59 0 0,67-1 0 0 0,-103 7-20 0 0,11 0 12 0 0,23 3-1 0 0,-5 4-10 0 0,-35-6-3 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,5 3 0 0 0,11 9 3 0 0,-18-13-4 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 3 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-5 6 0 0 0,-4 2 0 0 0,-21 16 0 0 0,-37 23 0 0 0,-2-3 0 0 0,49-34 0 0 0,-73 41 0 0 0,-4-5 0 0 0,39-19 0 0 0,-80 34 0 0 0,88-41 0 0 0,-35 14 0 0 0,46-20 1 0 0,-102 40 6 0 0,-49 10 17 0 0,165-60-11 0 0,-1 0 0 0 0,-49 5 1 0 0,72-12-10 0 0,0-1 0 0 0,1 0 1 0 0,-13-2-1 0 0,16 2-3 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-4-3 0 0 0,4 3 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-3 1 0 0,1-1 2 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,3-6 0 0 0,3-5 0 0 0,0 1 1 0 0,2 1 0 0 0,-1 0 0 0 0,2 0 0 0 0,0 1 0 0 0,0 0-1 0 0,19-15 1 0 0,-15 15-3 0 0,26-23-2 0 0,28-27 0 0 0,12-2 0 0 0,70-49-24 0 0,-108 83 16 0 0,37-23-20 0 0,2 4 0 0 0,-25 15 12 0 0,166-97-136 0 0,-111 71 34 0 0,-18 9 28 0 0,3 4 2 0 0,-15 10-58 0 0,-46 17 68 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">881 448 8240 0 0,'0'0'0'0'0,"15"-11"0"0"0,0 1 0 0 0,1-1 88 0 0,1 3 8 0 0,2-2-8 0 0,1 3 16 0 0,-1-1-48 0 0,-2-1 0 0 0,0 0 8 0 0,1 0 0 0 0,0 1 80 0 0,0 1 8 0 0,0 0-8 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">1164 342 4416 0 0,'0'0'0'0'0,"8"-4"0"0"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">1378 490 1200 0 0,'0'0'0'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -5636,6 +6116,40 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">881 448 8240 0 0,'0'0'0'0'0,"15"-11"0"0"0,0 1 0 0 0,1-1 88 0 0,1 3 8 0 0,2-2-8 0 0,1 3 16 0 0,-1-1-48 0 0,-2-1 0 0 0,0 0 8 0 0,1 0 0 0 0,0 1 80 0 0,0 1 8 0 0,0 0-8 0 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">1164 342 4416 0 0,'0'0'0'0'0,"8"-4"0"0"0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">1378 490 1200 0 0,'0'0'0'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink60.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2021-07-25T08:32:15.591"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">148 435 392 0 0,'0'0'8'0'0,"-4"-4"1"0"0,4 3 2 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,-1-1 86 0 0,0 1 0 0 0,1 1-1 0 0,-6 0 1 0 0,6-1-75 0 0,1 0 14 0 0,-1 0 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,-1-1 0 0 0,0 2-1 0 0,-1 1-25 0 0,2-3-11 0 0,0 2 0 0 0,0-1 0 0 0,-3 3 0 0 0,2-2-1 0 0,0 0 1 0 0,-4 3-1 0 0,2-2 14 0 0,-4 2 95 0 0,7-3-68 0 0,0-1-1 0 0,-1 1 0 0 0,-2 2 0 0 0,-18 18 380 0 0,20-19-329 0 0,2-2-21 0 0,-1 1 1 0 0,-3 2-1 0 0,4-1-24 0 0,0-2-5 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 3-1 0 0,1-2 22 0 0,1-1-26 0 0,-1 0 0 0 0,1 0 0 0 0,-1 2 1 0 0,1-3-30 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,3 2 95 0 0,-2-1-9 0 0,-1 0 0 0 0,3 1 0 0 0,-2-2-80 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 4 0 0,0 0-3 0 0,1-1 0 0 0,-2 1 0 0 0,2-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-2 0 0 0,1 2 0 0 0,-1-2 22 0 0,3-1 0 0 0,2 0 32 0 0,-5 1-27 0 0,0 1 1 0 0,2-3-1 0 0,0 1-6 0 0,-2 2-18 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 1 0 0,0-3-1 0 0,3-1 24 0 0,5-7 48 0 0,2-1 9 0 0,-10 11-86 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0-3 0 0 0,3-1 21 0 0,-3 1 1 0 0,0 1 1 0 0,3-7-1 0 0,-2 5 10 0 0,-2 3-30 0 0,0 3-9 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 12 0 0,-1 0-7 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-2 83 0 0,1 1 1 0 0,-1 2 175 0 0,0 1-233 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 3 0 0 0,-2 1-8 0 0,-2 16 108 0 0,1-3 6 0 0,0 0-27 0 0,2-14-86 0 0,1-3-12 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 4 54 0 0,0-5-32 0 0,-1 0 0 0 0,1 1-1 0 0,0 1 1 0 0,-1-2-25 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1-5 0 0,0 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 1 1 0 0,0 0-1 0 0,2-1 9 0 0,-1 1-1 0 0,1-1 1 0 0,-1-1-1 0 0,1 2 1 0 0,-1-1-1 0 0,0 0 1 0 0,0-1-1 0 0,4-1 0 0 0,0-2 16 0 0,-3 3-8 0 0,5-4-1 0 0,6-8 33 0 0,6-5 7 0 0,-13 12-32 0 0,-3 5-24 0 0,-2-1 0 0 0,0 0-1 0 0,6-6 1 0 0,-5 4-3 0 0,11-18 36 0 0,-10 16-39 0 0,-2 5-1 0 0,-1 1 1 0 0,0-2 0 0 0,0 1-1 0 0,0 0 1 0 0,2-4-1 0 0,-3 5 1 0 0,0 1-1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-4 2 0 0 0,-1 0-1 0 0,3 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,-2 3 0 0 0,-3 3 0 0 0,-1 2-6 0 0,8-10 7 0 0,-1 3-1 0 0,-1 0 1 0 0,1-1-1 0 0,-3 7 0 0 0,-10 21-12 0 0,10-21 7 0 0,3-6 0 0 0,-3 6 0 0 0,5-9 5 0 0,-1 1 0 0 0,1 1 1 0 0,0-2-1 0 0,0 2 1 0 0,0-2-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 2 1 0 0,-1-3 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,3-1 1 0 0,-3 1 1 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-2 0 0 0,0 2 0 0 0,0-2 0 0 0,0 1 0 0 0,2-2 0 0 0,1-1 0 0 0,3-3 0 0 0,9-11 0 0 0,-9 11 0 0 0,-5 5 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,3-3 0 0 0,-2 0 0 0 0,3-7 0 0 0,-1 1 0 0 0,-2 6 0 0 0,0 2 0 0 0,0-4 0 0 0,-2 5 0 0 0,1 1 0 0 0,-1 1 0 0 0,1-2 0 0 0,-1 2 0 0 0,0-1 0 0 0,2-1 0 0 0,-2 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-3 0 0 0,0 3 0 0 0,-1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0-1 0 0 0,-1 2 0 0 0,1-2 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-2 0 0 0,2 0 0 0 0,-2 1 0 0 0,-1 2 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 3 0 0 0,-1 1 0 0 0,1-2 0 0 0,-2 6 0 0 0,0-3 0 0 0,-2 15 0 0 0,-4 9 0 0 0,8-29 0 0 0,0 4 0 0 0,-4 8 0 0 0,-5 13 0 0 0,7-23 0 0 0,2 0 0 0 0,-2 0 0 0 0,0 3 0 0 0,0-3 0 0 0,1 1 0 0 0,-1 2 0 0 0,0 0 0 0 0,-2 4 0 0 0,2-4 0 0 0,-3 8 0 0 0,2-4 0 0 0,-5 8 0 0 0,0 4 0 0 0,-5 14 0 0 0,12-32 0 0 0,-1 5 0 0 0,2-5 0 0 0,0-1 0 0 0,-3 6 0 0 0,1-3 0 0 0,2-4 0 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-2 0 0 0 0,0 1 0 0 0,1-2 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 2 0 0 0,0-2 0 0 0,0 1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1-3 0 0 0,0-5 2 0 0,1-8 0 0 0,0 12-1 0 0,-1 0 0 0 0,1 0 0 0 0,3-8-1 0 0,-3 10 2 0 0,1-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,5-4-1 0 0,-5 3 0 0 0,1 1 1 0 0,0 0-1 0 0,3-7 0 0 0,-1-1 0 0 0,1 2-1 0 0,14-22 6 0 0,-15 23-6 0 0,-2 5 2 0 0,2-5-1 0 0,22-30 9 0 0,-25 35-11 0 0,19-27 8 0 0,-9 15-3 0 0,-5 7-3 0 0,-3 6-2 0 0,-4 2 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0-1 0 0 0,-1 2 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-2 5 33 0 0,-2 2-19 0 0,0-1-1 0 0,0 1 0 0 0,-3 7 1 0 0,5-9-4 0 0,0 0-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0 5-1 0 0,1-9-5 0 0,-2 23 52 0 0,2-22-52 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,1 1-1 0 0,1 2 1 0 0,-1-4-10 0 0,-1 0 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,2-1 0 0 0,-2 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,2-1-12 0 0,-2 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 1 0 0,2 0-1 0 0,-1-1 2 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,3-3 0 0 0,-2 0-29 0 0,5-10-1 0 0,2-5-37 0 0,0 0 8 0 0,-8 16 57 0 0,4-8-20 0 0,-4 8 12 0 0,2-5 1 0 0,-1 3 4 0 0,2-8-21 0 0,-3 8 26 0 0,5-16-22 0 0,-7 19 38 0 0,0 2 0 0 0,0 2 0 0 0,0 14 0 0 0,0-7 0 0 0,0-1 0 0 0,0 24 0 0 0,0-22 1 0 0,3 25 6 0 0,2-16 1 0 0,-5-17-6 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,2 1 1 0 0,-2-2-1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,1-1 0 0 0,1-1-1 0 0,0 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-2 1 0 0 0,5-6 0 0 0,9-9 0 0 0,-14 13 0 0 0,5-6 0 0 0,-2 1 0 0 0,-1 3-1 0 0,11-16-6 0 0,3-8 0 0 0,-16 26 7 0 0,3-6-1 0 0,-4 6-2 0 0,4-5-1 0 0,5-8-12 0 0,-9 14 16 0 0,1 1-16 0 0,3-8 0 0 0,-3 6-2 0 0,-1 4 18 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1-1 0 0,0 14-11 0 0,-4 23 1 0 0,3-34 12 0 0,-3 21-7 0 0,4-22 7 0 0,-4 5-1 0 0,2 0-6 0 0,1-6 7 0 0,0-1-1 0 0,1 1 1 0 0,-2 1 0 0 0,-1 1 0 0 0,-1 5 0 0 0,-9 11 0 0 0,12-19 0 0 0,-3 4 0 0 0,2-3 0 0 0,2-2-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,-1-3-11 0 0,2 2-7 0 0,-2-5 0 0 0,1 6 13 0 0,1-1-16 0 0,0 1 22 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,9 4-2 0 0,9 3-7 0 0,-15-6 8 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,3-1 0 0 0,-3 0 1 0 0,1-1 0 0 0,0 0 0 0 0,4 0 0 0 0,-6 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,2-2 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-2 0 0 0,6-5 0 0 0,-4 4 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,7-11 0 0 0,1-11 0 0 0,-11 25 0 0 0,2-6 0 0 0,-3 5 0 0 0,2 1 0 0 0,0-4 0 0 0,0 2 0 0 0,2-8 0 0 0,-1 2 0 0 0,-1 3 0 0 0,0 0 0 0 0,1-13 0 0 0,-2 10 0 0 0,5-30 0 0 0,-4 21 0 0 0,2-7 0 0 0,-1 1 0 0 0,-2 18 0 0 0,-1 2 0 0 0,0 10 47 0 0,1 4 0 0 0,0 5 92 0 0,-1-3-19 0 0,0-7-92 0 0,0 23 143 0 0,-2 0 133 0 0,2-11-128 0 0,-1 3-64 0 0,0 22 121 0 0,1-30-73 0 0,4 19 0 0 0,-2-15-71 0 0,7 27 175 0 0,-8-38-208 0 0,0-1 0 0 0,3 6-1 0 0,-4-9-49 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,2-1 1 0 0,0-1 0 0 0,-1 1 0 0 0,3-3-1 0 0,-2 3 5 0 0,0-2 4 0 0,1 0-1 0 0,4-8 1 0 0,-5 7-4 0 0,0-1-7 0 0,1 1 0 0 0,-1-1 0 0 0,2-5-1 0 0,-2 3 3 0 0,2-4 0 0 0,-1 0 0 0 0,2-2 4 0 0,-4 10-5 0 0,1-3 0 0 0,-1 1-1 0 0,-1 3-2 0 0,0 3 0 0 0,-2 1 0 0 0,0-1 0 0 0,2 1 0 0 0,-2 0 0 0 0,2 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 5 0 0 0,1 0 0 0 0,-1 9 0 0 0,1-15 0 0 0,0 3 0 0 0,1 4 0 0 0,-1-7 0 0 0,0 2 0 0 0,0-2 0 0 0,0 1 0 0 0,1 1 0 0 0,-1-2 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 9 0 0,-1-2-4 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0-4 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,0 0 5 0 0,1 0-1 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,2-3 16 0 0,0 1 0 0 0,4-6 1 0 0,5-11 54 0 0,2-2-35 0 0,-8 13-14 0 0,-3 6 8 0 0,3-6 1 0 0,-1 2 21 0 0,-6 7-42 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 24 0 0,0 3 18 0 0,-1 3-28 0 0,1 0-1 0 0,-1-1 1 0 0,-3 11-1 0 0,3-10-7 0 0,-2 6 35 0 0,3-12-53 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-4 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,4-4 13 0 0,9-17 3 0 0,-10 16-9 0 0,6-10 0 0 0,-5 6-2 0 0,11-20 27 0 0,-12 23-23 0 0,-2 4 4 0 0,0 0 0 0 0,3-5 0 0 0,-3 6 5 0 0,1 0 11 0 0,-2 1-28 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 7 42 0 0,0-2-30 0 0,0 7 0 0 0,-2 16 30 0 0,1-15-30 0 0,-3 20 37 0 0,4-26-47 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,1 12 1 0 0,-2-17-3 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,2 1 0 0 0,-2-3-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 0 0 0,2-1 0 0 0,-2 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,2 0 0 0 0,-2-1 0 0 0,1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,3-2 0 0 0,-2 1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,2-3 0 0 0,-1 2 0 0 0,3-5 0 0 0,-1 1 0 0 0,4-9 0 0 0,-3 5 0 0 0,3-16 0 0 0,-5 17 0 0 0,-1 0 0 0 0,0-17 0 0 0,-2 9 0 0 0,0 9 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-6-11 0 0 0,4 9 0 0 0,-1 1 0 0 0,-11-15 0 0 0,10 15 0 0 0,-2 0 0 0 0,-8-8 0 0 0,11 13 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-8-3 0 0 0,3 2 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-18-2 0 0 0,13 3 6 0 0,-1 1 0 0 0,1 0 1 0 0,-17 2-1 0 0,-54 10 18 0 0,62-5-12 0 0,-38 12 0 0 0,9 3 24 0 0,-62 35 0 0 0,59-23-9 0 0,2 4 9 0 0,-21 21 7 0 0,51-38-29 0 0,5-5 10 0 0,-24 29 0 0 0,-7 14 39 0 0,41-47-42 0 0,1 0 1 0 0,-9 17-1 0 0,14-22 1 0 0,-1 2 0 0 0,2-2 1 0 0,-1 1-1 0 0,0 1 0 0 0,-2 13 0 0 0,5-18-14 0 0,0-1 1 0 0,0 2-1 0 0,0-1 0 0 0,0-1 0 0 0,0 2 1 0 0,0-2-1 0 0,1 1 0 0 0,-1 0 1 0 0,2 3-1 0 0,0-3 8 0 0,-2-1 1 0 0,2 1-1 0 0,-2-1 1 0 0,2 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,2 2-1 0 0,1 0 40 0 0,1 0 0 0 0,6 3 0 0 0,-8-5-33 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,4 2-1 0 0,3-1 54 0 0,24 1-1 0 0,12-4 50 0 0,-42 0-109 0 0,59-6 110 0 0,78-25 66 0 0,12-4-34 0 0,-127 29-133 0 0,32-7 32 0 0,-28 9-30 0 0,71-12 54 0 0,-73 13-59 0 0,46-1 0 0 0,-70 5-20 0 0,7 0 12 0 0,16 2-1 0 0,-3 3-10 0 0,-24-4-3 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,3 1 0 0 0,8 7 3 0 0,-12-9-4 0 0,-1 1 0 0 0,2 0 0 0 0,-2 0 0 0 0,2 0 0 0 0,-2-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-2 0 0 0,0 2 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-2 0 0 0,0 2 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1-2 0 0 0,1 2 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-4 3 0 0 0,-2 2 0 0 0,-14 11 0 0 0,-25 16 0 0 0,-2-3 0 0 0,34-23 0 0 0,-50 29 0 0 0,-3-5 0 0 0,27-12 0 0 0,-54 23 0 0 0,60-28 0 0 0,-25 10 0 0 0,32-14 1 0 0,-69 27 6 0 0,-33 7 17 0 0,111-41-11 0 0,-1 1 0 0 0,-32 2 1 0 0,48-7-10 0 0,0-1 0 0 0,0 0 1 0 0,-8-1-1 0 0,11 1-3 0 0,-1 0 1 0 0,0-1-1 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,-2-2 0 0 0,2 3 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-2 0 0 0,0 2 1 0 0,1-1-1 0 0,-1-1 0 0 0,1 2 1 0 0,0-2-1 0 0,0 2 0 0 0,0-2 1 0 0,0 2-1 0 0,0-2 0 0 0,0 2 1 0 0,0-2-1 0 0,0 2 0 0 0,0-3 1 0 0,0 0 2 0 0,2 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,2-3 0 0 0,3-4 0 0 0,-1 1 1 0 0,2 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,13-10 1 0 0,-10 10-3 0 0,18-15-2 0 0,19-18 0 0 0,7-2 0 0 0,48-33-24 0 0,-73 56 16 0 0,25-15-20 0 0,1 2 0 0 0,-16 10 12 0 0,111-65-136 0 0,-75 48 34 0 0,-11 6 28 0 0,1 3 2 0 0,-9 6-58 0 0,-32 12 68 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1">594 301 8240 0 0,'0'0'0'0'0,"10"-7"0"0"0,0 0 0 0 0,1-1 88 0 0,0 3 8 0 0,2-2-8 0 0,1 3 16 0 0,-1-2-48 0 0,-2 0 0 0 0,0 0 8 0 0,2 0 0 0 0,-1 1 80 0 0,0 0 8 0 0,0 0-8 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2">785 230 4416 0 0,'0'0'0'0'0,"5"-3"0"0"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3">929 329 1200 0 0,'0'0'0'0'0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -6006,8 +6520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -6682,7 +7196,7 @@
     </row>
     <row r="45" spans="1:5" ht="90" x14ac:dyDescent="0.5">
       <c r="A45" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B45" s="2">
         <v>44395</v>
@@ -6691,13 +7205,13 @@
         <v>5</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5" ht="60" x14ac:dyDescent="0.5">
       <c r="A46" s="1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2">
         <v>44396</v>
@@ -6706,28 +7220,28 @@
         <v>5</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5" ht="120" x14ac:dyDescent="0.5">
       <c r="A47" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2">
         <v>44396</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5" ht="75" x14ac:dyDescent="0.5">
       <c r="A48" s="1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B48" s="2">
         <v>44397</v>
@@ -6736,13 +7250,13 @@
         <v>5</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5" ht="120" x14ac:dyDescent="0.5">
       <c r="A49" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2">
         <v>44397</v>
@@ -6751,13 +7265,13 @@
         <v>12</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.5">
       <c r="A50" s="1" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2">
         <v>44398</v>
@@ -6766,13 +7280,13 @@
         <v>5</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5" ht="120" x14ac:dyDescent="0.5">
       <c r="A51" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2">
         <v>44398</v>
@@ -6781,13 +7295,13 @@
         <v>12</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:5" ht="60" x14ac:dyDescent="0.5">
       <c r="A52" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="B52" s="2">
         <v>44399</v>
@@ -6796,13 +7310,13 @@
         <v>10</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E52" s="1"/>
     </row>
     <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.5">
       <c r="A53" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B53" s="2">
         <v>44400</v>
@@ -6811,13 +7325,13 @@
         <v>5</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E53" s="1"/>
     </row>
     <row r="54" spans="1:5" ht="60" x14ac:dyDescent="0.5">
       <c r="A54" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2">
         <v>44400</v>
@@ -6826,13 +7340,13 @@
         <v>5</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E54" s="1"/>
     </row>
     <row r="55" spans="1:5" ht="120" x14ac:dyDescent="0.5">
       <c r="A55" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2">
         <v>44401</v>
@@ -6841,43 +7355,83 @@
         <v>10</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.5">
-      <c r="A56" s="1"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+    <row r="56" spans="1:5" ht="75" x14ac:dyDescent="0.5">
+      <c r="A56" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" s="2">
+        <v>44401</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.5">
-      <c r="A57" s="1"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.5">
+      <c r="A57" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" s="2">
+        <v>44401</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.5">
-      <c r="A58" s="1"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+    <row r="58" spans="1:5" ht="45" x14ac:dyDescent="0.5">
+      <c r="A58" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" s="2">
+        <v>44402</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.5">
-      <c r="A59" s="1"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+    <row r="59" spans="1:5" ht="75" x14ac:dyDescent="0.5">
+      <c r="A59" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" s="2">
+        <v>44402</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.5">
-      <c r="A60" s="1"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.5">
+      <c r="A60" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B60" s="2">
+        <v>44402</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.5">
